--- a/output/Total_time_range_data/江西省/萍乡市_学习考察.xlsx
+++ b/output/Total_time_range_data/江西省/萍乡市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5694 +436,6230 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>120</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>吉安市</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F3%2F5%2Fart_5533_1168040.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%90%89%E5%AE%89%E5%B8%82%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E7%BB%84%E5%88%B0%E7%BB%8F%E5%BC%80%E5%8C%BA%E8%80%83%E5%AF%9F%E4%BA%A4%E6%B5%81</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['3月3日，吉安市人力资源和社会保障局副局长李阳明率学习考察组到经开区进行考察交流，区党工委委员、党群工作部部长段练陪同。', '座谈会上，段练对吉安市学习考察组一行的到来表示热烈欢迎，并简要介绍经开区区情、近年来经济社会发展以及体制机制改革情况，希望双方进一步加强沟通，尤其是在人事薪酬制度改革、人才工作、绩效管理工作等方面互相学习交流。', '考察团一行对经开区人事薪酬制度改革、人才工作、绩效管理工作取得的成效给予高度评价。考察组表示，此次学习考察收获很大，萍乡经开区在组织架构、人事管理、平台构建等方面的经验，为吉安市开发区的发展提供了很好的借鉴，希望通过此次考察，增进两地友谊，加强交流合作，相互学习提高。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>120</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>学习先进经验深化赣湘合作推动协同发展我市</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-07-07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F7%2F7%2Fart_322_1130136.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AD%A6%E4%B9%A0%E5%85%88%E8%BF%9B%E7%BB%8F%E9%AA%8C%20%E6%B7%B1%E5%8C%96%E8%B5%A3%E6%B9%98%E5%90%88%E4%BD%9C%20%E6%8E%A8%E5%8A%A8%E5%8D%8F%E5%90%8C%E5%8F%91%E5%B1%95%20%E6%88%91%E5%B8%82%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E5%9B%A2%E8%B5%B4%E9%95%BF%E6%B2%99%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 图片新闻 学习先进经验 深化赣湘合作 推动协同发展 我市学习考察团赴长沙学习考察', '赣湘情、一家亲。7月6日，萍乡市学习考察团启程赴湖南长株潭学习考察，贯彻落实湘赣边区域合作示范区建设推进大会精神，学习借鉴长株潭产业发展、城市建设等方面的先进经验，抢抓发展机遇，对接长株潭都市圈，深化赣湘合作交流，以“敢为人先、争当标杆”的气魄担当，奋力推进内陆开放赣湘合作核心区建设。当日，考察团在长沙市学习考察。湖南省委常委、长沙市委书记吴桂英，长沙市委副书记、市长郑建新陪同考察或出席座谈会。市委书记陈敏，市委副书记、市长刘烁率团学习考察。', '总建筑面积77万平方米,生产车间面积65万平方米，14个月建成投产，创造了“长沙速度”。在长沙惠科光电有限公司，考察团一行走进企业展厅、生产车间，详细听取企业第8.6代超高清新型显示器件生产线情况介绍。企业建设速度、发展规模、科技创新水平，令人震撼。大家认为企业的发展之道、管理之道、创新之道值得学习借鉴。要进一步解放思想，开拓创新，以“等不起”的紧迫感、“慢不得”的责任感、“坐不住”的使命感、“赶不上”的危机感,紧盯强攻产业、主攻工业不动摇,加快推进产业转型升级。要学习借鉴长沙市“周通报、月调度、季讲评、半年度考核、年度观摩”制度，推动重大项目快建设、快达效。', '博世汽车部件（长沙）有限公司是湖南首家工业4.0示范企业，有70%生产线互联、95%供应链互联。走进博世汽车部件（长沙）有限公司工业4.0展厅、生产车间，自动化水平、人工智能应用，让考察团成员大开眼界、获益匪浅。大家表示，要学习长沙市推进制造业数字化、智能化发展的好经验好做法，深入推进数字经济“一号发展工程”，引导传统产业加快转型升级，推动工业企业数字化转型、技术创新、绿色化改造,提升企业智能化、数字化水平，以数字经济推动产业结构优化升级，推动数字技术与实体经济深度融合，带动产业向中高端迈进。', '走进三一集团智能化车间，机械臂挥舞，AGV自动化物料运输小车来回穿梭，车间里机器人比工人忙碌。三一集团秉持“创建一流企业，造就一流人才，做出一流贡献”的发展理念，每年将销售收入的5%投入研发创新能力建设。考察团成员走进企业展厅、智能化车间，边听边看、边走边问，深入了解企业转型发展、科技研发、人才引进等情况。三一集团坚持创新驱动引领转型升级，在研发投入上大魄力、大手笔，令人折服。大家表示，要学习企业几十年如一日坚定不移走转型发展之路的精神，以一任接着一任干、一张蓝图绘到底的韧劲，推进国家产业转型升级示范区建设，努力实现产业升级美。要大力推进萍乡（长沙）科创中心建设步伐，尽快实现“引才在长沙，用才在萍乡；研发在长沙，生产在萍乡；孵化在长沙，加速在萍乡”。', '从湘春路走进西园北里历史步道，灰墙青瓦、麻石小路，让人即刻从繁华都市进入昔时长沙的精致风韵，令考察团成员流连忘返。大家对长沙市坚持“四精五有”理念，推进城市更新给予高度肯定，表示要学习长沙市推进城市更新的好经验好做法，按照“整体修旧如旧，局部修新如旧，细节修旧如新”的要求，推进历史文化街区改造，让老街巷、老建筑重现昔日风采，扮靓城市颜值，留住城市记忆。', '圣湘生物科技股份有限公司是国家基因检测技术应用示范中心、感染性疾病及肿瘤基因诊断技术国家地方联合工程研究中心。考察团一行详细了解企业发展历程、企业文化、研发专利、产品板块等，为企业在抗击新冠肺炎疫情中作出的突出贡献点赞。大家表示，要大力支持和鼓励我市企业参与长沙制造业产业链供应链协作配套，在高端装备制造、新一代信息技术产业、新材料、生物医药等产业领域实现技术服务共享。', '在中联重科环境产业有限公司，考察团一行参观企业展厅，观摩智能环卫装备演示，对企业依托环卫装备领域的优势，打造前端分类、中端收集、后端处理的闭环产业链给予肯定。大家认为，长沙市以“1+2+N”先进制造业集群和22条产业链为着力点，引进培育特色优势项目，形成产业“链群配”效应的经验做法值得萍乡学习借鉴。萍乡要聚焦“1+2+N”产业体系，围绕产业链招商，进一步延链补链强链。', '吴桂英欢迎萍乡市党政考察团来长沙考察。她指出，萍乡与长沙同属荆楚大地，同为长江水系，自古以来联系密切、感情深厚。当前，两地共同迎来长江经济带、长江中游城市群建设，中部地区高质量发展和湘赣边区域合作示范区建设等重大发展机遇。特别是近年来，萍乡主动融入长株潭都市圈，积极构筑湘赣合作新高地，与长沙签署了共同推进区域协同发展合作备忘录，翻开了两地协同并进、共促高质量发展的新篇章。希望双方紧密携手、深化合作，加快推动基础设施互联互通、产业发展协同协作、生态环境联保联治、公共服务共建共享，加快提升协同发展水平，形成湘赣边区域合作示范效应，为区域协同发展探索新经验。', '陈敏感谢长沙市长期以来对萍乡发展给予的关心支持。他说，近年来，长沙市全面推进高质量发展，跻身特大城市行列，体现了龙头意识，展示了排头兵风采，值得萍乡学习借鉴。萍乡市要学习长沙“老大哥”抓改革发展的大格局、大视野，抓城市建设的大手笔、大气魄；学习长沙市以大项目、大集群推动产业大发展；学习长沙党员干部干事创业的大担当、大拼劲，奋力推进内陆开放赣湘合作核心区建设，积极融入长株潭都市圈，把萍乡建设成为长株潭的“后花园”。希望长沙在萍乡融入长株潭都市圈上给予更大支持，推动双方在产业深度融合上取得更大成果、公共服务共享上实现更大突破，携手续写湘赣一家亲的崭新篇章。', '长沙市领导谭勇、文树勋、陈刚、彭华松、朱东铁、刘拥兵、张能峰、周志凯、肖正波、康镇麟陪同或出席座谈会。萍乡市领导鲍峰庭、吴运波、聂晓葵、黄强、罗璇、杨博、颜小龙、刘仁羿、朱艳珍、钱彦琮参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>120</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>安源区</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-07-18</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F7%2F18%2Fart_5530_1151877.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AE%89%E6%BA%90%E5%8C%BA%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E5%9B%A2%E8%B5%B4%E6%A0%AA%E6%B4%B2%E5%B8%82%E8%8D%B7%E5%A1%98%E5%8C%BA%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡市长者专区 安源区学习考察团赴株洲市荷塘区学习考察', '为推进湘赣边区域合作示范区建设，扩大合作交流，践行优势互补、合作共赢的高质量发展理念。7月12日，区委常委、常务副区长龚云华带队赴株洲市荷塘区学习考察，荷塘区委常委、常务副区长陈柏文等热情接待。', '株洲飞鹿高新材料技术股份有限公司是国内轨道交通防腐防水材料第一股，公司拥有防水防腐保温工程专业承包一级资质，拥有核心技术12项。考察团一行走进实验室，详细听取企业相关具体情况介绍。大家认为，企业的发展思路及管理运营模式值得学习借鉴。要进一步解放思想、创新思路，明晰今后发展的方向，鼓足干劲、加压奋进，以务实高效的工作作风，不断开创高质量发展新局面。', '三一智慧钢铁城重点发展智能制造、贸易物流、产业金融三大核心产业。走进三一智慧钢铁城展厅，观看企业宣传片，听取企业相关介绍，让考察团成员开拓了见识眼界，深受触动、深受教育、深受启发、深受鼓舞，达到了学习取经、深化交流、加强合作的目的。', '走进株洲市农产品智慧冷链物流园，考察团一行了解了物流园区建筑结构、功能布局、物流运输等情况，还深入冷库现场实地察看。', '在荷塘区产业服务中心，考察团一行详细了解了荷塘区产业服务中心相关方面的具体做法及取得的成效。', '陈柏文对安源考察学习团的到来表示欢迎，并详细介绍了荷塘区在推动湘赣边区域合作方面的情况。', '龚云华对荷塘区长期以来对安源发展给予的关心支持表示感谢。他说，目前，安源区抢抓机遇主动融入推进湘赣边区域合作示范区建设，探索新路径，积极融入长株潭都市圈，加快推进区域协同发展，全区经济运行总体呈现稳中向好、好中快进的势头。安源区将把荷塘区作为对标学习的对象，一是在产业转型升级上对标补短。二是在打造科创平台上对标提升。三是在优化营商环境上对标看齐。四是在转变干部作风上对标改进。同时，也将进一步加强与荷塘区交流合作，充分借鉴荷塘区产业转型升级特色亮点、科技创新平台建设、优化营商环境改革等方面的好经验、好做法，进一步加强两地沟通、交流与合作，共同促进两地繁荣发展，共同为湘赣边区域合作示范区建设贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>120</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>武功山全域旅游</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2021-08-24</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F8%2F24%2Fart_20_1052895.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%AD%A6%E5%8A%9F%E5%B1%B1%E5%85%A8%E5%9F%9F%E6%97%85%E6%B8%B8%E8%B0%83%E7%A0%94%E7%BB%84%E8%B5%B4%E7%9C%81%E5%86%85%E7%9F%A5%E5%90%8D%E6%99%AF%E5%8C%BA%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 武功山全域旅游调研组赴省内知名景区学习考察', '8月21-23日，为学习借鉴省内各地全域旅游建设管理等方面的先进经验和做法，加快推进武功山全域旅游发展特色区建设，萍乡武功山风景名胜区全域旅游调研工作组赴婺源、资溪、三清山等地考察学习，开展深入调研交流。', '考察组一行在婺源、资溪、三清山等景区相关同志的陪同介绍下，围绕国家全域旅游示范区创建标准中的5A级景区、精品民宿、乡村旅游点、游客集散中心等重点内容进行深入调研，详细了解了当地人文历史、演艺进景区、非遗进景区、文创产品开发及文旅融合等情况。', '考察组一路看，一路学，一路问，就景区相关创建方式方法与各方进行深入交流，学习讨论，为武功山发展积累宝贵经验。', '调研组一行还利用晚上的时间，与上饶葛仙村营销负责人进行深入交流，召开座谈会，学习交流度假区营销工作经验和优秀做法。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>120</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>市科技局刘运成局长率队赴南昌</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2019-02-28</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F2%2F28%2Fart_3811_740280.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E7%A7%91%E6%8A%80%E5%B1%80%E5%88%98%E8%BF%90%E6%88%90%E5%B1%80%E9%95%BF%E7%8E%87%E9%98%9F%E8%B5%B4%E5%8D%97%E6%98%8C%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['为加快推进我市创新中心建设，提升我市科技创新公共服务平台运营能力，2月21日，市科技局局长刘运成率队赴南昌学习考察，副局长彭春涛、副调研员贺国朝、相关科室以及上栗县科技局负责同志一行8人参加学习考察活动。南昌市科技局党组书记刘志勇、局长李淑英陪同考察座谈。', '刘运成局长率队先后考察了南昌高新区和南昌科技广场建设情况，随后双方进行了座谈交流。南昌市科技局刘志勇书记主持座谈交流会，李淑英局长从建设背景、目标定位、建设过程以及体会等四个方面详细介绍了南昌市科技局搭建科技创新公共服务平台的情况。', '座谈会上，双方进行了充分的沟通交流，并表示建立双方科技创新管理工作合作机制，共同提升创新型城市建设水平。此次学习考察，为我市顺利搭建科技创新公共服务平台学习到宝贵的经验做法。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>120</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>学习先进经验深化赣湘合作推动协同发展萍乡市</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F7%2F8%2Fart_5533_1151975.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AD%A6%E4%B9%A0%E5%85%88%E8%BF%9B%E7%BB%8F%E9%AA%8C%20%E6%B7%B1%E5%8C%96%E8%B5%A3%E6%B9%98%E5%90%88%E4%BD%9C%20%E6%8E%A8%E5%8A%A8%E5%8D%8F%E5%90%8C%E5%8F%91%E5%B1%95%20%E8%90%8D%E4%B9%A1%E5%B8%82%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E5%9B%A2%E8%B5%B4%E9%95%BF%E6%B2%99%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 学习先进经验 深化赣湘合作 推动协同发展 萍乡市学习考察团赴长沙学习考察', '赣湘情、一家亲。7月6日，萍乡市学习考察团启程赴湖南长株潭学习考察，贯彻落实湘赣边区域合作示范区建设推进大会精神，学习借鉴长株潭产业发展、城市建设等方面的先进经验，抢抓发展机遇，对接长株潭都市圈，深化赣湘合作交流，以“敢为人先、争当标杆”的气魄担当，奋力推进内陆开放赣湘合作核心区建设。当日，考察团在长沙市学习考察。湖南省委常委、长沙市委书记吴桂英，长沙市委副书记、市长郑建新陪同考察或出席座谈会。市委书记陈敏，市委副书记、市长刘烁率团学习考察。', '总建筑面积77万平方米,生产车间面积65万平方米，14个月建成投产，创造了“长沙速度”。在长沙惠科光电有限公司，考察团一行走进企业展厅、生产车间，详细听取企业第8.6代超高清新型显示器件生产线情况介绍。企业建设速度、发展规模、科技创新水平，令人震撼。大家认为企业的发展之道、管理之道、创新之道值得学习借鉴。要进一步解放思想，开拓创新，以“等不起”的紧迫感、“慢不得”的责任感、“坐不住”的使命感、“赶不上”的危机感,紧盯强攻产业、主攻工业不动摇,加快推进产业转型升级。要学习借鉴长沙市“周通报、月调度、季讲评、半年度考核、年度观摩”制度，推动重大项目快建设、快达效。', '博世汽车部件（长沙）有限公司是湖南首家工业4.0示范企业，有70%生产线互联、95%供应链互联。走进博世汽车部件（长沙）有限公司工业4.0展厅、生产车间，自动化水平、人工智能应用，让考察团成员大开眼界、获益匪浅。大家表示，要学习长沙市推进制造业数字化、智能化发展的好经验好做法，深入推进数字经济“一号发展工程”，引导传统产业加快转型升级，推动工业企业数字化转型、技术创新、绿色化改造,提升企业智能化、数字化水平，以数字经济推动产业结构优化升级，推动数字技术与实体经济深度融合，带动产业向中高端迈进。', '走进三一集团智能化车间，机械臂挥舞，AGV自动化物料运输小车来回穿梭，车间里机器人比工人忙碌。三一集团秉持“创建一流企业，造就一流人才，做出一流贡献”的发展理念，每年将销售收入的5%投入研发创新能力建设。考察团成员走进企业展厅、智能化车间，边听边看、边走边问，深入了解企业转型发展、科技研发、人才引进等情况。三一集团坚持创新驱动引领转型升级，在研发投入上大魄力、大手笔，令人折服。大家表示，要学习企业几十年如一日坚定不移走转型发展之路的精神，以一任接着一任干、一张蓝图绘到底的韧劲，推进国家产业转型升级示范区建设，努力实现产业升级美。要大力推进萍乡（长沙）科创中心建设步伐，尽快实现“引才在长沙，用才在萍乡；研发在长沙，生产在萍乡；孵化在长沙，加速在萍乡”。', '从湘春路走进西园北里历史步道，灰墙青瓦、麻石小路，让人即刻从繁华都市进入昔时长沙的精致风韵，令考察团成员流连忘返。大家对长沙市坚持“四精五有”理念，推进城市更新给予高度肯定，表示要学习长沙市推进城市更新的好经验好做法，按照“整体修旧如旧，局部修新如旧，细节修旧如新”的要求，推进历史文化街区改造，让老街巷、老建筑重现昔日风采，扮靓城市颜值，留住城市记忆。', '圣湘生物科技股份有限公司是国家基因检测技术应用示范中心、感染性疾病及肿瘤基因诊断技术国家地方联合工程研究中心。考察团一行详细了解企业发展历程、企业文化、研发专利、产品板块等，为企业在抗击新冠肺炎疫情中作出的突出贡献点赞。大家表示，要大力支持和鼓励我市企业参与长沙制造业产业链供应链协作配套，在高端装备制造、新一代信息技术产业、新材料、生物医药等产业领域实现技术服务共享。', '在中联重科环境产业有限公司，考察团一行参观企业展厅，观摩智能环卫装备演示，对企业依托环卫装备领域的优势，打造前端分类、中端收集、后端处理的闭环产业链给予肯定。大家认为，长沙市以“1+2+N”先进制造业集群和22条产业链为着力点，引进培育特色优势项目，形成产业“链群配”效应的经验做法值得萍乡学习借鉴。萍乡要聚焦“1+2+N”产业体系，围绕产业链招商，进一步延链补链强链。', '吴桂英欢迎萍乡市党政考察团来长沙考察。她指出，萍乡与长沙同属荆楚大地，同为长江水系，自古以来联系密切、感情深厚。当前，两地共同迎来长江经济带、长江中游城市群建设，中部地区高质量发展和湘赣边区域合作示范区建设等重大发展机遇。特别是近年来，萍乡主动融入长株潭都市圈，积极构筑湘赣合作新高地，与长沙签署了共同推进区域协同发展合作备忘录，翻开了两地协同并进、共促高质量发展的新篇章。希望双方紧密携手、深化合作，加快推动基础设施互联互通、产业发展协同协作、生态环境联保联治、公共服务共建共享，加快提升协同发展水平，形成湘赣边区域合作示范效应，为区域协同发展探索新经验。', '陈敏感谢长沙市长期以来对萍乡发展给予的关心支持。他说，近年来，长沙市全面推进高质量发展，跻身特大城市行列，体现了龙头意识，展示了排头兵风采，值得萍乡学习借鉴。萍乡市要学习长沙“老大哥”抓改革发展的大格局、大视野，抓城市建设的大手笔、大气魄；学习长沙市以大项目、大集群推动产业大发展；学习长沙党员干部干事创业的大担当、大拼劲，奋力推进内陆开放赣湘合作核心区建设，积极融入长株潭都市圈，把萍乡建设成为长株潭的“后花园”。希望长沙在萍乡融入长株潭都市圈上给予更大支持，推动双方在产业深度融合上取得更大成果、公共服务共享上实现更大突破，携手续写湘赣一家亲的崭新篇章。', '长沙市领导谭勇、文树勋、陈刚、彭华松、朱东铁、刘拥兵、张能峰、周志凯、肖正波、康镇麟陪同或出席座谈会。萍乡市领导鲍峰庭、吴运波、聂晓葵、黄强、罗璇、杨博、颜小龙、刘仁羿、朱艳珍、钱彦琮参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>120</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>先进拓思路对标找差谋发展经开区</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-01-19</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F1%2F19%2Fart_5533_1159131.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AD%A6%E4%B9%A0%E5%85%88%E8%BF%9B%E6%8B%93%E6%80%9D%E8%B7%AF%20%E5%AF%B9%E6%A0%87%E6%89%BE%E5%B7%AE%E8%B0%8B%E5%8F%91%E5%B1%95%E2%80%94%E2%80%94%E7%BB%8F%E5%BC%80%E5%8C%BA%E8%80%83%E5%AF%9F%E5%9B%A2%E8%B5%B4%E5%85%84%E5%BC%9F%E5%8E%BF%E5%8C%BA%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 学习先进拓思路 对标找差谋发展——经开区考察团赴兄弟县区考察学习', '1月17至18日，由区党政班子成员、中层领导干部组成的经开区考察团赴上栗县、湘东区、莲花县、安源区、芦溪县、武功山风景名胜区等兄弟县区考察学习。区领导邓霜丰、贾燕春、李宝仔、宁洁、曾育平参加考察。', '在为期2天的考察学习中，考察团一行先后深入到上栗县睿尚光电、佳禾电声，湘东区包装工业设计研发中心、和平农场农旅综合体，莲花县初心茶园、祥威金属新材料，安源区金桥焊材三期、凯天电力，芦溪县科济超导通讯、鹏宇管业，武功山茅店白鹭天堂、万龙山璞园温泉酒店等地进行参观考察，近距离观摩学习兄弟县区在产业转型、项目建设、旅游发展等方面的新理念、好经验、好做法。', '每到一处，大家都认真听取项目负责人关于项目建设情况以及项目在引进、落地、建设中主要做法的介绍，深入了解各重点项目的投资数额、厂区规划、主要产品、市场前景等情况。认真听、仔细看、一路学，一路议。大家纷纷表示，兄弟县区在重点项目建设上思路清晰、措施得力、成效显著。通过此次考察学习，既认清了差距，拓展了思路，也明确了方向，坚定了加快发展的信心和决心。在今后的工作中，将认真学习借鉴各兄弟县区推进项目建设的宝贵经验和先进做法，坚定不移发展工业经济，加大重点项目建设力度，以“时不待我只争朝夕”的工作态度，抢抓机遇、应对挑战、破解难题，全力推进“六新经开”建设，为奋力推进“五区”建设、打造“最美转型城市”贡献经开力量。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>120</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>工作动态丨湘东区文广新旅局赴醴陵</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F3%2F14%2Fart_5533_1318007.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B7%A5%E4%BD%9C%E5%8A%A8%E6%80%81%E4%B8%A8%E6%B9%98%E4%B8%9C%E5%8C%BA%E6%96%87%E5%B9%BF%E6%96%B0%E6%97%85%E5%B1%80%E8%B5%B4%E9%86%B4%E9%99%B5%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['他山之石，可以攻玉。3月13日下午，湘东区文广新旅局党组书记、局长文英率队赴醴陵市文旅广体局开展学习考察。重点学习当地在文化产业发展、文旅活动策划、文旅宣传推广、景区景点业态运营、文化街区建设打造、行业规范管理、文旅产业发展政策、文旅协会作用发挥等有关方面的好理念、好经验、好做法，进一步解放思想，开拓视野，鼓足干劲，为湘东文旅高质量发展注入新动能。局班子成员、股室长一行17人参加。醴陵市文旅广体局党组成员刘亮、副局长朱万青、旅游协会秘书长黄海燕陪同。', '学习考察组实地走访参观了醴陵陶瓷博物馆、瓷器口、非遗传承基地、陶润会、一江两岸等地，通过听讲解、提问题等方式，详细了解醴陵文旅在强化品牌意识、实施品牌战略，用好丰富的历史、人文及产业资源、打造“千年瓷都·天下醴陵”城市品牌等方面的典型做法和成功经验。', '座谈会上，文英认真听取了醴陵文旅广体局党组成员刘亮、旅游协会秘书长黄海燕介绍醴陵文旅融合经验做法。醴陵通过推出文旅融合八条措施，成立文旅大联盟，将涵盖陶瓷企业在内的吃住行游娱购六大行业300多家经营主体，以及陶瓷、旅游、餐饮、自媒体等行业协会，通过对外推广交流、组合产品发布等手段全要素、多途径丰富品牌宣传。组建醴陵文旅推荐官、志愿服务组等团体，发动全社会参与，打造“千年瓷都·天下醴陵”城市品牌。', '文英听完介绍后表示：非常感谢醴陵文旅广体局对此次学习考察的高度重视，此次学习考察，虽然时间短，但收获颇丰，是一次更新观念之行、也是一次学经验找办法之行，希望继续加强赣湘两地合作与交流，在推动文旅产业发展、旅游景点开发、旅游线路拓展、文化旅游宣传、文创产品打造、客源互送合作，串线引流协同发展等方面实现资源互补、产业共兴。', '通过此次外出学习，大家纷纷表示，将认真学习借鉴，尽快消化吸收，变触动为行动、变压力为动力，以学促思、以思促行，把学习成果转化为推动湘东文旅产业高质量发展的火热实践。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>120</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>市公安局组织赴南昌市公安局</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2019-05-17</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F5%2F17%2Fart_3811_736546.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%85%AC%E5%AE%89%E5%B1%80%E7%BB%84%E7%BB%87%E8%B5%B4%E5%8D%97%E6%98%8C%E5%B8%82%E5%85%AC%E5%AE%89%E5%B1%80%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['为深入学习贯彻习近平总书记在全国公安工作会议上的重要讲话精神，决战全市三年大变样，对标先进、寻找差距，5月13日，副市长、公安局长袁志坚率市公安局中层以上干部赴南昌市公安局学习考察。', '省厅党委委员、南昌市副市长、公安局长万秀奇，南昌市公安局局领导徐十斗、郑义端、赵和平参加学习考察。', '考察团实地参观了南昌市公安局西客站派出所“3+3”联勤、南站派出所网格化融警、智慧交通、秋水广场5G+VR智慧安防、红谷凯旋VR智慧小区、新建分局执法办案中心、沙井派出所融调解、市局视频云中心、扫黑除恶等工作。每到一处，考察团成员都认真听、仔细记，不时拿起手中的相机、手机拍照记录各地先进经验和创新做法，大家一路学、一路议，通过学习考察找到了标杆，明确了努力方向。', '红谷滩分局西客站派出所坚持“体制不变机制变”，打造集综合调度、治安管理、巡逻防范加反恐处突、交通秩序管理、客运秩序管理的“3+3”联勤执法警务一体化运行模式的治安派出所，通过打破警种壁垒，发挥警种优势，统一指挥、融警运行，创造了良好的治安、交通和客运环境。', '西湖分局南站派出所创新推出“1+N”网格化融警机制，将派出所分为“四大网格”实行“小单元”作战，以社区民警为支撑，推动所队、行业、综治融警，实现了警力、民力资源的最大释放。', '南昌市智慧交通指挥系统通过“两个中心（指挥中心、数据中心）、两个平台（集成指挥平台、大数据分析研判平台）”，结合“互联网+”思维，打造出符合南昌市交通管理实战的智慧管理体系，充分保障了交通安全、提升了交通系统运行效率和管理水平、改善了城市交通环境。', '秋水广场智能安防管控系统 秋水广场VR智能安防管控系统运用5G、VR技术、大数据技术、AI人工智能技术，以裸眼VR、360°全景形式呈现周边实景情况，准确预警周边的人流、车流，实现精准指挥调度，为群众创造一个安全舒适的娱乐休闲环境，开创了VR技术在安防行业应用之先河。', '秋水广场VR智能安防管控系统运用5G、VR技术、大数据技术、AI人工智能技术，以裸眼VR、360°全景形式呈现周边实景情况，准确预警周边的人流、车流，实现精准指挥调度，为群众创造一个安全舒适的娱乐休闲环境，开创了VR技术在安防行业应用之先河。', '新建分局办案中心 新建分局在借鉴外省市建设经验基础上，在原执法办案中心和案管中心基础上进行全面升级改造，实现一站式办案、精细化服务、智能化管理、全流程监督，提升了执法规范化水平。', '新建分局在借鉴外省市建设经验基础上，在原执法办案中心和案管中心基础上进行全面升级改造，实现一站式办案、精细化服务、智能化管理、全流程监督，提升了执法规范化水平。', '沙井派出所融调解 红谷滩分局沙井派出所以‘融警’理念来做实基层警务工作，融合律师、司法员、调解员等多方力量，打造“四维一体”一站式调解中心，全面提升了化解实效和执法公信力，得到了辖区群众高度赞誉。', '红谷滩分局沙井派出所以‘融警’理念来做实基层警务工作，融合律师、司法员、调解员等多方力量，打造“四维一体”一站式调解中心，全面提升了化解实效和执法公信力，得到了辖区群众高度赞誉。', '红谷凯旋VR智慧小区 红谷滩分局以继承和发扬“枫桥经验”为出发点，运用VR、大数据、人工智能等信息化技术手段，创新搭建VR智慧社区警务管理服务平台，全力打造了融智慧、幸福、平安为一体的住宅小区综合治理服务样板。', '红谷滩分局以继承和发扬“枫桥经验”为出发点，运用VR、大数据、人工智能等信息化技术手段，创新搭建VR智慧社区警务管理服务平台，全力打造了融智慧、幸福、平安为一体的住宅小区综合治理服务样板。', '南昌市局视频云中心 南昌市公安局“视频云中心”投资2亿元，占地3600余平方，是全省第一家、全国一流的专业视频云中心，具有“统一管理、集中存储、智能采集、智能分析、智能应用”五大功能，实行24小时值班制度，承担全市公共安全视频监控建设联网应用示范城市的建设、管理、维护、应用、服务工作任务。', '南昌市公安局“视频云中心”投资2亿元，占地3600余平方，是全省第一家、全国一流的专业视频云中心，具有“统一管理、集中存储、智能采集、智能分析、智能应用”五大功能，实行24小时值班制度，承担全市公共安全视频监控建设联网应用示范城市的建设、管理、维护、应用、服务工作任务。', '南昌市局扫黑办 南昌市公安局集中全警力量、智慧、资源，精心打造了全市公安机关扫黑除恶工作的司令部、参谋部——南昌市公安局扫黑办。扫黑办组建以来始终践行着最高的标准、最严的要求、最大的投入、最强的动员，4月18日上午，中央扫黑除恶专项斗争第15督导组组长支树平同志调研督导时，称赞南昌市公安局扫黑办是“最强的扫黑办”。 在随后召开的两地公安机关工作交流座谈会上，南昌市局党委副书记、常务副局长徐十斗同志介绍相关工作情况，双方进行了讨论交流。 万秀奇指出，当前全国公安机关正在掀起学习习近平总书记在全国公安工作会议讲话精神的热潮，萍乡、南昌两地公安学习交流、相互借鉴，是贯彻落实习近平总书记重要讲话的有力举措。习近平总书记在讲话中充分肯定了十八大以来的公安工作，对公安工作有了更高的要求和更多的期望，我们要深入学习贯彻习近平总书记重要讲话精神，坚持政治建警、改革强警、科技兴警、从严治警，以做好新中国成立70周年大庆安保维稳工作为主线，坚持体制不变机制变，大抓大数据应用，大抓基层大抓基础，用融警机制破解当前的突出问题，最大限度提升公安工作质效，不断推动公安工作跨越发展，以优异成绩向新中国成立70周年献礼。 袁志坚用感谢、震撼、不吝赐教三个词概括了观摩团此次学习考察感受。他对南昌市局细致、热情、周到、人性化的学习考察安排表示感谢。他说，近年来南昌市局党委立足长远发展，坚持改革兴警、数据强警，深入推进融警机制，打好了基础，做好了支撑，抓好了应用，树立了标杆，为公安工作长远发展打下坚实基础，公安工作发生了翻天覆地的变化，让我们大开眼界。萍乡公安目前正处在爬坡过坎的关键时刻，我们决不能有松口气、歇一歇的想法，要对标先进找差距，今天学习考察只是开始，今后还要组织小分队深度对接、深入学习，希望南昌市公安局不吝赐教，共同为经济社会发展做出应有贡献。', '南昌市公安局集中全警力量、智慧、资源，精心打造了全市公安机关扫黑除恶工作的司令部、参谋部——南昌市公安局扫黑办。扫黑办组建以来始终践行着最高的标准、最严的要求、最大的投入、最强的动员，4月18日上午，中央扫黑除恶专项斗争第15督导组组长支树平同志调研督导时，称赞南昌市公安局扫黑办是“最强的扫黑办”。', '在随后召开的两地公安机关工作交流座谈会上，南昌市局党委副书记、常务副局长徐十斗同志介绍相关工作情况，双方进行了讨论交流。', '万秀奇指出，当前全国公安机关正在掀起学习习近平总书记在全国公安工作会议讲话精神的热潮，萍乡、南昌两地公安学习交流、相互借鉴，是贯彻落实习近平总书记重要讲话的有力举措。习近平总书记在讲话中充分肯定了十八大以来的公安工作，对公安工作有了更高的要求和更多的期望，我们要深入学习贯彻习近平总书记重要讲话精神，坚持政治建警、改革强警、科技兴警、从严治警，以做好新中国成立70周年大庆安保维稳工作为主线，坚持体制不变机制变，大抓大数据应用，大抓基层大抓基础，用融警机制破解当前的突出问题，最大限度提升公安工作质效，不断推动公安工作跨越发展，以优异成绩向新中国成立70周年献礼。', '袁志坚用感谢、震撼、不吝赐教三个词概括了观摩团此次学习考察感受。他对南昌市局细致、热情、周到、人性化的学习考察安排表示感谢。他说，近年来南昌市局党委立足长远发展，坚持改革兴警、数据强警，深入推进融警机制，打好了基础，做好了支撑，抓好了应用，树立了标杆，为公安工作长远发展打下坚实基础，公安工作发生了翻天覆地的变化，让我们大开眼界。萍乡公安目前正处在爬坡过坎的关键时刻，我们决不能有松口气、歇一歇的想法，要对标先进找差距，今天学习考察只是开始，今后还要组织小分队深度对接、深入学习，希望南昌市公安局不吝赐教，共同为经济社会发展做出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>120</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>吉林市市直机关事务管理局来我市</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2018-03-22</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F3%2F22%2Fart_3811_739029.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%90%89%E6%9E%97%E5%B8%82%E5%B8%82%E7%9B%B4%E6%9C%BA%E5%85%B3%E4%BA%8B%E5%8A%A1%E7%AE%A1%E7%90%86%E5%B1%80%E6%9D%A5%E6%88%91%E5%B8%82%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['3月22日上午，吉林省吉林市市直机关事务管理局公车管理中心副主任刘士喜一行6人来我市学习考察公车服务中心信息化平台建设工作，市机管局党组成员、副局长张运翔同志和公车管理科科长钟志勇同志陪同考察。', '在交流座谈会上，公车管理科科长钟志勇同志向吉林市机管局考察组介绍了我市公务用车制度改革和公车服务中心近两年来的总体情况。双方就公务用车改革、公车管理、人员经费等相关问题进行了深入交流，互相学习经验。', '在交流座谈会上，公车管理科科长钟志勇同志向吉林市机管局考察组介绍了我市公务用车制度改革和公车服务中心近两年来的总体情', '况。双方就公务用车改革、公车管理、人员经费等相关问题进行了深入交流，互相学习经验。', '通过本次座谈交流，吉林市机管局考察组对我市公务用车制度改革和公车服务中心信息化平台有了详细的了解，认为我市公务用车管理运行中的一些好做法和好经验非常值得学习和借鉴，并表示将以此次学习考察为契机，相互促进，相互学习，共同提高公务用车管理服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>120</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>外出取经归来致用新泉乡开展外出</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-05-17</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F5%2F17%2Fart_20_1237038.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%A4%96%E5%87%BA%E2%80%9C%E5%8F%96%E7%BB%8F%E2%80%9D%EF%BC%8C%E5%BD%92%E6%9D%A5%E2%80%9C%E8%87%B4%E7%94%A8%E2%80%9D%EF%BC%81%E6%96%B0%E6%B3%89%E4%B9%A1%E5%BC%80%E5%B1%95%E5%A4%96%E5%87%BA%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E6%B4%BB%E5%8A%A8</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['为拓宽党员干部视野思路，激发干事创业热情，进一步推新泉乡党建引领乡村振兴全面发展。5月16日，新泉乡组织部分机关干部和各村(居)支部书记，前往兄弟乡镇考察学习。新泉乡党委副书记朱宁、党委委员李娇、综合行政执法大队队长何学普参加活动。', '学习考察团首先来到上埠镇涣山村莲心大院，听取了涣山村党支部书记关于新时代文明实践站设置制度牌、公示牌以及组织开展各类文明实践活动等情况介绍。', '随后，来到秋收起义部队更田宿营地旧址，由展览馆负责人通过展馆里大量的图片、实物向大家讲述秋收起义部队中革命先辈们的历史业绩。', '在宣风镇沂源村，学习考察团认真聆听了工作人员关于“大渡河勇士”李德才“投身革命”“长征之路”“抗日战争”“解放战争”“抗美援朝”“勇士的归宿”等分步解说，感受了革命英雄李德才戎马一生、一生向党的壮烈故事。', '在银河镇为民工作室，大家详细了解了该镇群众工作服务中心机构设置、“信访+党建”工作特色做法、人民调解工作室及在党建引领信访工作中发挥的突出作用情况。', '每到一处，学习考察团成员都仔细看、详细听，边讨论，边思考，深入了解兄弟乡镇在党建引领、“五美”乡村建设示范点、乡镇建设、环境整治、新时代文明实践站规范化建设等方面的先进做法和成功经验。', '大家一致认为，此次考察学习开阔了眼界，学到了经验，将以本次考察学习为契机，紧密结合新泉乡实际，创新工作举措，为强化党建引领乡村振兴及基层治理贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>120</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>安源区组团赴兄弟县区</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-01-19</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F1%2F19%2Fart_5530_1158397.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AE%89%E6%BA%90%E5%8C%BA%E7%BB%84%E5%9B%A2%E8%B5%B4%E5%85%84%E5%BC%9F%E5%8E%BF%E5%8C%BA%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['2021年度全市“三比三看”项目观摩活动刚结束不久，项目观摩百舸争流千帆竞发的热潮还未散去。1月18日，区委副书记、安源国家森林公园党组书记、主任刘铸率区有关部门主要负责同志以及各镇街委主要负责同志赴兄弟县（区）考察学习，区委常委、统战部部长、丹江街党委书记黄国晖一同参加。', '一路走、一路看、一路听，刘铸一行先后来到了上栗县、湘东区、芦溪县、经开区，考察学习了佳禾电声项目、联锦成项目、江西包装工业设计研发中心、华瑞新材料项目、鹏宇管业项目、天铭新能源项目、贵得液晶项目，认真考察学习各地在工业发展、产业建设等方面取得的丰硕成果。', '通过此次实地考察，大家详细了解了各兄弟县区在工业发展、产业建设等工作中的新变化、新面貌，在看中学经验、找差距、添措施，互相学习新理念、新思路。', '刘铸表示，通过此次学习考察，看到了各兄弟县区热气腾腾、日新月异的发展势头和昂扬向上、奋勇登攀的精神面貌，也感到了压力，学到了经验，收获了信心。学习考察为兄弟县区相互学习交流好的经验做法提供了很好的平台。希望大家要珍惜此次学习交流的机会，以此次考察为契机认真学习总结，把各地好的经验做法认真学习带到安源，进一步强化责任担当，抢抓机遇落实到具体行动，认真谋划2022年各项工作，开展产业链招商，加快推进重大产业项目建设，力求推动“三区同振、城乡融合”取得实质性进展，为我区经济社会高质量发展凝聚动力、凝聚力量。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>120</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>九江市机关事务管理局来我市</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2018-03-16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F3%2F16%2Fart_3811_739026.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E4%B9%9D%E6%B1%9F%E5%B8%82%E6%9C%BA%E5%85%B3%E4%BA%8B%E5%8A%A1%E7%AE%A1%E7%90%86%E5%B1%80%E6%9D%A5%E6%88%91%E5%B8%82%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['3月15日下午，九江市机关事务管理局党组成员、副调研员潘杰一行3人来我市学习考察机关食堂运行管理工作，市机管局党组成员、副局长肖亦滨同志和服务保障科科长胡卫东同志陪同考察。', '在交流座谈会上，肖亦滨同志向九江市机管局考察组介绍了我市行政中心机关食堂近两年来的总体运营情况。双方就机关食堂经营方式、日常监管、测评考核、人员管理、相关财务管理等方面进行了深入交流，互相学习经验。', '通过座谈交流，九江市机管局考察组对我市行政中心机关食堂的运行管理情况有了详细的了解，认为我市机关食堂运行管理中的一些好做法和好经验非常值得学习和借鉴，并表示将以此次学习考察为契机，相互促进，共同提高机关事务管理服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>120</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>先进经验深化赣湘合作推动协同发展萍乡市</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F7%2F8%2Fart_5530_1151770.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AD%A6%E4%B9%A0%E5%85%88%E8%BF%9B%E7%BB%8F%E9%AA%8C%20%E6%B7%B1%E5%8C%96%E8%B5%A3%E6%B9%98%E5%90%88%E4%BD%9C%20%E6%8E%A8%E5%8A%A8%E5%8D%8F%E5%90%8C%E5%8F%91%E5%B1%95%20%E8%90%8D%E4%B9%A1%E5%B8%82%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E5%9B%A2%E8%B5%B4%E9%95%BF%E6%B2%99%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡市长者专区 学习先进经验 深化赣湘合作 推动协同发展 萍乡市学习考察团赴长沙学习考察', '赣湘情、一家亲。7月6日，萍乡市学习考察团启程赴湖南长株潭学习考察，贯彻落实湘赣边区域合作示范区建设推进大会精神，学习借鉴长株潭产业发展、城市建设等方面的先进经验，抢抓发展机遇，对接长株潭都市圈，深化赣湘合作交流，以“敢为人先、争当标杆”的气魄担当，奋力推进内陆开放赣湘合作核心区建设。当日，考察团在长沙市学习考察。湖南省委常委、长沙市委书记吴桂英，长沙市委副书记、市长郑建新陪同考察或出席座谈会。市委书记陈敏，市委副书记、市长刘烁率团学习考察。', '总建筑面积77万平方米,生产车间面积65万平方米，14个月建成投产，创造了“长沙速度”。在长沙惠科光电有限公司，考察团一行走进企业展厅、生产车间，详细听取企业第8.6代超高清新型显示器件生产线情况介绍。企业建设速度、发展规模、科技创新水平，令人震撼。大家认为企业的发展之道、管理之道、创新之道值得学习借鉴。要进一步解放思想，开拓创新，以“等不起”的紧迫感、“慢不得”的责任感、“坐不住”的使命感、“赶不上”的危机感,紧盯强攻产业、主攻工业不动摇,加快推进产业转型升级。要学习借鉴长沙市“周通报、月调度、季讲评、半年度考核、年度观摩”制度，推动重大项目快建设、快达效。', '博世汽车部件（长沙）有限公司是湖南首家工业4.0示范企业，有70%生产线互联、95%供应链互联。走进博世汽车部件（长沙）有限公司工业4.0展厅、生产车间，自动化水平、人工智能应用，让考察团成员大开眼界、获益匪浅。大家表示，要学习长沙市推进制造业数字化、智能化发展的好经验好做法，深入推进数字经济“一号发展工程”，引导传统产业加快转型升级，推动工业企业数字化转型、技术创新、绿色化改造,提升企业智能化、数字化水平，以数字经济推动产业结构优化升级，推动数字技术与实体经济深度融合，带动产业向中高端迈进。', '走进三一集团智能化车间，机械臂挥舞，AGV自动化物料运输小车来回穿梭，车间里机器人比工人忙碌。三一集团秉持“创建一流企业，造就一流人才，做出一流贡献”的发展理念，每年将销售收入的5%投入研发创新能力建设。考察团成员走进企业展厅、智能化车间，边听边看、边走边问，深入了解企业转型发展、科技研发、人才引进等情况。三一集团坚持创新驱动引领转型升级，在研发投入上大魄力、大手笔，令人折服。大家表示，要学习企业几十年如一日坚定不移走转型发展之路的精神，以一任接着一任干、一张蓝图绘到底的韧劲，推进国家产业转型升级示范区建设，努力实现产业升级美。要大力推进萍乡（长沙）科创中心建设步伐，尽快实现“引才在长沙，用才在萍乡；研发在长沙，生产在萍乡；孵化在长沙，加速在萍乡”。', '从湘春路走进西园北里历史步道，灰墙青瓦、麻石小路，让人即刻从繁华都市进入昔时长沙的精致风韵，令考察团成员流连忘返。大家对长沙市坚持“四精五有”理念，推进城市更新给予高度肯定，表示要学习长沙市推进城市更新的好经验好做法，按照“整体修旧如旧，局部修新如旧，细节修旧如新”的要求，推进历史文化街区改造，让老街巷、老建筑重现昔日风采，扮靓城市颜值，留住城市记忆。', '圣湘生物科技股份有限公司是国家基因检测技术应用示范中心、感染性疾病及肿瘤基因诊断技术国家地方联合工程研究中心。考察团一行详细了解企业发展历程、企业文化、研发专利、产品板块等，为企业在抗击新冠肺炎疫情中作出的突出贡献点赞。大家表示，要大力支持和鼓励我市企业参与长沙制造业产业链供应链协作配套，在高端装备制造、新一代信息技术产业、新材料、生物医药等产业领域实现技术服务共享。', '在中联重科环境产业有限公司，考察团一行参观企业展厅，观摩智能环卫装备演示，对企业依托环卫装备领域的优势，打造前端分类、中端收集、后端处理的闭环产业链给予肯定。大家认为，长沙市以“1+2+N”先进制造业集群和22条产业链为着力点，引进培育特色优势项目，形成产业“链群配”效应的经验做法值得萍乡学习借鉴。萍乡要聚焦“1+2+N”产业体系，围绕产业链招商，进一步延链补链强链。', '吴桂英欢迎萍乡市党政考察团来长沙考察。她指出，萍乡与长沙同属荆楚大地，同为长江水系，自古以来联系密切、感情深厚。当前，两地共同迎来长江经济带、长江中游城市群建设，中部地区高质量发展和湘赣边区域合作示范区建设等重大发展机遇。特别是近年来，萍乡主动融入长株潭都市圈，积极构筑湘赣合作新高地，与长沙签署了共同推进区域协同发展合作备忘录，翻开了两地协同并进、共促高质量发展的新篇章。希望双方紧密携手、深化合作，加快推动基础设施互联互通、产业发展协同协作、生态环境联保联治、公共服务共建共享，加快提升协同发展水平，形成湘赣边区域合作示范效应，为区域协同发展探索新经验。', '陈敏感谢长沙市长期以来对萍乡发展给予的关心支持。他说，近年来，长沙市全面推进高质量发展，跻身特大城市行列，体现了龙头意识，展示了排头兵风采，值得萍乡学习借鉴。萍乡市要学习长沙“老大哥”抓改革发展的大格局、大视野，抓城市建设的大手笔、大气魄；学习长沙市以大项目、大集群推动产业大发展；学习长沙党员干部干事创业的大担当、大拼劲，奋力推进内陆开放赣湘合作核心区建设，积极融入长株潭都市圈，把萍乡建设成为长株潭的“后花园”。希望长沙在萍乡融入长株潭都市圈上给予更大支持，推动双方在产业深度融合上取得更大成果、公共服务共享上实现更大突破，携手续写湘赣一家亲的崭新篇章。', '长沙市领导谭勇、文树勋、陈刚、彭华松、朱东铁、刘拥兵、张能峰、周志凯、肖正波、康镇麟陪同或出席座谈会。萍乡市领导鲍峰庭、吴运波、聂晓葵、黄强、罗璇、杨博、颜小龙、刘仁羿、朱艳珍、钱彦琮参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>120</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>李水清赴中国长沙马栏山视频文创产业园</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-04-25</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F4%2F25%2Fart_20_1116693.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%9D%8E%E6%B0%B4%E6%B8%85%E8%B5%B4%E4%B8%AD%E5%9B%BD%EF%BC%88%E9%95%BF%E6%B2%99%EF%BC%89%E9%A9%AC%E6%A0%8F%E5%B1%B1%E8%A7%86%E9%A2%91%E6%96%87%E5%88%9B%E4%BA%A7%E4%B8%9A%E5%9B%AD%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['4月24日，区委书记李水清率队赴中国（长沙）马栏山视频文创产业园学习考察，副区长谢晖、严楠参加考察。马栏山视频文创产业园党工委委员、管委会副主任蹇桂军热情接待并陪同考察。', '李水清一行来到（长沙）马栏山视频文创园园区一楼展示厅参观，了解到马栏山是以数字视频创意为龙头，以数字视频金融服务、版权服务、软件研发等为支撑的视频产业集聚区，并参与了展示厅的文化创意项目，整个互动过程和谐而有趣。', '随后，李水清一行先后参观了长沙千博信息技术有限公司、长沙宏达威爱信息科技有限公司等文创企业，充分了解了5G应用场景以及视频产业发展趋势、手语产品等情况。', '学习考察中，李水清表示，安源区将认真学习借鉴马栏山视频文创产业园在规划建设、产业融合、科技成果转化等方面的经验做法，并结合安源实际加以吸收及创新，大力发展文化创意设计、文化旅游等产业，积极培育新型文化业态与消费模式，加快推动文化产业高质量发展。同时也将更加深入挖掘红色文化等文化资源，开发优质文创和旅游产品，着力提升品牌竞争力，抓住5G、超高清等新技术的发展机遇，推动文化产业与数字经济深度融合。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>120</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>我市组团赴吉安</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-05-17</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F5%2F17%2Fart_5532_1142896.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%88%91%E5%B8%82%E7%BB%84%E5%9B%A2%E8%B5%B4%E5%90%89%E5%AE%89%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E7%9C%81%E6%97%85%E5%8F%91%E5%A4%A7%E4%BC%9A%E7%AD%B9%E5%A4%87%E7%BB%8F%E9%AA%8C</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 部门动态 我市组团赴吉安学习考察省旅发大会筹备经验', '为做好2023年江西省旅游产业发展大会筹备工作，5月13—14日，由市政府副市长刘仁羿、朱艳珍带队，市文广新旅局、市城管局、安源国家森林公园、市投发集团、市设计集团、安源区政府、经开区管委会、萍乡武功山风景名胜区管委会等相关单位负责同志组成的考察团，赴今年省旅发大会承办地吉安市进行学习考察，学习其在筹备省旅发大会方面的好经验、好做法。吉安市政府副市长刘志斌、胡海洋，市文广新旅局、市城管局、青原区政府、安福县武功山管委会等单位负责同志先后陪同考察。', '考察团一行先后前往庐陵文化生态园、钓源古村景区、吉安智慧旅游平台、后河·梦回庐陵夜游项目、云天麓谷景区、吉州窑景区、白鹭洲书院、格兰云天国际酒店、吉安国际会展中心、羊狮慕景区（康养小镇）等地进行实地查看，大家一路走、一路看，一路听、一路议， 详细了解景区和项目的规划设计、建设运营、资金投入等情况以及吉安市承办省旅发大会的观摩线路选取、大会沿线环境提升改造、会场布置、观摩节点打造等方面的好经验、好做法，进一步找差距、谋思路、明方向。', '考察期间，大家被吉安市高站位、大手笔推进旅游产业发展的先进理念、真抓实干的工作作风深深触动。', '刘仁羿、朱艳珍要求，考察组成员要以此次学习考察为契机，认真学习借鉴吉安市承办省旅发大会的好经验、好做法，全面对标对表，以更加饱满的精神、更加扎实的作风、更加有力的措施，创新思维、担当实干，敢想敢为、善作善成，高标准做好2023年省旅发大会筹备各项工作，确保办成一届富有萍乡特色、彰显萍乡魅力的旅发大会。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>120</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>对标先进学经验</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2024-06-03</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F6%2F3%2Fart_5532_1342454.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AF%B9%E6%A0%87%E5%85%88%E8%BF%9B%E5%AD%A6%E7%BB%8F%E9%AA%8C%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0%E5%8F%96%E2%80%9C%E7%9C%9F%E7%BB%8F%E2%80%9D%20%E2%80%94%E2%80%94%E8%90%8D%E4%B9%A1%E5%B8%82%E5%86%9C%E4%B8%9A%E5%86%9C%E6%9D%91%E9%83%A8%E9%97%A8%E8%B5%B4%E8%B5%A3%E5%B7%9E%E5%B8%82%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 部门动态 对标先进学经验 考察学习取“真经” ——萍乡市农业农村部门赴赣州市考察学习', '对标先进学经验 考察学习取“真经” ——萍乡市农业农村部门赴赣州市考察学习', '为深入贯彻落实全省农业产业化高质量发展现场推进会精神，激发我市农业产业发展新活力，5月29-30日，市农业农村局党组书记、局长景国成率考察团赴赣州考察学习。市农业农村局副局长何学胜，相关科室负责同志，各县区农业农村部门主要负责同志、分管负责同志，部分企业代表等约20多人参加考察。', '考察团一行先后来到倞华菲尔雪食品有限公司、江西晟阳食品集团、江西德都食品科技公司和瑞金市聚道食品有限公司，详细了解了企业在生产经营、技术研发、产业链延伸等方面的情况，围绕企业产业化发展、品牌建设等方面进行了深入交流。', '考察团还与赣州市农业农村局进行了座谈。座谈会上，双方相互介绍了各自市情及农业产业概况。景国成对赣州市的关心和支持表示感谢，并表示，赣州近年来在农业产业化发展方面有着令人瞩目的优异成绩，这次考察的几家企业，规模大、标准高，给萍乡农业产业化发展提供了很多有益借鉴和启示。希望双方能建立更加紧密的合作关系，实现优势互补，共同推动两地农业产业的繁荣和发展。', '参加考察的企业纷纷表示，通过这次“走出来”学习，开阔了眼界，增长了见识，收获颇丰。下一步将对标赣州先进企业的标准，拓宽思路，补齐短板，提升经营管理水平和能力，更好更快地推动企业做大做强。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>120</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>县领导率队赴广西</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F9%2F1%2Fart_20_1266418.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%8E%BF%E9%A2%86%E5%AF%BC%E7%8E%87%E9%98%9F%E8%B5%B4%E5%B9%BF%E8%A5%BF%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['8月28日至30日，县委书记利军率队赴广西壮族自治区玉林市容县和柳州市鱼峰区学习考察，先后走进多家农产品生产与加工企业，调研了解现代特色农业和食品产业发展情况。县领导吴菊芳、严鹏程，杨岐山风景名胜区管委会主任黎军等参加活动。', '容县是中国沙田柚之乡，是广西第一大侨乡，获评中国最具海外影响力县、中国弯曲胶合板（弯板）之都、全国休闲农业和乡村旅游示范县等国家级荣誉。8月29日，利军一行先后来到容县的佳佳食品、沙田柚产业核心示范区、金山湖农业、高林林业、南方食养工厂等企业，实地参观朗德鹅养殖加工基地、沙田柚示范种植区、文化与产品展示厅、智能化生产车间，与容县领导干部、企业负责人深入交谈，详细了解朗德鹅精深加工业发展、沙田柚产业示范带建设、生态渔业养殖、生态板材产业发展、民营企业发展运行等情况，对容县坚持践行新发展理念，护好用好青山绿水，大力发展生态种养、食品加工、环保板材等产业，深感触动和启发。', '螺蛳粉是千百年来柳州烟火气中孕育出的特色产业。鱼峰区工业园汇聚了金嗓子、螺霸王、沪桂等众多知名企业，是全国柳州螺蛳粉最大生产基地，成为广西千亿元螺蛳粉产业主引擎。“一碗辣爽鲜酸烫的螺蛳粉是如何发展成一份产业的?为什么能够实现从‘网红’到‘长青’？螺蛳粉产业发展又是如何促进乡村振兴的？”8月30日，利军一行带着这些问题，先后来到鱼峰区的螺蛳粉产业园、兴柳食品、金嗓子、螺霸王等企业寻找答案、学习取经，看展馆、进车间、听介绍，了解螺蛳粉文化历史、工业化生产、全链条发展等情况，深刻感受到土特产乡愁情结、社交平台力量、工业化思维对螺蛳粉全产业链高质量发展发挥的重要作用，表示将认真学习借鉴，助推上栗楚山田螺、黑山羊、肉兔等优势产业全产业链升级，推动上栗县特色农业产业实现高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>120</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>市安监局局长会同有关部门赴娄底</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2013-05-25</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2013%2F5%2F25%2Fart_92_115106.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%AE%89%E7%9B%91%E5%B1%80%E5%B1%80%E9%95%BF%E4%BC%9A%E5%90%8C%E6%9C%89%E5%85%B3%E9%83%A8%E9%97%A8%E8%B5%B4%E5%A8%84%E5%BA%95%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['4月19日，局长王仁华带队，会同市运管处、上栗县花炮安监局相关人员，对娄底市“湖南省金华车辆有限公司”特种防爆车辆研发情况进行学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>120</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>学他山之石谋发展良策丨何超率队赴长沙</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F3%2F2%2Fart_20_1221982.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AD%A6%E4%BB%96%E5%B1%B1%E4%B9%8B%E7%9F%B3%20%E8%B0%8B%E5%8F%91%E5%B1%95%E8%89%AF%E7%AD%96%E4%B8%A8%E4%BD%95%E8%B6%85%E7%8E%87%E9%98%9F%E8%B5%B4%E9%95%BF%E6%B2%99%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['他山之石，可以攻玉。3月1日，区委书记何超率队赴长沙开展学习考察。重点学习当地在公铁联运降本提效有关方面的好理念、好经验、好做法，进一步解放思想，开拓视野，', '他山之石，可以攻玉。3月1日，区委书记何超率队赴长沙开展学习考察。重点学习当地在公铁联运降本提效有关方面的好理念、好经验、好做法，进一步解放思想，开拓视野，鼓足干劲，为重塑湘东工业辉煌增添新活力。副区长李波等一同参加。', '从长沙传化公路港到长沙国际铁路港，从中南国际陆港集装箱拼箱基地到长沙一力物流园，货车往来穿梭，一派繁忙景象。何超一行一路走一路看，通过听讲解、提问题等方式，详细了解园区布局、功能分区、运行业务等情况，认真学习当地在打造物流枢纽、构建智慧物流网络体系、提升综合配套服务等方面的典型做法和成功经验。', '三一智联重卡产业园内，机器高速运转，工人忙碌不停，充满生机活力。何超进展厅，看车间，详细了解智能电动重卡项目和智能装备项目情况，并与企业有关负责人就公铁联运、长途运输工作进行交流。', '学习考察期间，何超一行还来到318换电站，现场观看了电动重卡换电过程，并就新能源进行探讨。', '一天时间，行程满满，收获满满。通过此次外出学习，大家纷纷表示，将充分学习借鉴先进工作经验，结合本地实际，认真思考总结，找准自身定位，精心谋划部署，凝聚多方智慧和力量，以更高的站位、更宽的视野、更大的格局助力湘东经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>120</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>湘东区科技局赴醴陵</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-06-17</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F6%2F17%2Fart_20_1127779.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B9%98%E4%B8%9C%E5%8C%BA%E7%A7%91%E6%8A%80%E5%B1%80%E8%B5%B4%E9%86%B4%E9%99%B5%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['6月15日，区政府副区长王登辉带领科技局班子和业务骨干、工信局赴醴陵市考察学习。', '大家纷纷表示，此次考察学习开阔了眼界、增长了见识、拓展了思路、找到了自身差距，收获满满，受益匪浅。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>120</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>邱伟带队赴上饶</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-02-24</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F2%2F24%2Fart_5533_1157538.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E9%82%B1%E4%BC%9F%E5%B8%A6%E9%98%9F%E8%B5%B4%E4%B8%8A%E9%A5%B6%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['为贯彻落实双“一号工程”，深入推进我区数字经济发展，2月22日，区委副书记、区长邱伟带队赴上饶高铁经济试验区考察学习，区委常委、统战部部长黄国晖一同参加考察学习。上饶高铁经济试验区党工委副书记、管委会主任姚晗，上饶高铁经济试验区党工委委员、管委会副主任王辉等热情接待。', '邱伟一行先后来到高铁经济试验区展示中心、江西贪玩信息技术有限公司、江西傲星传媒有限公司、文创东区数字文娱产业展示中心、江西元聚网络科技有限公司 、阿里巴巴灵犀互娱、网易（上饶）数字文化创新中心、数智教育科技馆、华为江西云数据中心、中科数创园、上饶软通动力信息技术有限公司、数创公园、上饶高铁站等地进行实地参观考察，通过“看、听、访”等方式，深入考察学习上饶高铁经济试验区在数字经济工作方面的先进经验、做法和成效。', '在随后召开的座谈会上，姚晗对安源考察团的到来表示热烈欢迎，并详细介绍了上饶高铁经济试验区就如何依托区位优势，抢抓机遇，优化发展环境、集聚人才，引进和培育重大项目和重点企业等方面做了详细的介绍。', '邱伟详细介绍了安源区经济社会发展情况，他表示，此次考察学习收获颇丰，上饶高铁经济试验区的数字经济发展快、格局高，让我们看到了自己的差距，得到了许多的启示，我们将把这次考察学习到的数字经济工作的先进理念、先进经验和创新做法转化为务实举措，进一步解放思想、拓展思路，全力打造安源数字经济产业园，让数字经济进一步成为引领安源区经济发展的新引擎。希望两地能够加强沟通交流，取长补短、相互支持，助推两地数字经济携手高质量发展。', '据悉，上饶高铁经济试验区于2016年6月经省政府批复成立，辖区总面积93平方公里，核心区面积20平方公里，总人口6万人，是上饶市数字经济发展的主阵地和城市拓展的新空间。近年来，上饶高铁经济试验区数字经济呈现爆发式增长，截至2021年底，全区数字经济企业达535家，已初步形成了数字基础、数字文创、数字医疗、信息安全和数据服务、软件和信息技术服务等五大板块，拥有国家新型工业化（大数据）示范基地、江西省文化产业园区、江西省大数据科创城、江西省第三批双创示范基地、江西省第一批数字经济集聚区（数字文创）、江西省文化和科技融合示范基地等金字招牌。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>120</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>市政务服务中心赴湖南</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F10%2F20%2Fart_5532_1269759.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E6%94%BF%E5%8A%A1%E6%9C%8D%E5%8A%A1%E4%B8%AD%E5%BF%83%E8%B5%B4%E6%B9%96%E5%8D%97%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E6%94%BF%E5%8A%A1%E6%9C%8D%E5%8A%A1%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['10月11日-12日，市政务服务中心考察组在湖南省湘潭市、娄底市、衡阳市学习考察政务服务 “跨省通办”、 “一件事一次办”工作经验。', '按照市委市政府“建设赣西、长株潭城市群叠加链接区和湘赣边区域合作枢纽区”的决策部署，我市先后与湖南省株洲市、衡阳市、娄底市、湘西州、湘潭市签订了政务服务“跨省通办”合作协议，明确了政务服务“跨省通办”的通办事项、合作机制、办理方式，为推进湘赣边区域政务服务合作奠定了基础。为进一步加强与湖南省各地市政务服务工作的合作与联系，考察组先后了解了湘潭市 “一件事一次办”工作开展情况和特色事项办理流程；现场观摩了娄底市 “入学一件事”场景系统演示、体验了“湘易办”移动端办理的便利性；实地感受了衡阳市 “跨省通办”自助服务机运作流程。同时，围绕推进“一件事一次办”、行政审批制度改革以及完善政务服务线上办理渠道，推进“湘易办”与“赣服通”平台的对接等工作进行了沟通和交流。', '下一步，市政务服务中心将以此次学习考察为契机，借鉴兄弟地市的先进经验，不断夯实政务服务服务平台、完善政务服务机制、创新政务服务方式、提升政务服务能力，为打造“产业转型升级标杆城市”提供坚实的政务服务支撑。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>120</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>市政务服务中心组团赴南昌</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-08-25</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F8%2F25%2Fart_19_1142347.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E6%94%BF%E5%8A%A1%E6%9C%8D%E5%8A%A1%E4%B8%AD%E5%BF%83%E7%BB%84%E5%9B%A2%E8%B5%B4%E5%8D%97%E6%98%8C%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F12345%E7%83%AD%E7%BA%BF%E4%B8%AD%E5%BF%83%E5%BB%BA%E8%AE%BE</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 部门动态 市政务服务中心组团赴南昌学习考察12345热线中心建设', '月10日，市政务服务中心党组书记刘晓进率领萍乡市12345热线平台建设工作专班相关人员，赴南昌学习考察江西12345热线中心场地建设及运行管理工作。', '刘晓进一行实地参观了江西12345热线中心硬件环境，观看了动态监控大屏，详细了解了热线话务情况、群众诉求热点、工单办理量、成员单位诉求承办情况等。江西12345热线平台管理机构工作人员全面介绍了场地建设、系统建设、话务平台、业务平台等软硬件建设情况及人员培训、工单处理、知识库管理、成员单位对接、专报撰写等运营管理情况，分享了热线平台建设工作经验，并就相关问题进行了详细解答。之前考察组一行还学习考察了南昌市12345热线中心，通过参观交流，全面学习了热线平台运行管理模式及先进工作经验做法，为我市12345热线平台建设提供了有益参考。', '下一步，市政务服务中心将结合我市工作实际，协同市大数据中心、市数投集团等12345热线平台建设工作专班成员单位严格对标学习，做好借鉴融合，加快推进我市12345热线平台建设，打造政务服务热线全媒体平台，', '为企业群众提供更加高效、便捷的政务服务，擦亮“江西办事不用求人、江西办事依法依规、江西办事便捷高效、江西办事暖心爽心”的营商环境品牌。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>120</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>上栗县商务局赴万载</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F5%2F22%2Fart_20_1237521.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E4%B8%8A%E6%A0%97%E5%8E%BF%E5%95%86%E5%8A%A1%E5%B1%80%E8%B5%B4%E4%B8%87%E8%BD%BD%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E5%95%86%E5%8A%A1%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['为进一步创新招商思路，实现招商引资工作新突破，5月18日，县商务局党组书记江友钢和局长曾婧带领局班子成员和股室主要负责人前往万载县商务局学习考察招商引资、指标申报、招引政策、电商产业等方面工作，万载县商务局党组书记刘江、局长张芜等陪同考察。', '考察学习组一行先后到工业园区企业-江西华尔升科技有限公司、万载南极光电子科技有限公司和县三级物流体系建设项目-万载县快递物流仓配中心，通过实地查看、听取介绍、现场交流等方式，对万载县在招商引资、产业发展、项目建设等方面的好经验、好做法进行了深入交流。', '考察结束后，考察组成员表示这次学习开阔了视野，拓宽了工作思路，近年来，万载县在招商引资工作中成效显著，有很多可借鉴的宝贵经验，在今后的招商引资工作中将进一步找差距、补短板、明方向，把学习收获转化为工作实践，破解招商引资、产业发展等方面遇到的问题和困惑。下一步，上栗县商务局将认真总结梳理此次考察学习内容，汲取经验，狠抓落实，围绕“五县”建设目标任务，以更加有力的举措和扎实的作风开展招商引资工作，推动县域经济高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>120</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>我局赴鹰潭宜春市机管局</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2018-03-22</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F3%2F22%2Fart_3811_739028.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%88%91%E5%B1%80%E8%B5%B4%E9%B9%B0%E6%BD%AD%E3%80%81%E5%AE%9C%E6%98%A5%E5%B8%82%E6%9C%BA%E7%AE%A1%E5%B1%80%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E8%A1%8C%E6%94%BF%E4%B8%AD%E5%BF%83%E8%BF%90%E8%A1%8C%E7%AE%A1%E7%90%86%E6%83%85%E5%86%B5</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['为学习借鉴兄弟单位在行政中心运行管理方面的经验，3月21日，市机关事务管理局党组成员、副局长肖亦滨同志、市财政局副调研员彭艳同志等一行4人赴鹰潭市、宜春市机管局学习考察。', '考察组详细了解了鹰潭市、宜春市机管局在行政中心运行、干部周转房、机关食堂运营及配套服务设施管理方面的情况，双方就行政中心运行管理过程中存在的问题进行了深入的交流与讨论。通过学习考察，考察组成员均表示收获颇丰，将学习借鉴兄弟单位的好做法、好经验，以进一步提高行政中心运行管理效率和机关事务管理水平。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>120</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>宜春市老科协来到南坑镇窑下村</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2024-04-20</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F4%2F20%2Fart_20_1333271.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AE%9C%E6%98%A5%E5%B8%82%E8%80%81%E7%A7%91%E5%8D%8F%E6%9D%A5%E5%88%B0%E5%8D%97%E5%9D%91%E9%95%87%E7%AA%91%E4%B8%8B%E6%9D%91%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['4月18日，宜春市老科协会长王庆祝、副会长兼秘书长黄维华一行来到南坑镇窑下村学习考察。县委常委、统战部部长彭祎，镇人大主席王雄、四级主任科员鲍稣陪同。', '彭祎对宜春市老科协一行表示热烈欢迎，希望宜春市老科协领导多到芦溪传经送宝。考察组一行饶有兴趣地参观了古窑文化研学中心和窑下村乡村振兴综合体建设情况，详细了解了窑下村产业布局、村级集体经济收入、科技示范基地创建等各项工作。', '此次宜春市老科协一行莅临南坑镇交流考察调研，准备充分、内容丰富。参加学习观摩的老干部实实在在看到了南坑镇在乡村振兴建设中的发展变化，收获颇丰。大家纷纷表示，要进一步“互学互鉴谋发展，沟通交流促提升”，携手共进开创老科协工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>120</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>萍乡市水务局组织开展农业水价综合改革</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2018-10-22</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F10%2F22%2Fart_3811_741618.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E6%B0%B4%E5%8A%A1%E5%B1%80%E7%BB%84%E7%BB%87%E5%BC%80%E5%B1%95%E5%86%9C%E4%B8%9A%E6%B0%B4%E4%BB%B7%E7%BB%BC%E5%90%88%E6%94%B9%E9%9D%A9%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['为学习借鉴外地农业水价综合改革工作的先进经验，更好地推动我市农业水价综合改革工作的全面开展，10月16日，市水务局党委委员赖军带领市水务局农水科及各县区水务局分管负责同志和相关技术人员，赴吉安市安福县学习考察农业水价综合改革工作。', '学习考察组一行深入到安福县农业水价改革试点项目区进行实地参观，对机井信息化自动控制、灌区自动化管理、水量精准计量、水权分配、体制、机制的建立等方面进行细致考察，并与安福县水利局进行了深入交流。安福县开展水价综合改革以来，在政策出台、协会管理、水权分配、精准补贴等方面形成了很多典型经验，值得学习和借鉴。', '通过这次考察学习活动，考察组一行开阔了眼界，增长了见识，学到了经验，理清了思路，对我市下一步改革工作的推进很有帮助。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>120</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>市工信委党委书记汤萍方率队在新余株洲湘潭开展</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2018-08-15</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F8%2F15%2Fart_3811_735783.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%B7%A5%E4%BF%A1%E5%A7%94%E5%85%9A%E5%A7%94%E4%B9%A6%E8%AE%B0%E6%B1%A4%E8%90%8D%E6%96%B9%E7%8E%87%E9%98%9F%E5%9C%A8%E6%96%B0%E4%BD%99%E3%80%81%E6%A0%AA%E6%B4%B2%E3%80%81%E6%B9%98%E6%BD%AD%E5%BC%80%E5%B1%95%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 政务动态 市工信委党委书记汤萍方率队在新余、株洲、湘潭开展学习考察', '8月13日-14日，市工信委党委书记汤萍方率队赴新余、株洲、湘潭三市工信部门进行学习考察。', '期间，在三地分别召开了座谈交流会。在新余市工信委，党组书记、主任刘力恒向考察组介绍了新余工业发展情况以及新余市在扶龙头、搭平台、促创新、助融合、重奖励等方面支持工业发展的政策举措；在株洲市经信委，考察组听取了株洲市“四突四新”促进工业转型的专项汇报，株洲市多年来持续实施工业“十百千”工程，培育、壮大一批标杆企业，促进工业企业跨越成长，令考察组深受启发。此外，考察组一行还实地查看了株洲市中小企业成长服务公共平台，了解到株洲市推进企业帮扶的创新举措；在湘潭市经信委，双方就重点工业项目建设工作、优化企业服务工作、加快推进“智造谷”产业发展等进行了探讨交流。', '汤萍方在考察中表示，通过学习考察，一方面增进了与兄弟地市部门之间的交流与感情；另一方面，真切地感受到三个地市在高位推动、强化抓手、营造氛围、激励工业实现稳增长和转型升级上取得的显著成效。考察组将以此次考察为契机，最大限度地把兄弟地市的好理念、好思路、好做法转化为推动工作的新思路和新举措，从而加快推动我市工业经济实现新发展。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>120</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>对标先进找差距外出</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-06-02</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F6%2F2%2Fart_20_1237946.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AF%B9%E6%A0%87%E5%85%88%E8%BF%9B%E6%89%BE%E5%B7%AE%E8%B7%9D%E3%80%81%E5%A4%96%E5%87%BA%E5%AD%A6%E4%B9%A0%E5%8F%96%E2%80%9C%E7%9C%9F%E7%BB%8F%E2%80%9D%20%E8%90%8D%E4%B9%A1%E7%BB%8F%E5%BC%80%E5%8C%BA%E8%B5%B4%E9%95%BF%E6%B2%99%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E5%85%9A%E5%BB%BA%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 对标先进找差距、外出学习取“真经” 萍乡经开区赴长沙学习考察党建工作', '5月31日，区党群工作部、区机关党委联合组织相关单位党建工作分管领导赴湖南长沙学习考察党建工作。', '考察组先后到长沙市英维创新大厦联合党支部，岳麓区咸嘉湖街道荷叶塘社区党总支、白鹤咀社区湘腾琴党支部，西湖街道黄泥岭社区阿普阿布小区党支部、五八小镇党委（全国先进基层党组织）等党组织，现场听取党建工作情况介绍，学习党建文化阵地建设等工作的新思路新做法，并重点围绕党支部“三化”建设、党建品牌、书记领办事项等进行交流。', '大家一路考察、一路学习、一路深思、一路讨论，进社区、进创业基地、进一线，行程紧凑、内容详实、收获满满。', '在社区，考察组实地考察社区党群服务中心，详细了解了网格智治模式、社区工作者和居民党员积分激励机制等工作经验，为如何发挥好党建引领作用，提升城市基层治理水平探寻到了可学习借鉴的好经验好做法。', '在非公组织，考察组实地调研英维创新大厦和五八小镇党建阵地，重点就英维创新大厦楼宇党的建设、“快递外卖小哥红色之家”建设和五八小镇党委创新“1+4”主题党日活动模式等先进工作经验进行了学习，为新兴领域党建工作集中攻坚提供了新思路和新办法。', '考察组成员表示，此次参观学习切实开阔了视野，达到了相互交流、相互学习的目的，在今后的工作中，将认真学习借鉴先进地区的党建工作新理念、好经验和好做法，真正把考察学习的成果转化为干事创业的强大动力，不断推动我区基层党建各项工作实现新突破。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>120</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>李水清率团赴赣州</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-10-08</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F10%2F8%2Fart_20_1062408.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%9D%8E%E6%B0%B4%E6%B8%85%E7%8E%87%E5%9B%A2%E8%B5%B4%E8%B5%A3%E5%B7%9E%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E5%BD%93%E5%9C%B0%E6%96%87%E6%97%85%E9%A1%B9%E7%9B%AE</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['10月6日至7日，区委书记李水清率考察团一行赴赣州市章贡区学习考察当地文旅项目规划、建设、运营情况。受到赣州市章贡区委书记连天浪，章贡区委副书记、区长刘志怀，章贡区政府副区长张毅的热情接待，安源区委副书记、安源国家森林公园党组书记、主任刘铸，安源区政府副区长刘洁兰，安源国家森林公园管委会副主任李霞等随同考察。', '赣州方特东方欲晓乐园，是“方特”系列品牌在国内打造的首个红色文化主题乐园。乐园以近现代中国历史为背景，综合运用现代技术手段，让游客在沉浸式体验中感受波澜壮阔的中华民族伟大复兴历程。', '6日下午，李水清一行实地参观了赣州方特东方欲晓乐园，详细了解了企业运营管理、发展布局及下一阶段的规划，并与企业负责人进行座谈交流，简要介绍了安源区位条件、营商环境、安源景区发展规划、招商引资优惠政策等情况。', '李水清指出，安源区要积极发挥区位优势，深入挖掘红色旅游资源，梳理出具有教育意义的红色故事；要充分借助高科技等手段，运用创意技术开发红色旅游产品，让红色教材“动起来”，让经典场景“活起来”；要紧扣“红色资源为血脉、工业遗存为骨架、安源精神为灵魂”的景区定位，坚持系统开发、统一规划的原则，不断丰富景区业态，进一步提升景区建设水平和质量。', '李水清表示，安源区将以此次考察为契机，学习借鉴赣州打造红色文化主题乐园先进经验，依托安源红色文化和资源优势，创建独具特色的安源景区。希望双方今后能进一步加强沟通交流，在更深层次、更宽领域、更多方面开展合作，共促文旅产业实现高质量发展。', '7日上午，李水清率考察团以听取讲解、实地观摩等方式，先后考察了赣坊1969文化创意产业园（中共华南分局扩大会议旧址）、福寿沟博物馆、魏家大院等，详细了解了赣州市章贡区文旅产业发展、红色遗址开发及经营状况等情况。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>120</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>自然资源和规划局经开区分局赴佛山市</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2019-07-11</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F7%2F11%2Fart_3811_737846.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%87%AA%E7%84%B6%E8%B5%84%E6%BA%90%E5%92%8C%E8%A7%84%E5%88%92%E5%B1%80%E7%BB%8F%E5%BC%80%E5%8C%BA%E5%88%86%E5%B1%80%E8%B5%B4%E4%BD%9B%E5%B1%B1%E5%B8%82%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E2%80%9C%E4%B8%89%E6%97%A7%E2%80%9D%E6%94%B9%E9%80%A0</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['为进一步抓好城镇低效用地试点工作，7月2日至3日，萍乡市自然资源和规划局经开区分局分党组书记、局长钟耀斌带队前往佛山市学习考察“三旧”改造。', '考察学习期间，钟耀斌一行来到佛山市自然资源局禅城分局，详细了解该地“三旧”改造的土地运作模式和开发建设方式，并与该局相关人员就政府如何提供政策支持、吸引社会资本投入等工作进行了深入交流探讨。第二天，参观了禅城区童梦天下项目、岭南天下改造项目和广州海珠区的O₂TWO PARK项目等，实地感受当地“三旧”改造的成效.', '当前，萍乡市经开区正处于产业转型的重要时期，广州、佛山“三旧”改造模式不仅能解决工业化、城镇化加速发展带来的用地指标紧张的问题，还能利用土地利用结构的不断优化带动产业升级和结构调整，土地利用方式的转变带动经济发展方式的转变，非常值得我们学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>120</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>萍乡市统计局赴赣州南昌</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-02-09</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F2%2F9%2Fart_5532_1209892.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E7%BB%9F%E8%AE%A1%E5%B1%80%E8%B5%B4%E8%B5%A3%E5%B7%9E%E3%80%81%E5%8D%97%E6%98%8C%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0%E4%BA%94%E7%BB%8F%E6%99%AE%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['为认真开展五经普工作，学习借鉴兄弟市先进经验和做法，2月7日-8日，萍乡市统计局副局长易红雁带领市、县普查系统一行6人分别赴赣州市、南昌市考察学习五经普工作。', '考察学习通过与赣州、南昌市县统计局座谈交流、现场观摩等方式进行。赣州市统计局局长杨幸丽、副局长李文诚、普查中心主任刘名传对赣州五经普数据采集系统开发思路，运行状况，下一步工作打算等作了详细介绍，南康区统计局和系统开发公司（八神公司）现场演示了数据采集系统。南昌市统计局局长兰园、四级调研员刘程、普查中心主任李晓斌介绍了市领导高位推动五经普工作、 抓部门县区责任落实、名录库系统核实等特色亮点工作和典型做法，南昌县统计局、青山湖区统计局在会上对市场主体核查、前期试点情况作了经验介绍，考察组与赣州、南昌市县统计局就工作推进中存在的重、难点问题进行交流探讨。', '这次学习考察，对推动萍乡五经普工作开展具体非常重要的借鉴意义。下一步，要以赣州、南昌等地市为标杆，认真学习借鉴、消化吸收兄弟地市的先进经验做法，结合萍乡工作实际，对标对表理思路、找差距、补短板，以新理念、新思路、新抓手加快推动五经普工作提质增效。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>120</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>市交通运输局局长钟帮元一行赴株洲市交通运输局</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2019-04-08</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F4%2F8%2Fart_3811_739781.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E4%BA%A4%E9%80%9A%E8%BF%90%E8%BE%93%E5%B1%80%E5%B1%80%E9%95%BF%E9%92%9F%E5%B8%AE%E5%85%83%E4%B8%80%E8%A1%8C%E8%B5%B4%E6%A0%AA%E6%B4%B2%E5%B8%82%E4%BA%A4%E9%80%9A%E8%BF%90%E8%BE%93%E5%B1%80%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['为加快推动我市交通运输改革发展步伐，加强湘赣边区合作，共同推进我市与株洲市交通运输互连互通再上新台阶，4月3日，市交通运输局局长钟帮元一行赴株洲市交通运输局学习考察，副局长李小勇、总工程师阳梅芳、局机关及下属单位相关负责人、湘东区、上栗县、莲花县交通运输局负责人、市公路局规划科相关人员参加考察。', '为加快推动我市交通运输改革发展步伐，加强湘赣边区合作，共同推进我市与株洲市交通运输互连互通再上新台阶，', '日，市交通运输局局长钟帮元一行赴株洲市交通运输局学习考察，副局长李小勇、总工程师阳梅芳、局机关及下属单位相关负责人、湘东区、上栗县、莲花县交通运输局负责人、市公路局规划科相关人员参加考察。', '在株洲市交通运输局，考察人员与当地交通运输部门相关人员进行了座谈。株洲市交通运输局副局长徐业伟（主持工作）、朱文龙及相关人员参加座谈，双方就两市交通运输规划对接、交通运输事业改革及具体的项目规划对接等内容进行了深入具体的交流。', '考察中，钟帮元指出，我市与株洲市山水相连、习俗相近、人缘相亲，一直以来两市交通运输局联系频繁、沟通紧密，希望两市在综合交通规划方面加强合作，共同规划两市互连互通的交通运输基础设施项目。与会人员就共同推进项目规划及项目建设提出了具体意见，对沪昆高速公路复线、邵吉高速公路、渌水航道等项目的规划工作达成了一致，还就交通运输体制改革、“四好农村路”建设经验等进行了交流和探讨。（卢江宜 柳佳）', '考察中，钟帮元指出，我市与株洲市山水相连、习俗相近、人缘相亲，一直以来两市交通运输局联系频繁、沟通紧密，希望两市在综合交通规划方面加强合作，共同规划两市互连互通的交通运输基础设施项目。与会人员就共同推进项目规划及项目建设提出了具体意见，对沪昆高速公路复线、邵吉高速公路、渌水航道等项目的规划工作达成了一致，还就交通运输体制改革、']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>120</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>区委书记李水清赴中国电子科技集团公司第十一研究所</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F7%2F13%2Fart_5533_1250705.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%8C%BA%E5%A7%94%E4%B9%A6%E8%AE%B0%E6%9D%8E%E6%B0%B4%E6%B8%85%E8%B5%B4%E4%B8%AD%E5%9B%BD%E7%94%B5%E5%AD%90%E7%A7%91%E6%8A%80%E9%9B%86%E5%9B%A2%E5%85%AC%E5%8F%B8%E7%AC%AC%E5%8D%81%E4%B8%80%E7%A0%94%E7%A9%B6%E6%89%80%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 区委书记李水清赴中国电子科技集团公司第十一研究所学习考察', '7月12 日上午，区委书记李水清到中电科十一所、中电科光电科技有限公司学习考察，中电科十一所所长王涛陪同接待，十一所激光部高工王克强、中电十一所下属北京雷生公司教授舒俊，区政府副区长、安源工业园第一书记谢晖等陪同。', '考察中，李水清一行听取了十一所所情介绍，观看了中电十一所的宣传视频。并与中电十一所所长王涛等进行了友好的交流座谈，双方围绕冷激光超精密加工技术项目和中电科高频激光项目转化等内容深入交流，以期在多领域、高层次展开合作。', '李水清表示，大院大所引领着顶尖的创新力量，拥有丰富的人才资源和前沿的技术成果，对安源区发展大研发产业具有重要的推动作用。欢迎十一所到安源考察环境，增进对接合作，将高质量、有产业带动效应的项目布局在安源。', '王涛表示，通过交流，充分感受到了安源区浓厚的研发产业发展氛围和清晰的研发产业发展定位。期待能与安源进行更加深入的对接交流，拓展合作空间。', '据了解，中国电科第十一所是新中国建立第一个电子元器件和材料研究所，是我国从事红外和激光专业科研生产的国家一类军工骨干研究所，是红外探测器和固体激光领域的引领者和主力军，在相关领域代表国家最高水平。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>120</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>省国资委组织省属企业赴杭州深圳等地</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2018-05-24</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F5%2F24%2Fart_3811_738710.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E7%9C%81%E5%9B%BD%E8%B5%84%E5%A7%94%E7%BB%84%E7%BB%87%E7%9C%81%E5%B1%9E%E4%BC%81%E4%B8%9A%E8%B5%B4%E6%9D%AD%E5%B7%9E%E3%80%81%E6%B7%B1%E5%9C%B3%E7%AD%89%E5%9C%B0%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E5%88%9B%E6%96%B0%E5%8F%91%E5%B1%95%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 政务动态 省国资委组织省属企业赴杭州、深圳等地学习考察创新发展工作', '为学习借鉴发达地区国有企业和民营企业转型升级、创新驱动促高质量发展等方面的先进经验，5月上中旬，省国资委党委书记、主任陈德勤带领省属企业主要负责人分别赴杭州、深圳、上饶等地学习考察。', '考察期间，考察组一行分别与浙江省国资委、深圳市国资委及当地部分省属国有企业、民营企业座谈，并实地考察了老板电器公司、西奥电梯公司、春风动力公司、中电海康集团、浙江省能源集团、阿里巴巴集团、吉利控股集团等7户在杭企业，深圳市创新投资集团公司、华润三九医药股份公司、深圳湾创业广场、深圳巴士集团、腾讯集团等5户在深企业以及上饶的汉腾汽车公司、璞晶新材料有限公司。考察学习的企业均以供给侧结构性改革为主线，改造提升传统产业，扎实推进智能制造，大力发展柔性制造、敏捷制造、服务制造，积极探索发展新技术、新业态、新模式、新产业，较好形成动力转换、结构优化、质量提升的发展态势。', '从杭州到上饶，再到深圳，从传统产业如何转型升级到新兴产业怎么培育？从如何强化科技创新到怎么有效推进智能制造？考察组成员每到一处，看得认真、问得仔细、学得深入，所到企业“敢为人先、开拓创新、锐意进取、勇创一流”的精神和高质量发展成效让大家深有触动、深受启发、收获满满。大家看到了企业发展新技术、新产业、新业态、新模式所呈现出的强大生命力，看到了企业下大力气加快提升智能制造水平所带来的企业竞争力的显著增强，看到传统企业经过转型升级所呈现出的强劲发展动力，看到了绿色制造已彻底改变传统工厂的脏、油、乱等传统概念，花园式企业和绿色示范企业给大家留下了深刻的印象。', '通过学习考察，考察组一行深刻体会到：人和企业文化是实现高质量发展的决定性因素；实现高质量发展必须紧紧扭住科技创新的“牛鼻子”；数字化网络化智能化是实现高质量发展的必由之路；追求一流不懈奋斗是实现高质量发展的原动力；观念转变是推动高质量发展的前提。大家对照先进找差距，纷纷表示要抓住当前科技创新、供给侧结构性改革、生态文明、开放合作等重大机遇，用这次考察学习到的创新发展理念和先进经验，积极推动企业改革创新、推进企业转型升级、加快培育“四新”经济，更加务实推进智能制造，努力推动企业实现高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>120</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>新余市委常委统战部部长李新华一行莅临我区</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2021-05-14</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F5%2F14%2Fart_5530_1165141.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%96%B0%E4%BD%99%E5%B8%82%E5%A7%94%E5%B8%B8%E5%A7%94%E3%80%81%E7%BB%9F%E6%88%98%E9%83%A8%E9%83%A8%E9%95%BF%E6%9D%8E%E6%96%B0%E5%8D%8E%E4%B8%80%E8%A1%8C%E8%8E%85%E4%B8%B4%E6%88%91%E5%8C%BA%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡市长者专区 新余市委常委、统战部部长李新华一行莅临我区学习考察', '5月13日，新余市委常委、统战部部长李新华率领新余市委统战部、各民主党派主委、知联会会长等统一战线成员代表一行20余人莅临我区学习考察。区委书记康峰会见了考察团一行，市委统战部常务副部长陈田，区委副书记邱伟，区委常委、统战部部长李夙颖等陪同。', '考察团一行先后到中国萍乡海绵城市创新基地和安源区新的社会阶层人士实践创新基地－复襄公社实地踏看。', '考察团一行详细了解了萍乡海绵城市建设情况，纷纷表示，萍乡海绵城市建设的创新发展模式从全国试点走向全国示范的成功经验，扩大了萍乡在全国的影响力，值得深入学习和借鉴。', '考察团一行详细了解了实践创新基地各类服务和活动的开展情况，并就新联会组织建设、阵地建设等工作开展交流，对我区做好新的社会阶层人士统战工作，发挥实践创新基地建设的平台载体作用，引导新阶层人士积极回报社会、促进经济社会发展等方面取得的成绩给予了充分肯定。', '考察团一行还到安源路矿工人纪念馆和“把一切献给党”党性教育基地开展党史学习教育，学习了安源红色历史。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>120</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>郴州市自然资源和规划局来我市</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2019-09-05</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F9%2F5%2Fart_3811_737813.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E9%83%B4%E5%B7%9E%E5%B8%82%E8%87%AA%E7%84%B6%E8%B5%84%E6%BA%90%E5%92%8C%E8%A7%84%E5%88%92%E5%B1%80%E6%9D%A5%E6%88%91%E5%B8%82%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E4%B8%8D%E5%8A%A8%E4%BA%A7%E7%99%BB%E8%AE%B0%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['考察组参观了我市不动产登记中心综合受理和后台审核窗口，并就中心窗口日常管理、信息化建设、综合窗口设置、便民利民服务、放管服改革等工作进行了深入交流探讨。', '参观了我市不动产登记中心综合受理和后台审核窗口，并就中心窗口日常管理、信息化建设、综合窗口设置、便民利民服务、放管服改革等工作进行了深入交流探讨', '随后，召开座谈会。会上，不动产登记中心负责人刘喜详细介绍了近三年来萍乡市不动产登记的工作情况、经验做法及成效。会上双方还就不动产地下空间权登记、不动产分割、个人自建房登记等一些具体业务问题进行了探讨交流。交流气氛活跃，双方均表示此次学习交流取得了实效，获得了双赢。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>120</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>湖南省株洲市发改委来我市</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2018-04-26</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F4%2F26%2Fart_3811_735454.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B9%96%E5%8D%97%E7%9C%81%E6%A0%AA%E6%B4%B2%E5%B8%82%E5%8F%91%E6%94%B9%E5%A7%94%E6%9D%A5%E6%88%91%E5%B8%82%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E7%A4%BE%E4%BC%9A%E4%BF%A1%E7%94%A8%E4%BD%93%E7%B3%BB%E5%BB%BA%E8%AE%BE%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 政务动态 湖南省株洲市发改委来我市学习考察社会信用体系建设工作', '4月23日，湖南省株洲市发改委一行4人赴我市学习考察社会信用体系建设工作，市发改委、市转型办副主任刘笑、市发改委、市信用办业务科室相关人员陪同。', '在座谈会上，考察组一行听取了我市社会信用体系建设工作开展情况，考察了萍乡市公共信用信息平台建设情况、参观了我市公共信用信息服务窗口，对我市社会信用体系建设工作给予了高度评价。', '双方就萍乡市公共信用信息平台、信用信息数据来源、数据安全保障性等问题进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>120</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>株洲市</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F8%2F30%2Fart_20_1257267.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%A0%AA%E6%B4%B2%E5%B8%82%E8%80%83%E5%AF%9F%E5%9B%A2%E6%9D%A5%E5%88%B0%E8%8A%A6%E6%BA%AA%E5%8E%BF%E8%80%83%E5%AF%9F%E8%B0%83%E7%A0%94</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['8月29日，株洲市委常委、常务副市长王卫安率考察团来到芦溪县考察调研。市委常委、常务副市长黄强，市政府副秘书长秦亮，县领导龙萍、欧阳卫华等陪同考察调研。', '考察团一行先后来到中材江西电瓷电气有限公司、中材锂膜（萍乡）有限公司等地，进车间、看展厅、问发展，与相关负责人深入交流，详细了解企业经营、技术创新、工艺流程等情况。', '考察团成员纷纷表示，通过实地参观和听取介绍，真切感受到了芦溪工业产业发展的强劲势头，招大引强工作的显著成效，产业布局的科学合理，企业发展定位明确、发展思路清晰，企业科技含量高，有许多好经验、好做法值得学习借鉴。希望双方借助湘赣边区域合作示范区建设的机遇，进一步加强沟通交流，互鉴互学，在高质量发展中携手并进，协同创新，推动双方在更宽领域、更大范围合作取得更大成效，共同促进两地经济发展。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>120</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>李水清率队赴株洲市荷塘区开展</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2022-08-23</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F8%2F23%2Fart_20_1140187.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%9D%8E%E6%B0%B4%E6%B8%85%E7%8E%87%E9%98%9F%E8%B5%B4%E6%A0%AA%E6%B4%B2%E5%B8%82%E8%8D%B7%E5%A1%98%E5%8C%BA%E5%BC%80%E5%B1%95%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E6%B4%BB%E5%8A%A8</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['8月16日，区委书记李水清率队赴株洲市荷塘区开展学习考察活动，区委副书记、安源国家森林公园党组书记、主任刘铸，区委常委、常务副区长龚云华，副区长谢晖、严楠等参加考察，荷塘区委书记方靖，区委副书记、区长罗鹏程，区委副书记、政法委书记余鹏等热情接待。', '李水清一行先后来到株洲飞鹿高新材料技术股份有限公司、汉德车桥汽车驱动桥及齿轮智能化制造基地项目、三一智慧钢铁城项目等地，认真观看各企业宣传片，详细听取企业相关具体情况介绍。李水清一行表示，通过此次考察开拓了见识眼界，深受触动、启发和鼓舞，达到了学习取经、深化交流、加强合作的目的，各企业的发展思路及管理运营模式值得学习借鉴。回去后，将进一步解放思想、创新思路，明晰今后发展的方向，鼓足干劲、加压奋进，以务实高效的工作作风，不断开创高质量发展新局面。', '座谈会上，方靖对安源考察学习团的到来表示欢迎，并详细介绍了荷塘区经济社会发展相关情况。', '李水清详细介绍了安源区经济社会发展情况，他表示，此次考察学习收获颇丰，荷塘区的经济发展快、格局高，让我们得到了许多的启示。希望两地能够加强沟通交流，取长补短、相互支持，助推两地经济高质量发展。同时，安源区将把荷塘区作为对标学习的对象，充分借鉴荷塘区产业转型升级特色亮点、科技创新平台建设、优化营商环境改革等方面的好经验、好做法，进一步加强两地沟通、交流与合作，共同促进两地繁荣发展，共同为湘赣边区域合作示范区建设贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>120</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>李水清率队赴株洲市荷塘区开展</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2022-08-17</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F8%2F17%2Fart_5530_1150652.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%9D%8E%E6%B0%B4%E6%B8%85%E7%8E%87%E9%98%9F%E8%B5%B4%E6%A0%AA%E6%B4%B2%E5%B8%82%E8%8D%B7%E5%A1%98%E5%8C%BA%E5%BC%80%E5%B1%95%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E6%B4%BB%E5%8A%A8</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['8月16日，区委书记李水清率队赴株洲市荷塘区开展学习考察活动，区委副书记、安源国家森林公园党组书记、主任刘铸，区委常委、常务副区长龚云华，副区长谢晖、严楠等参加考察，荷塘区区委书记方靖，区委副书记、区长罗鹏程，区委副书记、政法委书记余鹏等热情接待。', '李水清一行先后来到株洲飞鹿高新材料技术股份有限公司、汉德车桥汽车驱动桥及齿轮智能化制造基地项目、三一智慧钢铁城项目等地，认真观看各企业宣传片，详细听取企业相关具体情况介绍。李水清一行表示，通过此次考察开拓了见识眼界，深受触动、启发和鼓舞，达到了学习取经、深化交流、加强合作的目的，各企业的发展思路及管理运营模式值得学习借鉴。回去后，将进一步解放思想、创新思路，明晰今后发展的方向，鼓足干劲、加压奋进，以务实高效的工作作风，不断开创高质量发展新局面。', '座谈会上，方靖对安源考察学习团的到来表示欢迎，并详细介绍了荷塘区经济社会发展相关情况。', '李水清详细介绍了安源区经济社会发展情况，他表示，此次考察学习收获颇丰，荷塘区的经济发展快、格局高，让我们得到了许多的启示。希望两地能够加强沟通交流，取长补短、相互支持，助推两地经济高质量发展。同时，安源区将把荷塘区作为对标学习的对象，充分借鉴荷塘区产业转型升级特色亮点、科技创新平台建设、优化营商环境改革等方面的好经验、好做法，进一步加强两地沟通、交流与合作，共同促进两地繁荣发展，共同为湘赣边区域合作示范区建设贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>120</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>我市林业系统</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2018-11-15</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F11%2F15%2Fart_3811_740003.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%88%91%E5%B8%82%E6%9E%97%E4%B8%9A%E7%B3%BB%E7%BB%9F%E8%80%83%E5%AF%9F%E7%BB%84%E5%88%B0%E4%B9%9D%E5%B2%AD%E5%B1%B1%E5%9B%BD%E5%AE%B6%E7%BA%A7%E8%87%AA%E7%84%B6%E4%BF%9D%E6%8A%A4%E5%8C%BA%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 政务动态 我市林业系统考察组到九岭山国家级自然保护区考察学习', '为进一步推进我市自然保护区的管理和建设，10月31日，以市林业局党委委员、副局长易泉川为组长以及部分县区林业局长，市林业局有关科室及有关局属单位等成员组成的我市林业系统考察组赴九岭山国家级自然保护区进行考察学习。自然保护区管理局局长徐志文、副局长单庆华全程陪同。', '九岭山保护区为国家级自然保护区，归江西省林业厅管理。该保护区位于江西省靖安县，属于森林生态系统类型自然保护区，主要保护对象为中亚热带低海拔区域的典型原生性常绿阔叶林、丘陵河流湿地生态系统和珍稀野生动植物。', '考察组一行从萍乡出发，临近中午到达九岭山国家级自然保护区，受到了保护区管理局的盛情接待。在九岭山保护区管理局会议室，考察组观看了九岭山的视频宣传专题片，并召开了座谈会，双方就保护区管理、建设与发展等方面工作进行深入的交流。', '座谈会后，考察组便马不停蹄的深入到九岭山保护区港背村古树群落和宝峰镇香樟林群落考察，一边考察学习九岭山自然保护区的林业生态保护建设情况，一边听取该自然保护区管理局徐志文局长在资源管护体系、科研管理体系、科教宣传体系等方面的一系列创新做法与方法介绍。这些取得显著成效的经验分享启迪了考察组同志们新的思维、新的智慧。', '11月1日下午，考察组一行收获满满，结束了考察行程。大家表示，将认真学习和借鉴九岭山的保护管理经验，结合各自工作实际，进一步开拓创新，加大对森林资源的保护管理和科研探索力度，更好的促进萍乡林业生态系统的完善与发展。（周元勇）']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>120</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>萍乡市自然资源和规划局一行到赣州</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2019-12-10</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F12%2F10%2Fart_3811_737200.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E8%87%AA%E7%84%B6%E8%B5%84%E6%BA%90%E5%92%8C%E8%A7%84%E5%88%92%E5%B1%80%E4%B8%80%E8%A1%8C%E5%88%B0%E8%B5%A3%E5%B7%9E%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E5%B1%B1%E6%B0%B4%E6%9E%97%E7%94%B0%E6%B9%96%E8%8D%89%E8%AF%95%E7%82%B9%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 政务动态 萍乡市自然资源和规划局一行到赣州学习考察山水林田湖草试点工作', '2019年12月4-6日，萍乡市自然资源和规划局四级调研员徐卫东带领相关科室（单位）工作人员到赣州学习山水林田湖草试点先进经验，赣州市自然资源局党组成员张毅及相关科室负责人、地产集团负责人等全程陪同。', '12月5日上午，徐卫东一行来到大余县滴水龙废弃稀土矿石治理项目点，该项目主要对稀土废弃矿山进行生态修复，于2017年开工，中央补助资金1301.14万元，地方投资387.19万元，目前已完成治理，治理面积近400亩，该项目的实施有效重建矿山生态环境系统，恢复矿山生命力。', '下午，学习考察组一行来到信丰县安西片区山水林田湖草生态修复项目点。该项目点位于“赣南脐橙发源地”——信丰县安西镇，与农夫山泉公司合作，在废弃矿山点投资1.03亿元，建立化肥减量增效核心示范园5000亩，打造自动化、信息化脐橙种植产业，不仅改良矿山土壤，也成功打造脐橙产业示范点，既绿了生态环境，又富了群众的口袋。', '草生态修复项目点。该项目点位于“赣南脐橙发源地”——信丰县安西镇，与农夫山泉公司合作，在废弃矿山点投资1.03亿元，建立化肥减量增效核心示范园5000亩，打造自动化、信息化脐橙种植产业，不仅改良矿山土壤，也成功打造脐橙产业示范点，既绿了生态环境，又富了群众的口袋。', '12月6日，在赣州市自然资源局参加座谈会，会上由赣州市山水林田湖生态保护中心介绍山水林田湖草试点工作先进经验做法。徐卫东表示，赣州作为山水林田湖草试点城市，在山水林田湖草系统综合治理上取得瞩目的成绩，也建立了完整的制度体系，这次学习收获丰硕，为萍乡建立相关机构和制度树立了标杆，也为下一步推进山水林田湖草系统治理工作，探索符合自身实情的治理模式指明了前进方向。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>120</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>全域旅游之武功山区党委书记徐建中率队赴井冈山景区大余丫山度假区</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F9%2F3%2Fart_5530_1163158.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E3%80%90%E5%85%A8%E5%9F%9F%E6%97%85%E6%B8%B8%E4%B9%8B%E6%AD%A6%E5%8A%9F%E5%B1%B1%E3%80%91%E5%8C%BA%E5%85%9A%E5%A7%94%E4%B9%A6%E8%AE%B0%E5%BE%90%E5%BB%BA%E4%B8%AD%E7%8E%87%E9%98%9F%E8%B5%B4%E4%BA%95%E5%86%88%E5%B1%B1%E6%99%AF%E5%8C%BA%E3%80%81%E5%A4%A7%E4%BD%99%E4%B8%AB%E5%B1%B1%E5%BA%A6%E5%81%87%E5%8C%BA%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡市长者专区 【全域旅游之武功山】区党委书记徐建中率队赴井冈山景区、大余丫山度假区学习考察', '区党委书记徐建中率队赴井冈山景区、大余丫山度假区学习考察。区领导陈耀、陈文宇、秦亮，集团公司及乡镇党委主要负责人随同考察。', '此次考察，旨在进一步学习国家全域旅游示范区和国家级旅游度假区建设管理先进经验，借他山之石，为我区全域旅游发展拓展思路。考察工作得到两地景区的大力支持。', '30日，考察组一行实地调研了大余丫山度假区的民宿、康养设施，认真听取了景区相关介绍。之后，以座谈会的形式，围绕国家级旅游度假区建设管理、乡村旅游景点以及“康养+旅游”等方面工作与丫山景区进行交流，详细了解了丫山景区在景村融合、乡村振兴和市场营销等工作中的做法和经验。考察组还就丫山打造夜间经济及业态运营情况进行了调研。', '31日，考察组来到了井冈山景区，得到井冈山管理局局长、井冈山市代市长廖东生热情接待。考察组一行重点考察了景区景观环境、旅游服务、风貌管控、民宿业态打造和景村融合等方面工作。井冈山管理局副局长许石明陪同，并就考察组提出的问题进行了详细的、全面的解答。实地考察结束后，考察组与井冈山景区相关领导进行了高规格座谈，会上，井冈山相关领导将创建国家全域旅游示范区的经验做法倾囊相授。', '通过本次考察活动，考察组一致认为感触深、收获多、开阔了视野、拓展了思维。徐建中强调，此次考察既是一次学习的考察，更是工作能力提升的考察。一要认真思考，用心体会。大余丫山度假区和井冈山景区的服务理念、管理方式等工作的经验和做法，非常值得我们学习和借鉴，要认真学习好、消化好、运用好这次考察成果。二要积极借鉴，更新观念。要取人之长、补己之短，学习借鉴相关景区的新思路、新理念、新做法，为我区建设全域旅游发展特色区积累宝贵经验。三要融会贯通，学以致用。要以此次考察为契机，进一步认真贯彻落实市委全会精神，抢抓机遇、加快发展，为全市推进“五区”建设，打造“最美转型城市”贡献武功山力量。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>120</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>安源区赴瑞昌市</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2024-01-15</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F1%2F15%2Fart_5532_1296067.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AE%89%E6%BA%90%E5%8C%BA%E8%B5%B4%E7%91%9E%E6%98%8C%E5%B8%82%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['近日，安源区委常委、常务副区长袁子安，副区长陈琪率考察组赴瑞昌市，就自然资源资产管理、资产高效配置和增值保值等方面工作开展学习交流。瑞昌市副市长黄青华全程陪同。市自然资源和规划局安源分局分党组书记、局长李继来随行考察。', '考察组先是来到天嗣山公园实地考察废弃矿山生态修复工作，与当地干部群众交流经验思路。随后在座谈会上，黄青华代表瑞昌市委、市政府，向安源区考察组表示热烈欢迎，并汇报了瑞昌市全民所有自然资源资产所有权委托代理机制试点工作情况，重点介绍了全民所有自然资源资产设权赋能、整体评估、整体配置的经验做法。与会人员就自然资源资产的组合供应，优化自然资源资产配置方式，聚焦重点方向，实现生态建设、资源开发和保护良性发展进行了交流探讨。', '考察组成员纷纷表示将学习好、领悟好瑞昌的好思路、好经验，结合安源区全民所有自然资源资产清查的实际情况，充分发挥所有者权益，最大限度地实现自然资源资产价值，探索生态优势转化为发展优势，切实把考察学习成果转化为促进高质量发展的工作实效，实现社会经济发展和生态文明建设提升的双向驱动，助推区域经济可持续高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>120</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>区领导带队赴醴陵市</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2022-06-16</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F6%2F16%2Fart_5533_1153054.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%8C%BA%E9%A2%86%E5%AF%BC%E5%B8%A6%E9%98%9F%E8%B5%B4%E9%86%B4%E9%99%B5%E5%B8%82%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['6月15日下午，副区长王登辉带领区工信局、科技局到醴陵市考察学习，进一步推进赣湘合作，积极探索产业合作模式，实现资源共享，推动产业共同发展。', '当天，王登辉一行先后到旗滨玻璃和湖南湖电电力设备两家企业，详细听取了企业负责人对企业产品、企业生产经营情况、重点项目情况、发展规划等方面介绍，并就双方企业互通、企业项目互补、合作模式互助等方面进行深入洽谈，积极推进赣湘企业家互通、举办赣湘企业家交谈会，促进赣湘企业合作，资源整合、抱团取暖。', '企业考察结束后，双方在醴陵市科工局会议室进行座谈，双方介绍了各自辖区内的产业发展现状、产业规划、产业措施及产业目标，并就如何加快赣湘边产业合作交流等进行了深入交流。', '通过此次考察交流学习，彼此了解了两地工作开展情况与典型经验做法，增强了工作感情，开阔了视野和思路，坚定了发展理念和信心，达成了项目申报、项目合作、产业互补的初步意向，共同促进工作的深入开展。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>120</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>永新县卫健委</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-07-15</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F7%2F15%2Fart_20_1247832.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B0%B8%E6%96%B0%E5%8E%BF%E5%8D%AB%E5%81%A5%E5%A7%94%E8%80%83%E5%AF%9F%E5%9B%A2%E8%8E%85%E4%B8%B4%E8%8A%A6%E6%BA%AA%E5%8E%BF%E5%8F%82%E8%A7%82%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['7月14日，吉安市永新县卫健委副主任段明华率团莅临芦溪县考察学习基层卫生服务能力提升、国家基本公共卫生服务和中医药等工作。县卫健委副科级干部李学军等陪同考察学习。', '考察团一行先后来到上埠镇中心卫生院、宣风镇中心卫生院现场观摩，实地考察科室情况，了解医院特色亮点等，并召开了座谈会。', '通过此次交流学习，考察团对我县的工作做法给予高度评价，表示，将以此次考察学习为契机，认真学习芦溪县在提升基层卫生服务能力、做好国家基本公共卫生服务和做好中医药工作等方面的宝贵经验和先进做法。通过此次交流学习，为今后两地卫健系统的交流学习搭建了良好的平台，我们将进一步加强沟通联系，互相学习，取长补短；将卫健工作推向新的台阶，做出新的成效，努力提升老百姓的幸福感和获得感。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>120</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>湖北省供销合作社考察团来到芦溪县</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2022-08-05</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F8%2F5%2Fart_5533_1150740.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B9%96%E5%8C%97%E7%9C%81%E4%BE%9B%E9%94%80%E5%90%88%E4%BD%9C%E7%A4%BE%E8%80%83%E5%AF%9F%E5%9B%A2%E6%9D%A5%E5%88%B0%E8%8A%A6%E6%BA%AA%E5%8E%BF%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['8月4日，湖北省供销合作社党组成员、副主任黄德斌率考察团来到芦溪县考察“互联网+第四方物流”供销集配体系建设情况。省供销合作社一级巡视员欧阳太来、省供销合作社合作指导处二级调研员李文辉，市供销联社党组书记、主任张波等陪同考察。', '考察团一行走进江西鑫超商贸有限公司，认真听取相关负责人介绍，详细了解芦溪县“互联网+第四方物流”供销集配项目建设情况，并就相关工作进行深入交流。', '考察团表示，芦溪县供销联社抢抓发展机遇，着力推进“互联网+第四方物流”供销集配体系标准化、规范化、品牌化建设成效明显，为解决农产品流通“最先一公里”和工业品下乡“最后一公里”打下了坚实基础，值得学习借鉴。希望湖北省与江西省各级供销社之间加强交流沟通，共享经验做法，共同推动两省供销合作事业取得新成效，为持续推进供销综合改革、助力乡村振兴发挥供销力量。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>120</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>芦溪县党政</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2022-01-21</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F1%2F21%2Fart_5533_1158031.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%8A%A6%E6%BA%AA%E5%8E%BF%E5%85%9A%E6%94%BF%E8%80%83%E5%AF%9F%E5%9B%A2%E8%B5%B4%E5%85%84%E5%BC%9F%E5%8E%BF%E5%8C%BA%E4%BA%A4%E6%B5%81%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['1月20日，县委副书记刘勇率考察团赴兄弟县区交流学习，将“他山之石”化作本土启示，凝聚加压奋进谋发展的强大合力。', '一路走、一路看、一路议，直观感受和体验兄弟县区发展态势，刘勇一行先后来到上栗县联锦成、佳禾电声项目，湘东区华瑞新材料项目、江西包装工业设计研发中心，莲花县祥威金属新材料、卡帕气体项目，安源区金桥焊材三期、猛犸出行项目，经开区贵得液晶、森萍科技项目，武功山风景名胜区茅店白鹭天堂项目，认真交流学习各地在电子信息、装备制造、文旅发展等产业招引、建设、发展等方面取得的累累硕果。', '兄弟县区创新的发展理念、一流的发展速度、优质的发展成果，让考察团成员深受启发。大家一致认为，通过考察学习兄弟县区的发展思路和举措，学到了鲜活经验，开拓了见识眼界，深受触动、深受教育、深受启发、深受鼓舞，达到了学习取经、深化交流、加强合作的目的。大家纷纷表示，要切实增强危机感、紧迫感和发展的责任感，学习先进的发展理念、创新的发展举措，把此次学习考察成果转化为工作实践，明确方向、创新方法、真抓实干，为奋力推进“五区”建设，打造“最美转型城市”作出芦溪贡献。', '县领导韩凌飞、王艳艳，县工业园区党工委书记蓝招年、主任周健及有关部门、乡镇主要负责人参加交流学习。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>120</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>萍乡市卫健委赴宜春市第三人民医院</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2024-04-02</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F4%2F2%2Fart_19_1324210.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%8D%AB%E5%81%A5%E5%A7%94%E8%B5%B4%E5%AE%9C%E6%98%A5%E5%B8%82%E7%AC%AC%E4%B8%89%E4%BA%BA%E6%B0%91%E5%8C%BB%E9%99%A2%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%E5%8C%BB%E5%85%BB%E7%BB%93%E5%90%88%E5%B7%A5%E4%BD%9C%E5%85%88%E8%BF%9B%E7%BB%8F%E9%AA%8C%E5%81%9A%E6%B3%95</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 部门动态 萍乡市卫健委赴宜春市第三人民医院学习考察医养结合工作先进经验做法', '为全力推进医养结合工作，学习借鉴兄弟城市在全国示范性医养结合机构创建等方面的先进经验，', '座谈结束后，调研组表示，宜春市第三人民医院医养结合工作先进经验做法，值得学习借鉴，']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>120</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>武功山全域旅游调研组赴省内知名景区</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2021-08-24</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F8%2F24%2Fart_5533_1163762.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%AD%A6%E5%8A%9F%E5%B1%B1%E5%85%A8%E5%9F%9F%E6%97%85%E6%B8%B8%E8%B0%83%E7%A0%94%E7%BB%84%E8%B5%B4%E7%9C%81%E5%86%85%E7%9F%A5%E5%90%8D%E6%99%AF%E5%8C%BA%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['8月21-23日，为学习借鉴省内各地全域旅游建设管理等方面的先进经验和做法，加快推进武功山全域旅游发展特色区建设，萍乡武功山风景名胜区全域旅游调研工作组赴婺源、资溪、三清山等地考察学习，开展深入调研交流。', '考察组一行在婺源、资溪、三清山等景区相关同志的陪同介绍下，围绕国家全域旅游示范区创建标准中的5A级景区、精品民宿、乡村旅游点、游客集散中心等重点内容进行深入调研，详细了解了当地人文历史、演艺进景区、非遗进景区、文创产品开发及文旅融合等情况。', '考察组一路看，一路学，一路问，就景区相关创建方式方法与各方进行深入交流，学习讨论，为武功山发展积累宝贵经验。', '调研组一行还利用晚上的时间，与上饶葛仙村营销负责人进行深入交流，召开座谈会，学习交流度假区营销工作经验和优秀做法。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>120</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>交流学习拓思路互学互鉴促提升湘东区财政局赴天元区财政局交流学习</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F3%2F7%2Fart_5533_1318085.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E4%BA%A4%E6%B5%81%E5%AD%A6%E4%B9%A0%E6%8B%93%E6%80%9D%E8%B7%AF%20%E4%BA%92%E5%AD%A6%E4%BA%92%E9%89%B4%E4%BF%83%E6%8F%90%E5%8D%87%E2%80%94%E2%80%94%E6%B9%98%E4%B8%9C%E5%8C%BA%E8%B4%A2%E6%94%BF%E5%B1%80%E8%B5%B4%E5%A4%A9%E5%85%83%E5%8C%BA%E8%B4%A2%E6%94%BF%E5%B1%80%E4%BA%A4%E6%B5%81%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 交流学习拓思路 互学互鉴促提升——湘东区财政局赴天元区财政局交流学习', '为了不断提升财税领域发展，促进财源建设更加科学化、高效化，3月5日湘东区财税部门学习考察团一行来到湖南省株洲市天元区财政局学习了解天元区财税综合信息平台建设。', '学习考察团一行来到湖南标普信息科技有限公司，实地学习了解财税综合信息平台建设。随后到天元区财政局开展学习交流座谈会。', '座谈会上，天元区财政局就财源建设、财税监管、财政运行机制、综合平台管理奖补政策等方面的先进理念和宝贵经验进行分享。湘东区财政局党组书记、局长邓铁林同志对兄弟县区毫无保留的“传经送宝”表达谢意，并表示两区地理位置接近，财政部门在共同推动两地社会经济高质量发展方面存在广阔的合作空间。通过此次交流座谈，为我区搭建综合治税平台、提升财政体制改革，提高财政管理水平提供了宝贵的经验借鉴。我们将以此行为契机，分享经验做法，探讨合作路径，不断提升创新工作效能，做到找差距、补短板、促提升。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>120</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>学先进找差距补短板促提升我市组织县区森防办负责人赴宜春市花桥乡学习</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2022-08-05</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F8%2F5%2Fart_5530_1140762.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AD%A6%E5%85%88%E8%BF%9B%E3%80%81%E6%89%BE%E5%B7%AE%E8%B7%9D%E3%80%81%E8%A1%A5%E7%9F%AD%E6%9D%BF%E3%80%81%E4%BF%83%E6%8F%90%E5%8D%87%E2%80%94%E6%88%91%E5%B8%82%E7%BB%84%E7%BB%87%E5%8E%BF%E5%8C%BA%E6%A3%AE%E9%98%B2%E5%8A%9E%E8%B4%9F%E8%B4%A3%E4%BA%BA%E8%B5%B4%E5%AE%9C%E6%98%A5%E5%B8%82%E8%8A%B1%E6%A1%A5%E4%B9%A1%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡市长者专区 学先进、找差距、补短板、促提升—我市组织县区森防办负责人赴宜春市花桥乡学习', '7月28日，由市森防办秘书长、市应急管理局副局长贺焕勇带队，市林业局副局长文瑚和县区森防办、应急局分管负责人参加的学习考察组赴宜春市宜丰县花桥乡学习考察森林防灭火管理体系和能力建设经验。', '学习考察组实地考察了花桥乡森林防灭火指挥部办公室，森林防灭火物资储备，乡半专业森防队伍建设及管理情况。', '了宜春市应急管理局、花桥乡政府森林防灭火应急指挥系统和森林防灭火规范化管理工作的先进经验介绍。', '双方围绕乡镇应急管理“六有”目标和半专业扑火队伍规范化建设、队伍建设、物资储备调度、宣传教育等工作经验和做法进行了深入交流。', '通过本次交流学习，大家一致认为花桥乡在森林防灭火体系和能力建设方面成绩优秀、值得借鉴。回去以后，在具体工作中，要学以致用，要找差距、补短板。借鉴花桥乡先进经验，咬定“作示范、勇争先”的目标定位，认真谋划好我市落实省森林防灭火示范点--湘东区广寒寨乡及17个市示范乡镇基层森林防灭火管理体系和能力建设，压紧压实乡镇森林防灭火属地责任，建立末端发力、群防群治、终端见效的长效机制，充分发挥乡镇半专业森林消防队伍“一专多能”的作用，在防灾减灾救灾工作中发挥就近服务、就地应急，实现“打早、打小、打了”目标，切实保障人民群众生命财产安全。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>120</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>走出去纳百家之长以厚己</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2019-05-05</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F5%2F5%2Fart_3811_737878.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E2%80%9C%E8%B5%B0%E5%87%BA%E5%8E%BB%E2%80%9D%EF%BC%8C%E7%BA%B3%E7%99%BE%E5%AE%B6%E4%B9%8B%E9%95%BF%E4%BB%A5%E5%8E%9A%E5%B7%B1</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['近日，市不动产登记中心副主任何赟带领中心各业务科室负责人共8人组成学习考察组，赴无锡市不动产登记中心、常州市不动产登记交易中心学习考察，借鉴汲取两地的先进工作经验。', '在无锡市不动产登记中心窗口，学习考察组详细了解无锡市不动产登记集成服务平台，该平台依托“五全”（服务全链条、操作全智能、信息全共享、区域全覆盖、监督全方位）优势，实现“三个一”（一个窗口、一次见面、一小时办结）。在窗口参观后，学习考察组与该中心工作人员开展业务交流，学习该市在不动产登记工作流程、政策法规等方面好的经验做法。', '在常州市不动产登记交易中心，学习考察组先后参观了服务大厅、登记交易实时监控平台、数据整合实时监控平台、档案库房等，并与常州登记人员就不动产登记交易一体化、信息化建设、地下空间确权登记、历史遗留问题、档案管理等工作进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>120</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>萍乡市财政局一行赴常州市考察学习</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2024-05-31</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F5%2F31%2Fart_19_1342916.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E8%B4%A2%E6%94%BF%E5%B1%80%E4%B8%80%E8%A1%8C%E8%B5%B4%E5%B8%B8%E5%B7%9E%E5%B8%82%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['为进一步加强我市地方债务管理，切实防范化解地方债务风险，5月29日至30日，市财政局、市国资委主要领导带队，赴常州市财政局考察学习。', '考察期间，常州市财政局主要领导介绍了常州市近年来经济社会发展及财政运行的基本情况。双方就“三新”经济、企业培育、财源建设、财政体制改革、政府债务管理、融资平台市场化转型及风险化解等工作进行了深入的探讨交流。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>120</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>全市开发区改革创新发展推进会议召开</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2021-03-08</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F3%2F8%2Fart_19_874307.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%A8%E5%B8%82%E5%BC%80%E5%8F%91%E5%8C%BA%E6%94%B9%E9%9D%A9%E5%88%9B%E6%96%B0%E5%8F%91%E5%B1%95%E6%8E%A8%E8%BF%9B%E4%BC%9A%E8%AE%AE%E5%8F%AC%E5%BC%80</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['会前，李明生带队赴赣州、吉安、新余三地，深入南康经开区、赣州经开区、吉安高新区、井冈山经开区、新余高新区学习考察，实地学习兄弟地市推进开发区改革创新等方面好经验、好做法。', '李明生在讲话中肯定了全市开发区改革创新发展工作取得的成绩，分析了存在的问题和不足。他指出，开发区是发展的重要增长极，是对外开放的窗口，是经济高质量发展的硬核力量，南康经开区、赣州经开区、吉安高新区、井冈山经开区、新余高新区坚持把推动开发区改革创新工作摆在重要位置，在产业、招商、服务、体制等等方面下了很多功夫，要以这次学习考察为契机，学习先进开发区经验，不断提高推动开发区改革创新发展的水平，确保全市开发区“十四五”开好局、起好步。', '要攻坚克难，以开展开发区改革创新发展三年倍增行动支撑开发区高质量发展。一要明确开发区发展目标定位。围绕“工业强市”战略和“1+2+N”产业高质量发展行动计划，综合考虑各开发区实际情况，研究提出2021年度的总量目标、结构性目标等。二要壮大产业集群规模。坚持全市“一盘棋”，以实施产业链链长制为抓手，加大铸链强链补链延链力度，集中力量发展双首位产业。三要加强招大引强力度。深入分析首位产业链条涉及的重点行业动态，积极对接行业龙头企业，着力引进带动力强、产品效益高、强链补链延链的重大项目。四要加快科技创新升级。始终牵住创新这个“牛鼻子”，围绕产业链部署创新链。', '要砥砺奋进，以实干担当激发开发区高质量发展的动力活力。一是争先创优要再进位。要加强比学赶超，着力推动各开发区在全省开发区2020年度争先创优综合考评中争先进位。二是体制改革要再深化。大力开展“管委会+平台公司”“开发区+主题产业园”改革。三是服务水平要再提升，持续深入推进“放管服”改革走深走实，开展优化营商环境十大行动。四是责任落实要再强化。强化统筹推进，压实工作责任，完善开发区改革创新工作考核机制和调度机制，努力营造开发区大干实干快干的氛围。', '会上，市发改委、市科技局、市工信局、市商务局主要负责同志作了发言，各县区、萍乡经开区汇报了学习考察感受和今年的目标举措。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>120</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>市林业局赴江西鄱阳湖国家级自然保护区考察学习</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2022-01-13</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F1%2F13%2Fart_19_1092327.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E6%9E%97%E4%B8%9A%E5%B1%80%E8%B5%B4%E6%B1%9F%E8%A5%BF%E9%84%B1%E9%98%B3%E6%B9%96%E5%9B%BD%E5%AE%B6%E7%BA%A7%E8%87%AA%E7%84%B6%E4%BF%9D%E6%8A%A4%E5%8C%BA%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['1月6日至7日，市林业局党委委员、副局长易泉川率队赴鄱阳湖国家级自然保护区考察学习自然保护区、湿地和候鸟保护管理工作，借鉴先进经验，提高我市自然保护地监督管理水平。局党委委员刘文萍，党委委员、副局长文瑚参加。鄱阳湖保护区管理局局长徐志文，副局长伍旭东、龚磊强陪同。', '考察组先后来到鄱阳湖保护区沙湖站、吴城站、常湖池、朱市观鸟点、插旗洲等地进行考察，参观了吴城科普宣教馆。每到一处，考察组都认真听取管理站的情况介绍，了解和学习他们在自然保护区、湿地和候鸟保护管理工作的先进经验。座谈交流会上，在听取鄱阳湖保护区的保护和科研工作基本情况介绍后，考察组认为，鄱阳湖保护区始终坚持保护优先，通过科研强区、强化项目管理、社区共管等措施，保护区的建设和管理取得了可喜成绩。此次考察学习很有收获，很受启发。', '通过两天的考察学习，考察组被鄱阳湖保护区打造成为湿地类型国际示范保护区所震撼，被一代又一代的鄱阳人不懈奋斗和努力的精神所感染。大家纷纷表示，通过考察学习开拓了视野，找到了差距，鼓舞了干劲，将结合工作实际，不断改进工作，为推进林业高质量发展作出应有的贡献。', '鄱阳湖保护区成立于1983年，1988年晋升为国家级自然保护区。位于江西省北部，是保护野生动物类型的自然保护区，主要保护对象是白鹤等珍稀候鸟及其越冬地。保护区属内陆型湿地，主要湿地类型包括湖泊、永久性河流、时令湖和永久性淡水草本沼泽、泡沼。管辖有沙湖、大汊湖、蚌湖、朱市湖、梅西湖、象湖、大湖池、常湖池、中湖池九个湖泊，总面积 224 平方公里。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>120</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>湘东非公企业</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2016-11-14</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2016%2F11%2F14%2Fart_5531_1138294.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B9%98%E4%B8%9C%E9%9D%9E%E5%85%AC%E4%BC%81%E4%B8%9A%E8%80%83%E5%AF%9F%E5%9B%A2%E5%88%B0%E8%8A%A6%E6%BA%AA%E5%8F%82%E8%A7%82%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['11月11日，由区委副书记龙萍带队的区非公企业考察团到芦溪参观学习。区委常委、统战部长曾维娜，区政府副区长刘铸，区政协副主席、工商联主席陈志传及相关部门负责人陪同。 考察团一行先后来到芦溪中材江西电瓷电气有限公司、中材科技（萍乡）风电叶片有限公司、江西新航电瓷股份有限公司、江西中南绝缘子有限公司、萍乡华维电瓷科技股份有限公司、泉新电瓷电气有限公司、江西高强电瓷集团等企业进行了实地参观，认真听取了企业负责人对企业运营情况的介绍，并详细询问了企业的发展和建设情况。 在随后的座谈会上，两地企业家围绕两个县区电瓷和工业陶瓷等传统产业的发展进行深入探讨。考察团成员对芦溪县优质招商引资项目和创新办企业的意识大加赞赏，区政协副主席、工商联主席陈志传从“借船出海”、“枝上开花”、“顺藤摸瓜”等方面谈了自己参观后的深刻感受。许多企业家纷纷表示，此次参观学习看到了自身的不足，激发了创业的激情，拓展了眼界和思路，一定将芦溪的好做法、好经验带回去，以科技为生产力，带领企业创新、改革、转型、发展。 听取两地企业家的发言后，区委副书记龙萍作了重要讲话。他说，湘东和芦溪两个县区是萍乡的东西两翼，有着很深的渊源，工业陶瓷和电瓷产业是“一根藤上的两个瓜”，有着许多的共通之处。此次考察主要向芦溪学习招商引资、产业发展等方面的先进经验，大有所获。 龙萍强调，我们一要向芦溪企业学习“新技术、新模式、新路径、新机制”四个新观念，靠大联强，积极与央企对接，提高企业抗风险能力，加强科技创新，建立研产一体的企业模式，提高企业发展的能力；二要向芦溪县委、县政府学习务实的工作作风，拿出相关补贴政策，为企业减负，用实实在在的措施促进企业的发展。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>120</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>湘东镇与浏阳市高坪镇达浒镇签订赣湘边战略合作协议</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2022-06-21</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F6%2F21%2Fart_5533_1153268.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B9%98%E4%B8%9C%E9%95%87%E4%B8%8E%E6%B5%8F%E9%98%B3%E5%B8%82%E9%AB%98%E5%9D%AA%E9%95%87%E3%80%81%E8%BE%BE%E6%B5%92%E9%95%87%E7%AD%BE%E8%AE%A2%E3%80%8A%E8%B5%A3%E6%B9%98%E8%BE%B9%E6%88%98%E7%95%A5%E5%90%88%E4%BD%9C%E5%8D%8F%E8%AE%AE%E3%80%8B</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['6月17日，浏阳市政协党组成员、副主席邓华率浏阳市高坪镇、达浒镇考察团来萍学习考察，参观了湘东镇黄堂村系列文旅、农旅产业项目、江口村鸬鹚烟雨艺术区、三石竹艺中心以及零799艺术区等地，听取了湘东镇溢彩黄堂、三石竹艺、零799艺术区的相关介绍。并就浏阳市高坪镇、达浒镇、萍乡市湘东镇三地战略合作召开交流座谈会。会议上双方做了互动交流发言，三镇签订《赣湘边战略合作协议》，进一步加强湘赣边区在产业互补、综治联防、人文互融等方面的深度合作。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>120</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>推进垃圾分类美丽文明萍乡市垃分办召开全市生活垃圾分类工作部署会议</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2021-05-24</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F5%2F24%2Fart_5530_1149058.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%8E%A8%E8%BF%9B%E5%9E%83%E5%9C%BE%E5%88%86%E7%B1%BB%20%E7%BE%8E%E4%B8%BD%E6%96%87%E6%98%8E%E8%90%8D%E4%B9%A1%E2%80%94%E2%80%94%E2%80%94%E2%80%94%E5%B8%82%E5%9E%83%E5%88%86%E5%8A%9E%E5%8F%AC%E5%BC%80%E5%85%A8%E5%B8%82%E7%94%9F%E6%B4%BB%E5%9E%83%E5%9C%BE%E5%88%86%E7%B1%BB%E5%B7%A5%E4%BD%9C%E9%83%A8%E7%BD%B2%E4%BC%9A%E8%AE%AE</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡市长者专区 推进垃圾分类 美丽文明萍乡————市垃分办召开全市生活垃圾分类工作部署会议', '2021年5月21日，萍乡市生活垃圾分类工作领导小组办公室（以下简称‘市垃分办’）在市城管局召开全市生活垃圾分类工作部署会议，会议由市垃分办主任、市城管局局长张达彪同志主持，市垃分办全体工作人员、各县区（管委会）城管局局长、中节能萍乡公司负责人参加了会议。', '会议分为三个议程，首先市垃分办分享了上海市生活垃圾分类学习考察经验，并就我市生活垃圾分类下一步工作进行了安排；二是讨论《萍乡市生活垃圾分类2021年工作要点、考核方案（征求意见稿）》、讨论《关于萍乡市餐厨垃圾收运及处理项目的汇报》；三是安源区、经开区、湘东区城管局就城区生活垃圾分类工作做经验交流发言。', '张局长做了总结发言，“垃圾分类是习近平总书记亲自部署、亲自推动的民生关键小事、经济社会发展大事，同时也是我市高质量建设全国文明城市的重要内容，是我市开展巩固创建成果实现常态长效管理的重要抓手，2021年江西省生活垃圾分类工作目标已经明确了，任务比较重，虽然大家做了一些工作，但作为主力军的城管部门宣传发声的力度不够，全民参与共建共享共治的局面没有形成，我市生活垃圾分类工作任重道远。”同时他还指出，“我们要利用住建部生活垃圾分类‘1对1’交流协作机制，组织各单位分管同志到上海学习考察，借鉴先进城市的经验做法，结合我市实际，确定我市的垃圾分类指导方案，尽快拿出萍乡市垃圾分类工作全流程的操作手册，中心城区3个区科学合理确定建成区的实施范围，实质性的开展垃圾分类工作。”', '张达彪局长强调，各县区（管委会）要注重工作成效，要形成部门合力，认真对照今年省里的工作要点逐条逐项进行落实，扎实推进我市垃圾分类各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>120</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>张天清率考察组考察株洲文明创建工作</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2017-03-08</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2017%2F3%2F8%2Fart_13_78249.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%BC%A0%E5%A4%A9%E6%B8%85%E7%8E%87%E8%80%83%E5%AF%9F%E7%BB%84%E8%80%83%E5%AF%9F%E6%A0%AA%E6%B4%B2%E6%96%87%E6%98%8E%E5%88%9B%E5%BB%BA%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['3月7日上午，省文明办主任张天清率江西省考察组赴株洲市考察文明创建工作，我市组团参加。市委常委、宣传部长聂晓葵以及赣州市人大常委会副主任欧阳世麟、吉安市政府副市长徐开萍、新余市政府副市长陈文华一同前往考察。株洲市委常委、宣传部长聂方红陪同。', '近年来，株洲市委、市政府在成功创建全国文明城市后，把建设更高水平文明城市作为转型升级的新引擎，坚持在文明城市建设中抓发展、促改革、惠民生，不断巩固文明城市创建成果。张天清一行先后考察了株洲市规划展览馆、天元区湘银社区、神农城、株洲湘江风光带，并与株洲市相关领导就文明创建工作进行了学习交流。', '我市一行对株洲市以注重为民惠民为根本，筑牢文明之基；以加强城市管理为抓手，提升宜居质量；以提高市民素质为支撑，树立文明风尚；以构建长效机制为保障，汇聚强大合力等先进做法予以高度赞同，认为株洲市在文明创建过程当中的先进经验、创新理念、有力机制，值得认真学习借鉴，并表示要以这次学习考察为契机，明确目标，努力完善机制，狠抓落实，大力推进我市文明创建工作。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>120</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>湘东区</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2020-07-14</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2020%2F7%2F14%2Fart_142_112653.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B9%98%E4%B8%9C%E5%8C%BA%E8%80%83%E5%AF%9F%E5%9B%A2%E5%88%B0%E6%88%91%E5%8C%BA%E8%80%83%E5%AF%9F%E4%BA%A4%E6%B5%81%E5%9F%8E%E4%B9%A1%E7%8E%AF%E5%A2%83%E6%95%B4%E6%B2%BB%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 环境监测 湘东区考察团到我区考察交流城乡环境整治工作', '沿着青山镇高枧村的乡村小路，这里农户的院子没有厚实的围墙，一眼望去可以看到小院里或整齐码放着精美的盆栽，或种植了各种花木。考察团对“全民参与+村委考评”的农村清洁工程管理模式纷纷表示赞赏。', '考察团一行来到八一街联建小区改造现场，详细了解小区“一化、三修、四改、五配套”改造提升原则、小区居民自治的具体做法，一致对“党建引领、居民自治、共商共建”的老旧小区改造理念给予高度评价。', '在城郊流万市场，工作人员详细介绍了流万市场基本情况以及管理、运营情况。考察团成员仔细询问食品安全检测、数字监控等安全处理工作流程，通过信息查询系统查询市场管理和市场服务功能，对我区引进智能化设施设备，改善农贸交易环境和不断丰富市民菜篮子给予充分肯定。', '来到十里花溪，考察团一行途经花溪小筑、廊桥等区域，详细了解了十里花溪建设理念、整体规划、海绵运用及经营模式等内容，并对十里花溪良好的生态水循环，有效保持原生态美的建设理念表示高度赞扬。', '黎增义向湘东区考察团前来我区考察表示热烈欢迎，他说，此次交流，更有利于两地进一步建立紧密联系，加强各领域交流合作，促进共同繁荣发展。他希望双方在城乡环境整治工作等方面要加强沟通，深化优势互补。', '考察团成员表示，此次湘东区考察团来到安源区考察，深受触动，城乡环境整治、老旧小区改造、智慧农贸市场提升改造、海绵城市建设等无不让人印象深刻，希望以此次考察为契机，进一步增进学习交流，携手并进，互学互鉴共发展。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>120</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>鹰潭市工程建设项目审批制度改革</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2020-11-17</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2020%2F11%2F17%2Fart_3811_810862.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E9%B9%B0%E6%BD%AD%E5%B8%82%E5%B7%A5%E7%A8%8B%E5%BB%BA%E8%AE%BE%E9%A1%B9%E7%9B%AE%E5%AE%A1%E6%89%B9%E5%88%B6%E5%BA%A6%E6%94%B9%E9%9D%A9%E8%80%83%E5%AF%9F%E7%BB%84%E5%88%B0%E6%88%91%E5%B8%82%E4%B8%8A%E6%A0%97%E5%8E%BF%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 政务动态 鹰潭市工程建设项目审批制度改革考察组到我市上栗县考察学习', '11月12-13日，鹰潭市发改委党组成员、副主任孙伟率鹰潭市工程建设项目审批制度改革考察学习组一行9人到我市上栗县考察学习工程建设项目审批制度改革区域评估工作。', '13日上午9：00，在上栗县住建局召开了工程建设项目审批制度改革工作座谈交流会。会上，萍乡市工改办，上栗县工改办、发改委、行政审批局、工业园等单位作了交流发言，考察组成员就各自职能工作与对口单位进行了沟通对接，就更好开展好工程建设项目审批制度改革下阶段各项工作深入交换了意见，互相学习，互相借鉴，互相提高。', '最后，孙伟强调，工程建设项目审批制度改革工作是党中央、国务院布置的一项非常重要的工作，是进一步转变政府职能，提高服务水平，优化营商环境的重要抓手，职能部门要主动担当，不畏艰难，不打折扣做好改革各项工作，坚定不移把工程建设项目审批制度改革不断推向前进。', '会后，考察组一行来到上栗县行政审批中心、上栗县工业园伍子醉食品加工厂、萍乡市丰达兴线路板制造有限公司等实地考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>120</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>对标对表共促发展萍乡市统计局赴鹰潭市学习交流</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F8%2F1%2Fart_19_1134677.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AF%B9%E6%A0%87%E5%AF%B9%E8%A1%A8%20%E5%85%B1%E4%BF%83%E5%8F%91%E5%B1%95%20%E8%90%8D%E4%B9%A1%E5%B8%82%E7%BB%9F%E8%AE%A1%E5%B1%80%E8%B5%B4%E9%B9%B0%E6%BD%AD%E5%B8%82%E5%AD%A6%E4%B9%A0%E4%BA%A4%E6%B5%81</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['7月28日-29日，萍乡市统计局党组书记、局长刘波率市局领导班子和业务科长赴鹰潭市学习交流，学习鹰潭以高质量统计服务高质量发展的好思路、好经验、好做法。', '刘波一行先后来到鹰潭高新区的江西鑫铂瑞科技有限公司、江西弘信柔性电子科技有限公司、江西水晶光电有限公司，余江眼镜园区的江西沃德尔有限公司、鹰潭晶威眼镜有限公司进行学习调研。', '随后，在鹰潭市统计局召开了座谈交流会。刘波表示，这是一场友谊之旅、学习之旅。鹰潭市统计局在工作理念、工作机制、工作方式、工作作风等许多方面值得我们学习借鉴：一是统计监测预警及时高效。我们要以鹰潭市统计局为参照系，进一步提高统计监测预警的及时性、有效性和创新性。二是统计分析研判精准全面。要更加主动地融入到全市发展大局中去，充分发挥出经济运行监测部门联席会议工作机制的作用，形成上下联动、运转高效、无缝对接的工作运转机制。三是统计服务模式丰富多样。要对照先进找差距，以只争朝夕、时不我待的拼搏精神，以高质量统计服务高质量发展。希望借此难得的学习机会，双方能在提高数据质量、经济运行监测、建“数库”当“智库”、夯实基层基础等方面进行深入交流，共商对策、共谋发展。希望能够通过此次交流，双方就此建立起互访互动互联机制，进一步增强工作合力，实现共谋共享共赢，共同助力地方经济高质量跨越式发展。', '希望能够通过此次交流，双方就此建立起互访互动互联机制，进一步增强工作合力，实现共谋共享共赢，共同助力地方经济高质量跨越式发展。', '鹰潭市统计局局长刘林根、党组书记张莉琴对萍乡市统计局一行来鹰潭学习交流表示热烈欢迎，并强调，此次是一场双向学习、双向沟通之旅，双方要一同按照“作示范、勇争先”的目标，踔厉奋发，完成各项统计工作任务，全力服务经济社会发展。并就鹰潭市统计局的统计监测预警、统计分析研判、统计服务模式等作了详细的介绍。', '双方要一同按照“作示范、勇争先”的目标，踔厉奋发，完成各项统计工作任务，全力服务经济社会发展。并就鹰潭市统计局的统计监测预警、统计分析研判、统计服务模式等作了详细的介绍。', '与会人员分别进行了交流发言，大家一致表示，要认真学习鹰潭市统计局助推经济社会高质量发展的优秀做法，主动作为、奋力拼搏，切实将学习考察成果转化为加快推动高质量统计服务高质量发展的实际成效。', '鹰潭市统计局局长刘林根、党组书记张莉琴以及班子成员、业务科长分别陪同学习考察或出席座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>120</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>萍乡市召开大气防治工作机制研讨会</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2021-10-19</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F10%2F19%2Fart_19_1065590.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%8F%AC%E5%BC%80%E2%80%9C%E5%A4%A7%E6%B0%94%E9%98%B2%E6%B2%BB%E5%B7%A5%E4%BD%9C%E6%9C%BA%E5%88%B6%E2%80%9D%E7%A0%94%E8%AE%A8%E4%BC%9A</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['刘仁羿副市长结合10月16日在九江学习考察大气污染防治的情况对我市大气防治工作机制的针对性、科学性、可操作性进行了分析，并提出了具体建议。', '活动中，与会人员就从快建立健全全区域联动治理机制、智慧平台建设、完善大气污染防治机制等方面进行了研讨。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>120</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>关于开展萍乡市三社联动试点工作的通知</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2017-12-28</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2017%2F12%2F28%2Fart_4029_124132.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%B3%E4%BA%8E%E5%BC%80%E5%B1%95%E8%90%8D%E4%B9%A1%E5%B8%82%E2%80%9C%E4%B8%89%E7%A4%BE%E8%81%94%E5%8A%A8%E2%80%9D%E8%AF%95%E7%82%B9%E5%B7%A5%E4%BD%9C%E7%9A%84%E9%80%9A%E7%9F%A5</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['根据民政部财政部《关于加快推进社区社会工作服务的意见》和全省“三社联动”推进会要求，为探索建立以社区为平台、社会组织为载体、社工专业人才为支撑的社区社会工作服务“三社联动”机制，决定在老站社区开展社区社会工作服务“三社联动”试点，为确保试点工作有序开展、扎实推进、取得实效，现就有关事项通知如下。', '以满足居民需求、促进社区和谐、推动社区发展为根本出发点，以社区社会工作专业人才队伍建设为核心，以培育社区社会工作服务组织为基础，以普及应用社会工作专业理念、知识与方法为关键，以深化社区社会工作服务为重点，以建立健全体制机制、完善政策制度为保障，加快推进社区社会工作事业发展，为构建社会主义和谐社会、改善基础民生、巩固党的执政基础提供有力支撑。', '（一）培养社会工作专业人才。建立健全社区社会工作专业人才培养制度。重点对社区直接从事社会服务的人员进行大规模、系统化的社会工作专业知识培训，逐步提升转化为社会工作专业人才。支持社区管理与服务人员参加社会工作者职业水平考试，逐步实现社区工作人员社工化。', '立健全社区社会工作专业人才培养制度。重点对社区直接从事社会服务的人员进行大规模、系统化的社会工作专业知识培训，逐步提升转化为社会工作专业人才。支持社区管理与服务人员参加社会工作者职业水平考试，逐步实现社区工作人员社工化。', '（二）开发社区社会工作岗位。逐步在社区服务中心、社区服务站、社区矫正机构等社区公共服务平台设置社会工作专业岗位，配备社会工作专业人才，鼓励社会工作专业人才通过选举进入社区党组织、社区居民自治组织、业主委员会。', '逐步在社区服务中心、社区服务站、社区矫正机构等社区公共服务平台设置社会工作专业岗位，配备社会工作专业人才，鼓励社会工作专业人才通过选举进入社区党组织、社区居民自治组织、业主委员会。', '（三）培养壮大社区社会组织。制定激励措施，落实扶持政策，加强规范管理，促进社区社会组织的培育发展，发挥社区社会组织在开展公益慈善、丰富群众文化生活、化解社会矛盾等方面的积极作用。社区社会组织的数量达到10个以上，其中具有承接政府购买社会工作服务能力的社区社会组织达到1个以上。', '定激励措施，落实扶持政策，加强规范管理，促进社区社会组织的培育发展，发挥社区社会组织在开展公益慈善、丰富群众文化生活、化解社会矛盾等方面的积极作用。社区社会组织的数量达到10个以上，其中具有承接政府购买社会工作服务能力的社区社会组织达到1个以上。', '（四）推进专业社会工作服务务。根据社区居民需求，通过政府购买、项目化运作等方式，逐步将面向社区的事务性、服务性工作委托有专业能力的社会组织承接，社会组织聘用社会工作专业人才提供服务。', '务。根据社区居民需求，通过政府购买、项目化运作等方式，逐步将面向社区的事务性、服务性工作委托有专业能力的社会组织承接，社会组织聘用社会工作专业人才提供服务。', '（一）前期准备。摸底调研，组织规划设计，开展工作对接，组织业务培训，外出学习考察，制定实施方案，组建领导机构，建立工作机制，召开动员大会。', '摸底调研，组织规划设计，开展工作对接，组织业务培训，外出学习考察，制定实施方案，组建领导机构，建立工作机制，召开动员大会。', '（二）组织实施。根据社区居民需求，重点开展针对老年人、未成年人、外来务工人员、残疾人和低收入家庭的社区照顾、社区融入、社区矫正、社区康复、就业辅导、精神减压与心理疏导服务。根据社区居民需求，综合运用个案工作、小组工作和社区工作方法，为有需要的社区居民及家庭提供个案辅导服务，开展小组活动，推动社区教育，提升居民个人和家庭社会功能；引导和培养居民主动参与社区公共生活和社区事务，加强社区居民能力建设，增强社区发展能力，建立健全社区支持网络；组织社区居民实现自助、互助和社区自治，形成理性平和、宽容接纳、诚信友爱、平等尊重的居民关系，增强社区凝聚力、归属感和人文关怀，促进社区文明、和谐与稳定。', '根据社区居民需求，重点开展针对老年人、未成年人、外来务工人员、残疾人和低收入家庭的社区照顾、社区融入、社区矫正、社区康复、就业辅导、精神减压与心理疏导服务。根据社区居民需求，综合运用个案工作、小组工作和社区工作方法，为有需要的社区居民及家庭提供个案辅导服务，开展小组活动，推动社区教育，提升居民个人和家庭社会功能；引导和培养居民主动参与社区公共生活和社区事务，加强社区居民能力建设，增强社区发展能力，建立健全社区支持网络；组织社区居民实现自助、互助和社区自治，形成理性平和、宽容接纳、诚信友爱、平等尊重的居民关系，增强社区凝聚力、归属感和人文关怀，促进社区文明、和谐与稳定。', '（三）总结推广。社区对试点工作进行总结，在试点社区召开现场会，在全市各社区组织推广。', '（一）加强组织领导。成立试点工作领导小组，市民政局副局长朱树森同志为组长，市民政局、安源区民政局、八一街道、老站社区等单位和相关部门负责同志为成员。试点工作由社区居委会负责组织实施,社区明确2名工作人员负责试点工作。', '成立试点工作领导小组，市民政局副局长朱树森同志为组长，市民政局、安源区民政局、八一街道、老站社区等单位和相关部门负责同志为成员。试点工作由社区居委会负责组织实施,社区明确2名工作人员负责试点工作。', '（二）加大经费保障力度。一是市区民政部门在本级福彩公益金中安排专项试点经费。二是在社工服务项目、公益创投项目、社区建设项目、居家养老项目资金上对试点社区进行倾斜。三是积极争取区街党委、政府（办事处）支持，对试点社区逐步增加公共财政投入，安排试点专项经费。四是引导鼓励驻社区企业、社会团体以及社区居民以众筹方式筹集资金。', '一是市区民政部门在本级福彩公益金中安排专项试点经费。二是在社工服务项目、公益创投项目、社区建设项目、居家养老项目资金上对试点社区进行倾斜。三是积极争取区街党委、政府（办事处）支持，对试点社区逐步增加公共财政投入，安排试点专项经费。四是', '（三）加大政策创制力度。根据试点实践经验，探索建立扶持社区社会组织发展政策、开展社区社会工作服务经费保障政策和社会工作人才培养激励、薪酬待遇保障等政策。', '根据试点实践经验，探索建立扶持社区社会组织发展政策、开展社区社会工作服务经费保障政策和社会工作人才培养激励、薪酬待遇保障等政策。', '（四）加大资源整合力度。整合社区社会组织资源，实行“专业社工带志愿者”的工作方法，发挥社区公益社会组织和志愿者在“三社联动”试点工作的作用。整合辖区企业、单位场地资源，扩大“三社联动”服务半径。', '整合社区社会组织资源，实行“专业社工带志愿者”的工作方法，发挥社区公益社会组织和志愿者在“三社联动”试点工作的作用。整合辖区企业、单位场地资源，扩大“三社联动”服务半径。', '（五）加强舆论宣传。充分利用各类媒介，采用多种形式，宣传普及“三社联动”知识，系统宣传社会工作的专业理念和工作方法，深入宣传试点社区先进经验和典型，为健全完善“三社联动”机制提供良好社会氛围。', '充分利用各类媒介，采用多种形式，宣传普及“三社联动”知识，系统宣传社会工作的专业理念和工作方法，深入宣传试点社区先进经验和典型，为健全完善“三社联动”机制提供良好社会氛围。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>120</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>以史育警蓄力前行一上栗县公安局组织民辅警代表赴赣南开展红色教育和学习取经活动</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F4%2F28%2Fart_5533_1237577.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E4%BB%A5%E5%8F%B2%E8%82%B2%E8%AD%A6%20%E8%93%84%E5%8A%9B%E5%89%8D%E8%A1%8C%EF%BC%88%E4%B8%80%EF%BC%89%E2%80%94%E2%80%94%E4%B8%8A%E6%A0%97%E5%8E%BF%E5%85%AC%E5%AE%89%E5%B1%80%E7%BB%84%E7%BB%87%E6%B0%91%E8%BE%85%E8%AD%A6%E4%BB%A3%E8%A1%A8%E8%B5%B4%E8%B5%A3%E5%8D%97%E5%BC%80%E5%B1%95%E7%BA%A2%E8%89%B2%E6%95%99%E8%82%B2%E5%92%8C%E5%AD%A6%E4%B9%A0%E5%8F%96%E7%BB%8F%E6%B4%BB%E5%8A%A8</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 以史育警 蓄力前行（一）——上栗县公安局组织民辅警代表赴赣南开展红色教育和学习取经活动', '以史育警 蓄力前行（一）——上栗县公安局组织民辅警代表赴赣南开展红色教育和学习取经活动', '学习考察组先后参观了中央长征出发纪念园、叶坪、红井、二苏大旧址、中央革命根据地历史博物馆等，一座座传承红色基因的旧址，一件件饱经沧桑的革命文物，一个个湿润眼眶的红色故事引得大家或驻足凝望、或专心聆听、或用心感悟。大家对革命先辈的英雄事迹有了更加鲜活、深刻的认识，深深感受到老一辈革命同志坚定的革命信仰和艰苦奋斗、自强不息的革命精神。', '期间，学习考察组先后赴全南县公安局城厢派出所、情报指挥中心和赣州市公安局章贡分局南外派出所、章江派出所等单位实地学习交流', '“双提升”、情指行一体化、规范化建设、从优待警等工作，并与全南县公安局、章贡分局相关局领导和部门负责同志面对面进行了座谈交流。', '在学习过程中，民辅警们感受到了全南公安深厚的群众基础和章贡公安信息化建设的蓬勃发展。大家本着', '“对标杆找差距，学先进促发展”的学习态度，一路看、一路听、一路议，既学习他们的先进经验做法，也学习他们脚踏实地、精益求精的实干精神，对推进上栗公安民心警务、信息化建设、“情指行”一体化实战运行有了新思考、新启发。', '“讲收获、摆问题、谈思路、提举措”开展交流座谈。大家一致表示，此次学习既是一次充电加油，也是红色的精神洗礼，既是警心工程，更是荣誉激励，将以更加饱满的热情和顽强的作风投入工作，在以后的工作中紧紧围绕两种警务、八大工程，与县局党委同心、同德、同向、同行、同力，推进上栗公安工作迈向新台阶！']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>120</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>武宁县卫健委</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F3%2F17%2Fart_20_1218687.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%AD%A6%E5%AE%81%E5%8E%BF%E5%8D%AB%E5%81%A5%E5%A7%94%E8%80%83%E5%AF%9F%E5%9B%A2%E8%8E%85%E4%B8%B4%E8%8A%A6%E6%BA%AA%E5%8E%BF%E5%8F%82%E8%A7%82%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['3月16日，武宁县卫健委党组书记、主任梅孔模率考察团莅临芦溪县参观学习基层医疗卫生机构服务能力建设、国家基本公共卫生服务和医防融合等工作。县卫健委党组书记、主任黄英胜，党组成员、副主任王启生，基层股股长李娇等陪同参观学习。', '考察团一行先后来到宣风镇中心卫生院、上埠镇中心卫生院现场观摩，实地考察各科室的运行情况，特色亮点等。', '座谈会上，黄英胜就我县医疗机构基本情况、运行状况及医防融合等工作做了简要的汇报，双方就后疫情时代如何提升基层医疗机构管理能力和加快推进服务水平进行深入交流。', '考察团表示此行学习虽然时间短，但是收获颇丰，以后还要加强沟通交流，进一步推动基层医疗卫生机构服务能力走深走实，向纵深发展。要结合实际，把我县好的经验和做法借鉴到工作中去，为当地的卫生健康事业做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>120</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>峡江县住建局赴湘东考察学习保交楼工作</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F8%2F29%2Fart_5533_1256994.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B3%A1%E6%B1%9F%E5%8E%BF%E4%BD%8F%E5%BB%BA%E5%B1%80%E8%B5%B4%E6%B9%98%E4%B8%9C%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0%E2%80%9C%E4%BF%9D%E4%BA%A4%E6%A5%BC%E2%80%9D%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['8月29日上午，峡江县住建局陈志良副局长带队到我局考察学习“保交楼”工作。区住房保障中心主任陈宝林及房地产市场监督股股长杨建军参加。', '学习考察以座谈会的方式进行，会上，陈宝林从六个方面介绍了保交楼的做法与经验，随后，杨建军在“保交楼”的资金来源、资金监管、工抵房等方面进行了补充发言，考察组详细了解了湘东区在“保交楼”工作取得的成效。', '考察组一致认为，湘东在推进“保交楼”过程中，区委、区政府高度重视，成立工作专班，部门协同推进，创新管理办法，措施得力，成效明显，值得学习推广。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>120</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>李宁率企业家赴长沙考察</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2017-11-13</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2017%2F11%2F13%2Fart_5531_1137781.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%9D%8E%E5%AE%81%E7%8E%87%E4%BC%81%E4%B8%9A%E5%AE%B6%E8%B5%B4%E9%95%BF%E6%B2%99%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['11月6日，市委常委、统战部长、市促进非公有制经济发展领导小组组长李宁，率领市工商联有关负责同志及民营企业家等一行50多人，赴长沙工业园学习考察。', '考察团一行先后参观了长沙经济技术开发区展示馆、三一集团、远大科技集团，实地了解生产经营情况。李宁要求，萍乡本地企业要认真学习借鉴长沙工业园企业的好经验、好做法，积极拥抱“互联网+”、大数据时代，打造萍乡特色品牌；要不断优化经济结构，抓重点、补短板、强弱项，做好沿海地区产业转移工作。有关部门要进一步激发和保护企业家精神，创造良好的发展环境；积极引导商会和非公人士参与到脱贫攻坚行动中去；积极加强商会建设和新生代企业家培育等，搭好连心桥。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>120</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>湘东工业园新余经开区一行来园区考察</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F2%2F16%2Fart_20_1213026.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B9%98%E4%B8%9C%E5%B7%A5%E4%B8%9A%E5%9B%AD%EF%BC%9A%E6%96%B0%E4%BD%99%E7%BB%8F%E5%BC%80%E5%8C%BA%E4%B8%80%E8%A1%8C%E6%9D%A5%E5%9B%AD%E5%8C%BA%E8%80%83%E5%AF%9F</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['2月15日，新余经济开发区组织相关人员来园区考察，学习考察园区在人事体制机制、内部管理、薪酬待遇等方面的先进做法和宝贵经验。', '5人，分别为渝水区政府办副主任游振坤、新余经开区党工委副书记张小兵，新余经开区党工委委员、管委会副主任、建设服务部长张博，新余经开区管委会副主任、财税服务部部长孙先中以及新余经开区副科级干部、党群服务部部长薛继鹏，湘东工业园党委委员、武装部长、管委会副主任刘放清进行接待并陪同考察。', '考察团一行先后参观了科创中心以及嘉沃家居、拓源实业等企业，随后在园区一楼会议室开展座谈会，刘放清就园区机制体制改革相关情况与考察团进行了充分的交流探讨。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>120</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>他山之石可以攻玉市财政局赴景德镇市</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2019-05-13</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F5%2F13%2Fart_3811_734335.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E4%BB%96%E5%B1%B1%E4%B9%8B%E7%9F%B3%EF%BC%8C%E5%8F%AF%E4%BB%A5%E6%94%BB%E7%8E%89%E2%80%94%E2%80%94%E5%B8%82%E8%B4%A2%E6%94%BF%E5%B1%80%E8%B5%B4%E6%99%AF%E5%BE%B7%E9%95%87%E5%B8%82%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['5月6日-7日，市财政局党组书记、局长李新民率考察组一行7人，赴景德镇市考察学习财政体制、土地管理以及投融资等工作。景德镇市财政局党组书记、局长孙艳峰全程陪同考察。', '考察组先后参观了景德镇市“双创双修”重点城建项目--国家森林公园、陶溪川陶瓷文化创意园和御窑博物馆。在参观过程中，考察组认真听取项目相关责任人介绍，现场进行交流讨论。', '在座谈会上，孙艳峰对萍乡市财政局考察组一行表示热烈欢迎，并详细介绍了景德镇市近年来实施的市、区“分税制”改革、土地管理体制以及支持投融资方面的经验做法。考察组成员边听边记，就有关事项踊跃发言，互相交流学习两地财政工作的先进做法，特别是突破重点改革上讨论得十分深入细致、富有成效。', '李新民代表考察组感谢景德镇市财政局的热情接待，表示此次考察学习收获颇丰，不虚此行，达到了预期的目的：一是加强了兄弟地市财政系统之间的联系，有利于两地财政工作业务的对接与交流；二是学习了景德镇市在财税体制、土地体制改革和投融资方面工作的先进经验，为加快推进我市相关改革工作提供了很好的借鉴；三是景德镇市城市建设处处体现大手笔、高起点和高标准，进一步拓宽了财政支持项目建设的工作思路。希望两地财政系统保持密切交流和联系，扎实推进财政各项工作，共同为两地经济社会持续健康发展作出新的更大贡献。', '返萍后，李新民要求参加考察学习的同志认真总结此次学习考察成果，认真梳理，把好的经验做法消化吸收，抓紧提出我市相关领域改革建议，进一步改进工作、破解难题，推动我市财政工作提质增效。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>120</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>市政务服务中心赴赣州市考察学习政务服务工作</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F7%2F24%2Fart_19_1248758.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E6%94%BF%E5%8A%A1%E6%9C%8D%E5%8A%A1%E4%B8%AD%E5%BF%83%E8%B5%B4%E8%B5%A3%E5%B7%9E%E5%B8%82%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0%E6%94%BF%E5%8A%A1%E6%9C%8D%E5%8A%A1%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['为借鉴学习先进地市政务服务工作经验，助力提升我市政务服务工作能力和服务水平，7月6日，市政务服务中心组队赴赣州市开展考察学习。', '考察组一行先后实地参观了赣州市、赣县区行政审批局及其政务大厅，认真听取了赣州市“一站式集成”审批改革、惠企政策兑现和数字政务等特色做法和工作情况介绍。', '在随后召开的经验交流座谈会上，赣州市行政审批局就赣州市政务服务工作开展情况向考察组做了详细介绍。双方就政务服务数字化建设、中介服务超市运营管理、“12345热线”建设管理、“一件事一次办”改革、政务服务大厅运行管理及信息化建设等工作进行了深入交流探讨。', '下一步，萍乡市政务服务中心将积极学习借鉴省内外先进地市政务服务工作经验和优秀做法，着力对标先进强认识、补短板、创特色、求实效，努力开创政务服务工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>120</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>市发改委赴湖南省长沙市发改委对接赣湘合作</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2019-05-28</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F5%2F28%2Fart_3811_735315.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%8F%91%E6%94%B9%E5%A7%94%E8%B5%B4%E6%B9%96%E5%8D%97%E7%9C%81%E9%95%BF%E6%B2%99%E5%B8%82%E5%8F%91%E6%94%B9%E5%A7%94%E5%AF%B9%E6%8E%A5%E8%B5%A3%E6%B9%98%E5%90%88%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['为贯彻落实市委、市政府加强赣湘合作有关指示精神，进一步深化萍乡与长沙合作，5月27日下午，市发改委主任黎春源、市苏区办专职副主任何宏等一行四人专程赴长沙市发改委学习考察。', '双方就长沙萍乡两市签订战略合作框架协议以来的合作成效进行了交流，对下一阶段在发展规划、基础设施、经贸产业、文化旅游、公共服务、生态环保等重点领域加强合作，并在建立多层次交流合作推进机制方面达成了共识，取得了预期效果。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>120</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>以史育警蓄力前行二上栗县公安局组织民辅警代表赴井冈山开展红色教育和学习取经活动</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F5%2F15%2Fart_20_1237620.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E4%BB%A5%E5%8F%B2%E8%82%B2%E8%AD%A6%20%E8%93%84%E5%8A%9B%E5%89%8D%E8%A1%8C%EF%BC%88%E4%BA%8C%EF%BC%89%E2%80%94%E2%80%94%E4%B8%8A%E6%A0%97%E5%8E%BF%E5%85%AC%E5%AE%89%E5%B1%80%E7%BB%84%E7%BB%87%E6%B0%91%E8%BE%85%E8%AD%A6%E4%BB%A3%E8%A1%A8%E8%B5%B4%E4%BA%95%E5%86%88%E5%B1%B1%E5%BC%80%E5%B1%95%E7%BA%A2%E8%89%B2%E6%95%99%E8%82%B2%E5%92%8C%E5%AD%A6%E4%B9%A0%E5%8F%96%E7%BB%8F%E6%B4%BB%E5%8A%A8</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 以史育警 蓄力前行（二）——上栗县公安局组织民辅警代表赴井冈山开展红色教育和学习取经活动', '以史育警 蓄力前行（二）——上栗县公安局组织民辅警代表赴井冈山开展红色教育和学习取经活动', '借助井冈山得天独厚的红色资源优势，学习考察组实地探寻革命先辈足迹和伟大井冈山精神。民辅警走进井冈山革命博物馆，了解井冈山斗争史，观看革命先烈事迹，体验革命先辈开展的一系列斗争场景；参观小井红军医院、黄洋界哨口、龙江书院、茨坪毛泽东旧居、大井朱毛旧居，畅想当年红军指战员众志成城、勇于胜利的革命斗志；前往井冈山革命烈士陵园，向革命先烈敬献花圈、默哀悼念并重温入党誓词，学习革命先辈不屈不挠的革命精神，凝聚奋进力量积极投身到公安工作中去。', '期间，学习考察组先后赴井冈山市公安局茨坪派出所、泰和县公安局及水上派出所、车驾管服务中心、工业园派出所等单位实地学习交流，并与当地公安局相关局领导和部门负责同志面对面进行了座谈交流。其中茨坪派出所构建', '“1+4+N”群防群治模式，网格化管理专职巡防队伍、组建“治安调解理事会”、“五老调解平台”，协助调处群众身边的小矛盾、小问题、小纠纷、小摩擦、小投诉；以及泰和公安打造车驾管便民服务中心、特巡警尖刀队、执法办案中心、合成作战中心、指挥中心执法规范化、信息化建设和“情指勤舆”一体化机制建设等情况都让民辅警们感受到了兄弟单位的先进经验和工作理念。大家认真观摩、仔细聆听、用心思考，本着“对标杆找差距，学先进促发展”的学习态度，一路看、一路听、一路议，既学习他们的先进经验做法，也学习他们脚踏实地、精益求精的实干精神，对推进上栗公安民心警务、信息化建设、“情指行”一体化实战运行有了新思考、新启发。', '“干货”，踏上归途。五天的参观学习和交流，行程虽然紧凑，但每一名同志都感觉受益匪浅。回程路上，民辅警们围绕“讲收获、摆问题、谈思路、提举措”开展交流。', '大家一致表示，此次学习既是一次充电加油，也是红色的精神洗礼，既是警心工程，更是荣誉激励，将以更加饱满的热情和顽强的作风投入工作，在以后的工作中紧紧围绕两种警务、八大工程，与县局党委同心、同德、同向、同行、同力，推进上栗公安工作迈向新台阶！']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>120</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>芦溪县公安局召开理论</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F11%2F1%2Fart_20_1273038.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%8A%A6%E6%BA%AA%E5%8E%BF%E5%85%AC%E5%AE%89%E5%B1%80%E5%8F%AC%E5%BC%80%E7%90%86%E8%AE%BA%E5%AD%A6%E4%B9%A0%E4%B8%AD%E5%BF%83%E7%BB%84%EF%BC%88%E6%89%A9%E5%A4%A7%EF%BC%89%E9%9B%86%E4%BD%93%E5%AD%A6%E4%B9%A0%E4%BC%9A%20%E4%BC%A0%E8%BE%BE%E5%AD%A6%E4%B9%A0%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E5%9C%A8%E6%B1%9F%E8%A5%BF%E8%80%83%E5%AF%9F%E6%97%B6%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E7%B2%BE%E7%A5%9E</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 芦溪县公安局召开理论学习中心组（扩大）集体学习会 传达学习习近平总书记在江西考察时重要讲话精神', '芦溪县公安局召开理论学习中心组（扩大）集体学习会 传达学习习近平总书记在江西考察时重要讲话精神', '10月23日，芦溪县公安局召开理论学习中心组（扩大）集体学习会，传达学习习近平总书记在江西考察和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，认真贯彻落实省、市、县领导干部会议部署要求。副县长、公安局长李旦出席会议并讲话。', '在全面贯彻落实党的二十大精神的开局之年，在全党深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育的关键时刻，习近平总书记时隔四年再次亲临江西考察调研，饱含着对江西的巨大关怀和对老区人民的深情厚爱，充分体现了习近平总书记对江西发展一以贯之的关心关怀和殷切期望。习近平总书记在江西考察时的重要讲话高屋建瓴、思想深邃、内涵丰富、饱含深情，为新时代江西改革发展指明了新方向、标定了新坐标、赋予了新使命、提出了新要求，具有很强的政治性、战略性、针对性和指导性。各单位要及时将习近平总书记在江西考察时重要讲话精神进行传达学习和研究部署。', '全县公安机关要坚持以习近平新时代中国特色社会主义思想为指引，深刻领会习近平总书记在江西考察时的重要讲话精神，更加旗帜鲜明讲政治，时刻铭记习近平总书记和党中央的关心关怀，坚持政治建警，切实把总书记的关心关怀转化为对党绝对忠诚的政治信仰。始终牢记', '“公安姓党”的政治属性，时时处处同习近平总书记重要指示精神和党中央决策部署对标对表，不断提升政治判断力、政治领悟力、政治执行力。', '要准确把握习近平总书记重要讲话精神的丰富内涵和实践要求，要把深入学习宣传贯彻习近平总书记在江西考察时的重要讲话精神作为当前和今后一个时期的首要政治任务，将其与学习贯彻党的十八大以来习近平总书记对江西工作的一系列重要讲话重要指示精神结合起来，与贯彻党的二十大精神和党中央决策部署结合起来，与深入开展主题教育结合起来，迅速掀起学习宣传贯彻的热潮。', '“人民的保护神”的殷切嘱托，把学习宣传贯彻习近平总书记在江西考察时的重要讲话精神转化为忠实履行职责使命的强大动力,聚焦主责主业，忠诚履职、担当作为。依托“破案工厂”机制，高压严打震慑犯罪，全面落实打防管控各项措施，深入推进“双提升”工作进位争先，严密开展巡逻防控，优化“1、3、5”快反机制，优化“放管服”改革，持续开展入户走访，进一步拉近警民关系，不断提升人民群众的安全感和满意度。', '“在推动长江经济带发展上善作为”的重要要求，认真落实长江“十年禁渔”重要要求，着力保护好芦溪山口岩水源地、维护好山口岩水库良好生态环境，加强生态文明建设，依托水上联勤室，成立一支覆盖行政执法和刑事打击功能的联合执法队伍，同时积极探索科技赋能，与市局警航开展联动合作，打造“机动警力+水域巡查+空中无人机”三位一体巡查新模式。', '“两个维护”的必然要求、是推动公安工作高质量发展的必由之路、是锻造“四个铁一般”过硬公安铁军的必备条件。要突出管警爱警，促进队伍职业化建设，深化政治建警，健全完善日常监督管理制度机制，坚定坚决贯彻落实中央八项规定及其实施细则精神，深入推进党风廉政建设和反腐败斗争，拓展公安清廉文化的发展空间和展示平台，着力锻造一支让党中央放心、人民群众满意的高素质过硬公安队伍，为奋力谱写中国式现代化芦溪篇章贡献更多公安力量。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>120</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>关于印发萍乡市农业系统关于进一步加强社会主义法治文化建设实施方案的通知</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2017-09-12</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2017%2F9%2F12%2Fart_4029_126439.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%B3%E4%BA%8E%E5%8D%B0%E5%8F%91%E3%80%8A%E8%90%8D%E4%B9%A1%E5%B8%82%E5%86%9C%E4%B8%9A%E7%B3%BB%E7%BB%9F%E5%85%B3%E4%BA%8E%E8%BF%9B%E4%B8%80%E6%AD%A5%E5%8A%A0%E5%BC%BA%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%B3%95%E6%B2%BB%E6%96%87%E5%8C%96%E5%BB%BA%E8%AE%BE%E5%AE%9E%E6%96%BD%E6%96%B9%E6%A1%88%E3%80%8B%E7%9A%84%E9%80%9A%E7%9F%A5</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 其他文件 关于印发《萍乡市农业系统关于进一步加强社会主义法治文化建设实施方案》的通知', '各县（区）农业局、开发区社会发展局、武功山风景名胜区管委会，局机关各科室局、局属各单位：', '根据省、市关于推进社会主义法治文化建设要求，结合农业部门实际，制定《萍乡市农业系统关于进一步加强社会主义法治文化建设实施方案》，现印发给你们，请抓好贯彻落实。', '为认真贯彻落实党的十八届四中、五中、六中全会精神和习近平总书记系列重要讲话精神，根据《市委办公室、市政府办公室印发&lt;关于进一步加强全市社会主义法治文化建设的实施意见&gt;的通知》（萍办字〔2017〕32号）文件要求，为大力推进我市农业系统社会主义法治文化建设，提升农业法治文化建设层次与水平，丰富农业法治宣传教育形式，推动形成办事依法、遇事找法、解决问题用法、化解矛盾靠法的良好社会风尚，为建设“五个新萍乡”营造浓厚的法治环境，结合我市农业实际，特制定本方案。', '以党的十八大和十八届三中、四中、五中、六中全会及省第十四次党代会、市第十二次党代会精神为指导，深入贯彻习近平总书记系列重要讲话精神和治国理政新理念新思路新战略，将社会主义核心价值观融入农业法治文化创建中，以培育农业法治信仰、增强农业法治观念为目标，全方位加强农业系统社会主义法治文化建设，为全面推进法治萍乡建设提供强大动力。', '围绕建设“五个新萍乡”总体目标，积极开展形式多样的法治文化建设活动。到“十三五”末，各类农业法治文化活动有序开展，初步形成农业法治文化建设的深厚氛围，力争在全市范围内建设一批具有广泛影响力的农业法治文化基地，创作一批具有良好效应的农业法治文化作品，农业法治特色文化基本形成。', '按照主题鲜明、格调高雅、因地制宜、注重高效的原则，把农业法治文化建设融入到农村文化、农耕文化、乡村旅游文化等文化建设当中，以“一长廊、二平台、三制度、四活动”为载体，鼓励市、县两级农业部门运用微博、微信、网站等新兴媒体开展法治宣传，利用法治宣传日、宪法日等关键节点，深入开展农业法治文化宣传，营造办事依法、遇事找法、解决问题用法、化解矛盾靠法的社会氛围。', '市、县（区）农业部门要充分利用单位LED电子屛或者采取悬挂横幅的方式，开展农业法治文化宣传，在休闲绿化带内设置法治宣传标牌，以农业法治人物、农业法治故事等形式弘扬法治精神，在单位内外围墙设立漫画、图片、书法等农业法治文化专栏，设置中外法治人物雕塑、法治文化阅览室或法治书屋，从而形成一条具有农业特色的社会主义法治文件宣传长廊。', '1.构建电视法治宣传平台。在“丰收”栏目中加入农业法治教育专栏，主要宣传国家惠农政策、农业法律条例、农业环境保护、农业执法宣传等内容，从而打造辐射范围广、群众认可度高的法治文化栏目。', '2.构建微信法治宣传平台。在萍乡市农业局公共微信号的基础上，增加法治宣传功能，定期发布以案说法、律师讲法、领导谈法等内容，进一步强化微信平台法治宣教功能。', '1.建立完善领导干部学法制度。认真贯彻落实我市《关于完善国家工作人员学法用法制度的实施意见》，重点抓好农业部门领导干部这个“关键少数”，健全农业部门领导干部学法用法制度，切实增强运用法治思维、方式深化改革、推动发展、化解矛盾、维护稳定的能力，推动领导干部做尊法学法守法用法的模范。进一步完善局党委中心组学法、周五学习日等工作制度，确保年内集中学法不少于4次。', '2.落实党政主要负责人履行推进法治建设第一责任人职责制度。各县（区）农业局、局属各单位党政主要负责人要作为推进法治农业建设第一责任人，要切实履行法治农业建设重要组织者、推动者和实践者的职责，贯彻落实市委、市政府关于法治建设的重大决策部署，自觉运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定，对法治建设重要工作亲自部署、重大问题亲自过问、重点环节亲自协调、重要任务亲自督办，把本单位各项工作纳入法治化轨道。', '3.建立健全以案释法制度。在农业行政执法实践中开展以案释法和警示教育，使行政执法、纠纷调解和法律服务的过程成为向群众弘扬法治精神的过程，让管理对象、农民朋友通过案例更多更好地了解掌握法律知识，通晓解决处理法律问题之道。', '1.开展法治文化创作及评选活动。围绕广大农民群众最关心、最直接、最现实的问题，以贴近农村为切入点，组织开展摄影、诗歌创作、书法等法治文化作品征集、评选活动，着力打造一批有影响的思想性、艺术性和观赏性相结合，深受农民群众喜爱的法治文化精品力作。', '2.开展农业执法部门法治文化作品评选。市级及各县（区）农业执法部门要根据各自工作实际，每年至少创作出1个以上反映农业执法部门文明执法、规范执法的法治文化作品，每年12月举办一次评比活动，评出3个优秀农业执法文化作品进行表彰。', '3.开展农业法治文化建设交流活动。要积极拓展农业法治文化建设交流途径，通过组织开展调研、学习考察、座谈等形式，促进各县（区）农业局之间学习交流。要积极主动与外单位进行对接，学习其他单位在法治文化建设中好的经验、做法。', '4、开展农业法治宣传活动。按照局“谁执法谁普法”责任制分工，各有关单位要以宪法和农业法律法规为重点，突出重要时间节点，结合专门法宣传日和节假日以及送科技下乡、农资打假、放心农资宣传周等活动，大力开展行业普法活动，编印农业相关法律政策知识宣传单发放给农民群众和基层农业部门，及时将农业法律法规和惠农政策送到农村和农村群众手中。', '（一）加强组织领导。各县(区)农业局、局属各单位要把农业法治文化建设摆上重要议事日程，广泛组织开展各类农业法治文化建设宣传活动，按照《实施方案》中的总体安排，制定切更加细化的方案，明确工作目标、任务和责任，有计划、有步骤地扎实开展农业法治文化建设工作。', '（二）加强工作保障。各县(区)农业局、局属各单位要将农业法治文化建设资金纳入单位预算，强化经费保障；要指定具体负责的科（股）室和负责人员，层层落实，责任到人；要与新农村建设、扶贫、城乡文化推广等工作共同推进。', '（三）加强督导考核。市农业局法治建设领导小组办公室对农业法治文化建设开展定期不定期督查督导，及时通报各县(区)农业局、局属各单位在农业法治文化建设进展情况和存在的问题，督促扎实推进农业法治文化建设。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>120</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>市财政局赴株洲市考察学习政府采购监管工作</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F4%2F28%2Fart_19_1333353.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E8%B4%A2%E6%94%BF%E5%B1%80%E8%B5%B4%E6%A0%AA%E6%B4%B2%E5%B8%82%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0%E6%94%BF%E5%BA%9C%E9%87%87%E8%B4%AD%E7%9B%91%E7%AE%A1%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['为进一步加强我市政府采购监管，优化提升政府采购营商环境，4月24日，市财政局党组成员、副局长李林俊同志带领市县财政部门政府采购监管人员一行6人赴株洲市、醴陵市财政局考察学习政府采购监管方面的工作经验。', '在株洲市财政局和醴陵市财政局的交流座谈会上，当地财政部门分管政府采购的领导、经办同志分别介绍了政府采购监管工作和优化政府采购营商环境等方面的经验做法。双方围绕政府采购过程中的全流程电子化、采购需求管理、质疑投诉等工作中的难点堵点问题进行了深入交流探讨。', '考察成员都表示，这次赴株洲学习考察，看到了工作差距，拓展了思路。下一步将深入思考、认真梳理本次学习所获，结合萍乡实际，聚焦重点、突破难点、打通痛点，不断创新监管模式，优化监管效能，着力推出更多政府采购监管的创新举措，全力以赴做好优化政府采购营商环境工作。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>120</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>丰城市自然资源局到上栗县考察交流矿政管理工作</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2023-09-20</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F9%2F20%2Fart_19_1262384.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E4%B8%B0%E5%9F%8E%E5%B8%82%E8%87%AA%E7%84%B6%E8%B5%84%E6%BA%90%E5%B1%80%E5%88%B0%E4%B8%8A%E6%A0%97%E5%8E%BF%E8%80%83%E5%AF%9F%E4%BA%A4%E6%B5%81%E7%9F%BF%E6%94%BF%E7%AE%A1%E7%90%86%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['9月19日，丰城市自然资源局党组成员杨浩一行到上栗县考察交流矿政管理工作并召开座谈会，上栗县自然资源和规划局、桐木镇、金山镇、上栗县农发公司等单位负责同志陪同。', '会上，上栗县自然资源和规划局党组成员、副局长戴曙光就上栗县矿产资源管理工作要点和“净矿”出让工作主要做法及经验进行了详细介绍，与会人员针对矿政管理工作遇到的难题和“净矿”出让工作等内容进行交流探讨，双方相互学习，取长补短。', '通过座谈交流，丰城市自然资源局负责人详细了解上栗县“净矿”出让等工作进展情况，对上栗县矿政管理工作取得的成效给予充分肯定，表示上栗县“净矿”出让、矿政管理工作等方面做法值得学习，对丰城市采矿权出让管理工作拓宽了思路、提供了借鉴，希望通过此次考察交流，把学习考察成果转化为推动各项工作的思路和举措，以更高标准推动矿政管理工作高质量发展，奋力谱写新时代发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>120</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>市森防指办公室组织县区乡镇开展森林防灭火交流学习</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F4%2F23%2Fart_5532_1333656.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E6%A3%AE%E9%98%B2%E6%8C%87%E5%8A%9E%E5%85%AC%E5%AE%A4%E7%BB%84%E7%BB%87%E5%8E%BF%E5%8C%BA%E3%80%81%E4%B9%A1%E9%95%87%E5%BC%80%E5%B1%95%E6%A3%AE%E6%9E%97%E9%98%B2%E7%81%AD%E7%81%AB%E4%BA%A4%E6%B5%81%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['为更好贯彻落实《全市乡（镇、街）森林防灭火工作规范化建设实施方案》，4月19日，市森林防灭火指挥部办公室组织上栗县应急管理局、上栗县部分乡镇，莲花县应急管理局、莲花县部分乡镇的主要负责人一行30余人，围绕加强基层“七有”和“四有”应急管理体系和能力建设的要求，就如何推进全市乡（镇、街）森林防灭火工作规范化建设，进行现场观摩交流学习。', '考察组一行先后到安源区五陂镇应急所、五陂镇垦殖场林业分场，芦溪县专业森林消防大队，芦溪县上埠镇、上埠村，芦溪镇、新田村，上栗县专业森林消防大队，上栗县长平乡、桐木镇等地，考察县区乡（镇、街）森林防灭火工作规范化建设，详细了解森林防灭火机制运行、指挥调度系统、物资装备储备，专业森林消防大队、乡镇半专业队、乡镇村级扑火应急分队的工作亮点和先进经验并进行相互交流学习。', '通过此次交流学习，大家纷纷表示，将以此次交流学习为契机，进一步结合本地区应急管理森林防灭火工作实际，加快推进乡（镇、街）森林防灭火工作规范化建设，不断提升基层综合应急管理处置能力。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>120</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>河南省供销联社</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2021-12-10</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F12%2F10%2Fart_20_1086550.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B2%B3%E5%8D%97%E7%9C%81%E4%BE%9B%E9%94%80%E8%81%94%E7%A4%BE%E8%80%83%E5%AF%9F%E5%9B%A2%E6%9D%A5%E5%88%B0%E8%8A%A6%E6%BA%AA%E5%8E%BF%E8%80%83%E5%AF%9F%E8%B0%83%E7%A0%94</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['12月9日上午，河南省供销联社党组书记、理事会主任童孟进率考察团来到芦溪县考察调研。省供销联社一级巡视员欧阳太来，省供销联社合作指导处处长马俊彦，省供销联社四级调研员潘孝武，市供销联社主任张波陪同调研。', '童孟进一行来到鑫超商贸有限公司实地调研，认真听取了相关负责人对鑫超商贸有限公司及农产品销售、城乡高效配送等情况介绍，与企业负责人进行了深入交流。一路上看产品、听介绍、问情况，详细了解企业利用“互联网+农业”模式助推农产品上行、推动农村电商发展等方面的经验和做法。', '童孟进一行对芦溪县供销联社在基层组织构建、为农服务创新、龙头项目引领等方面取得的积极成效给予了高度评价。童孟进表示，芦溪县供销社主动作为、敢于探索，解决农产品流通“最先一公里”和工业品下乡“最后一公里”的成效明显，为促进当地农业农村现代化发展和共同富裕贡献了供销力量，相关经验和做法值得学习借鉴，希望河南供销联社能够与江西各供销联社等加强合作、互通有无，推动双方供销合作事业再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>120</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>湘东区上栗县民政局来到芦溪县考察一老一小幸福院建设运营工作</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F3%2F26%2Fart_5533_1318360.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B9%98%E4%B8%9C%E5%8C%BA%E3%80%81%E4%B8%8A%E6%A0%97%E5%8E%BF%E6%B0%91%E6%94%BF%E5%B1%80%E6%9D%A5%E5%88%B0%E8%8A%A6%E6%BA%AA%E5%8E%BF%E8%80%83%E5%AF%9F%E2%80%9C%E4%B8%80%E8%80%81%E4%B8%80%E5%B0%8F%E5%B9%B8%E7%A6%8F%E9%99%A2%E2%80%9D%E5%BB%BA%E8%AE%BE%E8%BF%90%E8%90%A5%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 湘东区、上栗县民政局来到芦溪县考察“一老一小幸福院”建设运营工作', '3月12日，湘东区、上栗县民政局考察组来我县考察学习“一老一小幸福院”建设运营工作，县民政局二级主任科员单宝华、县社会救助服务中心七级职员谌丹分别陪同。', '考察组一行先后来到我县源南乡新棚村、垱下村、宣风镇马塘村一老一小幸福院实地参观学习，与民政局工作人员、幸福院负责人深入探讨幸福院选址标准、建设资金、建设标准及日常运营等情况，并就如何加强“一老一小”工作进行了交流学习。考察组纷纷表示，此次考察学习获益匪浅，为他们提供了一个很好的借鉴标准，也为他们的幸福院建设运营提供了思路和方向；同时，希望兄弟县区继续经验互学、考察互往，共同织密“一老一小”民生保障网。', '目前，我县在芦溪镇、宣风镇、南坑镇、银河镇及源南乡5个乡镇，统筹利用闲置校舍的已有设施、统一规范建设标准，打造了10个为农村留守老人和留守儿童提供助餐、文体活动、精神慰藉等综合服务的“一老一小”幸福院，能够有效满足老年人助餐、娱乐、文化、体育等需求，满足儿童课外活动、情感关怀等需求,有效提升了农村养老服务质量和农村留守、困境儿童关爱服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>120</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>湘东区上栗县民政局来到芦溪县考察一老一小幸福院建设运营工作</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F3%2F12%2Fart_5533_1328996.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B9%98%E4%B8%9C%E5%8C%BA%E3%80%81%E4%B8%8A%E6%A0%97%E5%8E%BF%E6%B0%91%E6%94%BF%E5%B1%80%E6%9D%A5%E5%88%B0%E8%8A%A6%E6%BA%AA%E5%8E%BF%E8%80%83%E5%AF%9F%E2%80%9C%E4%B8%80%E8%80%81%E4%B8%80%E5%B0%8F%E5%B9%B8%E7%A6%8F%E9%99%A2%E2%80%9D%E5%BB%BA%E8%AE%BE%E8%BF%90%E8%90%A5%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 湘东区、上栗县民政局来到芦溪县考察“一老一小幸福院”建设运营工作', '3月12日，湘东区、上栗县民政局考察组来我县考察学习一老一小幸福院建设运营工作，县民政局二级主任科员单宝华、县社会救助服务中心七级职员谌丹分别陪同。', '考察组一行先后来到我县源南乡新棚村、垱下村、宣风镇马塘村一老一小幸福院实地参观学习，与民政局工作人员、幸福院负责人深入探讨幸福院选址标准、建设资金、建设标准及日常运营等情况，并就如何加强', '“一老一小”工作进行了交流学习。考察组纷纷表示，此次考察学习获益匪浅，为他们提供了一个很好的借鉴标准，也为他们的幸福院建设运营提供了思路和方向；同时，希望兄弟县区继续经验互学、考察互往，共同织密“一老一小”民生保障网。', '5个乡镇，统筹利用闲置校舍的已有设施、统一规范建设标准，打造了10个为农村留守老人和留守儿童提供助餐、文体活动、精神慰藉等综合服务的“一老一小”幸福院，能够有效满足老年人助餐、娱乐、文化、体育等需求，满足儿童课外活动、情感关怀等需求,有效提升了农村养老服务质量和农村留守、困境儿童关爱服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>120</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>粤港澳大湾区赣商考察团在湘东考察交流</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2021-04-16</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F4%2F16%2Fart_20_1027026.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E7%B2%A4%E6%B8%AF%E6%BE%B3%E5%A4%A7%E6%B9%BE%E5%8C%BA%E8%B5%A3%E5%95%86%E8%80%83%E5%AF%9F%E5%9B%A2%E5%9C%A8%E6%B9%98%E4%B8%9C%E8%80%83%E5%AF%9F%E4%BA%A4%E6%B5%81</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['4月16日，全国人大代表、粤港澳大湾区赣商联盟主席、深圳江西商会会长、方大集团董事长熊建明率粤港澳大湾区赣商学习考察团在湘东考察交流。江西省政府驻广东（深圳）办事处党组书记、主任刘友龙等一同参加考察，市委副书记鲍峰庭陪同考察，市商务局党委书记、局长孙彬，市工商联主席贺灿梅，区领导杨博、何超等分别陪同。', '在福斯特龙芯微半导体产业园，考察团一行先后来到产品展厅与生产车间进行参观考察，了解企业经营及项目建设进展情况，实地感受湘东投资环境。熊建明说湘东在依托园区载体发展新产业、培育新动能等方面变化明显，推动实现经济高质量发展的力量巨大，是一座充满活力、充满希望、产业兴旺前景看好的城市。', '在零799艺术区，考察团一行饶有兴致地欣赏作品并与艺术家交流。熊建明表示，湘东在依托深厚的文化底蕴和独特的资源禀赋，深挖文化富矿，推动文化与创意设计、旅游等产业深度融合发展，构建了地方文化繁荣发展的新格局。', '考察交流中，考察团成员对湘东发展予以了高度评价，并纷纷表示希望与湘东进一步加强往来、携手发展。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>120</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>粤港澳大湾区赣商考察团在湘东考察交流</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2021-04-17</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F4%2F17%2Fart_5530_1166497.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E7%B2%A4%E6%B8%AF%E6%BE%B3%E5%A4%A7%E6%B9%BE%E5%8C%BA%E8%B5%A3%E5%95%86%E8%80%83%E5%AF%9F%E5%9B%A2%E5%9C%A8%E6%B9%98%E4%B8%9C%E8%80%83%E5%AF%9F%E4%BA%A4%E6%B5%81</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['4月16日,全国人大代表、粤港澳大湾区赣商联盟主席、深圳江西商会会长、方大集团董事长熊建明率粤港澳大湾区赣商学习考察团在湘东考察交流。江西省政府驻广东（深圳）办事处党组书记、主任刘友龙等一同参加考察，市委副书记鲍峰庭陪同考察，市商务局党委书记、局长孙彬，市工商联主席贺灿梅，湘东区领导杨博、何超等分别陪同。', '在福斯特龙芯微半导体产业园，考察团一行先后来到产品展厅与生产车间进行参观考察，了解企业经营及项目建设进展情况，实地感受湘东投资环境。熊建明说湘东在依托园区载体发展新产业、培育新动能等方面变化明显，推动实现经济高质量发展的力量巨大，是一座充满活力、充满希望、产业兴旺前景看好的城市。', '在零799艺术区，考察团一行饶有兴致地欣赏作品并与艺术家交流。熊建明表示，湘东在依托深厚的文化底蕴和独特的资源禀赋，深挖文化富矿，推动文化与创意设计、旅游等产业深度融合发展，构建了地方文化繁荣发展的新格局。', '考察交流中，考察团成员对湘东发展予以了高度评价，并纷纷表示希望与湘东进一步加强往来、携手发展。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>120</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>关于印发萍乡市工商局年干部教育培训计划的通知</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2012-05-17</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2012%2F5%2F17%2Fart_48_119416.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%B3%E4%BA%8E%E5%8D%B0%E5%8F%91%E3%80%8A%E8%90%8D%E4%B9%A1%E5%B8%82%E5%B7%A5%E5%95%86%E5%B1%802012%E5%B9%B4%E5%B9%B2%E9%83%A8%E6%95%99%E8%82%B2%E5%9F%B9%E8%AE%AD%E8%AE%A1%E5%88%92%E3%80%8B%E7%9A%84%E9%80%9A%E7%9F%A5</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 发展规划 关于印发《萍乡市工商局2012年干部教育培训计划》的通知', '现将《萍乡市工商局2012年干部教育培训计划》印发给你们，请结合实际，认真贯彻落实。', '为进一步提升干部职工的政治思想素质、业务水平和工作能力，培养和造就高素质的干部队伍，根据《省工商局2012年度干部教育培训班计划》和《萍乡市工商局2011-2015年干部教育培训规划》（萍工商发[2011]15号），特制定本培训计划。', '以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，以迎接党的十八大召开和学习贯彻党的十八大精神为主线，以服务工商行政管理效能建设为主题，以提高干部队伍履职能力为重点，以全面提高干部队伍整体素质为目标，不断增强干部教育培训的针对性、科学性、统筹性、实效性，努力造就一支“三个过硬”的高素质工商行政管理干部队伍，为把萍乡工商打造成政府部门的“六个样板”提供政治思想保证、人才保证和智力支持。', '1.政治思想专题教育。要在社会主义核心价值体系的大框架下，从萍乡工商队伍现状的实际出发，一是广泛、深入、持久地开展学雷锋活动，在参加省、市有关活动的基础上，要按照《全市工商系统系统深入开展学雷锋活动的实施意见》，扎实开展好学雷锋十项活动；二是适时开展政治思想专题教育活动，进一步增强干部职工的政治意识、纪律意识、大局意识、加强党性修养、个性修养，增强贯彻落实科学发展观、加快转变经济发展方式的责任感和紧迫感。党的十八大召开后，要着重学习党的十八大精神，确保干部职工在政治上、思想上、行动上与党中央保持高度一致。', '2.继续开展全员读书活动和学历提升教育。今年主要学习科目为：马克思主义哲学基本原理、形式逻辑、向解放军学习。读书活动继续采取个人自学和集中辅导相结合，以个人自学为主的方式进行。各单位要落实学习制度，保障学习时间，创新学习方法，建立学习园地，开展心得交流、主题征文比赛、演讲比赛、读书笔记评比等活动；要定期组织考试，检验学习效果，市局半年一考，县（区）局每季度不少于一考，并充分运用考试结果。通过强力推动，使学习常态化、制度化。', '3.岗位大练兵活动。根据各自岗位职责，结合个人的岗位特点，分级分类对履行岗位职能所需的法律法规、执法技能、业务知识进行重点培训，以解决工作实践中的难点为重点，认真组织开展登记注册、市场巡查、公平交易、食品安全、商标、广告、合同监管等各岗位的专业学习培训。并在全系统分级开展打字、书法、朗诵、法律法规知识竞赛及“十佳案卷”评查等活动，自下而上，各县（区）局、基层分局组织本单位竞赛，在层层选拔的基础上推荐选手参加市局竞赛。市局竞赛参赛对象为市局机关、各县（区）局在职正式人员。通过各种形式，不断提高基层干部的岗位履职能力，培养一大批善监管、会执法、能办案的岗位业务骨干。', '4.廉能管理。着重抓好廉洁从政和职业道德规范学习培训，进一步提高广大干部职工的品德修养。认真学习《行政机关公务员处分条例》、《工商行政管理人员职业道德规范》、《国家工商总局依法行政文明执法六项禁令》和党风廉政相关规定等，树立工商干部的良好形象。', '5.网络培训。继续依托国家工商总局行政学院网络教学平台，根据总局的安排，按照相关要求，认真抓好网络培训工作的组织实施，要不断提高基层信息化工作水平，为干部职工开展网络培训提供硬件支持和组织保障。', '6.学习考察。为拓宽工作思路，开阔视野，有计划地组织人员赴外地学习考察接受革命传统教育。市局人员赴省外，县（区）局人员赴省内，分期分批进行；学习考察必须有明确的目的，带着具体问题。不准利用学习考察公费旅游。', '按照统筹兼顾、分级负责的原则，主要采取个人自学、集中培训、以会代训、专题讲座、划片培训、模拟培训、以考代训、岗位练兵、跟班学习、以赛代训等多种形式，分级分期开展培训，坚持集中学习和在岗自学相结合、理论学习和实地考察相结合，使学习、研讨和交流有效衔接，避免盲目性、随意性。进一步提高综合素质，增强适岗能力。', '1.提高认识，加强领导。全系统要充分认识教育培训工作的重要性，按照省局、市局年度培训计划，统筹安排、整体部署，建立干部教育培训领导责任制和目标责任制，一级抓一级，层层抓落实，确保全系统干部教育培训工作的深入有序开展。', '2.坚持按需培训。适应工商行政管理事业改革发展需要，准确把握基层干部队伍特点，真正做到科学发展需要什么就培训什么、基层干部缺什么就补什么，更好地为监管执法服务、为基层干部成长服务。按照学用结合、按需施教的原则，有针对性地制订不同岗位和层次的教育培训实施计划，突出不同岗位业务知识和技能的学习，满足基层干部差异化培训需求。', '3.改进培训方式方法。围绕增强培训的针对性、有效性，积极探索具有时代特点、符合基层干部实际的教育培训新途径。实行组织调训与干部选学、集中培训与经常性教育、脱产培训与网络培训相结合。采取巡回宣讲、流动课堂、送教上门等方式，深入基层一线开展培训。通过岗位技能练兵比武、“帮带”培训、现场教学、情景模拟、案例教学等方式，提高教育培训的针对性和吸引力。', '4.强化督查，严格管理。各县（区）局和各主办科室要不断完善干部教育培训管理机制，加强管理，严格落实培训考勤、考核、考试制度。要将培训与考试考核相结合，考试成绩将记录在档，纳入单位、个人年终考核，作为评选先进和干部选拔任用的重要内容之一，做到考训结合，以考保效。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>120</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>我市赴吉安</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2024-01-30</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F1%2F30%2Fart_19_1301381.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%88%91%E5%B8%82%E8%B5%B4%E5%90%89%E5%AE%89%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0%E2%80%9C%E5%8D%83%E4%B8%87%E5%B7%A5%E7%A8%8B%E2%80%9D%20%E5%BB%BA%E8%AE%BE%E7%BB%8F%E9%AA%8C</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 部门动态 我市赴吉安考察学习“千万工程” 建设经验', '为对标先进、开阔视野，扎实推进和美乡村建设，1月25日，市委副秘书长甘建波、市政府副秘书长刘建华率团赴吉安市，通过“点对点”学习、“面对面”交流，深入学习了吉安市开展“四融一共”和美乡村建设的先进经验。市农业农村局党组书记、局长景国成，副局长陈松清，市直相关部门分管负责同志、各县区、萍乡经开区、武功山风名胜区分管负责同志、农业农村部门负责同志及全市涉农乡镇党委或政府主要负责同志等80余人参加考察。', '近年来，吉安市坚持因地制宜、统筹推进、城乡一体、融合发展，以“四坚持四提升”持之以恒推进宜居宜业和美乡村建设，推动和美乡村由表及里形神兼备，其工作中探索的路子、创造的经验为我市推进和美乡村建设树立了标杆、提供了有益借鉴。', '下一步，我市将以此次考察为契机，把兄弟地市好的经验做法吸收到和美乡村建设的实践中，进一步做优规划、做实产业、做强基础、做精细节，持续抓好乡村产业发展、乡村建设、乡村治理三项重点工作，努力打造景村融合、产村融合、“三治”融合、城乡融合、共同富裕的“四融一共”和美乡村。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>120</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>萍乡市自然资源和规划局一行赴新余市自然资源局考察学习</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2022-08-05</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F8%2F5%2Fart_5530_1140764.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E8%87%AA%E7%84%B6%E8%B5%84%E6%BA%90%E5%92%8C%E8%A7%84%E5%88%92%E5%B1%80%E4%B8%80%E8%A1%8C%E8%B5%B4%E6%96%B0%E4%BD%99%E5%B8%82%E8%87%AA%E7%84%B6%E8%B5%84%E6%BA%90%E5%B1%80%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡市长者专区 萍乡市自然资源和规划局一行赴新余市自然资源局考察学习', '为深入学习和借鉴矿山生态保护和修复的先进经验，近日，萍乡市自然资源和规划局三级调研员徐卫东一行赴新余市自然资源局考察学习。', '抵达新余市自然资源局后，考察组一行参观了宏兴和兴岩废弃矿区、俊宜矿业有限公司龙湖采石场、新余市盛旺矿产品厂、新余市稠树矿业有限公司等矿山企业，详细了解了矿山企业的生态环境保护、生态修复和企业管理情况。', '随后，在新余市自然资源局召开了座谈交流会。会上，新余市自然资源局对新余市持证矿山和废弃矿山治理的经验做法和治理成效进行了详细介绍，双方就两市的矿山生态保护和修复工作进行了深入交流，互相学习经验。', '徐卫东表示，此次学习考察收获颇多，对于今后开展相关工作有很大的启发。我局将认真学习借鉴新余市优秀工作经验，努力做好萍乡市矿山生态保护和修复工作；同时希望两市能进一步加强交流，在学习中共同进步，推动自然资源和规划事业再上新台阶。（供稿：俞秉瀚）']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>120</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>溪心招商县委副书记县长龙萍在海南考察现代农业</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F11%2F13%2Fart_5533_1275807.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E3%80%90%E2%80%9C%E6%BA%AA%E2%80%9D%E5%BF%83%C2%B7%E6%8B%9B%E5%95%86%E3%80%91%E5%8E%BF%E5%A7%94%E5%89%AF%E4%B9%A6%E8%AE%B0%E3%80%81%E5%8E%BF%E9%95%BF%E9%BE%99%E8%90%8D%E5%9C%A8%E6%B5%B7%E5%8D%97%E8%80%83%E5%AF%9F%E7%8E%B0%E4%BB%A3%E5%86%9C%E4%B8%9A</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 【“溪”心·招商】县委副书记、县长龙萍在海南考察现代农业', '龙萍先后来到大茅远洋生态村、三亚崖州湾科技城产业促进中心、乐东县利国镇鸿稻农业南繁基地、海南福嘉农业科技有限公司等地，每到一个考察点，龙萍都认真听取讲解，并与相关负责人深入交流，不时询问有关问题，详细了解海南现代农业发展情况。', '龙萍强调，要进一步解放思想、正视差距、坚定信心，将学到的新经验新理念同芦溪实际相结合，同农业科技创新推广相结合，锚定产业发展方向，聚力农业三产融合，切实把学习考察成果转化为加快芦溪现代农业发展的生动实践，不断推进芦溪现代农业发展迈上新台阶。要不断创新发展理念，优化产业模式，调整产业结构，进一步丰富现代农业发展内涵，大力打造农业新业态，培育农村发展新动能，加快推动产业转型升级。企业要不断拓宽视野，抓好产业链延伸，着力构建集良种选育、仓储物流、品牌建设等在内的全产业链条，助推芦溪现代农业产业化高质量发展。', '县政府办、县农业农村局、县商务局、县农发公司、萍乡市鸿稻农业发展有限公司等有关负责人参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>120</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>建昌县</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2023-11-22</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F11%2F22%2Fart_20_1280356.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%BB%BA%E6%98%8C%E5%8E%BF%E8%80%83%E5%AF%9F%E7%BB%84%E6%9D%A5%E5%88%B0%E8%8A%A6%E6%BA%AA%E5%8E%BF%E8%B0%83%E7%A0%94</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['11月21日，中共建昌县委常委、宣传部长杨艳一行来到芦溪县进行调研考察。县委常委、宣传部长樊喜军，县文广新旅局党组书记、局长彭友元，县新旅旅投公司董事长颜光虎等陪同。', '考察组先后来到南坑窑下、袁水源红色文化园、芦溪新旅城市IP展厅、芦溪博物馆、东阳村、仙凤三宝园等地参观学习，听取了芦溪文旅的总体规划布局和景区运营等方面的介绍，深入了解芦溪县城市IP、文旅融合发展、乡村旅游、机制体制创新等相关内容。', '考察组一行对芦溪文旅事业的发展予以高度评价。一致认为，芦溪文旅资源丰富、历史底蕴深厚，在文旅资源开发、景区建设、城市IP打造和应用等方面取得了很好的成绩，在文旅发展方面的经验和做法值得学习和借鉴，希望今后两地能够进一步加强交流，密切沟通，加深情谊，共谋文旅融合发展。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>120</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>市财政局赴长沙市考察学习优化政府采购营商环境工作</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F3%2F22%2Fart_5633_1290475.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E8%B4%A2%E6%94%BF%E5%B1%80%E8%B5%B4%E9%95%BF%E6%B2%99%E5%B8%82%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0%E4%BC%98%E5%8C%96%E6%94%BF%E5%BA%9C%E9%87%87%E8%B4%AD%E8%90%A5%E5%95%86%E7%8E%AF%E5%A2%83%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['为推进实施优化营商环境“一号改革工程”，市财政局积极对标对表先进城市，向标杆城市学习看齐，持续做好我市优化政府采购营商环境工作。2023年3月16日至17日局党组成员、副局长李林俊带队，市县财政局政府采购相关人员一行7人先后赴长沙市财政局、开福区财政局学习考察政府采购营商环境工作经验。', '在长沙市财政局和开福区财政局的交流座谈会上，当地财政部门负责政府采购的领导、经办同志分别介绍了政府采购监管工作和优化政府采购营商环境等方面的经验做法。考察学习组成员对长沙市政府采购工作的好思路、好做法、好经验非常触动，就工作中的有关问题进行了详细探讨，不断搅动思想、触动思维、推动工作，就下一步工作开展共同探寻新思路、新方法。', '此次考察学习通过“走出去、请进来”的方式，不断吸收借鉴先进经验，对深入推进我市政府采购营商环境工作起到了极大促进作用。我们将不断强化服务功能，努力提高办事效率，聚焦重点、突破难点、打通痛点，不断创新监管模式，优化监管效能，着力推出更多政府采购监管的创新举措，全力以赴做好优化营商环境工作。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>120</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>市委副书记鲍峰庭率团赴浙江杭州考察学习千万工程建设经验</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2023-12-26</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F12%2F26%2Fart_5532_1292052.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%A7%94%E5%89%AF%E4%B9%A6%E8%AE%B0%E9%B2%8D%E5%B3%B0%E5%BA%AD%E7%8E%87%E5%9B%A2%E8%B5%B4%E6%B5%99%E6%B1%9F%E6%9D%AD%E5%B7%9E%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0%E2%80%9C%E5%8D%83%E4%B8%87%E5%B7%A5%E7%A8%8B%E2%80%9D%E5%BB%BA%E8%AE%BE%E7%BB%8F%E9%AA%8C</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 部门动态 市委副书记鲍峰庭率团赴浙江杭州考察学习“千万工程”建设经验', '为学习借鉴浙江“千万工程”的好经验好做法，12月17日-19日，市委副书记鲍峰庭率团赴杭州市学习考察，市委办公室正县级督察员刘治航，市农业农村局党组书记、局长景国成，市资规局党组书记、局长吴瑞文，市乡村振兴局党组书记、局长李德文，市设计集团总经理李仕国，各县区、萍乡经开区、武功山景区党委（党工委）副书记等陪同。', '鲍峰庭一行先后实地考察了桐庐县江南镇环溪村、富春江镇石舍村、余杭区径山镇小古城村、余杭街道永安村，重点对当地和美乡村建设、产业融合发展、乡村治理等工作进行深入调研，考察团还调研了甘源食品（杭州）有限公司。', '要全面学习浙江先进理念，找准方向、提振信心、积极作为，要聚焦环境秀美，坚持规划引领，点、线、面结合推进和美乡村建设，精雕细琢提升乡村整体新风貌；要突出产业富民，坚持美丽乡村与美丽经济“双轮驱动”，建设乡村与经营乡村“同向发力”，激发乡村发展新动能；要强化乡村治理，坚持把党的全面领导落实到乡村环境整治、基础设施改造提升、村民管理服务、乡风文明建设等各个环节，共建共享点亮乡村美好新生活。要推进“数商兴农”和“互联网+”农产品出村进城工程，积极发展电子商务、直销直供、冷链配送、社区团购、直播带货等新业态。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>120</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>市政府副市长刘仁羿召开萍乡市建筑垃圾问题整治工作推进会</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2024-06-06</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F6%2F6%2Fart_19_1343340.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E6%94%BF%E5%BA%9C%E5%89%AF%E5%B8%82%E9%95%BF%E5%88%98%E4%BB%81%E7%BE%BF%E5%8F%AC%E5%BC%80%E8%90%8D%E4%B9%A1%E5%B8%82%E5%BB%BA%E7%AD%91%E5%9E%83%E5%9C%BE%E9%97%AE%E9%A2%98%E6%95%B4%E6%B2%BB%E5%B7%A5%E4%BD%9C%E6%8E%A8%E8%BF%9B%E4%BC%9A</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['2024年6月5日，市政府副市长刘仁羿主持召开萍乡市建筑垃圾问题整治工作推进会。市政府副秘书长刘宗峰，市城管局主要负责同志和分管负责同志，市发改委、市资规局、市工信局、市生态环境局、市林业局分管负责同志，各县（区）政府、萍乡经开区管委会、武功山风景名胜区管委会分管负责同志参加了会议。', '会上，市城管局对萍乡市建筑垃圾方面存在的问题进行了通报，并对下一步推进建筑垃圾消纳场项目建设工作进行安排部署。各县（区）、萍乡经开区、武功山风景名胜区对本县（区）建筑垃圾消纳场项目建设工作进展情况进行了汇报。', '一是科学制定建筑垃圾问题整改方案。坚持问题导向，由市城管局牵头，各相关部门配合，制定萍乡市建筑垃圾问题整改方案，明确建筑垃圾处置全过程整改措施，确保实效。', '二是高度重视建筑垃圾消纳设施建设工作。各县区要高度重视建筑垃圾消纳场建设工作，提前谋划，抓紧抓早完成年度工作任务。市城管局、市生态环境局、市资规局、市发改委要积极指导、支持各县区建筑垃圾消纳场建设的用地、环评、建设规范、收费等相关事项。市城管局要会同市工信局学习考察资源化利用企业运营情况，市工信局要梳理提出资源化利用企业支持优惠政策并合理布局。', '三是建立健全工作调度机制。建立建筑垃圾问题整改工作调度机制，市城管局每半个月进行一次集中调度，市政府每月进行一次总体调度。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>120</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>新余市退役军人事务局来湘东区考察退役军人服务保障体系建设工作</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2023-04-23</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F4%2F23%2Fart_5533_1229072.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%96%B0%E4%BD%99%E5%B8%82%E9%80%80%E5%BD%B9%E5%86%9B%E4%BA%BA%E4%BA%8B%E5%8A%A1%E5%B1%80%E6%9D%A5%E6%B9%98%E4%B8%9C%E5%8C%BA%E8%80%83%E5%AF%9F%E9%80%80%E5%BD%B9%E5%86%9B%E4%BA%BA%E6%9C%8D%E5%8A%A1%E4%BF%9D%E9%9A%9C%E4%BD%93%E7%B3%BB%E5%BB%BA%E8%AE%BE%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 新余市退役军人事务局来湘东区考察退役军人服务保障体系建设工作', '4月21日，新余市退役军人事务局党组书记、局长陈正根一行共10人，到湘东区考察调研退役军人服务保障体系建设工作。萍乡市退役军人事务局党组成员、副局长李新明（主持工作），党组成员、副局长易琪，湘东区人民政府党组成员、副区长范小敏，区政府党组成员、副区长、荷尧镇党委书记黄新亮等领导陪同。', '考察组一行先后参观了荷尧镇退役军人服务站、老关镇檀梓村退役军人服务站、萍乡市民兵训练基地、湘东区退役军人服务中心，详细了解区、乡、村三级服务保障体系建设情况。', '随后，在湘东区退役军人事务局召开座谈会，湘东区退役军人事务局党组书记、局长钟正华就湘东区委、区政将乡村两级退役军人服务站建设列入《湘东区“美丽湘东”建设工作方案》中的深入推进“一院一校一站（退役军人服务站）一中心”建设的主要任务，明确建设标准，每两个月对工作方案中的建设进行现场观摩来推动乡村两级服务保障体系建设作了经验介绍。考察组对湘东区服务保障体系建设工作取得的成绩给予了充分肯定，此次学习考察活动让大家拓宽了视野、开阔了思路，受益颇深。双方还就退役军人服务专干购买服务等工作进行探讨。', '座谈会上，双方一致表示，将以此次考察学习为契机，进一步加强沟通协调和学习交流，互相借鉴，不断探索退役军人事务工作的新方法、新模式，共同促进两地退役军人事务工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>120</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>中共萍乡市国土资源局党组关于印发市国土资源局党组理论学习中心组贯彻中国共产党党委党组理论学习中心组学习规则实施办法的通知</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2018-01-09</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F1%2F9%2Fart_4029_844981.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E4%B8%AD%E5%85%B1%E8%90%8D%E4%B9%A1%E5%B8%82%E5%9B%BD%E5%9C%9F%E8%B5%84%E6%BA%90%E5%B1%80%E5%85%9A%E7%BB%84%E5%85%B3%E4%BA%8E%E5%8D%B0%E5%8F%91%E3%80%8A%E5%B8%82%E5%9B%BD%E5%9C%9F%E8%B5%84%E6%BA%90%E5%B1%80%E5%85%9A%E7%BB%84%E7%90%86%E8%AE%BA%E5%AD%A6%E4%B9%A0%E4%B8%AD%E5%BF%83%E7%BB%84%E8%B4%AF%E5%BD%BB%26lt%3B%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A%E5%85%9A%E5%A7%94%EF%BC%88%E5%85%9A%E7%BB%84%EF%BC%89%E7%90%86%E8%AE%BA%E5%AD%A6%E4%B9%A0%E4%B8%AD%E5%BF%83%E7%BB%84%E5%AD%A6%E4%B9%A0%E8%A7%84%E5%88%99%26gt%3B%E5%AE%9E%E6%96%BD%E5%8A%9E%E6%B3%95%E3%80%8B%E7%9A%84%E9%80%9A%E7%9F%A5</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 其他文件 中共萍乡市国土资源局党组关于印发《市国土资源局党组理论学习中心组贯彻实施办法》的通知', '中共萍乡市国土资源局党组关于印发《市国土资源局党组理论学习中心组贯彻&lt;中国共产党党委（党组）理论学习中心组学习规则&gt;实施办法》的通知', '《市国土资源局党组理论学习中心组贯彻&lt;中国共产党党委（党组）理论学习中心组学习规则&gt;实施办法》已经市局党组同意，现印发给你们，请结合实际认真贯彻执行。', '国土系统各级党组要从政治上、全局上充分认识加强和改进党组中心组学习的重要性和紧迫性，把中心组学习列入重要议事日程，纳入党建工作和意识形态工作责任制，切实担负起中心组学习责任，认真抓好《中国共产党党委（党组）理论学习中心组学习规则》及本实施办法的学习贯彻。要依照本实施办法，制定和完善本单位党组中心组学习制度。国土系统各级党组宣传、组织部门，要按照各自职能，密切配合，做好协调、管理、服务和督查工作，确保学习任务和要求落实到位。', '为进一步推进市国土资源局党组理论学习中心组（以下简称局党组中心组）学习制度化、规范化、常态化，推动理论武装工作深入开展，提高领导干部理论水平和工作能力，加强领导班子思想政治建设，根据《中共中央办公厅关于印发&lt;中国共产党党委（党组）理论学习中心组学习规则&gt;的通知》（中办发〔2017〕9号）、《中共江西省委办公厅关于印发&lt;省委理论学习中心组贯彻中国共产党党委（党组）理论学习中心组学习规则实施意见&gt;的通知》（赣办发〔2017〕11号）和《中共萍乡市委办公室关于印发&lt;市委理论学习中心组贯彻中国共产党党委（党组）理论学习中心组学习规则实施意见&gt;的通知》（萍办发〔2017〕16号）精神，结合我局实际，制定本实施办法。', '（一）局党组对局党组中心组学习负主体责任，对县（区）国土资源（地矿）局、分局党组中心组学习负领导责任。局党组中心组每年年初按照市委部署，结合实际，制定年度学习计划，经局党组审定后实施。', '局党组书记是局党组中心组学习第一责任人，负责审定学习计划，确定每次学习的内容、时间、形式，提出学习要求；主持集体学习研讨活动，指导和检查中心组学习情况。党组书记不能参加集体学习时，由主持党组日常工作的负责人代行职责。', '局党组负责宣传工作的领导是局党组中心组学习直接负责人，负责配合党组书记做好学习的组织工作。', '局党组其他成员积极参加学习，自觉遵守中心组学习制度，按照学习安排或者受委派承担相应职责。', '局办公室、局人教科应当协助学习秘书共同做好学习服务工作。其中，局办公室主要负责做好学习记录、组织宣传报道以及负责学习时间与地点的安排、有关人员的通知等相关会务工作；局人教科负责拟订学习计划、提供学习材料、组织学习辅导等工作。', '（一）出席人员。参加局党组中心组学习的成员，原则上由局党组成员，总规划师，监察支队、储备中心、不动产登记中心负责人，正副调研员等领导同志组成。', '（二）列席人员。办公室、机关党委、人教科负责人，驻局纪检组副组长，学习秘书列席局党组中心组学习。根据学习内容和需要，还可适当安排局机关党员、县（区）局主要负责人，局直单位副科以上干部和支部书记列席。', '局党组中心组学习应以政治学习为根本，以深入学习中国特色社会主义理论体系为首要任务，以深入学习贯彻习近平新时代中国特色社会主义思想为重点，自觉用习近平新时代中国特色社会主义思想精神武装头脑。具体内容主要包括：', '（一）马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观，习近平新时代中国特色社会主义思想。', '（七）推进中国特色社会主义事业所需的经济、政治、文化、社会、生态、科技、军事、外交、民族、宗教等方面知识。', '（一）集体学习研讨。将集体学习研讨作为学习的主要形式，将重点发言和集体研讨、专题学习和系统学习结合起来，深入开展学习讨论和互动交流。局党组中心组学习以中心组成员自己学、自己讲为主，适当组织专题讲座、辅导报告。', '（二）个人自学。局党组中心组成员应当根据形势任务的要求，结合工作需要和本人实际，制定学习计划，明确学习重点，挤出时间坚持自学，研读必要书目，做好自学笔记，整理学习体会，养成良好的学习习惯。', '（三）专题调研。局党组中心组成员应当把理论学习与专题调研结合起来，深入基层、深入群众，扎实开展调查研究。每位成员建立1-2个理论学习联系点（县区局和局直单位），每年至少到联系点调研和理论宣讲1次。', '局党组中心组成员应当积极参加学习讲坛、读书会、报告会等学习活动，充分利用网络学习平台开展学习，拓宽学习渠道，提升学习效果。', '局党组中心组应当结合我局实际，创新学习方式，改进学习方法，坚持请专家学者作辅导讲座与“走出去”学习考察相结合，传统方法与现代手段相结合，书本上学与实践中学相结合，增强学习的吸引力、针对性和实效性。', '（一）严明学习纪律。中心组成员应当积极参加学习，自觉遵守局党组中心组学习制度。集体学习时，原则上不得缺席。确有特殊情况，须向党组书记请假。因故耽误学习的要及时补课。', '（二）建立学习档案制度。局办公室负责市委中心组学习的记录，并将学习记录、中心组集体和个人学习情况及时进行收集整理和归档。', '（三）加强学习宣传。局党组中心组学习应安排新闻报道，以扩大中心组学习的影响力和推动力。市国土资源局网站、“萍乡国土之声”等平台要加大对局党组中心组学习活动的报道，中心组成员的发言材料和调研报告是中心组成员重要的学习成果，要根据具体情况在国土系统宣传平台发布交流发言摘要和理论调研文章，以发挥其指导示范作用。', '（四）强化阵地管理。把好局党组中心组学习的政治关，坚持依规管理、从严治学，特别是邀请专家为局党组中心组作专题辅导时，局办公室要对其主题、内容、报告人的思想倾向进行严格把关，发现错误倾向要坚决制止。', '（五）做好经费管理。每年按照预算拨付局党组中心组理论学习专项经费。在年初制定的学习计划之外安排的专题学习，另外单独拨付专项经费，实行专款专用制度。局党组中心组理论学习经费由局办公室负责管理，主要用于购买学习图书和影像资料、聘请讲课人等开支。', '（一）加强理论学习。坚持把学习马克思主义理论作为做好一切工作的看家本领，把学习党的基本理论与学习党的理论创新成果结合起来，把握精神实质，掌握精髓要义，做到真学真懂真信真用。坚持学以立德、学以修身、学以益智、学以增才，把提高理论素质与增强党性修养、提升工作本领结合起来，坚定理想信念，加强党性锻炼，提高精神境界。', '（二）坚持学以致用。大力弘扬理论联系实际的马克思主义学风，要将理论学习同贯彻落实中央、省委和市委及省厅党组的重大决策部署结合起来，同解决我局工作中的重大问题结合起来，同科学决策结合起来，重点研究解决我局改革发展稳定中的重大问题，真正把习近平新时代中国特色社会主义思想落实到各项工作中去，切实将学习成果转化为有效的工作举措，形成推动我市国土资源管理事业发展的强大动力。', '（三）发挥示范作用。局党组中心组应当成为国土系统党组中心组学习的“示范班”，局党组中心组成员应当发挥“关键少数”的示范和表率作用，自觉学习、带头学习，努力成为建设学习型党组织和学习型领导班子的精心组织者、积极促进者、自觉实践者，引领和带动国土系统各级党组织和广大党员干部大兴学习之风。', '（四）落实学习任务。集体学习研讨应当保证学习时间和质量，每年应当集中一定时间学习，每季度不少于1次。中心组成员结合实际，每年撰写1至2篇学习心得、调研报告或理论文章。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>120</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>武功山风景名胜区党委副书记管委会主任陈琼率队赴三清山交流学习</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F9%2F20%2Fart_20_1174254.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%AD%A6%E5%8A%9F%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%90%8D%E8%83%9C%E5%8C%BA%E5%85%9A%E5%A7%94%E5%89%AF%E4%B9%A6%E8%AE%B0%E3%80%81%E7%AE%A1%E5%A7%94%E4%BC%9A%E4%B8%BB%E4%BB%BB%E9%99%88%E7%90%BC%E7%8E%87%E9%98%9F%E8%B5%B4%E4%B8%89%E6%B8%85%E5%B1%B1%E4%BA%A4%E6%B5%81%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 武功山风景名胜区党委副书记、管委会主任陈琼率队赴三清山交流学习', '为促进武功山景区污水处理工作进一步提质增效，高标准推进污水处理设施建设，近日，区党委副书记、管委会主任陈琼率队赴三清山景区管委会开展学习考察。武功山旅游集团公司总经理皮志峰、区农业农村水利局、区社会发展建设局、区招商办、武实公司、羊狮幕公司主要负责同志等一同前往学习。', '陈琼一行首先来到三清山管委会参加座谈会，就三清山污水处理设施建设情况、运行情况、管理情况等展开讨论，并充分讨论了三清山污水处理经验在武功山运用的可行性及适用性。', '随后陈琼一行来到三清山污水处理设施所在地考察参观，并爬山沿线了解污水管网排布情况，实地了解三清山污水处理设施运行情况以及景区运营管理情况。', '陈琼强调，要充分学习和借鉴三清山景区运营管理经验和污水处理的先进技术，加紧溯源排查，摸清武功山景区“污水管网家底”，以问题为导向，加快推进景区系统治污工程进度，确保景区建设与保护同步推进；要加快建设满足发展需求，结合武功山景区实际，因地制宜确定武功山污水处理模式，有效补齐武功山污水处理能力短板；要加强监管遏制污水问题新增，建立可持续运行监管机制，实现污水处理设施及各类治理措施的长效系统管理，为打赢污染防治攻坚战奠定坚实基础，进一步助力打造美丽武功山，提升人民群众对优美生态环境的获得感、幸福感、安全感。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>120</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>武功山风景名胜区党委副书记管委会主任陈琼率队赴吉安市永新县</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2022-02-22</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F2%2F22%2Fart_20_1099959.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%AD%A6%E5%8A%9F%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%90%8D%E8%83%9C%E5%8C%BA%E5%85%9A%E5%A7%94%E5%89%AF%E4%B9%A6%E8%AE%B0%E3%80%81%E7%AE%A1%E5%A7%94%E4%BC%9A%E4%B8%BB%E4%BB%BB%E9%99%88%E7%90%BC%E7%8E%87%E9%98%9F%E8%B5%B4%E5%90%89%E5%AE%89%E5%B8%82%E6%B0%B8%E6%96%B0%E5%8E%BF%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 武功山风景名胜区党委副书记、管委会主任陈琼率队赴吉安市永新县考察学习', '2月22日，区党委副书记、管委会主任陈琼率队赴吉安市永新县考察学习，区领导倪艳霞，万龙山乡、麻田镇、区有关部门主要负责人随同考察。永新县委常委、县政府常务副县长肖莺华，永新县人大常委会党组成员、副主任贺文华及有关部门负责人陪同。', '肖莺华对考察团的到来表示热烈欢迎。他表示，萍乡与吉安人缘相亲、情缘相通，一直保持着良好的沟通和互动，春节刚刚过去就迎来了武功山的“客人”，倍感亲切和荣幸，热切期盼两地加强沟通、常来常往。', '考察团一行走进“重见永新”古城项目，在现场认真听取项目介绍，实地察看古城规划布局，详细了解街区改造、业态注入、管理运营等方面情况，并就项目策划、功能布局、资金筹措等方面经验进行深入交流。3', '调研中，陈琼同有关部门负责人进行了深入的交流，并对该项目取得的成效表示肯定。陈琼表示，永新县在项目谋划、资金争取、风貌管控等方面的经验做法，值得武功山学习借鉴。并要求相关部门要把此次考察学习到的好做法、好经验带回去，结合武功山实际情况，切实把学习成果运用到推动武功山“双创”工作中。', '考察结束后，考察团一行随即召开了考察交流座谈会，共同分享考察心得，梳理我区现状，并对街区改造提升、业态打造等工作进行了安排部署。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>120</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>市委副书记鲍峰庭赴湖南开展招商考察活动</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F4%2F22%2Fart_5532_1331582.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%A7%94%E5%89%AF%E4%B9%A6%E8%AE%B0%E9%B2%8D%E5%B3%B0%E5%BA%AD%E8%B5%B4%E6%B9%96%E5%8D%97%E5%BC%80%E5%B1%95%E6%8B%9B%E5%95%86%E8%80%83%E5%AF%9F%E6%B4%BB%E5%8A%A8</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['为深入贯彻落实全省农业产业化高质量发展现场推进会精神和市委市政府“4+2”新动能培育决策部署，全面深化湘赣边区域合作，4月18日至19日，市委副书记鲍峰庭率团赴湖南开展招商考察活动。市委常委、经开区党工委书记杨博，市委副秘书长甘建波，市农业农村局党组书记、局长景国成，市市场监管局党组书记、局长刘晓峰，市农业农村局副局长何学胜以及各有关县区、萍乡经开区党工委副书记等一同考察。', '招商考察团一行先后来到湖南省长康实业有限责任公司、袁隆平农业高科技股份有限公司、湖南西子健康集团股份有限公司、湖南汇湘轩生物科技股份有限公司、盐津铺子食品股份有限公司、湖南九道湾食品有限公司等地实地参观，并与企业负责人开展了座谈交流，深入了解企业发展理念、品牌打造、生产运营、投资意向等情况。同时，对萍乡的资源优势、产业基础、有关政策等进行了推介，双方就合作事宜进行了热烈讨论。', '鲍峰庭在考察时强调，湘赣两省一水相连，互动频繁，萍乡作为唯一全域纳入湘赣边区域合作示范区建设的设区市，和湖南交流紧密，有着良好的合作基础和广阔的发展空间。希望通过这次向湖南优秀企业的学习考察，进一步加强双方的产业合作、资本合作、技术合作，争取实现互利共赢，共同将萍乡打造成为农产品、绿色食品、未来食品的加工聚集地。', '鲍峰庭向各企业发出诚挚邀请，热烈欢迎企业家们来萍观光考察、投资兴业，萍乡将以最大诚意、最惠政策、最优环境，把平台搭建好、把要素保障好、把服务落实好，让企业放心干事、放手创业、放量发展，谱写湘赣合作新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>120</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>市机关事务管理局党组书记局长陈青峰检查指导会议中心会务服务标准化建设工作</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2019-10-29</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F10%2F29%2Fart_3811_739326.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E6%9C%BA%E5%85%B3%E4%BA%8B%E5%8A%A1%E7%AE%A1%E7%90%86%E5%B1%80%E5%85%9A%E7%BB%84%E4%B9%A6%E8%AE%B0%E3%80%81%E5%B1%80%E9%95%BF%E9%99%88%E9%9D%92%E5%B3%B0%E6%A3%80%E6%9F%A5%E6%8C%87%E5%AF%BC%E4%BC%9A%E8%AE%AE%E4%B8%AD%E5%BF%83%E4%BC%9A%E5%8A%A1%E6%9C%8D%E5%8A%A1%E6%A0%87%E5%87%86%E5%8C%96%E5%BB%BA%E8%AE%BE%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 政务动态 市机关事务管理局党组书记、局长陈青峰检查指导会议中心会务服务标准化建设工作', '10月25日，市机关事务管理局党组书记、局长陈青峰同志带领局班子成员到市行政中心会议中心检查指导会务服务标准化建设工作。', '随后，陈青峰同志主持召开现场座谈会，听取会议中心负责人有关工作情况汇报，并与中心工作人员就推进会议中心标准化建设进行了面对面交流。陈青峰同志指出，会议中心是市机关事务管理局对外服务的重要窗口，要始终坚持“服务精细化、管理规范化、保障高效化”的工作理念，扎实推进会务服务标准化建设，切实为各类会议提供优质高效的会务服务保障。会议中心党员要充分发挥示范带头作用，引领、带动全体工作人员以饱满热情投入到会务服务保障工作当中，持续擦亮会议中心靓丽名片。', '今年以来，会议中心坚持以会务服务标准化建设为重点，“通过走出去、请进来”的方式，先后组织工作人员赴深圳市、南昌市行政中心会议中心学习考察会务管理经验，请有关专家进行业务培训指导。结合会议中心实际，进一步完善了内部管理制度、岗位职责和会务服务标准化工作流程，完善了相关设施设备，有效提升了会务服务质量和保障水平。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>120</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>萍乡市副市长刘仁羿率队赴无锡市学习土壤污染防治先行区建设和农村生活污水治理经验</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2023-08-08</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F8%2F8%2Fart_19_1254255.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%89%AF%E5%B8%82%E9%95%BF%E5%88%98%E4%BB%81%E7%BE%BF%E7%8E%87%E9%98%9F%E8%B5%B4%E6%97%A0%E9%94%A1%E5%B8%82%E5%AD%A6%E4%B9%A0%E5%9C%9F%E5%A3%A4%E6%B1%A1%E6%9F%93%E9%98%B2%E6%B2%BB%E5%85%88%E8%A1%8C%E5%8C%BA%E5%BB%BA%E8%AE%BE%E5%92%8C%E5%86%9C%E6%9D%91%E7%94%9F%E6%B4%BB%E6%B1%A1%E6%B0%B4%E6%B2%BB%E7%90%86%E7%BB%8F%E9%AA%8C</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 部门动态 萍乡市副市长刘仁羿率队赴无锡市学习土壤污染防治先行区建设和农村生活污水治理经验', '8月3日-4日，市政府副市长刘仁羿带队，带领市生态环境局党组书记、局长肖根铭等一行4人赴无锡市学习土壤污染防治先行区建设和农村生活污水治理经验。', '座谈会上，无锡市生态环境局介绍了全市土壤污染防治、农村生活污水治理整体情况，重点对建设用地准入管理、土壤与地下水协同治理、农村生活污水治理和管护模式及智慧监管等工作进行了经验交流。无锡市梁溪生态环境局介绍了土壤污染防治先行区建设成效和下阶段工作计划。与会人员就两市保障重点建设用地安全利用率、农村生活污水建管模式及土壤污染防治先行区建设开展了深入交流讨论。', '随后，刘仁羿一行先后到无锡市凯发苑污染地块修复治理现场和锡山区彩桥村农村生活污水处理现场进行考察，听取了项目单位情况介绍，学习了污染土壤电子转运联单、基坑开挖技术标准等创新成果，详细了解了污染场地的修复治理技术选择和管理重点以及农村生活污水处理设施改造要点，并就我市存在的相关问题开展了交流探讨。', '刘仁羿表示，本次到无锡市学习考察收获很大，无锡、萍乡都是工业城市，也同为“十四五”时期的土壤污染防治先行区，萍乡市要充分借鉴无锡市在防控重点企业污染增量和削减遗留污染地块存量的经验和“政府主导、社会参与”的农污治理模式，推进土壤和农村生活污水治理工作，大力改善土壤和农村环境。同时，萍乡市也要聚焦任务清单，立足地区特点，创新工作方法，强化横向沟通，谋划好土壤污染防治先行区建设下阶段工作，完成好各项工作任务。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>120</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>有效服务乡村振兴我市加强衔接资金项目管理</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2023-06-08</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F6%2F8%2Fart_5531_1238890.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%9C%89%E6%95%88%E6%9C%8D%E5%8A%A1%E4%B9%A1%E6%9D%91%E6%8C%AF%E5%85%B4%20%E6%88%91%E5%B8%82%E5%8A%A0%E5%BC%BA%E8%A1%94%E6%8E%A5%E8%B5%84%E9%87%91%E9%A1%B9%E7%9B%AE%E7%AE%A1%E7%90%86</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['近年来，我市把衔接资金项目实施作为巩固拓展脱贫攻坚成果同乡村振兴有效衔接的重要抓手和支撑，结合实际多举措加强衔接资金长效运行管理，精准有效推进项目实施，切实发挥示范引领作用。', '牢把“三关”，夯基础。把好“规划关”，统筹重点村和一般村、产业发展和基础设施、人居环境和公共服务布局，抓好产业帮扶、就业创业、乡村建设等项目谋划入库，优先安排实施方便群众生活和促进生产发展的项目，大幅缩短项目落地周期，变“资金等项目”为“钱到即落地”。“把好民意关”。坚持“三个不予”原则规范审批立项，通过“屋场贴心会”将急难愁盼项目优先审批入库。把好“评审关”，严格落实“三公示一公告”入库程序，截至5月底，全市纳入年度实施计划项目总数681个，资金达4.09亿元，其中中央资金用于产业发展项目占比达70.6%。', '狠抓业务，提质效。开展衔接资金项目和扶贫（帮扶）项目资产管理业务培训会，并邀请专家授课，实现业务能力培训全覆盖。下发相关手册，便于各级责任主体按统一标准和要求执行。组织全市业务骨干50余人赴外地学习考察，不断拓宽我市工作新路径、新方法。', '健全制度，达目标。项目实行“动态+常态”全周期监管，每月调度项目进度。实行资金全链条管理，建立全市衔接资金支出进度“半月通报”工作机制，切实保障项目竣工率和资金支付率。实行资产全覆盖管护，以资金管理为重点，抓好扶贫（帮扶）项目资产清查摸底，管好用好用活扶贫（帮扶）项目资产，指导县区制定出台县级扶贫（帮扶）项目资产处置办法，持续提升扶贫（帮扶）项目资产后续管护水平。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>120</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>市统计局召开全市五经普工作专题调度会</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F2%2F23%2Fart_5532_1211863.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E7%BB%9F%E8%AE%A1%E5%B1%80%E5%8F%AC%E5%BC%80%E5%85%A8%E5%B8%82%E4%BA%94%E7%BB%8F%E6%99%AE%E5%B7%A5%E4%BD%9C%E4%B8%93%E9%A2%98%E8%B0%83%E5%BA%A6%E4%BC%9A</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['为提前谋划五经普，全力做好单位核实工作。2月22日，萍乡市统计局召开全市五经普工作专题调度会。各县（区）、经开区统计局和武功山经发局主要负责同志、分管领导及业务骨干，市局各科室负责同志共30余人参加了会议。', '会上，易红雁副局长宣读了刘烁市长对五经普工作提出的重要要求，通报了五经普前期工作开展、五经普方案征求意见及赣州、南昌学习考察等情况。', '之后各县区、经开区、武功山就五经普方案研读情况、人员经费落实等保障工作及下一步工作打算进行汇报。', '八神数据科技有限公司对数据采集系统进行了演示，对现场参会人员提出的问题依次予以解答。', '最后刘波局长做总结讲话：一是要提高认识，充分认识五经普工作的重要性。五经普工作是当前统计系统的头等大事，是当前工作的重中之重，要把责任扛在肩上，把工作抓在手上，切实把五经普工作抓出成效，抓出亮点，抓出特色。二是要研判形势，认真分析五经普工作的新变化。五经普单位数呈井喷式增长，普查内容更加丰富，普查精细度要求更高，首次并入投入产出调查。各地要认真分析五经普工作中的难点、痛点、堵点，逐项加以解决。三是要精心组织，优化统筹五经普工作的全流程。要做到高度重视、高位推动；要加强普查宣传，从各个层面宣传好五经普的意义；要制定单位核查专项行动的实施方案，细化工作目标，强化工作举措。四是要强化保障，全面夯实五经普工作基层基础。要成立市县专项行动领导小组，主要领导亲自抓；要加快落实人员、经费，确保专项行动顺利开展。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>120</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>有效文件萍乡市人民政府关于外汇金融助推萍乡电瓷产业对接一带一路发展的指导意见</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2018-10-16</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F10%2F16%2Fart_4029_132085.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E3%80%90%E6%9C%89%E6%95%88%E6%96%87%E4%BB%B6%E3%80%91%E8%90%8D%E4%B9%A1%E5%B8%82%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E5%85%B3%E4%BA%8E%E5%A4%96%E6%B1%87%E9%87%91%E8%9E%8D%E5%8A%A9%E6%8E%A8%E8%90%8D%E4%B9%A1%E7%94%B5%E7%93%B7%E4%BA%A7%E4%B8%9A%E5%AF%B9%E6%8E%A5%E2%80%9C%E4%B8%80%E5%B8%A6%E4%B8%80%E8%B7%AF%E2%80%9D%E5%8F%91%E5%B1%95%E7%9A%84%E6%8C%87%E5%AF%BC%E6%84%8F%E8%A7%81</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 其他文件 【有效文件】萍乡市人民政府关于外汇金融助推萍乡电瓷产业对接“一带一路”发展的指导意见', '【有效文件】萍乡市人民政府关于外汇金融助推萍乡电瓷产业对接“一带一路”发展的指导意见', '为深入贯彻落实党中央、国务院关于扎实推进“一带一路”建设的要求，切实发挥外汇金融对开放型经济发展的助推作用，引导萍乡电瓷产业', '《中共萍乡市委萍乡市人民政府关于深入贯彻开放发展新理念构建全面开放新格局的实施意见》（萍发〔2017〕2号）等文件精神，', '《中共萍乡市委萍乡市人民政府关于深入贯彻开放发展新理念构建全面开放新格局的实施意见》（萍发〔', '结合实际，以芦溪电瓷为我市电瓷产业代表，就助推萍乡电瓷对接“一带一路”发展，提出如下指导意见：', '不断深化外汇管理制度改革，积极推进资本项目可兑换，提升贸易投资便利化水平，加快促进电瓷企业“走出去”步伐，有效服务电瓷行业对接“一带一路”发展。积极落实国家“放管服”要求，公开行政审批事项和办事程序，优化业务办理流程，缩短办理时间，提高办事效率。率先与部分重点电瓷企业签订《外汇金融服务承诺书》，开辟“绿色通道”，推进“一站式”服务，借助电瓷', '不断深化外汇管理制度改革，积极推进资本项目可兑换，提升贸易投资便利化水平，加快促进电瓷企业', '要求，公开行政审批事项和办事程序，优化业务办理流程，缩短办理时间，提高办事效率。率先与部分重点电瓷企业签订《外汇金融服务承诺书》，开辟', '企业行政审批等业务，实行限（即）时办结制、并联审批制，压缩业务办理时限，提高工作效率。及时将常用的涉外政策法规、注意事项制成业务提示卡，在市外汇局、市商务局、市税务局、银行业务窗口公开，确保政务公开透明。联合相关部门共同研究制定便捷规范、科学有效的', '易便利化措施。积极向上级管理部门争取重点电瓷企业纳入外汇管理“白名单”资格，提升涉外电瓷企业外汇业务办理便利化水平，夯实外汇管理服务萍乡特色产业的基础。', '资格，提升涉外电瓷企业外汇业务办理便利化水平，夯实外汇管理服务萍乡特色产业的基础。', '出口企业名单，建立重点企业主体档案信息库。针对企业的具体情况，建立“一企一策”制度，确定外汇业务联系人和银行协管人员，共同主动开展定点、定向的“一对一”、“面对面”服务，强化重点主体分类管理、重点服务，增强外汇服务的有效性和针对性。商务', '各涉外管理部门要积极支持芦溪电瓷出口企业拓展国际市场，充分发挥产业基地和龙头企业对扩大电瓷出口的示范和带动作用。鼓励引导企业用好用足外汇政策，拓宽电瓷产业吸纳外资的途径，通过扩大进口引进国外先进技术和设备，加快电瓷企业技术改造和产品更新换代，增强企业竞争力。注重培植一批生产高档电瓷产品的外贸企业，以创建全国电瓷产业知名品牌示范区为抓手，鼓励企业申请和注册商标，加深品牌效应的认识。支持高技术含量、高附加值的电瓷出口，鼓励企业自营出口，加强与电商平台合作，在海外设立产品展示中心、专卖店等国际营销网络', '积极推动赣欧（亚）国际货运班列，对接欧亚货运通道，提升芦溪电瓷产业的知名度。利用“芦溪电瓷”地理商标打造世界知名集群品牌，实现“世界电瓷看中国，中国电瓷看芦溪”发展目标。', '管理部门要及时了解企业发展战略，对有合资需求的电瓷企业，实行“及时介入、政策引导、业务指导、跟进服务”，帮助企业了解接受外商直接投资相关管理要求，合规办理登记、进资手续。及时掌握外商投资企业、境外投资企业跨境资金动态，有针对性地开展业务指导。在现有的法规框架内，为企业经营发展提供充分便利。要不断推进电瓷企业与在境外', '，帮助企业了解接受外商直接投资相关管理要求，合规办理登记、进资手续。及时掌握外商投资企业、境外投资企业跨境资金动态，有针对性地开展业务指导。在现有的法规框架内，为企业经营发展提供充分便利。要不断推进电瓷企业与在境外', '的广泛合作，鼓励优势企业到具备条件的国家和地区投资办厂，设立境外研发基地，优化电瓷产地分布，消化过剩产能，降低企业经营成本，深度开拓国际市场。推动电瓷企业对外承包工程发展，助力工程承包', '“走出去”信用保险统保体系，加强对电瓷企业购买海外投资保险的政策扶持，鼓励我市电瓷企业在对接“一带一路”发展中进行风险分担，充分采用融资风险补偿金制度，防范和应对境外合作风险', '信用保险统保体系，加强对电瓷企业购买海外投资保险的政策扶持，鼓励我市电瓷企业在对接', '鼓励市内各保险公司为电瓷境外投资企业提供多种风险担保工作。鼓励各担保中心积极为境外工程承包所需的投标、履约、预付保函提供担保。同时，进一步提高担保质量，单独或综合采用抵（质）押担保、担保公司担保、股东连带保证等多种担保方式，为', '商业银行融资提供增信。各部门要做好涉外政策知识普及，及时发布各类涉外预警提示信息。各外汇指定银行和保险机构要针对电瓷企业的特点，创新外币理财、融资和保险产品，切实拓宽企业外汇保值避险渠道。', '，推动金融机构加快支持电瓷产业对接“一带一路”发展相关政策和服务举措的落地。鼓励符合条件的银行在芦溪增设外汇服务网点，优化网点分布，扩大服务范围，夯实服务电瓷企业的基础。各外汇指定银行要积极为涉外企业开户、结售汇业务办理、国际收支网上申报业务等提供便捷优质的服务，同时不断完善结算工具，提升国际结算效率，加快涉外企业资金周转。', '发展相关政策和服务举措的落地。鼓励符合条件的银行在芦溪增设外汇服务网点，优化网点分布，扩大服务范围，夯实服务电瓷企业的基础。各外汇指定银行要积极为涉外企业开户、结售汇业务办理、国际收支网上申报业务等提供便捷优质的服务，同时不断完善结算工具，提升国际结算效率，加快涉外企业资金周转。', '县域外汇指定银行外汇业务监测，动态掌握企业外汇账户、结售汇业务办理情况和银行支持外向型企业情况', '主动加强对新设结售汇网点的外汇业务指导，通过业务培训、业务竞赛、现场检查、核查等方式帮助提高银行外汇从业人员综合素质，为电瓷产业对接“一带一路”助力金融人才、金融产品和金融服务。', '主动加强对新设结售汇网点的外汇业务指导，通过业务培训、业务竞赛、现场检查、核查等方式帮助提高银行外汇从业人员综合素质，为电瓷产业对接', '积极开展电瓷企业信用等级测评，筛选出优质企业进入储备库。加强政银企保合作，积极推荐重点扶持企业名单，将名单企业列入金融机构重点服务对象。各银行和保险机构要全面掌握电瓷产业的特点，探索开展产业链金融服务，针对电瓷产业升级和产业整合提供个性化配套金融方案，对有市场、有出口订单的电瓷企业在授权授信等方面给予政策倾斜，拓宽信贷增长空间，满足中小电瓷企业多层次的融资需求。积极探索多形式的融资和结算服务方式，鼓励银行积极拓展进出口押汇、进口代付、外汇票据贴现、仓储质押贷款、打包贷款、出口信用保险保单融资等业务，丰富贸易融资方式。联合税务、统计、银行等机构，对电瓷企业内部财务管理形成统一模板或上报标准，引导企业规范管理，财务报表要真实反映企业的生产经营状况，增加企业诚信度，从根本上解决融资难', '外汇业务交流微信群”和重点电瓷企业联系卡制度，宣传最新涉外政策法规，实时接受业务咨询。联合举办涉外新政策培训会，使企业掌握政策法规要点，熟悉业务操作，提高办事效率。借助江西国际商会萍乡电瓷分会的力量，建立', '和重点电瓷企业联系卡制度，宣传最新涉外政策法规，实时接受业务咨询。联合举办涉外新政策培训会，使企业掌握政策法规要点，熟悉业务操作，提高办事效率。借助江西国际商会萍乡电瓷分会的力量，建立', '各涉外部门要建立联席会议制度，加强信息交流，动态掌握电瓷企业进出口业务、结售汇业务办理和银行支持外向型企业情况，完善相关协作机制，协调解决电瓷企业对外贸易和投资合作中的实际问题。建立芦溪电瓷', '对接“一带一路”咨询服务团、定期发布投资指南及投资风险报告等。借助萍乡市金融综合服务平台，通过“网站+微信公众号+APP客户端”等形式，发布政策、投资环境、市场需求、项目合作、风险预警等信息。建立芦溪电瓷', '对接“一带一路”发展重点项目库，及时调度项目进展信息，实施动态跟踪服务，积极开展对内外交流与合作，不断提升芦溪电瓷的国际市场影响力。', '发展重点项目库，及时调度项目进展信息，实施动态跟踪服务，积极开展对内外交流与合作，不断提升芦溪电瓷的国际市场影响力。', '用好用足国家有关资金、财税、外汇、通关、信贷、保险、人才等各项鼓励企业“走出去”政策，充分利用各种专项资金，帮助电瓷企业开展对外直接投资、对外承包工程等。加强事前服务引导和事中事后监管，提升投资便利化水平。落实“放管服”改革要求，推动税收服务优化升级，加快推行网上备案管理，简化出口退（免）税流程及境外投资注销手续，优化网上、掌上、自助办税等服务。落实跨境应税服务退税或免税、对外投资和对外承包工程出口货物退（免）税、“走出去”企业税收抵免和相关税收优惠政策等。着力培养和引进电瓷产业“走出去”人才，建立电瓷产业培训基地，积极组织电瓷企业人员参加国内外学习考察、国际展览、相关会议和培训，优化人才引进政策，加快推进电瓷产业管理型、技术型、技能型多维人才库的搭建步伐。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>120</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>湖南株洲市</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F8%2F31%2Fart_20_1257664.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B9%96%E5%8D%97%E6%A0%AA%E6%B4%B2%E5%B8%82%E8%80%83%E5%AF%9F%E5%9B%A2%E5%9C%A8%E6%B9%98%E4%B8%9C%E8%80%83%E5%AF%9F%E8%B0%83%E7%A0%94</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['8月29日，株洲市委常委、常务副市长王卫安率考察团在湘东考察调研。萍乡市委常委、常务副市长黄强，市政府副秘书长秦亮，市直有关单位负责人，区委书记何超陪同调研。', '王卫安一行先后来到江西供销（湘东）冷链物流园、区科研中心、江西金石三维智能制造科技有限公司等地，围绕冷链物流经济、智慧冷库发展、校地科研合作、3D打印技术等主题开展实地考察调研。', '在考察调研中，王卫安表示，湘东区在推动高质量发展中的有力探索和实践路径让人印象深刻，为株洲市有关工作的推进提供了有益的参考和借鉴。希望以此次考察调研为契机，进一步加强两地之间的联系，增进两地之间的友谊，开展更加深入、更加广泛、更加务实的交流合作，共同培育新动能、激发新活力，推动两地经济社会高质量发展，助推湘赣边区域合作更进一步、更深一层。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>120</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>熊运浪调研主城区空闲地块统筹利用工作时强调盘活闲置土地着力提高城市品质</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F4%2F22%2Fart_5533_1331555.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E7%86%8A%E8%BF%90%E6%B5%AA%E8%B0%83%E7%A0%94%E4%B8%BB%E5%9F%8E%E5%8C%BA%E7%A9%BA%E9%97%B2%E5%9C%B0%E5%9D%97%E7%BB%9F%E7%AD%B9%E5%88%A9%E7%94%A8%E5%B7%A5%E4%BD%9C%E6%97%B6%E5%BC%BA%E8%B0%83%EF%BC%9A%E7%9B%98%E6%B4%BB%E9%97%B2%E7%BD%AE%E5%9C%9F%E5%9C%B0%EF%BC%8C%E7%9D%80%E5%8A%9B%E6%8F%90%E9%AB%98%E5%9F%8E%E5%B8%82%E5%93%81%E8%B4%A8</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 熊运浪调研主城区空闲地块统筹利用工作时强调：盘活闲置土地，着力提高城市品质', '4月18日，市委副书记、市长熊运浪来到安源区、萍乡经开区调研主城区空闲地块统筹利用工作。他强调，要坚持科学统筹规划，聚焦整体开发，盘活闲置土地，优化土地利用结构和空间布局，向“土地存量”要“发展增量”，着力提高城市品质。市委常委、萍乡经开区党工委书记杨博参加。', '在建设西路智博篮球馆地块和建设东路（市委党校对面）地块，熊运浪详细了解两个地块的土地性质、当前现状和利用规划等情况，和相关负责人探讨空闲地块的利用方式。他指出，盘活用好空闲地块是完善城市功能、提升城市品质、增进民生福祉的重要抓手。要坚持需求导向，深入基层倾听群众呼声，了解群众所需所盼，既要有科学可行的改造方案和更新机制，也要获得群众支持，真正把好事办好、实事办实。要在尊重群众意见的基础上，因地制宜做好顶层设计，科学布局功能要素，用好有限空间，通过建设“口袋公园”、生态停车场等场所，有效解决群众生活的停车、休闲运动等问题，不断完善和健全市政基础设施，强化城市的整体功能和服务水平。', '在萍安北大道星子石地块，熊运浪实地踏看周边地貌，通过航拍图像查看周边商业、住宅及生活配套设施建设情况。他指出，该地块紧邻萍乡学院，开发条件成熟，要做好前期土地整体规划，小块起步、分步实施、滚动发展，依托萍乡学院建设创业孵化基地、产学研合作基地等，培育相关业态，同时学习考察外地先进经验，打造萍乡未来科学城。', '熊运浪指出，盘活利用空闲地块是一项系统工作，市级有关部门和属地主体要强化责任担当，全面摸清空闲地块现状，有序推进空闲地块的盘活再利用，进一步提升能力、激发动力、形成合力，努力为城市开发建设拓展发展空间。要科学谋划、长远布局，系统规划产业布局和功能定位，因地制宜激活辖区闲置土地资源，完善周边配套设施，切实提升中心城区土地资源的开发利用效益。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>120</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>熊运浪调研主城区空闲地块统筹利用工作时强调盘活闲置土地着力提高城市品质</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2024-04-19</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F4%2F19%2Fart_5531_1331012.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E7%86%8A%E8%BF%90%E6%B5%AA%E8%B0%83%E7%A0%94%E4%B8%BB%E5%9F%8E%E5%8C%BA%E7%A9%BA%E9%97%B2%E5%9C%B0%E5%9D%97%E7%BB%9F%E7%AD%B9%E5%88%A9%E7%94%A8%E5%B7%A5%E4%BD%9C%E6%97%B6%E5%BC%BA%E8%B0%83%EF%BC%9A%E7%9B%98%E6%B4%BB%E9%97%B2%E7%BD%AE%E5%9C%9F%E5%9C%B0%EF%BC%8C%E7%9D%80%E5%8A%9B%E6%8F%90%E9%AB%98%E5%9F%8E%E5%B8%82%E5%93%81%E8%B4%A8</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡要闻 熊运浪调研主城区空闲地块统筹利用工作时强调：盘活闲置土地，着力提高城市品质', '4月18日，市委副书记、市长熊运浪来到安源区、萍乡经开区调研主城区空闲地块统筹利用工作。他强调，要坚持科学统筹规划，聚焦整体开发，盘活闲置土地，优化土地利用结构和空间布局，向“土地存量”要“发展增量”，着力提高城市品质。市委常委、萍乡经开区党工委书记杨博参加。', '在建设西路智博篮球馆地块和建设东路（市委党校对面）地块，熊运浪详细了解两个地块的土地性质、当前现状和利用规划等情况，和相关负责人探讨空闲地块的利用方式。他指出，盘活用好空闲地块是完善城市功能、提升城市品质、增进民生福祉的重要抓手。要坚持需求导向，深入基层倾听群众呼声，了解群众所需所盼，既要有科学可行的改造方案和更新机制，也要获得群众支持，真正把好事办好、实事办实。要在尊重群众意见的基础上，因地制宜做好顶层设计，科学布局功能要素，用好有限空间，通过建设“口袋公园”、生态停车场等场所，有效解决群众生活的停车、休闲运动等问题，不断完善和健全市政基础设施，强化城市的整体功能和服务水平。', '在萍安北大道星子石地块，熊运浪实地踏看周边地貌，通过航拍图像查看周边商业、住宅及生活配套设施建设情况。他指出，该地块紧邻萍乡学院，开发条件成熟，要做好前期土地整体规划，小块起步、分步实施、滚动发展，依托萍乡学院建设创业孵化基地、产学研合作基地等，培育相关业态，同时学习考察外地先进经验，打造萍乡未来科学城。', '盘活利用空闲地块是一项系统工作，市级有关部门和属地主体要强化责任担当，全面摸清空闲地块现状，有序推进空闲地块的盘活再利用，进一步提升能力、激发动力、形成合力，努力为城市开发建设拓展发展空间。要科学谋划、长远布局，系统规划产业布局和功能定位，因地制宜激活辖区闲置土地资源，完善周边配套设施，切实提升中心城区土地资源的开发利用效益。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>120</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>市政务服务中心召开年第三季度账单考核会议</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F11%2F1%2Fart_19_1272895.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E6%94%BF%E5%8A%A1%E6%9C%8D%E5%8A%A1%E4%B8%AD%E5%BF%83%E5%8F%AC%E5%BC%802023%E5%B9%B4%E7%AC%AC%E4%B8%89%E5%AD%A3%E5%BA%A6%E8%B4%A6%E5%8D%95%E8%80%83%E6%A0%B8%E4%BC%9A%E8%AE%AE</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['10月23日，市政务服务中心召开2023年第三季度账单考核会议。中心机关全体干部职工、市公共资源交易中心主任、副主任参加。', '会上，中心各科室、市公共资源交易中心汇报了2023年第三季度账单完成情况和第四季度工作计划，随后，各分管领导、市公共资源交易中心主任进行了点评，并对三季度账单工作进行了测评。', '会议指出，三季度，中心各科室针对账单工作逐项销号推进，做到了日常工作有提升、重点工作有成效、改革工作有亮点，推进了国务院和省政府部署的22项一件事改革，开展了窗口人员作风建设“百日攻坚”行动、行政审批中介服务规范治理提升行动，实现线上线下投诉件咨询件按时办结率100％；做好了12345与110警务热线对接，打造了“小萍帮办”和“龚全珍工作室”党建品牌；推动公共资源交易“以案促改”，扩大了跨省通办的“朋友圈”，加强了政务服务政策的解读和宣传，各项工作均取得了较好成效。', '会议强调，各科室、市公共资源交易中心要围绕学习贯彻习近平总书记考察江西重要讲话精神和主题教育安排部署，直面工作落实、协作配合、责任压实、创新力度等方面的不足，加压奋进，在三个方面持续发力：一是要心中有数，对照《2023年工作要点》《关于深化“放管服”改革巩固提升一体化政务服务能力的若干措施》《贯彻落实&lt;萍乡市开展环境优化提升行动方案&gt;的分工安排及任务清单》任务目标详细梳理，对重点任务集中力量攻关，确保年底各项工作落实到位。二是要脑中有方，敢于突破桎梏大胆创新工作方式，通过内部挖掘潜力提升、外出学习考察提升、分析问题总结提升，推动政务服务工作开创新局面。三是要脚下有力，敢于攻坚破难，聚焦营商环境政务服务指标和招投标指标重点任务，提前准备、从容应对；聚焦“一网通办”和“一网交易”，按照市委部署扎实推进数字化建设；聚焦调查研究和边学边改，扎实推进主题教育；同步推进市委巡查整改工作和年底各项考核工作，做到“冲刺四季度”，力争全年工作“完美收官”。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>120</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>市农业农村局召开党组理论</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F11%2F13%2Fart_69_1275248.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%86%9C%E4%B8%9A%E5%86%9C%E6%9D%91%E5%B1%80%E5%8F%AC%E5%BC%80%E5%85%9A%E7%BB%84%E7%90%86%E8%AE%BA%E5%AD%A6%E4%B9%A0%E4%B8%AD%E5%BF%83%E7%BB%84%E9%9B%86%E4%B8%AD%E5%AD%A6%E4%B9%A0%E4%BC%9A%20%E6%B7%B1%E5%85%A5%E5%AD%A6%E4%B9%A0%E5%AE%A3%E4%BC%A0%E8%B4%AF%E5%BD%BB%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E8%80%83%E5%AF%9F%E6%B1%9F%E8%A5%BF%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E7%B2%BE%E7%A5%9E</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 乡村振兴战略 市农业农村局召开党组理论学习中心组集中学习会 深入学习宣传贯彻习近平总书记考察江西重要讲话精神', '市农业农村局召开党组理论学习中心组集中学习会 深入学习宣传贯彻习近平总书记考察江西重要讲话精神', '10月27日，市农业农村局召开党组理论学习中心组集中学习会，传达学习习近平总书记在江西考察时的重要讲话和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，会上认真研读了习近平总书记考察江西时关于“三农”工作的重要讲话指示精神，并研究部署贯彻落实工作。市农业农村局党组书记、局长景国成主持会议并讲话。', '景国成指出，在深入贯彻落实党的二十大精神、全面建设社会主义现代化国家的开局之年，在深入开展主题教育的关键时刻，习近平总书记继2016年、2019年两次视察江西后，在2023年国庆节后再次亲临江西考察，面对面指导江西工作，充分体现了习近平总书记对江西工作的高度重视、对老区人民的亲切关怀、对江西发展的殷切期望。总书记对“三农”工作情怀深厚，在婺源县秋口镇王村石门自然村考察时对乡村振兴工作作出了重要指示，在发表的重要讲话中专门强调了全面推进乡村振兴工作，一言一语中饱含着总书记对农业农村农民的深厚情怀，让我们倍感荣幸又重任在肩。', '景国成强调，全局上下要深入学习好、领会好习近平总书记考察江西重要讲话精神，切实把思想和行动统一到习近平总书记重要讲话精神上来，深刻体会、全面把握习近平总书记考察江西的重大意义，深刻领会总书记对江西工作的勉励肯定，深刻领会总书记对江西发展的殷切期望，深刻领会总书记对三农工作明确的重点任务，解放思想、开拓进取，扬长补短、固本兴新，一步一个脚印把总书记为江西擘画的宏伟蓝图变为美好现实。', '景国成强调，习近平总书记考察江西重要讲话不仅为江西农业农村发展把脉定向、指路引航，更是提出了一系列具有重大指导意义的新思想新论断新要求，内涵丰富、意义深远，是当前和今后一个时期做好“三农”工作的根本遵循和行动指南。全局上下要聚焦“走在前、勇争先、善作为”的目标要求，紧扣市委“发展围绕‘四八’目标、存量实施‘四论’评价、增量聚焦‘四二’培育”的经济发展总思路，围绕局“135”工作目标，真抓实干、攻坚克难，一步一个脚印把总书记为我们擘画的宏伟蓝图变成美好现实，以优异成绩回报总书记和党中央的关心厚爱。', '景国成强调，学习宣传贯彻习近平总书记考察江西重要讲话精神，是当前和今后一个时期全局上下的首要政治任务和头等大事。局机关、局属各单位要加强组织领导，周密部署安排，制定完善工作举措，认真抓好学习研讨、宣传宣讲，迅速兴起学习宣传贯彻的热潮，全力推动总书记重要讲话、重要指示精神在全市农业农村系统落地见效，以实际行动回报总书记和党中央的关心厚爱。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>120</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>关于市政协十三届四次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2020-03-24</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2020%2F3%2F24%2Fart_42_113549.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%B3%E4%BA%8E%E5%B8%82%E6%94%BF%E5%8D%8F%E5%8D%81%E4%B8%89%E5%B1%8A%E5%9B%9B%E6%AC%A1%E4%BC%9A%E8%AE%AE%E7%AC%AC1%E5%8F%B7%E6%8F%90%E6%A1%88%E7%9A%84%E7%AD%94%E5%A4%8D</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['民革萍乡市委会： 市政协第十三届四次会议期间，贵单位提交的《关于抢抓机遇推进赣湘开放合作发展的几点建议》收悉。非常感谢对赣湘开放合作的关心和支持，经组织湘东区、上栗县和市直相关部门认真研究，针对提案建议，现将办理意见回复如下： 一、大力争国家和省级层面支持。 一是积极争取政策支持方面。2018年底，中共中央、国务院出台《关于建立更加有效的区域协调发展新机制的意见》，再次明确支持赣湘等省际交界地区合作发展，与《长江中游城市群发展规划》《促进中部地区崛起“十三五”规划》《赣闽粤原中央苏区振兴发展规划》等文件一起，对赣湘合作提供强有力的政策支持。近年来，通过全国“两会”、泛珠大会、赣西合作、苏区振兴等多种渠道，我市一直在加强向国家和省级汇报，国家发改委给予了积极回应，明确表示支持赣湘等毗邻城市合作发展，已纳入《促进中部地区崛起“十三五”规划》和国家发改委近期拟推动实施的重大政策措施，国家发改委将会同江西、湖南两省深化对赣湘开放合作的研究，力争尽快批复《湘赣边区域合作发展规划》。 二是加强区域合作交流方面。今年5月17日，江西、湖南两省政府在南昌举行了湘赣边区域合作第一次联席会议，两省省长亲自出席并作重要讲话，双方达成了重要共识，明确了近期即将推进的一批重点合作事项，有力推动两省合作步伐。2014年以来，我市密切加强与长株潭交流合作，分别与接壤的长沙、株洲签订了战略合作框架协议，多次组织党政代表团赴长株潭学习考察并实现互访。特别是5月30日，萍乡市党政代表团由党政主要领导带队一行30余人专程赴长沙、株洲学习考察，进一步推动一批赣湘合作重点事项，建立稳定的交流合作机制。同时，县级层面湘赣边的合作日益频繁，现已连续召开5届联席会议，签署专项协议35个，共同开展招商行动，组建合作联盟，加快推进赣湘合作取得实效。 二、强力推进赣湘合作取得新成效。 为贯彻落实习近平总书记在江西视察和推动中部地区崛起座谈会的重要指示，按照江西、湖南两省召开湘赣边区域合作第一次联席会议精神和我市党政代表团赴长沙、株洲学习考察工作安排，我市正在抓紧建立深化与株洲的合作机制，研究制定区域合作联席会议制度，出台推动两市合作的《三年行动计划》，明确一批近期重点合作事项。同时，积极推动与长沙等地合作对接，以“倒计时”的冲刺状态，从以下七个方面全力以赴深化赣湘合作： 一是积极推动湘赣边合作规划编制报批工作。组织相关县区全面参与《湘赣边区域合作发展规划》编制工作，充分吸纳地方诉求和意见，争取国家尽快以适当形式批复规划，为加快推进赣湘合作提供政策支持。 二是加强重大基础设施建设。加快推动长赣高铁项目前期工作，争取最佳线路和站点设置方案尽快落地，力争今年开工建设，加快构建萍乡高铁枢纽。共同推动沪昆高速复线、昌栗高速西延、邵吉高速等重大项目前期工作，争取纳入国家和省专项规划。改造提升跨省国省道等级水平，打通跨省边界“断头路”，提升两地交通运输承载能力。规划建设渌水湘东至株洲入河口段四级航道(500吨以下货船）。抓紧推进芦溪等通用机场建设。 三是强化经贸产业协作。按照“规划对接、交通互联、产业协作、服务共享、生态同护、政策共用”思路，重点推进湘东－醴陵、上栗－浏阳两个跨省合作产业园建设，在体制机制和管理模式上积极创新，在产业转型、产城融合、扩大开放等方面加强合作，在产业政策、项目建设、技术改造、平台建设、科技创新等方面加大支持，努力打造长株潭国家自主创新示范区的技术成果转化区和产业协作配套区。 四是深化文化旅游合作。积极参与《湘赣边红色文化旅游融合发展创新区建设三年行动方案》编制工作，加快建立湘赣边文化旅游营销媒体联盟和联席会议制度。重点推进武功山、安源、杨歧山、荷博园等景区纳入赣湘精品旅游线路，共同打造“穿越湘赣边•重走秋收路”等红色旅游品牌，充分利用湘赣旅游合作联盟平台，共同打造全国红色文化旅游融合发展创新区。 五是推动公共服务共建共享。加强教育、医疗、卫生、住房、就业等领域合作，推进公共服务平台数据对接共享，尽快实现两地住房公积金互认和工伤、医保等异地定点结算。继续实施我市与长沙、株洲干部交流互派制度，支持两地企业联合办学和订单式培养人才。推动湖南干部培训机构与萍乡市委党校、甘祖昌干部学院等共建红色联合培训体。 六是加强生态环境保护合作。以大气、河流同防共治为重点，建立健全赣湘边界污染防治联防联控市级合作机制，加快推进渌水流域综合治理，共同建立跨省河道联合保洁考核制度，确保出境水质稳定达标。共同争取山水林田湖草生态保护修复试点项目。建立健全防汛抗旱、地质灾害联合防御合作机制和联合执法机制。抓好省界区域森林防火、植树造林、退化修复工作，重点推进高铁、高速、国省道等通道绿化和景观提升工程建设。 七是共同推动乡村振兴合作。依托我市与长沙、株洲等地农业特色，共同推进区域公用品牌建设。每年定期举办农产品供销对接会，共同举办农民丰收节纪念活动。建立我市与长沙、株洲两市农业科技创新合作联盟，在杂交水稻、特色果蔬等方面深化产学研推合作交流，共建湘赣边乡村振兴示范区。 再次感谢贵单位对赣湘合作的关心和支持。期待对我委的工作提出宝贵意见，为我市“年年有变化、三年大变样、五年新跨越”做出新的更大贡献。 附：办理提案征询意见表 萍乡市发展和改革委员会 2019年6月18日', '市政协第十三届四次会议期间，贵单位提交的《关于抢抓机遇推进赣湘开放合作发展的几点建议》收悉。非常感谢对赣湘开放合作的关心和支持，经组织湘东区、上栗县和市直相关部门认真研究，针对提案建议，现将办理意见回复如下：', '一是积极争取政策支持方面。2018年底，中共中央、国务院出台《关于建立更加有效的区域协调发展新机制的意见》，再次明确支持赣湘等省际交界地区合作发展，与《长江中游城市群发展规划》《促进中部地区崛起“十三五”规划》《赣闽粤原中央苏区振兴发展规划》等文件一起，对赣湘合作提供强有力的政策支持。近年来，通过全国“两会”、泛珠大会、赣西合作、苏区振兴等多种渠道，我市一直在加强向国家和省级汇报，国家发改委给予了积极回应，明确表示支持赣湘等毗邻城市合作发展，已纳入《促进中部地区崛起“十三五”规划》和国家发改委近期拟推动实施的重大政策措施，国家发改委将会同江西、湖南两省深化对赣湘开放合作的研究，力争尽快批复《湘赣边区域合作发展规划》。', '二是加强区域合作交流方面。今年5月17日，江西、湖南两省政府在南昌举行了湘赣边区域合作第一次联席会议，两省省长亲自出席并作重要讲话，双方达成了重要共识，明确了近期即将推进的一批重点合作事项，有力推动两省合作步伐。2014年以来，我市密切加强与长株潭交流合作，分别与接壤的长沙、株洲签订了战略合作框架协议，多次组织党政代表团赴长株潭学习考察并实现互访。特别是5月30日，萍乡市党政代表团由党政主要领导带队一行30余人专程赴长沙、株洲学习考察，进一步推动一批赣湘合作重点事项，建立稳定的交流合作机制。同时，县级层面湘赣边的合作日益频繁，现已连续召开5届联席会议，签署专项协议35个，共同开展招商行动，组建合作联盟，加快推进赣湘合作取得实效。', '为贯彻落实习近平总书记在江西视察和推动中部地区崛起座谈会的重要指示，按照江西、湖南两省召开湘赣边区域合作第一次联席会议精神和我市党政代表团赴长沙、株洲学习考察工作安排，我市正在抓紧建立深化与株洲的合作机制，研究制定区域合作联席会议制度，出台推动两市合作的《三年行动计划》，明确一批近期重点合作事项。同时，积极推动与长沙等地合作对接，以“倒计时”的冲刺状态，从以下七个方面全力以赴深化赣湘合作：', '一是积极推动湘赣边合作规划编制报批工作。组织相关县区全面参与《湘赣边区域合作发展规划》编制工作，充分吸纳地方诉求和意见，争取国家尽快以适当形式批复规划，为加快推进赣湘合作提供政策支持。', '二是加强重大基础设施建设。加快推动长赣高铁项目前期工作，争取最佳线路和站点设置方案尽快落地，力争今年开工建设，加快构建萍乡高铁枢纽。共同推动沪昆高速复线、昌栗高速西延、邵吉高速等重大项目前期工作，争取纳入国家和省专项规划。改造提升跨省国省道等级水平，打通跨省边界“断头路”，提升两地交通运输承载能力。规划建设渌水湘东至株洲入河口段四级航道(500吨以下货船）。抓紧推进芦溪等通用机场建设。', '三是强化经贸产业协作。按照“规划对接、交通互联、产业协作、服务共享、生态同护、政策共用”思路，重点推进湘东－醴陵、上栗－浏阳两个跨省合作产业园建设，在体制机制和管理模式上积极创新，在产业转型、产城融合、扩大开放等方面加强合作，在产业政策、项目建设、技术改造、平台建设、科技创新等方面加大支持，努力打造长株潭国家自主创新示范区的技术成果转化区和产业协作配套区。', '四是深化文化旅游合作。积极参与《湘赣边红色文化旅游融合发展创新区建设三年行动方案》编制工作，加快建立湘赣边文化旅游营销媒体联盟和联席会议制度。重点推进武功山、安源、杨歧山、荷博园等景区纳入赣湘精品旅游线路，共同打造“穿越湘赣边•重走秋收路”等红色旅游品牌，充分利用湘赣旅游合作联盟平台，共同打造全国红色文化旅游融合发展创新区。', '五是推动公共服务共建共享。加强教育、医疗、卫生、住房、就业等领域合作，推进公共服务平台数据对接共享，尽快实现两地住房公积金互认和工伤、医保等异地定点结算。继续实施我市与长沙、株洲干部交流互派制度，支持两地企业联合办学和订单式培养人才。推动湖南干部培训机构与萍乡市委党校、甘祖昌干部学院等共建红色联合培训体。', '六是加强生态环境保护合作。以大气、河流同防共治为重点，建立健全赣湘边界污染防治联防联控市级合作机制，加快推进渌水流域综合治理，共同建立跨省河道联合保洁考核制度，确保出境水质稳定达标。共同争取山水林田湖草生态保护修复试点项目。建立健全防汛抗旱、地质灾害联合防御合作机制和联合执法机制。抓好省界区域森林防火、植树造林、退化修复工作，重点推进高铁、高速、国省道等通道绿化和景观提升工程建设。', '七是共同推动乡村振兴合作。依托我市与长沙、株洲等地农业特色，共同推进区域公用品牌建设。每年定期举办农产品供销对接会，共同举办农民丰收节纪念活动。建立我市与长沙、株洲两市农业科技创新合作联盟，在杂交水稻、特色果蔬等方面深化产学研推合作交流，共建湘赣边乡村振兴示范区。', '再次感谢贵单位对赣湘合作的关心和支持。期待对我委的工作提出宝贵意见，为我市“年年有变化、三年大变样、五年新跨越”做出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>120</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>关于印发萍乡市市容和环境卫生管理条例立法调研方案的通知</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2018-01-24</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F1%2F24%2Fart_5288_126204.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%B3%E4%BA%8E%E5%8D%B0%E5%8F%91%E3%80%8A%26lt%3B%E8%90%8D%E4%B9%A1%E5%B8%82%E5%B8%82%E5%AE%B9%E5%92%8C%E7%8E%AF%E5%A2%83%E5%8D%AB%E7%94%9F%E7%AE%A1%E7%90%86%E6%9D%A1%E4%BE%8B%26gt%3B%E7%AB%8B%E6%B3%95%E8%B0%83%E7%A0%94%E6%96%B9%E6%A1%88%E3%80%8B%E7%9A%84%E9%80%9A%E7%9F%A5</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['按照市委“年年有变化、三年大变样、五年新跨越”的总体要求，深入推进科学立法，切实发挥立法在改革发展中的引领和推动作用', '依据《宪法》、《环境保护法》、《城乡规划法》、《道路交通安全法》、《水法》、《行政许可法》、《行政处罚法》、《行政强制法》、《城市管理执法办法》（住建部令第34号）等法律框架实施立法调研，确保立法工作依据充分，有章可循，不出现与上位法相抵触的情况。立法过程严格按照立法程序和市人大立法工作要求进行，确保《条例》立法过程合法合规。', '立足萍乡，面向全国、全省，充分吸收其他城市好的做法和经验，尊重城市发展规律，重点解决我市当前存在的重点难点问题，在体现地方特色的基础上统筹规划、建设、管理三大环节，在突出实用性的基础上，进一步提高可操作性和前瞻性。', '坚持开门立法，广泛征求意见，重点征求县、区城管部门、院校专家和其它相关部门意见和建议，进一步提高《条例》立法的公平性。', '月9日）。组织相关人员到市内相关单位调研，通过发放调查问卷、召开座谈会等形式，汇集专家学者、社会各界人士的意见建议，掌握基本情况。', '1.本地调研：各县区、市建设局、市环保局、市水务局、市市场和质量监督管理局、市城市管理行政执法局、市公安局交警支队、市城管支队、市环境卫生管理处等单位', '调研采取立法研究、问卷调查、基层走访、召开座谈会、研讨会和赴外地考察等方式进行。具体包括：', '管理具体事项应当纳入《条例》中？如何纳入？具体管理标准和管理措施是否纳入？如何恰当？']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>120</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>萍乡市司法局召开年全市公证工作会议</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2019-03-07</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F3%2F7%2Fart_3811_742162.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%8F%B8%E6%B3%95%E5%B1%80%E5%8F%AC%E5%BC%802019%E5%B9%B4%E5%85%A8%E5%B8%82%E5%85%AC%E8%AF%81%E5%B7%A5%E4%BD%9C%E4%BC%9A%E8%AE%AE</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['3月7日，萍乡市司法局召开2019年全市公证工作会议。会议传达了全省公证会议精神，总结回顾了2018年公证工作开展情况，深入分析近年来公证工作面临的形势与发展机遇，研究部署2019年的公证工作任务。市司法局党组成员、副局长冯高亮出席会议并讲话，全市各公证机构负责人、市司法局公证工作科全体人员参加会议。', '冯高亮在讲话中充分肯定了2018年全市公证工作取得的成绩，并对2019年工作提出了几点明确要求。一是要深化公证体制改革与机制创新，实现公证事业持续发展，特别是要解决好事业编制人员招录问题，实行好绩效分配机制；二是要加强业务能力建设，扩展业务新领域，通过开展学习研讨、强化对外沟通、外出学习考察等形式实现新突破；三是要严格公证质量监管，提升规范化水平，从源头上杜绝错证、假证的发生；四是要落实“减证便民”要求，优化公证法律服务水平，积极践行上级会议精神，完善便民利民措施，实行节假日预约办证服务制度；五是要加强公证宣传工作，提高公证服务的影响力。', '会上，各公证机构负责人对去年公证工作情况进行了汇报交流，对全市的公证工作也提出了宝贵意见。与会人员集中学习了江西省公证协会汇编的《公证复查实务操作手册》，就公证复查投诉案件的办理步骤、复查文书的撰写等进行了研讨。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>120</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>市财政局赴长沙市</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F3%2F22%2Fart_5633_1290475.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E8%B4%A2%E6%94%BF%E5%B1%80%E8%B5%B4%E9%95%BF%E6%B2%99%E5%B8%82%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0%E4%BC%98%E5%8C%96%E6%94%BF%E5%BA%9C%E9%87%87%E8%B4%AD%E8%90%A5%E5%95%86%E7%8E%AF%E5%A2%83%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 工作动态 市财政局赴长沙市考察学习优化政府采购营商环境工作', '为推进实施优化营商环境“一号改革工程”，市财政局积极对标对表先进城市，向标杆城市学习看齐，持续做好我市优化政府采购营商环境工作。2023年3月16日至17日局党组成员、副局长李林俊带队，市县财政局政府采购相关人员一行7人先后赴长沙市财政局、开福区财政局学习考察政府采购营商环境工作经验。', '在长沙市财政局和开福区财政局的交流座谈会上，当地财政部门负责政府采购的领导、经办同志分别介绍了政府采购监管工作和优化政府采购营商环境等方面的经验做法。考察学习组成员对长沙市政府采购工作的好思路、好做法、好经验非常触动，就工作中的有关问题进行了详细探讨，不断搅动思想、触动思维、推动工作，就下一步工作开展共同探寻新思路、新方法。', '此次考察学习通过“走出去、请进来”的方式，不断吸收借鉴先进经验，对深入推进我市政府采购营商环境工作起到了极大促进作用。我们将不断强化服务功能，努力提高办事效率，聚焦重点、突破难点、打通痛点，不断创新监管模式，优化监管效能，着力推出更多政府采购监管的创新举措，全力以赴做好优化营商环境工作。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>120</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>芦溪县政务服务中心集体</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F10%2F19%2Fart_20_1299759.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%8A%A6%E6%BA%AA%E5%8E%BF%E6%94%BF%E5%8A%A1%E6%9C%8D%E5%8A%A1%E4%B8%AD%E5%BF%83%E9%9B%86%E4%BD%93%E5%AD%A6%E4%B9%A0%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E5%9C%A8%E6%B1%9F%E8%A5%BF%E8%80%83%E5%AF%9F%E6%97%B6%E7%9A%84%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E9%87%8D%E8%A6%81%E6%8C%87%E7%A4%BA%E7%B2%BE%E7%A5%9E%E4%B8%93%E9%A2%98%E4%BC%9A</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 芦溪县政务服务中心集体学习习近平总书记在江西考察时的重要讲话重要指示精神专题会', '芦溪县政务服务中心集体学习习近平总书记在江西考察时的重要讲话重要指示精神专题会', '10月19日下午，芦溪县政务服务中心召开专题会议，传达学习习近平总书记在江西考察时的重要讲话精神，中心主任龙瑞伟主持会议并讲话，全体机关干部参加会议。', '会议传达学习了习近平总书记在江西考察和听取省委省政府工作汇报、主持召开进一步推动长江经济带高质量发展座谈会时的重要讲话重要指示精神以及全省、全市、全县领导干部会议精神。', '会议指出，习近平总书记再次亲临江西考察调研，先后到九江、景德镇、上饶等地，深入长江岸线、企业、历史文化街区、农村等调研指导，听取省委和省政府工作汇报并发表重要讲话，面对面指导我们走好高质量发展之路，饱含着对江西的巨大关怀，对老区人民的深情厚爱，充分体现了总书记对江西发展一以贯之的关心关怀和殷切期望，县政务服务中心要迅速掀起学习宣传贯彻的热潮，全力推动习近平总书记重要讲话、重要指示精神落地见效，不断开创政务服务发展新局面，以实际行动拥护“两个确立”、做到“两个维护”。', '学习宣传贯彻习近平总书记考察江西重要讲话精神，是当前和今后一个时期全省上下的首要政治任务和头等大事。中心要把学习宣传贯彻总书记考察江西重要讲话精神，与学习贯彻党的十八大以来总书记对江西工作的一系列重要讲话重要指示精神结合起来，与贯彻党的二十大精神和党中央决策部署结合起来，与深入开展主题教育结合起来，周密部署安排，制定完善工作举措，通过集体学习、个人自学、理论研讨等方式，原原本本学、全面系统学、联系实际学、反复深入学，推动学习宣传贯彻习近平总书记重要指示精神落地见效。坚持以习近平总书记考察江西重要讲话精神为指引，聚焦“走在前、勇争先、善作为”的目标要求，真抓实干、攻坚克难，高质量推进政务服务工作，以政务服务标准化、规范化、智能化、便利化、专业化，切实增强企业和群众的获得感、体验感，不断擦亮“溪心办”营商环境品牌，绘就芦溪政务服务新篇章。', '会议还深入学习了习近平总书记《习近平著作选读》《习近平谈治国理政》《习近平新时代中国特色社会主义思想专题摘编》等规定书目的内容。中心班子成员和部分机关干部围绕学习贯彻习近平总书记在江西考察时的重要讲话精神，结合自身工作依次作交流研讨发言。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>120</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>关于印发萍乡市城市绿化管理条例立法调研方案的通知</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2019-02-19</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F2%2F19%2Fart_5288_126230.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%B3%E4%BA%8E%E5%8D%B0%E5%8F%91%E3%80%8A%26lt%3B%E8%90%8D%E4%B9%A1%E5%B8%82%E5%9F%8E%E5%B8%82%E7%BB%BF%E5%8C%96%E7%AE%A1%E7%90%86%E6%9D%A1%E4%BE%8B%26gt%3B%E7%AB%8B%E6%B3%95%E8%B0%83%E7%A0%94%E6%96%B9%E6%A1%88%E3%80%8B%E7%9A%84%E9%80%9A%E7%9F%A5</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['通过调研了解本市城市园林绿化现状，学习借鉴其他地市城市园林绿化管理立法方面的先进经验，立足萍乡实际，通过科学制定条例,规范执法行为，解决目前存在的园林绿化体制不顺、绿化规划管理缺乏刚性、城市绿化审批及处罚执行不到位、园林绿化管理市场开放不够、绿化设计审核管理不严、绿化后期养护缺乏连续性等问题，为进一步提升萍乡园林绿化管理水平，改善人居环境提供法规保障。', '园林绿化体制不顺、绿化规划管理缺乏刚性、城市绿化审批及处罚执行不到位、园林绿化管理市场开放不够、绿化设计审核管理不严、绿化后期养护缺乏连续性', '依据《宪法》、《环境保护法》、《城乡规划法》、《道路交通安全法》、《水法》、《行政许可法》、《行政处罚法》、《行政强制法》、《城市绿化条例》、《城市绿线管理办法》(建设部令第112号)等法律框架实施立法调研，确保立法工作依据充分，有章可循，不出现与上位法相抵触的情况。立法过程严格按照立法程序和市人大立法工作要求进行，确保《条例》立法过程合法合规。', '等法律框架实施立法调研，确保立法工作依据充分，有章可循，不出现与上位法相抵触的情况。立法过程严格按照立法程序和市人大立法工作要求进行，确保《条例》立法过程合法合规。', '立足萍乡，面向全国、全省，充分吸收其他城市好的做法和经验，尊重城市发展规律，重点解决我市当前存在的重点难点问题，在体现地方特色的基础上统筹城市绿化规划、建设、管理三大环节，在突出实用性的基础上，进一步提高可操作性和前瞻性。', '坚持开门立法，广泛征求意见，重点征求县、区园林部门、院校专家和其它相关部门意见和建议，进一步提高《条例》立法的公平性。', '第一阶段：调查摸底阶段（1月30日-2月20日）。组织相关人员到市内相关单位调研，通过发放调查问卷、召开座谈会等形式，汇集专家学者、社会各界人士的意见建议，掌握基本情况。调查摸底分成三个小组同时开展，先在城管系统内部进行调研，再对相关市直部门和县区调研。', '日）。组织相关人员到市内相关单位调研，通过发放调查问卷、召开座谈会等形式，汇集专家学者、社会各界人士的意见建议，掌握基本情况。调查摸底分成三个小组同时开展', '第二阶段：学习考察阶段（2月21日- 2月28日）。赴先进地区学习考察当地立法情况和经验做法。调研地点：湖南湘潭，浙江舟山、温州，安徽蚌埠、亳州等。', '1日- 2月28日）。赴先进地区学习考察当地立法情况和经验做法。调研地点：湖南湘潭', '第三阶段：起草、形成草案阶段（3月1日- 3月20日）。起草条例初稿，征求城管系统内部意见，收集社会公众意见和部门意见，修改完善稿本，形成条例草案，组织专家论证，召开听证会议。', '阶段：起草、形成草案阶段（3月1日- 3月20日）。起草条例初稿，征求城管系统内部意见，收集社会公众意见和部门意见，修改完善稿本，形成条例草案，组织专家论证', '以市城市管理局、市园林管理局为主组建立法调研课题组，同时邀请市人大法工委、环资委，市司法局工作人员参加。', '负责莲花县、芦溪县、武功山管委会、市林业局、市市场和质量监督管理局、市公安局交警支队的立法调研工作。', '调研采取立法研究、问卷调查、基层走访、召开座谈会、研讨会和赴外地考察等方式进行。具体包括：', '1.我市城市园林绿化管理的基本情况，包括管理范围、管理模式、管理机构设置、现有工作机制、主要经验成果、存在的问题等。', '3.哪些城市园林绿化管理具体事项应当纳入《条例》中？如何纳入？具体管理标准和管理措施是否纳入？如何恰当？', '5.了解其他地市城市园林绿化管理的法制化进程，探讨立法方向，重点解决立法理念、立法框架、立法内容、立法创新点、立法疑难点等问题。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>120</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>萍乡市政府信息公开工作简报总第期</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2011-09-22</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2011%2F9%2F22%2Fart_3976_807474.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E6%94%BF%E5%BA%9C%E4%BF%A1%E6%81%AF%E5%85%AC%E5%BC%80%E5%B7%A5%E4%BD%9C%E7%AE%80%E6%8A%A5%EF%BC%88%E6%80%BB%E7%AC%AC17%E6%9C%9F%EF%BC%89</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['8月份信息公开平台总体运行平稳，新增发布信息2932条，其中，各县区和市直单位分别新增2549条和383条。8月份从发布信息数量和质量方面看，有安源区、芦溪县、市食品药品监督管理局、市人力资源和社会保障局、市交通运输局、市国税局、市建设局、市地税局、市住房公积金、市林业局等１０个县区和单位做得较好，但仍有市审计局、市科学技术局、市农业局、市气象局、市粮食局、市国土资源局、市外侨办、市工商局、市体育局、市教育局、市旅游局、市供电公司、市物资集团公司等13个单位对信息公开工作不够重视，８月份信息公开数量为０。市档案局、市公安局、市水务局、市监察局、市安全生产监督管理局、市公共政务管理局、市统计局、市公路管理局、市人民防空办公室等9个单位８月信息公开情况也不理想，本月仅公开1至2条信息。8月市政府依申请信息公开平台共受理依申请公开信息４件，各受理单位均已按时处理，回复率100%。', '在已公开的政府信息中仍然存在一些问题：如湘东区的“金刚科技投产”发布栏目为领导活动，信息的内容与分类栏目不符；莲花县的“莲花县蓝天花海荷飘香”不符合编写信息的基本要素；上栗县的“蹲便器、排污管等采购中标公示”、“上栗镇向‘创新’要‘效能’”等信息属于重复发送，湘东区的“广寒寨乡做活‘水’资源旅游文章”和“广寒寨乡做活‘水’资源旅游文章”，虽然信息标题不同，但内容相同，属重复发送；上栗县的“上栗县党政代表团赴浏阳市、长沙县学习考察”发布栏目为图片信息，但仅有文字，未发布图片；莲花县的“莲花县粮食局城市转型工作领导小组”等多条信息后台录入后长期未审核发布，应及时发布或是撤除。', '各县区、各单位应秉承严谨、认真的工作态度，对通报指出的不规范信息及时进行撤除、修改发布，特别是没有发布信息的单位务必引起高度重视，加强政府信息公开工作。各县区在做好本级政府信息公开工作的同时，还必须进一步加强对所辖部门、乡镇的督导力度。', '从8月份的网站内容保障总体情况来看，做得较好的县区和部门有芦溪县、市效能投诉中心、市交通运输局、市国土资源局、市国税局、市食品药品监督管理局、市人力资源和社会保障局等７个单位，信息保障质量提升明显的有安源区。', '从稿件的质量上看，市人防办的“市人防办对全市防空警报器进行全面检修”、上栗县的“上栗县党政代表团赴芦溪、安源、湘东、莲花、萍乡经济开发区学习考察”等信息时效性强，内容充实并配有图片。但仍有一些信息质量不符合要求：一是信息排版不合规范。如开发区的“开发区获评全国模范劳动关系和谐工业园区”标题重复，上栗县的“上栗县‘三零’新举措扎实做好人口信访工作”等信息段首缩进字符不足，市科技局的“关于下达萍乡市2011年市级指导性科技计划项目的通知”图片撑破网页规格和栏目不符等；二是信息稿件已过时效。如市商务局的“萍乡市新春蕾粮油批发市场正式落户开发区”等信息和市卫生局的“市卫生局迅速动员全力以赴创建国家卫生城市”已过时效。三是同一条信息多次发送。如上栗县的“上栗镇‘三讲三促’助推新跨越”重复发送2次。', '各县区、各部门要善于利用政府网站这一平台，严格按照萍府办字〔2011〕36号文件要求，认真择稿，细心审稿，规范发稿，从而向广大网民更好地展示本县区、本部门的工作。', '“市长信箱”7月份总体运行平稳，受理的群众电子来信得到及时转交办，有效的履行了“了解民情、疏解民怨、畅通民生、密切干群关系”的工作职能。7月1日至7月31日共受理群众电子来信411件，同比上升7.5%。其中转市直单位204件，转县区162件，省属驻萍单位10件，市长手机信箱受理中心自办35件。在规定的时间内办结394件，办结率96%。', '本月市长信箱回复办理质量较好的单位有市城管执法局、市交通运输局、安源区、湘东区等。回复质量较差的单位有市供电公司等。', '从本期起，对各部门单位考核的市政府信息公开情况表和政府网站内容保障考核情况表不再印发纸质文件，如需查询本单位两项工作详细情况请到市政府网站交流群（QQ：80877518）的群共享中查询。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>120</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>长丰乡召开机关干部大会传达</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F10%2F19%2Fart_5533_1272243.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E9%95%BF%E4%B8%B0%E4%B9%A1%E5%8F%AC%E5%BC%80%E6%9C%BA%E5%85%B3%E5%B9%B2%E9%83%A8%E5%A4%A7%E4%BC%9A%EF%BC%8C%E4%BC%A0%E8%BE%BE%E5%AD%A6%E4%B9%A0%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E8%80%83%E5%AF%9F%E6%B1%9F%E8%A5%BF%E6%97%B6%E7%9A%84%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E7%B2%BE%E7%A5%9E</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 长丰乡召开机关干部大会，传达学习习近平总书记考察江西时的重要讲话精神', '10月19日，长丰乡召开机关干部大会，传达学习习近平总书记考察江西时的重要讲话精神，乡党委书记戴乐出席会议并讲话，乡党委副书记蒋敏鹏主持会议，乡全体班子成员、机关干部，各村书记参加会议。', '会上，乡党委书记戴乐要求，要把学习宣传贯彻习近平总书记考察江西重要讲话精神，作为当前和今后一个时期的首要政治任务和头等大事，牢牢把握习近平总书记考察江西重要讲话精神的重大意义、丰富内涵和实践要求，迅速掀起学习宣传贯彻热潮，做到学思践悟系统深入、宣传宣讲全面覆盖、贯彻落实久久为功，以更加扎实的工作，统筹推进乡村振兴、生态环保、转型升级、民生实事各项工作，努力在“走在前、勇争先、善作为”的新征程中贡献更多长丰力量。', '一是深刻感悟习近平总书记考察江西的重大意义，切实增强坚定捍卫“两个确立”、坚决做到“两个维护”的思想自觉、政治自觉、行动自觉。党的十八大以来，习近平总书记对老区人民和老区发展始终念兹在兹、牵挂于心，2015年全国“两会”期间参加江西代表团审议，2016年、2019年先后两次亲临江西视察指导。如今时隔4年，在党的二十大后，总书记再次深入江西考察并发表重要讲话，为我们精准把脉、指向引航，对江西改革发展具有重大而深远的意义。这次总书记在江西考察期间，先后到九江、景德镇、上饶等实地调研指导，心贴心与老区人民深入交流，面对面听取省委、省政府工作汇报，实打实指导我们走好高质量发展之路，充分体现了以习近平同志为核心的党中央对江西的关心厚爱。全乡上下要切实把对总书记的感恩之情转化为干事创业的强大动力，准确把握总书记考察江西的重大政治意义、历史意义、战略意义，深刻体会总书记的关怀之切、谋虑之远、期望之重，切实增强坚决拥护“两个确立”、坚决做到“两个维护”的政治自觉，坚定不移沿着总书记指引的方向奋勇前进。', '二是全面对标习近平总书记考察江西重要讲话精神，奋力开创长丰高质量发展新局面。习近平总书记在上饶市婺源县秋口镇王村石门自然村调研时说：“中国式现代化既要有城市的现代化，又要有农业农村现代化，我很关注乡村振兴。希望你们保护好自然生态，把传统村落风貌和现代元素结合起来，坚持中华民族的审美情趣，把乡村建设得更美丽，让日子越过越开心、越幸福！”习近平总书记的这段话对长丰也是十分受益。对于长丰而言，生态是最亮的底色，“长于绿水青山、丰及金山银山，山外招大引强、山内做活做靓”，长丰的发展理念正好契合了总书记的讲话精神。要继续认真贯彻总书记的重要指示精神，持续深化改革，坚决扛起稳定经济增长的责任担当，坚持“项目为王”，优化全乡经济结构；加大招商引资力度，优化营商环境；要坚决贯彻“全面推进乡村振兴”的重要要求，做大做强农业产业，推进乡村振兴；着力富民惠民，持续增加民生福祉。要深入学习贯彻习近平总书记关于推动长江经济带高质量发展的重要讲话精神，坚定不移走生态优先、绿色发展之路；要完整、准确、全面贯彻新发展理念，坚决扛起重点领域的安全责任，统筹推进生态环境保护和经济社会发展。要聚焦“走在前、勇争先、善作为”的标准和要求，坚持目标导向和问题导向相结合，发挥自身优势，埋头苦干实干，在新征程上奋力开创长丰高质量发展新局面。', '三是迅速兴起学习宣传贯彻热潮，推动习近平总书记重要讲话精神落实落地落细。要精心组织学习研讨，机关干部要发挥带头引领作用，先学一步、深学一层，示范带动、引向深入；各级党组织要将学习总书记视察江西重要讲话精神作为主题教育学习研讨的重要内容，重要篇章，带着破解本地、本领域的难点痛点问题，结合总书记讲话的指示要求，就如何在构建现代化产业体系、扩大对内对外开放、推进乡村振兴、实现共同富裕等方面提出想法和意见建议，切切实实将学习研讨内容转化为实际操作层面具体实践，体现在为民解忧排难得实际工作中，落实到推动产业发展、扩大农民增收的过硬举措上。要深入开展宣传宣讲，坚持贴近实际、贴近生活、贴近群众，基于不同主体、不同层次、不同领域，精心部署、广泛开展，全方位、深层次、多角度做好宣传报道工作。要全面抓好贯彻落实，坚持把贯彻落实总书记重要讲话精神，与贯彻党的十八大以来总书记对江西工作的一系列重要讲话重要指示精神结合起来，与贯彻党的二十大精神和党中央决策部署结合起来，与深入开展主题教育结合起来，紧紧围绕长丰发展大局，加强重大问题研究思考，加快完善工作思路和具体举措，着力破除制约发展的矛盾和问题，切实把贯彻落实成果体现到助推长丰高质量发展的成效中。要坚持学以致用、用以促学，做到理论联系实践，理论指导实践，真正把学习成果转化为具体举措、工作成效，不折不扣推动习近平总书记考察江西重要讲话精神在长丰乡落实落地。', '乡党委副书记蒋敏鹏传达学习了习近平总书记考察江西时的重要讲话精神和主持召开进一步推动长江经济带高质量发展座谈会、听取省委省政府工作汇报时的重要讲话重要指示精神，传达学习了省委常委会（扩大）会议，全省、全市、全县领导干部会议精神。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>120</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>刘烁主持召开市委深改委会议时强调充分发挥好改革的突破和先导作用为打造产业转型升级标杆城市注入强劲动力</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2024-01-03</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F1%2F3%2Fart_16_1293219.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%88%98%E7%83%81%E4%B8%BB%E6%8C%81%E5%8F%AC%E5%BC%80%E5%B8%82%E5%A7%94%E6%B7%B1%E6%94%B9%E5%A7%94%E4%BC%9A%E8%AE%AE%E6%97%B6%E5%BC%BA%E8%B0%83%20%E5%85%85%E5%88%86%E5%8F%91%E6%8C%A5%E5%A5%BD%E6%94%B9%E9%9D%A9%E7%9A%84%E7%AA%81%E7%A0%B4%E5%92%8C%E5%85%88%E5%AF%BC%E4%BD%9C%E7%94%A8%20%E4%B8%BA%E6%89%93%E9%80%A0%E4%BA%A7%E4%B8%9A%E8%BD%AC%E5%9E%8B%E5%8D%87%E7%BA%A7%E6%A0%87%E6%9D%86%E5%9F%8E%E5%B8%82%E6%B3%A8%E5%85%A5%E5%BC%BA%E5%8A%B2%E5%8A%A8%E5%8A%9B</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡要闻 刘烁主持召开市委深改委会议时强调 充分发挥好改革的突破和先导作用 为打造产业转型升级标杆城市注入强劲动力', '刘烁主持召开市委深改委会议时强调 充分发挥好改革的突破和先导作用 为打造产业转型升级标杆城市注入强劲动力', '1月2日，市委书记、市委全面深化改革委员会主任刘烁主持召开市委深改委会议。他强调，要深入学习贯彻习近平总书记关于全面深化改革的重要论述和习近平总书记考察江西重要讲话精神，充分发挥好改革的突破和先导作用，敢为人先、奋力拼搏，扎实推进全面深化改革工作，不断为打造产业转型升级标杆城市注入强劲动力。熊运浪、鲍峰庭、吴运波、聂晓葵等市领导出席会议。', '会议传达学习了中央深改委第三次会议精神、省委深改委第二十六次会议精神，审议了《市委全面深化改革委员会工作规则》《市委全面深化改革委员会专项小组工作规则》《市委全面深化改革委员会办公室工作细则》《萍乡市国有企业改革深化提升行动实施方案（2023—2025年）》，听取了各县区、萍乡经开区、武功山风景名胜区党（工）委主要负责同志全面深化改革工作述职。', '——要扛牢改革责任。从“免责思维”向“担当思维”转变，只要改革大方向正确，各县区各部门“一把手”就要敢为人先、先行先试，坚决落实“四个亲自”要求，坚定改革决心，扛牢改革责任，着力破解制约经济社会高质量发展的突出问题，奋力推动新时代萍乡改革取得更大突破。', '——要加强改革谋划。坚持对标对表，以推动高质量发展为主题，谋深谋实重点领域改革任务；坚持问题导向，在“一年全面铺开”“两年重点突破”的基础上实现“三年整体提升”，切实破解一批事关萍乡转型升级的痛点堵点难点问题；坚持改革探索，加大改革力度，努力形成更多可复制可推广的改革经验，打造更多原创性有影响的改革品牌。', '——要狠抓改革落实。深入调研，大兴调查研究之风，多到事关大局和矛盾问题集中的地方调研摸底、掌握实情，多到经济发达、改革先进省市县学习考察、借鉴经验，既深入研究解决具体问题，又善于综合各方面情况，持续以高质量调研推动高质量改革落实。加强督察，准确掌握改革进度、发现改革问题、了解改革成效，以实打实的改革督察不断提升改革落实水平。强化激励，树立鼓励改革、勇于担当的鲜明导向，创造容错免责、包容改革的宽松条件，努力调动各方面的改革积极性。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>120</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>市发改委召开落实赣湘开放合作试验区建设任务工作调度会</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2020-10-30</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2020%2F10%2F30%2Fart_3811_735153.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%8F%91%E6%94%B9%E5%A7%94%E5%8F%AC%E5%BC%80%E8%90%BD%E5%AE%9E%E8%B5%A3%E6%B9%98%E5%BC%80%E6%94%BE%E5%90%88%E4%BD%9C%E8%AF%95%E9%AA%8C%E5%8C%BA%E5%BB%BA%E8%AE%BE%E4%BB%BB%E5%8A%A1%E5%B7%A5%E4%BD%9C%E8%B0%83%E5%BA%A6%E4%BC%9A</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['10月27日，落实赣湘开放合作试验区建设任务工作调度会在市发改委召开。会议由市发改委党组成员，副主任李浩然主持，市委组织部、市工信局、市河长办、市人社局、市医保局、市交通运输局、市文广新旅局、市农业农村局等部门业务科室负责人和有关县区发改委分管同志参加会议。', '与会人员认真学习了江西省党政代表团赴鄂湘学习考察小结会议精神，并结合我市实际，针对深化萍乡株洲两市合作机制和三年行动计划9项重点合作任务，进行了交流发言。各参会单位分别汇报了牵头推动萍乡株洲两市合作任务的进展，存在的问题和困难，并提出了下一步工作打算。湘东区、上栗县分别就本地推动各领域合作具体落实进展情况，莲花县就承办第五届湘赣边区域合作交流年会筹备等工作作了汇报。', '加快推动赣湘开放合作试验区建设，全面落实好萍乡株洲三年行动计划任务是我市深入对接长株潭城市群的重大举措，市直相关单位和县区发改部门要主动作为，发挥牵头协调的职责，以我市全域纳入《湘赣边区域合作示范区总体方案》为契机，谋划好融入国家和全省重大区域发展战略和项目。要压实责任，坚决按照市委、市政府印发的《关于深化萍乡株洲两市合作的工作机制》《关于深化萍乡株洲两市合作三年行动计划》任务分工，加强调度，细化举措，加快推动年底前各项任务尽快落地见效。要确保实效，市直有关部门要与长株潭加强对接沟通，完善相关合作协议，密切配合形成合力，在月底前报送任务进展情况，确保萍乡株洲两市合作三年行动计划取得实实在在的成效。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>120</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>区委理论学习中心组开展年第九次集中扩大学习</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2022-01-04</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F1%2F4%2Fart_5533_1158609.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%8C%BA%E5%A7%94%E7%90%86%E8%AE%BA%E5%AD%A6%E4%B9%A0%E4%B8%AD%E5%BF%83%E7%BB%84%E5%BC%80%E5%B1%952021%E5%B9%B4%E7%AC%AC%E4%B9%9D%E6%AC%A1%E9%9B%86%E4%B8%AD%EF%BC%88%E6%89%A9%E5%A4%A7%EF%BC%89%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['12月31日，区委理论学习中心组开展2021年第九次集中（扩大）学习，围绕“认真学习贯彻党的十九届六中全会精神和省第十五次党代会精神，大力推进三区同振、城乡融合，在萍乡打造最美转型城市中争先领跑”专题进行集体学习。区委书记李水清主持会议并讲话，区委副书记、区长邱伟，区委副书记、安源国家森林公园党组书记、主任刘铸，区人大常委会党组书记、主任易燕萍，区政协党组书记、主席刘少云等全区在职副县级以上领导干部参加学习，区委各部门、区直各单位、区各人民团体、驻区有关单位主要（常务）负责同志、各镇街委党委书记列席。', '李水清指出，全省领导干部“学习贯彻党的十九届六中全会精神，提高政治判断力政治领悟力政治执行力”专题研讨班，着力提高各级领导干部从政治上研究问题、分析问题、解决问题的能力水平，着力提高各级领导干部把握新发展阶段、贯彻新发展理念、构建新发展格局、推进高质量发展的能力水平。充分体现了省委、省政府树牢“四个意识”、践行“两个维护”的高度政治自觉和行动自觉，充分体现了省委、省政府把美好蓝图变为生动现实的坚定决心和坚强韧劲。', '李水清强调，落实专题研讨班精神，重点要做好明年工作的谋划发展。一是在省市发展大局中找位置。找产业发展的位置，聚焦关键领域加速转型升级，形成具有自身特色、比较优势的产业集群。找开放发展的位置，积极参与湘赣边区域合作示范区建设，深度融入长株潭城市群，主动对接长三角经济区、粤港澳大湾区，在新发展格局中彰显作为。二是在相似转型城市中找差距。结合近期相关地缘相近、业缘相关的中心城区学习考察经验，实实在在找出差距，切切实实奋发努力，真真切切改变面貌。面对转型发展道路上的各种瓶颈、难点、短板和弱项，我们必须解放思想、更新理念、实干争先，掀起对标追赶的热潮，奋力推动转型升级。三是在现有基础和任务中找重点。要紧扣“三区振兴、城乡融合”，找准明年努力方向和工作重点。推动工作靠项目，要把工作重点实化为一个个具体工作项目，做到项目化推进。对项目完成情况进行考核，在全区形成“比谋划、看特色，比进度、看成效，比作风、看变化”的“三比三看”浓厚氛围。', '会上，邱伟传达学习了全省领导干部“学习贯彻党的十九届六中全会精神，提高政治判断力政治领悟力政治执行力”专题研讨班精神和省委经济工作会议精神，刘铸领学了省第十五次党代会精神，其他县级领导干部作学习交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>上栗公安举办年首场栗警智慧讲堂暨青年民警以案促改警示教育活动</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F5%2F8%2Fart_20_1237597.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E4%B8%8A%E6%A0%97%E5%85%AC%E5%AE%89%E4%B8%BE%E5%8A%9E2023%E5%B9%B4%E9%A6%96%E5%9C%BA%E2%80%9C%E6%A0%97%E8%AD%A6%E6%99%BA%E6%85%A7%E8%AE%B2%E5%A0%82%E2%80%9D%E6%9A%A8%E9%9D%92%E5%B9%B4%E6%B0%91%E8%AD%A6%E4%BB%A5%E6%A1%88%E4%BF%83%E6%94%B9%E8%AD%A6%E7%A4%BA%E6%95%99%E8%82%B2%E6%B4%BB%E5%8A%A8</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 上栗公安举办2023年首场“栗警智慧讲堂”暨青年民警以案促改警示教育活动', '为持续推动队伍素质能力提升，锻造“作风顽强、首战必胜”公安铁军，5月6日，上栗县公安局组织开展2023年首期“栗警智慧讲堂”暨青年民警以案促改警示教育活动。', '“要坚定理想信念、把握前进方向，雕琢品德修为、涵养高尚情操，不断学习思考、提升干事本领，坚持实干为先、勇于攻坚克难，永葆奋斗姿态、擦亮青春底色。”活动中，参会人员首先集体学习了副市长、市公安局党委书记、局长熊小青同志在全市公安机关青年民警理论学习专班开班仪式上的辅导报告。', '报告通报了近年来全县公安系统在全面从严治党、从严治警中所查处的违纪违法典型案件，并深刻剖析了相关案件发生的原因以及暴露的问题。报告要求，青年民警', '要学深悟透习近平新时代中国特色社会主义思想，强化理论武装，坚持以革命先辈先烈为镜，筑牢信仰之基，补足精神之钙，确保自己的人生始终不偏航。', '要强化党性党风党纪教育，认真学习遵守党纪条规和法律法规，牢记纪律红线，做到知敬畏，有戒惧；不断弘扬良好作风，培养健康的情趣爱好，自觉净化朋友圈、社交圈。', '深刻汲取案件教训，认清权力的本质，把权力当作责任，自觉养成在监督的环境下行使职权，主动接受组织和人民的监督，确保权力为民所用。', '4月23日至27日，市局党委和上栗县局党委分别组织了赴重庆、赣南学习考察活动。在分享交流环节，参加重庆考察学习和赣南学习交流活动的8名同志分别分享了学习心得，大家既介绍外地先进经验，又对照自身查不足，并结合县局实际提建议、谈打算，让与会人员接受了一次深刻的思想洗礼。', '在家党委班子成员、各科所队室负责人、参加重庆考察学习和赣南交流学习活动民警及28周岁以下青年民警等共90余人参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>120</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>萍乡市生态环境局组织召开大气网格化监测和管控系统建设现场推进会</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2020%2F3%2F17%2Fart_3811_738912.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E7%94%9F%E6%80%81%E7%8E%AF%E5%A2%83%E5%B1%80%E7%BB%84%E7%BB%87%E5%8F%AC%E5%BC%80%E5%A4%A7%E6%B0%94%E7%BD%91%E6%A0%BC%E5%8C%96%E7%9B%91%E6%B5%8B%E5%92%8C%E7%AE%A1%E6%8E%A7%E7%B3%BB%E7%BB%9F%E5%BB%BA%E8%AE%BE%E7%8E%B0%E5%9C%BA%E6%8E%A8%E8%BF%9B%E4%BC%9A</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 政务动态 萍乡市生态环境局组织召开大气网格化监测和管控系统建设现场推进会', '为进一步实现萍乡市中心城区和各县（区）大气污染防治系统化、科学化和精准化，3月12日上午，萍乡市生态环境局在芦溪县组织召开大气网格化监测和管控系统建设现场推进会。', '会上，罗克佳华公司对芦溪县大气网格化监测和管控系统建设背景、功能、运行机制及运行以来所取得的大气环境质量改善成效进行了详细的介绍，并逐一回复与会人员对运行机制提出的疑问。', '萍乡市生态环境局党组书记、局长对芦溪县大气网格化监测和管控系统建设及其运行后取得的成效给予了充分肯定，他指出，常规化和经验性的大气环境治理办法，已经难以适应当前大气环境，无法使其在短时间得到有效改善，只有充分利用现有科学技术采取系统化、科学化和精准化的治污措施才能适应当前大气污染防治工作形势，同时要求未达二级空气质量标准的安源区、湘东区、上栗县、经开区要充分利用此次向芦溪县学习考察的机会，按照今年的大气污染防治年度工作任务安排，全面启动各自辖区的大气网格化监测和管控系统建设并投入使用，实现精准溯源、科学治污，同时也要求芦溪县在现有监测因子的基础上继续增设其它大气污染监测因子，进一步提高现有大气网格化监测和管控系统的监控能力，确保收官之年全面完成省下达我市及各县（区）的年度PM2.5目标考核任务。', '市生态环境局党组书记、局长对芦溪县大气网格化监测和管控系统建设及其运行后取得的成效给予了充分肯定，他指出，常规化和经验性的大气环境治理办法，已经难以适应当前大气环境，无法使其在短时间得到有效改善，只有充分利用现有科学技术采取系统化、科学化和精准化的治污措施才能适应当前大气污染防治工作形势，同时要求未达二级空气质量标准的安源区、湘东区、上栗县、经开区要充分利用此次向芦溪县学习考察的机会，按照今年的大气污染防治年度工作任务安排，全面启动各自辖区的大气网格化监测和管控系统建设并投入使用，实现精准溯源、科学治污，同时也要求芦溪县在现有监测因子的基础上继续增设其它大气污染监测因子，进一步提高现有大气网格化监测和管控系统的监控能力，确保收官之年全面完成省下达我市及各县（区）的年度', '会后，与会人员一行现场观摩了芦溪工业园区道路扬尘监测微站点、东方医药包装有限公司工业企业废气监测废气微站点。在观摩现场，与会人员就空气监测微站点布设原则、数据监测准确性、保养维护周期、数据信号传输稳定性、监测环境适应性等问题向罗克佳华公司技术团队进行了咨询。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>120</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>市城管局举行</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F11%2F24%2Fart_19_1278138.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%9F%8E%E7%AE%A1%E5%B1%80%E4%B8%BE%E8%A1%8C%E5%AD%A6%E4%B9%A0%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E8%80%83%E5%AF%9F%E6%B1%9F%E8%A5%BF%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E7%B2%BE%E7%A5%9E%E5%AE%A3%E8%AE%B2%E6%8A%A5%E5%91%8A%E4%BC%9A</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 部门动态 市城管局举行学习习近平总书记考察江西重要讲话精神宣讲报告会', '11月23日上午，市城管局举行学习习近平总书记考察江西重要讲话精神宣讲报告会。市委宣讲团成员、市委党校常务副校长彭先荣作宣讲报告，局党组书记、局长张达彪主持会议。局党组成员、市管县级干部、局系统副科级以上领导干部参加。', '彭先荣从深刻把握习近平总书记再次考察江西的重大意义、对江西发展提出的新的战略定位、任务要求、对进一步推动长江经济带高质量发展的重要要求、贯彻落实习近平总书记考察江西重要讲话精神的实践要求、为奋力谱写中国式现代化江西篇章贡献萍乡力量等六个方面进行了系统全面阐释。整场报告会主题鲜明、内容丰富，资料详实、论述深刻，既有政策理论性，又有实践指导性，对局系统干部职工进一步学习贯彻习近平总书记考察江西重要讲话精神具有重要的指导意义。', '党组书记、局长张达彪强调，深入学习贯彻习近平总书记考察江西重要讲话精神，是当前和今后一个时期的首要政治任务和头等大事，全局上下要以此次宣讲为契机，切实增强学习贯彻的政治自觉、思想自觉、行动自觉，推动习近平总书记重要讲话精神在城管系统落地生根。', '一是要在学习领会上下功夫、见实效。坚持集中学习和自主学习相结合，全面系统学、深入思考学、联系实际学，准确把握核心要义、精神实质、科学内涵、实践要求，不断把学习贯彻习近平总书记考察江西重要讲话精神引向深入。', '二是要在宣传宣讲上下功夫、见实效。加强统筹谋划，拓展宣传渠道，充分利用城管进社区、龚全珍工作室等，用群众听得懂的语言、喜闻乐见的方式，做好宣传阐释工作，让群众深入了解、深刻领会总书记的重要讲话精神的内涵，推动习近平总书记考察江西重要讲话精神家喻户晓、深入人心。', '三是要在对标落实上下功夫、见实效。聚焦“走在前、勇争先、善作为”的目标要求，在推动高质量发展、加快构建3+1城管体系、推进城市管理向城市治理转变、坚持和加强党的全面领导上实干拼搏、争先创优，扎扎实实做好各项工作，为奋力谱写中国式现代化萍乡篇章作出城管贡献。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>120</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>杨岐山景区春季研学正当时</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F4%2F4%2Fart_20_1230523.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%9D%A8%E5%B2%90%E5%B1%B1%E6%99%AF%E5%8C%BA%EF%BC%9A%E6%98%A5%E5%AD%A3%E7%A0%94%E5%AD%A6%E6%AD%A3%E5%BD%93%E6%97%B6</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['人间四月，草木萌发，春天是一个浇灌成长的季节。近日，杨岐山景区游客中心广场人潮涌动、热闹非凡，一群活泼可爱的中小学生正在孽龙洞景区参加拓展研学，教官们正紧锣密鼓地组织整队，一张张稚嫩的脸蛋洋溢着无限的快乐，杨岐山孽龙洞景区迎来了春季研学热潮。', '据了解，此批学生来自上栗县金山中学和莲花县甘祖昌红军小学，前来参加研学的学生1500余人。“很开心，可以来到孽龙洞景区学习到课本上没有的知识，我们已经期待很久了……”金山中学学生梁同学迫不及待地说。', '“趁着天气晴好，可以带着学生们走出校园，感受春天的美好，培养他们探知大自然、热爱大自然的情感。特别是孽龙洞的地质科普+红色基因主题研学，不但有利于提高孩子们保护地球资源、保护生态环境的意识，而且可以让他们学习红色历史、感受革命征程，从而激发爱国热情……”甘祖昌红军小学领队周老师如是说。', '孽龙洞是杨岐山景区要素功能较为完善的核心景区，为典型的喀斯特地貌，地下有庞大的溶洞群，洞道长3000多米，形成于1.8亿年前，被誉为“天下第一洞”“地下艺术长廊”，洞内恒温18°C，怪石、清风、流泉、飞瀑为洞中四绝，内有八处世界级的洞穴自然景观。科普功能和视觉艺术享受强烈，古老的许真君擒孽龙的神话故事流传甚广，增加了溶洞的神秘感，增强了学生们的探知欲。景区建设了齐全的科普教学场所---杨岐山地质博物馆，馆内设施设备齐全，涵盖3D影院、环形影院、VR科普等宣传地质科普载体资源。近两年，景区在游客中心新建了舞台，配备了齐备的灯光、音响等设备，有利于研学活动的开展。在游客中心一侧，建有传承“西迁精神”的彭康生平业绩陈列室，陈列室同步展陈了上栗历史名人的丰功伟绩。杨岐山地质博物馆、彭康生平业绩陈列室和舞台的建成，不但丰富了研学线路，丰富了课程的人文知识，而且坚定了中小学生的理想信念。', '孽龙洞景区坐落国家级风景名胜区、国家AAAA级旅游景区---江西省萍乡市杨岐山风景名胜区的南部，交通便利，位于萍乡市近郊，属于“江西省中小学生研学旅行实践教育基地”。景区围绕“溶洞探秘记”“科普教学记”“博物馆寻踪”“科学实验记”四大主题，寓教于乐、游学结合，让孩子们通过学习考察、实地操作来了解地学知识。为做出更高质量的校外“第二课堂”，2023年，景区研发了“传承西迁精神·探秘亿年溶洞”主题课程，增加了德育课程，将长达3小时的舞台音乐剧《强信念 跟党走》融入其中，使得研学活动的主题得到进一步升华，培养了中小学生爱国主义情怀，学生的体验感得到增强。', '自去年下半年以来，景区承接中小学研学旅行团队20余个，接待中小学生约1.2万人次。随着研学课程的不断优化，孽龙洞景区逐步形成了赣湘边优质研学品牌，深受中小学生的喜爱。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>120</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>沉浸小县大城学习全域共兴我县党政考察团在浙江省云和县取经</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2022-08-23</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F8%2F23%2Fart_20_1140305.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B2%89%E6%B5%B8%E2%80%9C%E5%B0%8F%E5%8E%BF%E5%A4%A7%E5%9F%8E%E2%80%9D%20%E5%AD%A6%E4%B9%A0%E2%80%9C%E5%85%A8%E5%9F%9F%E5%85%B1%E5%85%B4%E2%80%9D%20%E6%88%91%E5%8E%BF%E5%85%9A%E6%94%BF%E8%80%83%E5%AF%9F%E5%9B%A2%E5%9C%A8%E6%B5%99%E6%B1%9F%E7%9C%81%E4%BA%91%E5%92%8C%E5%8E%BF%E2%80%9C%E5%8F%96%E7%BB%8F%E2%80%9D</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 沉浸“小县大城” 学习“全域共兴” 我县党政考察团在浙江省云和县“取经”', '8月15日 ，县委书记易刚，县委副书记、县长曾衍敏率我县党政考察团，远赴700公里外，对标浙江省丽水市云和县，开展为期三天的学习取经。', '相似的生态地理环境下，云和与莲花不谋而合地选择生态发展道路。两县都在深入践行绿水青山就是金山银山理念，提速发展休闲旅游等新业态；都在探索实践以人为核心的共同富裕路径，不约而同确定了“城美乡美全域共美、城兴乡兴全域共兴”和“全域美丽、全民共享”的类似城乡互促发展思路。', '近年来，云和县实施“小县大城”发展战略，着力把县城作为县域增长极来培育和发展，加快人口集聚、产业集聚，推进新型城市化，实现全县58%的农民下山转移、78%的农村劳动力向二三产业转移，80%的人口集中在县城居住、93.4%的学生集中在县城就读、96%的企业集中在县城发展，城镇化率达73.4%。', '云和县域是如何推进城市更新？农民下山进城如何搬得下、稳得住？易刚、曾衍敏等考察团成员带着问题思考、带着课题研究，先后来到童话云和展示馆、白龙山街道大坪社区学习考察，详细了解云和县人文历史、城建变迁、规划蓝图、产业发展等情况背景，认真请教异地搬迁政策、基层社会治理、基层农民市民化等经验举措。', '在15日下午召开的座谈会上，易刚感慨地与云和县委书记李忠伟等领导交流说，莲花与云和基础相似、县情相仿、思路相向。云和县坚定“小县大城”发展战略不动摇，一以贯之二十年取得了卓越成效，形成了一系列丰富实践、宝贵经验、过硬举措，如今进一步提出了打造全国山区县域新型城镇化共富样板，更启发了我们思路、解答了我们困惑、增强了我们信心。作为追赶县，考察中我们切身感受到云和各级组织和干部队伍的为民初心、敢为人先、笃行务实，以及放眼四海的大视野、高标准。一进云和，倍感触动、满怀期待，同时我们也在认真思考如何化用经验、走好“捷径”，提升莲花的乡村生态价值、经济价值和美学价值，构建各美其美、美美与共的城乡共进格局。', '李忠伟表示，莲花是革命老区、红色热土，近年来发展基础不断夯实，区位环境持续改善，在高质量发展大道上正奋力跑出发展加速度。希望两县以此次交流为契机，加强双方互动，密切共济共促，期待两县经济社会携手迈上发展新台阶。', '县领导钟勇、朱白明、汤杰、陈礼虎、刘力亚、刘晓飞和云和县县领导叶晓勇、章作飞、陈卿、傅雅涛、谢岩伟等参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>120</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>市机关事务管理中心传达</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F10%2F24%2Fart_5532_1270568.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E6%9C%BA%E5%85%B3%E4%BA%8B%E5%8A%A1%E7%AE%A1%E7%90%86%E4%B8%AD%E5%BF%83%E4%BC%A0%E8%BE%BE%E5%AD%A6%E4%B9%A0%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E8%80%83%E5%AF%9F%E6%B1%9F%E8%A5%BF%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E7%B2%BE%E7%A5%9E</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 部门动态 市机关事务管理中心传达学习习近平总书记考察江西重要讲话精神', '近日，市机关事务管理中心召开全体干部职工大会，传达学习习近平总书记考察江西重要讲话精神。', '中心党组书记、主任朱雳平强调，全体干部职工要将学习宣传贯彻落实习近平总书记考察江西重要讲话精神作为当前和今后一个时期的首要政治任务。要聚焦', '他指出：要结合习近平总书记考察江西系列讲话精神系统学。全体干部职工要结合时代背景系统学习，真正学懂弄通把握好习近平总书记考察江西的重要讲话精神和目标要求；要结合主题教育的总体要求深入学。要高质量开展习近平新时代中国特色社会主义思想主题教育，把实的要求贯穿主题教育全过程，实实在在抓好理论学习和调查研究、实实在在检视整改突出问题、实实在在办好惠民利民实事；要结合机管系统的工作具体学。要以习近平总书记考察江西重要讲话精神为指引，拿出真正推动机关事务工作高质量发展的实招硬招，为奋力谱写中国式现代化萍乡篇章贡献机关事务力量。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>120</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>江西省企业领导人员推动经济高质量跨越式发展培训班在浙江大学顺利结业</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2018-10-17</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F10%2F17%2Fart_3811_738119.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B1%9F%E8%A5%BF%E7%9C%81%E4%BC%81%E4%B8%9A%E9%A2%86%E5%AF%BC%E4%BA%BA%E5%91%98%E2%80%9C%E6%8E%A8%E5%8A%A8%E7%BB%8F%E6%B5%8E%E9%AB%98%E8%B4%A8%E9%87%8F%E8%B7%A8%E8%B6%8A%E5%BC%8F%E5%8F%91%E5%B1%95%E2%80%9D%E5%9F%B9%E8%AE%AD%E7%8F%AD%E5%9C%A8%E6%B5%99%E6%B1%9F%E5%A4%A7%E5%AD%A6%E9%A1%BA%E5%88%A9%E7%BB%93%E4%B8%9A</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 政务动态 江西省企业领导人员“推动经济高质量跨越式发展”培训班在浙江大学顺利结业', '9月30日，由省委人才办、省国资委党委共同主办，浙江大学公共管理学院承办的江西省企业领导人员“推动经济高质量跨越式发展”培训班顺利结业。21户省属国有企业新提任领导人员或分管相关业务的领导人员，以及来自我省航空制造、生物医药、电子信息、新能源、新材料等战略性新兴产业领域的部分重点企业高层经营管理人员，共计40人参加了培训学习。省委组织部副部长、省委人才办主任徐忠出席9月26日的开班式并作开班动员，省国资委党委委员、副主任郑德才主持开班式。', '徐忠副部长在开班动员讲话中指出，举办江西企业领导人员“推动经济高质量跨越式发展”培训班，体现了省委省政府对我省企业家人才队伍成长的关心重视，是加快培养造就高质量企业家人才队伍的具体举措，也是落实赣浙两省强化产业发展协作、深化人才交流合作的实际行动。他强调，要提高思想认识，切实增强加强企业家人才队伍建设的责任感和使命感；广大企业家人才要弘扬企业家精神，努力在推动我省经济高质量跨越式发展中发挥“领头羊”作用；人才工作部门要抓实各项举措，积极为各类优秀企业家成长创造良好环境。', '郑德才副主任在主持讲话中要求，全体学员要珍惜难得培训机会，紧密结合工作实际认真学习、深入思考、加强交流，营造积极踊跃的良好氛围，创出比学赶超的良好局面，从中感悟和寻找企业转变发展方式、转换增长动能、实现转型升级和高质量发展的有效路径和模式，确保培训班取得良好学习效果。', '本次培训紧紧围绕企业创新发展、转型升级主题，采取课堂教学和现场教学相结合的形式，既安排了《全面深化经济体制改革：十九大报告经济部分解读》等理论知识辅导，又瞄准企业实际需求开设了《流程优化与精细化管理》《企业资本运营实务与投融资管理》《中国制造2025战略与高端产业发展》等业务主题讲座，同时组织学员深入浙江知名企业杭萧钢构、中控集团现场学习考察，围绕培训主题开展小组讨论，增进了中央驻赣企业、省属（市属）国有企业与省内重点民营企业的沟通了解，促进了企业间合作互补。学员们普遍表示，这样的培训长见识、接地气，既开阔了视野、更新了理念，又拓展了思路、增强了信心，受益匪浅。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>120</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>市委常委常务副市长李明生同志率团赴赣州新余考察学习交流国资国企改革创新发展工作</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2021-06-02</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F6%2F2%2Fart_4308_1036449.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%A7%94%E5%B8%B8%E5%A7%94%E3%80%81%E5%B8%B8%E5%8A%A1%E5%89%AF%E5%B8%82%E9%95%BF%E6%9D%8E%E6%98%8E%E7%94%9F%E5%90%8C%E5%BF%97%E7%8E%87%E5%9B%A2%E8%B5%B4%E8%B5%A3%E5%B7%9E%E3%80%81%E6%96%B0%E4%BD%99%E8%80%83%E5%AF%9F%EF%BC%8C%E5%AD%A6%E4%B9%A0%E4%BA%A4%E6%B5%81%E5%9B%BD%E8%B5%84%E5%9B%BD%E4%BC%81%E6%94%B9%E9%9D%A9%E5%88%9B%E6%96%B0%E5%8F%91%E5%B1%95%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 国资信息公开 市委常委、常务副市长李明生同志率团赴赣州、新余考察，学习交流国资国企改革创新发展工作', '市委常委、常务副市长李明生同志率团赴赣州、新余考察，学习交流国资国企改革创新发展工作', '5月29日至30日，市委常委、常务副市长李明生带队赴赣州、新余考察学习国资国企改革、国资监管运营等方面先进经验做法，市政府副秘书长熊渊，市国资委副主任廖辉生、市城投集团、市国投集团、江西智慧海绵城建集团、市农发集团、市创投集团、市担保集团、武功山旅游集团等市属企业主要负责人一同考察学习。', '在赣州期间，考察组先后走访了赣州城投集团、赣州发投集团，了解赣州市属企业“1+N”国有企业构架，学习市本级国有发展平台体系搭建情况，现场考察了赣州高铁新区建设，重点了解高铁新区投资、建设与运营的整体情况，双方就未来高铁新区打造进行了交流。', '在与赣州市国资委举行的座谈会上，考察组听取了赣州推进国资国企改革发展的有关情况介绍。赣州市国资委副主任王全生同志介绍了赣州国资国企基本情况、监管模式、国企“十四五”规划、推进三年改革行动方案等相关情况，并重点就赣州市国资委在国资监管、企业信用等级提升、资产管理等方面进行交流分享。赣州市部分市属重点企业集团负责同志就本集团公司的发展情况进行了发言。双方就国资国企工作特别是国企改革三年行动、“十四五”规划等进行深入交流和热烈讨论。考察组认为，赣州的成功实践可看、可学、可借鉴，此行既开阔了视野，也拓宽了思路。', '30日下午，考察组一行前往新余，新余市政府副市长徐文泊同志主持召开了两地国资国企工作交流座谈会，双方围绕地方经营性国有资产集中统一监管、创新企业融资模式，防范融资债务风险等方面的具体做法交换了意见，表示要进一步加强两市国资系统的交流合作，共同为深化国资国企改革发展探索经验、贡献力量。新余市政府办公室二级巡视员易勇出席座谈会，新余市国资委以及新余投控、国资、露林、数投等企业有关负责同志参加会议。', '本次到赣州、新余市学习考察，加深了对两地国资国企改革发展先进经验做法的理解和认识，达到了考察学习的预期目的。下一步，市国资委将积极对标先进，认真消化吸收，进一步调整优化国有资本布局，完善国有资产监管，加快推动国企改革转型和体制机制的创新突破，努力提高国资国企运营效率和质量效益水平。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>120</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>市国动办传达</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F10%2F24%2Fart_19_1270456.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%9B%BD%E5%8A%A8%E5%8A%9E%E4%BC%A0%E8%BE%BE%E5%AD%A6%E4%B9%A0%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E8%80%83%E5%AF%9F%E6%B1%9F%E8%A5%BF%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E7%B2%BE%E7%A5%9E</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 部门动态 市国动办传达学习习近平总书记考察江西重要讲话精神', '10月24日，市国动办召开党组（扩大）会，传达学习习近平总书记考察江西重要讲话精神，研究部署相关工作。办党组书记袁东鸿主持会议并讲话,全办干部职工参加会议。', '袁东鸿强调，要把学习贯彻习近平总书记重要讲话精神作为当前和今后一个时期的首要政治任务，完整、准确、全面学习领会习近平总书记重要讲话精神,迅速掀起学习宣传贯彻落实热潮，坚定拥护“两个确立”、坚决做到“两个维护”；要砥砺奋进、勇于担当、主动作为，高质量完成国防动员全年目标任务，全力推进萍乡国防动员走前列、做示范；要持续优化营商环境， 营造便捷高效、廉洁透明的政务服务环境，着力构建亲清政商关系；要一以贯之地推进党的建设，树牢正确政绩观，坚决扛牢扛实主体责任，持续优化净化政治生态，营造风清气正的政治生态。', '袁东鸿强调，要把实的要求贯穿主题教育全过程，开展党组理论学习中心组主题教育第三次集中学习，要从习近平总书记的成长历程中坚定理想信念 ，厚植为民情怀，始终做到立场坚定、对党忠诚，在以学铸魂、以学增智、以学正风、以学促干上下功夫见实效；要内强素质外树形象，蓄能充电强筯骨，淬火砺剑再出发，加强工作统筹，着力提高国防动员综合协调工作水平；要进一步提振全办干部职工干事创业精气神，心往一处想、劲往一处使，积极谋划好省办主要领导调研、综合考评和新进人员培训等工作，以志在必成的信心和舍我其谁的担当，不断提升履职尽责能力。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>120</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>湘东分局赴兄弟单位</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2019-05-23</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F5%2F23%2Fart_3811_736550.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B9%98%E4%B8%9C%E5%88%86%E5%B1%80%E8%B5%B4%E5%85%84%E5%BC%9F%E5%8D%95%E4%BD%8D%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0%E6%B4%BE%E5%87%BA%E6%89%80%E5%9F%BA%E7%A1%80%E5%BB%BA%E8%AE%BE%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 政务动态 湘东分局赴兄弟单位考察学习派出所基础建设工作', '为树立标杆思维，进一步提升分局“派出所基础建设攻坚年”活动质效。5月22日下午，分局政委刘海丰、副局长李建带领派出所所长及民警代表共计30余人，先后赴安源分局八一派出所、芦溪县公安局上埠派出所、开发区分局巡防大队参观学习。', '在安源分局八一派出所，民警们首先参观了规范有序的户政大厅、接处警平台和办案区。在观看汇报片后，民警们就钉钉内务管理、接处警工作规范、案件侦办分离、内务精细化管理、公安信息化应用等工作进行了交流。', '在芦溪县公安局上埠派出所，负责人彭俊向大家介绍了户政大厅、三队一室、办公区、生活区等硬件建设情况，并就上埠派出所运用三种思维、积极打造“三队一室”体系，通过钉钉软件进行考核评比、落实奖惩，形成闭环管理的先进经验进行了交流和探讨。', '最后一站，来到开发分局巡防大队。参观了巡防大队办公、备勤场所和装备室建设，实地考察了街面治安岗亭的勤务运行机制，了解基础建设情况以及以党建带队建取得的成效。随后，考察人员和大队长对综治平安建设，扫黑除恶专项斗争工作进行了交流探讨。', '考察学习结束后，大家纷纷表示此行受益匪浅。既开阔了视野拓宽了思路，又明确了努力方向。并决心以“派出所基础建设攻坚年”活动为契机，立足湘东实际，学以致用，全面提升派出所正规化建设水平，积极推进派出所基层基础建设再上新台阶。', '考察学习结束后，大家纷纷表示此行受益匪浅。既开阔了视野拓宽了思路，又明确了努力方向。并决心以']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>120</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>萍乡市人民政府办公室关于报送年度应急管理工作计划的通知</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2014-02-20</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2014%2F2%2F20%2Fart_41_133806.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E5%8A%9E%E5%85%AC%E5%AE%A4%E5%85%B3%E4%BA%8E%E6%8A%A5%E9%80%812014%E5%B9%B4%E5%BA%A6%E5%BA%94%E6%80%A5%E7%AE%A1%E7%90%86%E5%B7%A5%E4%BD%9C%E8%AE%A1%E5%88%92%E7%9A%84%E9%80%9A%E7%9F%A5</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 应急管理 萍乡市人民政府办公室关于报送2014年度应急管理工作计划的通知', '为全面了解我市各专项应急指挥部总体运行情况及2014年应急管理工作计划，同时摸清各专项指挥部应急资源的底数，经市政府领导同意，现就报送2014年度应急管理工作计划通知如下：', '1.预案管理情况。包括现有预案情况、计划修订预案的名称、修订责任单位、完成时限等。', '2.应急队伍建设情况。包括应急管理专家队伍、专业应急救援队伍、突发事件信息员队伍、应急志愿者队伍现状及建设规划。', '3.应急物资装备保障情况。本地区、本单位的应急物资装备的安排、储备以及应急保障机制的现状及建设规划。', '6.应急联动情况。与相邻地区、相关单位、当地驻军应急管理联动机制建立情况、横向合作协议签订情况。', '7.应急培训工作计划。应急培训的年度安排计划，包括培训名称、时间、方式、人员范围以及有关方案等。', '8.应急演练工作计划。包括演练名称、时间、规模、方式、参演单位、演练科目以及组织安排等。', '9.宣传教育工作计划。宣传、教育、学习考察等活动的安排计划，包括时间、地点、规模（宣传活动的组织单位、参与单位）、内容、形式以及组织安排等。', '10.应急体系建设工作计划。落实《萍乡市“十二五”期间突发事件应急体系建设规划》（萍府办〔2013〕1号）情况及年度计划。', '各有关部门（名单附后）要高度重视，认真布置落实。要制定好本单位的工作计划，并抓紧完成有关情况调查摸底，汇总形成书面材料，加盖公章后于2014年2月28日前报市政府应急办。', '市发改委、市工信委、市外侨办、市教育局、市科技局、市民政局、市交通运输局、市公路管理局、市农业局、市林业局、市水务局、市环保局、市卫生局、市粮食局、市安监局、市煤监局、萍乡经济技术开发区管委会、武功山风景名胜区管委会、市公安局、市公安消防支队、市交警支队、市国土资源局、市气象局、市质监局、人民银行萍乡市中心支行、市人防办、市旅游局、市药监局、市商务局、市建设局、团市委、市妇联、市红十字会。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>120</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>市委常委会召开会议认真学习贯彻习近平总书记重要讲话重要指示精神</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2023-12-09</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F12%2F9%2Fart_5293_1283268.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%A7%94%E5%B8%B8%E5%A7%94%E4%BC%9A%E5%8F%AC%E5%BC%80%E4%BC%9A%E8%AE%AE%20%E8%AE%A4%E7%9C%9F%E5%AD%A6%E4%B9%A0%E8%B4%AF%E5%BD%BB%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E9%87%8D%E8%A6%81%E6%8C%87%E7%A4%BA%E7%B2%BE%E7%A5%9E</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 其他会议 市委常委会召开会议 认真学习贯彻习近平总书记重要讲话重要指示精神', '12月8日，市委常委会召开会议，认真学习贯彻习近平总书记近期重要讲话、重要指示和贺信精神，研究我市贯彻落实意见。市委书记刘烁主持会议。', '会议要求，全市各级各部门要认真学习贯彻习近平总书记在上海考察及返京途中在江苏盐城考察时的重要讲话精神，完整、准确、全面贯彻新发展理念，坚持以科技创新为引领，以开放合作为动力，着力推动传统产业转型升级、新兴产业培育壮大、未来产业抢滩占先，着力抓好民生改善和城市治理，让人民共享发展成果。要传承红色基因，赓续红色血脉，扎实推进主题教育，教育引导广大党员、干部在新征程上解放思想、开拓进取，扬长补短、固本兴新。', '会议要求，全市各级各部门要认真学习贯彻习近平总书记在第十个国家宪法日之际作出的重要指示精神，深入贯彻落实习近平法治思想，始终坚持把党的领导贯彻到宪法实施的全过程和各方面，全面推进宪法实施和宣传教育工作，加快建设更高水平的法治萍乡。', '会议要求，全市各级各部门要认真学习贯彻习近平总书记致首届“良渚论坛”的重要贺信精神，增强文化自觉，坚定文化自信，推动文化事业和文化产业繁荣发展，不断提升我市品牌影响力和文化软实力，加快建设更高水平文化强市。', '会议要求，全市各级各部门要认真学习贯彻习近平总书记致2023年“读懂中国”国际会议（广州）的重要贺信精神，理性看待当前错综复杂的国际国内形势，进一步增强发展定力，坚定发展信心。要紧密结合萍乡发展定位和比较优势，聚力工业强市，强化科技创新，加快产业转型升级步伐。要深化开放合作，积极对接长三角、主动融入长株潭，以高水平开放促进经济高质量发展。', '会议传达学习了江西党政代表团赴浙江、上海、江苏考察情况通报及省委书记尹弘在学习考察小结会上的讲话精神，并研究了我市贯彻落实意见。会议要求，要深入学习贯彻习近平总书记考察江西重要讲话精神，学习借鉴长三角地区先进经验，坚持问题导向，围绕推动高质量发展破题。要坚持创新驱动，破解科技资源不足、人才聚集不强等问题，推动产业和创新“双引双育”。要坚持区域协同，积极承接区域创新溢出、产业溢出、消费溢出，实现创新联动、产业协作和市场协同。要坚持深化改革，加快改革步伐，抓实重要领域和关键环节改革，向改革要动力。要解放思想，转变思维观念，坚持实事求是、实绩实效、实干担当，坚决从“免责思维”向“担当思维”转变。', '会议审议了《关于促进民营经济发展壮大的若干措施》。会议要求，要提高政治站位，充分认识民营经济的重要作用，坚决落实《若干措施》，大力促进全市民营经济不断发展壮大。要聚焦工作重点，释放民营经济发展新动能，着力构建“亲”“清”新型政商关系，精准施策帮助企业解难纾困，鼓励民营企业强化科技创新，坚定不移走高质量发展路子。要强化制度协同，加快推动政策落实落地，齐心协力推动民营经济高质量发展。', '会议传达学习了全省立法工作会议精神并研究了贯彻落实意见，审议了《萍乡市人大常委会2024年立法计划》，听取了关于《萍乡市爱国卫生工作条例》立法工作的情况汇报。会议要求，要深入学习贯彻习近平法治思想和习近平总书记关于立法工作的重要论述，坚持党的全面领导，确保立法正确政治方向；要坚持人大主导作用，稳步推动立法实践；要坚持协调联动，着力提升立法质效。', '会议审议了《萍乡市建设湘赣边农产品加工基地三年行动方案（2023-2025年）》。会议要求，全市各级各部门要进一步深化思想认识，有力有序推进湘赣边农产品加工基地建设，不断提升萍乡优质农产品知名度。要科学谋划抓重点，优化产业布局，扩展本地优质农产品销售渠道，加快推进品牌建设，提升萍乡农产品品牌影响力和市场竞争力。要强化保障聚合力，确保各项措施落地见效。', '会议听取了关于召开萍乡市第十六届人民代表大会第六次会议、政协萍乡市第十四届委员会第四次会议有关事项的汇报。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>120</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>南坑镇召开</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2023-12-16</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F12%2F16%2Fart_5533_1293300.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%8D%97%E5%9D%91%E9%95%87%E5%8F%AC%E5%BC%80%E5%AD%A6%E4%B9%A0%E8%B4%AF%E5%BD%BB%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E8%80%83%E5%AF%9F%E6%B1%9F%E8%A5%BF%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E7%B2%BE%E7%A5%9E%E5%AE%A3%E8%AE%B2%E6%8A%A5%E5%91%8A%E4%BC%9A</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 南坑镇召开学习贯彻习近平总书记考察江西重要讲话精神宣讲报告会', '12月14日，南坑镇召开学习贯彻习近平总书记考察江西重要讲话精神宣讲报告会。此次宣讲邀请芦溪县委统战部副部长、三级主任科员彭军以《学习贯彻习近平总书记考察江西重要讲话精神》为主题作专题授课。镇党委委员黄艳主持会议，全镇基层党员代表（含机关党员、2023年发展以及转正党员）参加宣讲报告会。', '宣讲中，彭军围绕“深刻把握习近平总书记再次考察江西的重大意义”“深刻把握习近平总书记对江西发展提出的新的战略定位”“深刻把握习近平总书记对江西发展提出的任务要求”“深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求”“深刻把握贯彻落实习近平总书记考察江西重要讲话精神的实践要求”五个方面进行了系统全面的阐释，为大家准确把握习近平总书记考察江西重要讲话精神提供了精准辅导。', '彭军指出，学习好、宣传好、贯彻好习近平总书记考察江西重要讲话精神，是全省上下当前和今后一个时期的首要政治任务，也是一项长期任务。我们要坚持学以致用、用以促学，推动学习宣传贯彻持续化、常态化、长效化，切实把习近平总书记考察江西重要讲话精神转化为工作思路、具体举措和发展成效，用实际行动为芦溪和南坑高质量发展贡献自己的力量。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>120</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>萍乡市人民政府办公室关于报送应急管理有关工作情况及年度工作计划的通知</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2013-02-25</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2013%2F2%2F25%2Fart_103_139432.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E5%8A%9E%E5%85%AC%E5%AE%A4%E5%85%B3%E4%BA%8E%E6%8A%A5%E9%80%81%E5%BA%94%E6%80%A5%E7%AE%A1%E7%90%86%E6%9C%89%E5%85%B3%E5%B7%A5%E4%BD%9C%E6%83%85%E5%86%B5%E5%8F%8A2013%E5%B9%B4%E5%BA%A6%E5%B7%A5%E4%BD%9C%E8%AE%A1%E5%88%92%E7%9A%84%E9%80%9A%E7%9F%A5</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 执行公开 萍乡市人民政府办公室关于报送应急管理有关工作情况及2013年度工作计划的通知', '为进一步推动我市应急演练和宣教培训等工作有序开展，同时搞好有关重要情况的调查摸底，促进全市应急管理工作上台阶，经市政府领导同意，现就报送应急管理有关工作情况及2013年度工作计划通知如下：', '（一）应急培训工作计划。本地区、本单位应急培训的安排计划，包括应急管理培训名称、时间、培训方式、培训人员范围，以及有关方案等。', '（二）应急演练工作计划。包括演练名称、时间、规模、方式、参演单位、演练科目以及组织安排等。', '（三）宣传教育工作计划。宣传、教育、学习考察等活动的安排计划，包括时间、地点、规模（宣传活动的组织单位、参与单位）、内容、形式以及组织安排等。', '（四）预案修订完善工作计划。包括现有预案情况、需修订预案的名称、修订责任单位、完成时限等。', '（五）应急队伍建设现状及规划。包括专家库、应急救援队伍、有关部门的专业及非专业应急队伍、志愿者队伍，以及突发事件信息员队伍现状及建设规划。', '（六）应急物资装备保障现状及工作计划。本地区、本单位的应急物资装备的安排、储备以及应急保障机制的现状及建设规划。', '各县区、各有关部门（名单附后）要高度重视，认真布置落实。要制定好本单位的工作计划，并抓紧完成有关调查摸底工作，汇总形成书面材料，加盖公章后于2013年3月18日前报市政府应急办。', '市发改委、市工信委、市外侨办、市教育局、市科技局、市民政局、市交通运输局、市公路管理局、市农业局、市林业局、市水务局、市环保局、市卫生局、市粮食局、市安全生产监督管理局、市煤矿安全监督管理局、萍乡经济技术开发区管委会、武功山风景名胜区管委会、市公安局、市公安消防支队、市交警支队、市国土资源局、萍乡供电公司、萍乡石油公司、市气象局、市质监局、市无线电管理局、人民银行萍乡市中心支行、市人防办、市旅游局、市食品药品监督管理局、市商务局、市建设局、市房管局、团市委、市妇联、市红十字会。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>120</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>萍乡举办基层法律服务工作者培训班</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2018-11-05</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F11%2F5%2Fart_3811_742140.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E4%B8%BE%E5%8A%9E%E5%9F%BA%E5%B1%82%E6%B3%95%E5%BE%8B%E6%9C%8D%E5%8A%A1%E5%B7%A5%E4%BD%9C%E8%80%85%E5%9F%B9%E8%AE%AD%E7%8F%AD</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['11月3日，萍乡市基层法律服务工作者培训班在市司法局开班。全市百名基层法律服务工作者参加了培训，市司法局党组成员、副局长周群出席并讲话。', '今年六月份，我市基层协会完成了换届选举，新一届班子建立健全了维权和惩戒等四个专门委员会，修改完善了协会相关规章制度，开展了“诚信单位创建”主题活动，组织全体理事前往浏阳学习考察，在胡耀邦故居进行了党性教育活动。周群在讲话中充分肯定了换届后的新一届基层协会在履职服务、对外交流、内部规范等方面的新气象和新作为。', '周群就今后一个时期的基层法律服务工作提出了三点希望和要求。一是坚定信心、找准定位，把握正确方向。今年，司法部修订后的基层法律服务两个办法正式施行，省厅又调整扩大执业区域范围，基层法律服务工作定位逐步清晰，前景愈发明朗，今后一段时期基层法律服务工作大有可为，将和律师一样成为依法治国不可或缺的重要力量。全体基层法律服务工作者要有职业荣誉感，敢于亮明身份，要始终坚持党的领导，拥护社会主义法治，在政治上、思想上、行动上与党中央保持高度一致。要始终践行法治理念，坚定不移地做中国特色社会主义法律工作者。要始终秉持职业操守，切实增强职业道德和执业纪律观念，严格遵守职业道德规范和行为准则。二是围绕中心，突出重点，丰富服务载体。今年是“乡村振兴战略”的开局之年，是全面建成覆盖市县乡村四级公共法律服务体系的决战之年，基层法律服务工作者要充分发挥近民便民利民优势，切实服务基层发展。要坚持以人民为中心的执业理念，主动维护群众利益, 要充分利用公共法律服务平台这一阵地，积极参与、发挥作用，为基层群众提供便捷、优质、高效的法律服务。要积极参与社会治理，引导群众由“有事找政府”向“有事找法律”转变。三是加强管理，严明纪律，提升社会形象。要抓住思想政治教育这个龙头,进一步加强基层法律服务工作者队伍党的建设，发挥党员基层法律服务工作者的先锋模范作用。要抓住职业道德建设这个根本,不断培养和提升基层法律服务工作者队伍忠诚、勤勉、尽职、诚信的职业品质，树立讲品行、讲公德、讲正气的良好形象。要抓住业务素质提升这个核心,加强基层法律服务工作者继续教育的力度，加大业务培训和交流力度，提升基层法律服务工作者的执业水平和业务能力。要抓住行业监督管理这个关键,从规范发展入手，进一步规范基层法律服务秩序，规范法律服务所内部管理，推动基层法律服务行业标准化、制度化发展。', '此次培训班还特邀了市中院资深法官、知名律师及优秀法律服务工作者授课，收到良好的反响。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>120</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>第期</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2022-01-18</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F1%2F18%2Fart_308_1092916.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%EF%BC%88%E7%AC%AC3623%E6%9C%9F%EF%BC%89</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['1. 我市科技服务保障力不断增强。一是金融政策效果凸显。通过健全科技型中小企业“科贷通”融资担保体系，完善中小企业信贷风险补偿制度。目前全市共有科贷通入库企业163家。截至目前，已放贷64笔，放贷总金额为2.16亿元，贷款余额为1.31亿元。二是特派员作用发挥出色。工业方面，根据县区产业技术需求，共派驻科技特派员团队6个，科技特派员28人，服务技术需求10个。农业方面，选派10个科技特派团共计71名省级科技特派员专家服务我市水稻、畜禽、蔬菜等现代农林产业，组织开展科技服务活动19次，提供电话咨询服务1000余次，召开培训班3次，培训农户300余人次，发放科普技术资料1000余份。三是服务体系未来可期。为提升我市节能环保产业整体科技创新能力，召开节能环保部分龙头企业座谈会，共商组建萍乡科技创新促进会环保产业分会有关事项。筹备在长沙设立飞地科创中心，建立研发中心和孵化中心，帮助企业解决高层次人才缺乏、科研检测平台缺乏等问题。 （本办秘书二科）', '2. 市城市管理局大力推进生活垃圾分类工作。一是加快终端处理设施建设。已启动餐厨垃圾终端处理项目建设工作，完成了全市各县区餐饮行业及公共机构单位的食堂分布情况和餐厨垃圾数量的情况摸底工作，中节能萍乡环保能源有限公司已完成设备订购，确保2022年6月建成一套完整的垃圾分类处置系统。二是推进农村生活垃圾试点。已印发《关于推进萍乡市26个农村生活垃圾分类收集和资源化综合利用试点的通知》，安排农村生活垃圾试点任务：安源区、湘东区、芦溪县、莲花县各2个，上栗县作为江西省农村生活垃圾分类示范县，安排18个。三是开展垃圾分类日常督导。出台了《萍乡市生活垃圾分类收集亭建设推荐标准》《萍乡市生活垃圾分类2021年工作要点、考核方案》。并按照相关要求，对市卫健系统、市教育系统、大型购物中心、宾馆、武功山管委会、上栗县等部门和单位的垃圾分类工作进行了检查督导，推动我市垃圾分类工作实质性开展。四是积极开展宣传培训。组织参加住建部“1对1”垃圾分类工作协作交流培训，赴上海进行学习考察。2021年开展大型垃圾分类培训2场，培训人员400多人次，利用“爱国卫生月”、党建活动等多种方式开展垃圾分类志愿者活动，在各媒体发表宣传稿15篇。 （市城市管理局）', '3. 安源区、莲花县全面做好安全生产工作。安源区：一是狠抓宣传教育。扎实开展安全生产宣传教育进企业、进学校等“七进”活动，通过召开专题会议、张贴标语等形式，广泛宣传安全生产相关法律法规和安全生产知识，目前发放宣传资料12000余份。二是狠抓隐患排查。联合各社区深入辖区内企业、建筑工地等重点领域，重点对安全生产责任制、消防器材、食品安全等详细检查，建立清单，逐一整改、销号。2021年来共排查隐患132处。三是狠抓应急水平提升。健全事故应急处置机制，完善值班值守、处置决策等应急管理制度。充实应急处置的人力、物资，积极组织开展各专项应急预案演练和重大事故应急救援演练。莲花县：一是组织开展大排查大整治。组织各乡镇、各部门对矿山、危险化学品、烟花爆竹、工贸企业、道路交通、建设施工、高层建筑、涉尘涉爆等企业以及各类自然灾害隐患点等进行拉网式排查整治。二是加强地质灾害防治工作。及时发布天气预警信息，要求各乡镇加强巡察管控，防范因暴雨造成的山洪和地质灾害，确保从源头消除安全隐患。三是做好应急值守和应急处置工作。严格落实24小时值班和领导带班制度，对安全生产、自然灾害等突发事信息实行日报告、日研判、日预警，及时调度汇总各类突发情况。 （安源区政府、莲花县政府）']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>120</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>县政府副县长彭祎带队赴浙江</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F11%2F14%2Fart_20_1276025.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%8E%BF%E6%94%BF%E5%BA%9C%E5%89%AF%E5%8E%BF%E9%95%BF%E5%BD%AD%E7%A5%8E%E5%B8%A6%E9%98%9F%E8%B5%B4%E6%B5%99%E6%B1%9F%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0%E5%8C%BB%E6%94%B9%E5%92%8C%E4%B8%AD%E5%8C%BB%E8%8D%AF%E7%BB%BC%E5%90%88%E6%94%B9%E9%9D%A9%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 县政府副县长彭祎带队赴浙江考察学习医改和中医药综合改革工作', '为深入学习浙江省在县域医共体建设和中医药综合改革方面的先进经验和做法，推动我县卫生健康事业高质量发展，11月9日至11日，县政府副县长彭祎带队前往浙江省兰溪市、海盐县实地考察学习县域医共体建和中医药综合改革工作，县教育局、县医保局、县卫健委及部分医疗机构负责人等一同参加。', '考察组一行先后到兰溪市人民医院、兰溪市行知小学、兰溪市中医院医共体香溪院区中医馆、兰溪市中医院以及海盐县中医院、海盐县武原街道社区卫生服务中心等地，通过实地参观、座谈交流、听取经验介绍等方式，详细了解各地各单位县域紧密型医共体建设和中医药综合改革在创新人事、行政管理、财政投入、医保支付方式改革、信息化建设、中医药文化进校园等方面的政策措施以及管理方式。通过学习借鉴兄弟县、市的先进改革经验，考察组一行表示既开阔了眼界、拓宽了思路，又查找了差距、认识了不足，更瞄准了目标、坚定了信心，为进一步深化我县医改工作和中医药综合改革工作奠定了坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>120</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>萍乡市工商局年度工作要点</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2012-04-16</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2012%2F4%2F16%2Fart_48_119414.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%B7%A5%E5%95%86%E5%B1%802012%E5%B9%B4%E5%BA%A6%E5%B7%A5%E4%BD%9C%E8%A6%81%E7%82%B9</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['1.认真学习贯彻党的十七届六中全会和省、市党代会精神；认真学习贯彻全国、省、市“两会”精神；开展迎接党的十八大胜利召开系列活动；认真学习贯彻党的十八大精神。', '2.广泛、深入、持久开展向雷锋同志学习活动，推动学雷锋活动的制度化、常态化；继续学习宣传甘军同志先进事迹；广泛开展争创全市、全省、全国文明单位活动；加强以社会主义核心价值体系为主要内容的专题政治思想教育，营造风清气正的工作氛围。', '3.深入开展为民服务创先争优活动，将萍乡工商部门打造成政府部门的“六个样板”，即：服务发展的样板、规范执法的样板、科学理财的样板、内务管理的样板、廉能管理的样板、创造特色的样板。', '4.认真开展集中整治影响发展环境的干部作风突出问题和“整作风、提效能、优环境”活动，认真开展明查暗访和专项督查工作。', '5.深入开展全员读书和学历提升教育活动；继续开展岗位练兵活动；有计划、有步骤地组织人员接受革命传统教育，有针对性地外出学习考察。', '12.强力推进信息化建设及应用，抓好市、县（区）局视频会议系统建设；做好工商系统政府网站群子站建设相关工作；加大对12315申诉举报、大集中综合业务、绩效评估、数据检测等软件系统的应用培训，提升数据质量。', '15.出台《关于充分发挥工商行政管理职能促进社会主义文化大发展大繁荣的若干意见》，全力扶持文化企业转型升级、做大做强，全面促进文化产业大繁荣、大发展。', '17.加大强农惠农力度，做足经纪活农、合同帮农、商标富农文章，大力促进农民专业合作社发展，', '18.全面推行企业网上年检，大力推行网上登记、网上预审、网上名称预先核准，提高网上业务平台使用率，提高办事效率。', '19.积极发挥外资登记职能作用，进一步引导外商投资企业优化投资结构，努力服务经济发展方式转变和经济结构调整。', '22.以打造萍乡“食品药品安全城”为契机，进一步完善流通领域食品安全监管长效工作机制，强力监管流通领域食品安全。', '23.以创新社会管理为抓手，完善打击传销综合治理工作机制，加大传销案件查处力度，始终保持打击传销高压态势。', '24.以12315行政执法体系和“四个平台”建设为基础，进一步完善消费维权网络工作机制，打造消费维权品牌，切实保护消费者合法权益。', '27.扎实推进治理商业贿赂、扫黄打非等工作，加大对公用企业、垄断行业限制竞争等不正当竞争行为的查处力度。', '30.加大对农产品、猪肉、成品油、汽车等市场和各类集贸市场的监管力度，加强合同监管，认真抓好合同备案、动产抵押、拍卖备案以及“守重”单位认定工作。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>120</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>萍乡市体育局年工作计划</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F2%2F7%2Fart_5536_1208623.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E4%BD%93%E8%82%B2%E5%B1%802023%E5%B9%B4%E5%B7%A5%E4%BD%9C%E8%AE%A1%E5%88%92</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['2023年是全面贯彻落实党的二十大精神的重要一年，也是筹备2026年十七届省运会新周期的开局之年。', '计划再赴历届省运会承办城市学习考察，重点赴第十六届省运会承办地九江市进行筹备工作的系统学习考察，全面了解掌握办会、参赛等方面的整体工作情况，从机制体制、工作流程、资源开发和后勤保障等方面进行学习借鉴。', '包括：一个新周期筹备工作计划，明确全市各体育场馆建设、改造，会徽征集，设立专班，资源开发等各项任务的时间节点、责任单位等；一个2023年筹备重点任务表，提前谋划好2023年各项工作任务，实行挂图作战；一个2023年度省运会资金使用计划表;一个争取各方面支持的清单；一个分项目的备战方案，进一步细化各参赛大项的备战措施；一个各县区的备战细则，尽快帮助指导县区从组队、设项、教练、场地、经费、措施等方面敲定备战细则，列出年度支出明细。', '包括：一个新周期筹备工作计划，明确全市各体育场馆建设、改造，会徽征集，设立专班，资源开发等各项任务的时间节点、责任单位等；一个', '市筹委会尽快召集各职能部门开好新周期筹备省运会工作会议，交流研讨筹备工作情况，分解工作任务，发布全面动员令，进一步统一思想，并研究通过《萍乡市备战江西省第十七届运动会实施方案》。', '建立备战工作专报制，呈送市筹委会领导审阅，激励各县区切实推进备战工作进度，努力形成你追我赶的工作态势；', '建立考核评估制，借助省体育局提出对各设区市体育工作进行评估和考核的契机，争取新周期将省运会筹备工作列入全市综合考核范畴；出台新周期备战参赛工作激励机制，制定体育彩票公益金支持青少年体育后备人才发展项目等奖励办法，进一步激励各县区、各项目、各训练单位积极备战。', '一是持续巩固和发挥“大群体”效益，动员各级政府、各部门、统筹推进我市全民健身工作。二是引导各县区体总发挥枢纽型社会组织功能，不断完善本地区体育社会组织网络，推动体育社会组织考核制度化，引导体育社会组织常态化开展体育赛事、业务培训、社会公益等工作；三是结合“文明城市创建”、“全国卫生城市创建”、“城市品质提升”等工作，建立健全我市全民健身工作评估机制，以评估考核促进工作，形成全市一盘棋共同推动全民健身工作的良好局面。', '一是持续推动“城市10分钟健身圈”建设。推动我市体育公园、健身步道、全民健身示范点等体育场地设施建设，继续', '。二是落实社区全民健身配套健身工作，促进新建居住区和社区按国家规定配套群众健身设施，不断增加基层群众体育场地供给。三是持续推动公共体育场馆低收费或免费开放。落实体育场馆设施开放标准和服务标准，深入推进学校、企事业单位体育场馆对社会开放，支持社会力量参与公共体育场馆、社会足球场运营和管理。', '鼓励支持机关、企事业单位及行业协会、体育单项协会等社会团体组织举办小型多样、形式灵活的全民健身竞赛活动。三是开展社区运动会', '鼓励支持建立政府购买健身指导服务、志愿服务积分等社会体育指导员激励机制，调动社会体育指导员组织、指导、引导群众参与健身的积极性。持续开展“我为群众办实事”国民体质监测“五进”活动，推动国民体质监测常态化工作制度化。深入推行《国家体育锻炼标准》，推行广播体操、工间操制度常态化。加大社会体育指导员培训力度，', '鼓励支持建立政府购买健身指导服务、志愿服务积分等社会体育指导员激励机制，调动社会体育指导员组织、指导、引导群众参与健身的积极性。持续开展', '组织开展社会体育指导员交流展示活动，探索建立全民健身志愿服务长效机制，持续提高指导员数量和服务水平。', '明确三类建队目标：举重、射击、游泳、武术套路等项目以体校三集中办训模式建队；皮划艇、赛艇、击剑等项目以省市共建、双积分办训模式建队；篮球、排球等项目以社会办训或合作办训模式建队。', '将运动员梯队建设放在重中之重，年底前全面完成选材组队工作，完成运动员新周期年度注册，落实完善引进运动员的相关事宜，在省优秀运动队或省体校集训、代训达到60名左右运动员。每个项目签订参加省十七届运动会目标责任书。', '将运动员梯队建设放在重中之重，年底前全面完成选材组队工作，完成运动员新周期年度注册，落实完善引进运动员的相关事宜，在省优秀运动队或省体校集训、代训达到', '继续补充乙、丙组选材组队工作，各项目达到700人训练规模，重点项目和优势项目年度锦标赛团体总分力争全部进入全省前3名，其他重点发展项目力争全部进入全省前6名。全力保障正常训练。积极与省体育局衔接沟通争取各项倾斜政策，突出自身的优势，稳定比赛成绩。', '对最小年龄组再进行补充选材，强化体能训练和专项训练，全面提高运动技术水平，在省优秀运动队或省体校集训、代训达到100名左右运动员。参加省年度青少年锦标赛重点项目和优势项目团体总分力争进入全省前2名，并确保运动员省十七届运动会参赛资格全部过关。', '对最小年龄组再进行补充选材，强化体能训练和专项训练，全面提高运动技术水平，在省优秀运动队或省体校集训、代训达到', '市各备战项目实际和任务分配，进一步研究，细化备战方案和措施，分类施策、全面推进，努力实现“全项目开展、全项目建队”目标。遵循规律，规范管理，提高科学训练水平，补齐体育医疗、体能训练、心理干预等短板，建设复合型训练团队。全面深化体教融合，推动部分重点项目进校园，探索建立小学、初中、高中一条龙的运动员培训体系，通过继续举办选材运动会，以校园“三大球”联赛为抓手，推进体育部门青少年竞赛体系与教育部门学校竞赛体系融合发展，探索构建年龄衔接、覆盖面广的多部门合作、多主体参与的体育竞赛体系，实现以赛促训的目标。', '市各备战项目实际和任务分配，进一步研究，细化备战方案和措施，分类施策、全面推进，努力实现', '积极争取全力落实运动员、教练员保障工作的各项政策措施，争取更多资金投入基础设施建设，争取更多项目和运动员参加省级以上比赛的机会。通过招聘、引进相结合的方式加大人才引进，全力补充教练员队伍力量，进一步妥善解决教练员、运动员生活、学习方面的实际困难，让教练员安心带训，运动员全身心地投入训练备战。积极整合训练、科研、医疗、管理资源，加大防伤防病工作力度，全力保护运动员的身心健康。', '推进公共体育场馆“改造功能、改革机制”工程，鼓励各级政府投资新建的体育场馆委托第三方企业运营，创新管理体制，转变运营机制，全面提高体育场馆运营管理能力和公共服务水平。采取灵活多样的市场化手段促进体育消费，探索发放文旅体综合惠民卡，打造体育消费增长极。推动公共体育场馆延长开放时间，鼓励开发健身产品，提供体育培训服务，丰富群众性体育赛事活动供给。', '重点培育健身休闲、竞赛表演、体育培训等产业市场主体，激发更多社会资本向体育领域投资，进一步丰富体育产业业态。加大体育产业项目培育力度，以萍乡武功山国家级户外营地为引领，推动打造“一县一品”，引导发展和申报一批中国体育旅游精品项目、江西省体育产业基地示范项目等。', '重点培育健身休闲、竞赛表演、体育培训等产业市场主体，激发更多社会资本向体育领域投资，进一步丰富体育产业业态。加大体育产业项目培育力度，以萍乡武功山国家级户外营地为引领，推动打造', '市红色、古色、绿色生态旅游资源，培育体育旅游精品景区、精品赛事和精品路线。积极探索“体育+”和“+体育”模式，创新体育产业与文化、会展、农业等相关产业的交互融合发展模式。引导培育一批体育特色鲜明、服务功能完善、经济效益良好的综合体项目，打造一批规划科学、特色突出、产业集聚的运动休闲特色小镇，推广攀岩、徒步、露营等山地户外运动项目，打造红色名村乡村游品牌。', '市红色、古色、绿色生态旅游资源，培育体育旅游精品景区、精品赛事和精品路线。积极探索']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>120</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>陈敏率队赴湖北黄石取经</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2021-09-13</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F9%2F13%2Fart_5531_1136156.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E9%99%88%E6%95%8F%E7%8E%87%E9%98%9F%E8%B5%B4%E6%B9%96%E5%8C%97%E9%BB%84%E7%9F%B3%E2%80%9C%E5%8F%96%E7%BB%8F%E2%80%9D</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['9月11日至12日，市委书记陈敏率队在湖北省黄石市学习考察，感悟黄石市改革创新、发展升级的成效，学习黄石市推进国家产业转型升级示范区建设的好经验好做法。黄石市委书记郄英才，市委副书记吴之凌，市委常委、常务副市长徐继祥，市委常委、秘书长黄荆国，副市长何运平陪同考察或出席座谈会。市委常委、常务副市长李明生，副市长叶舟参加考察。', '萍乡与黄石有着深厚的历史渊源。100多年前，由湖北武汉的汉阳铁厂、湖北黄石的大冶铁矿和江西的萍乡煤矿联合组建成立的汉冶萍煤铁厂矿股份有限公司，在中国近代工业史上写下了浓墨重彩的一笔。进入21世纪，江西萍乡、湖北黄石都纳入全国资源枯竭型城市转型试点城市、国家产业转型升级示范区。黄石市在国家产业转型升级示范区建设中连续三年获评“优秀”，在产业转型升级方面积累了丰富的经验，得到了国家发改委振兴司的高度赞许以及同类兄弟城市的一致认可。', '陈敏一行先后来到黄石国家矿山公园、湖北新冶钢有限公司、黄石规划展示馆、黄石欣益兴电子科技有限公司、湖北联新显示科技有限公司等地考察。产业发展从“一业独大”变为“多业并举”，环境面貌从“光灰”城市变为生态新城……一路走、一路看、一路听、一路思，大家充分感受到黄石经济社会高质量发展的活力，感受到老工矿城市散发出新时代转型城市的独特魅力，感受到黄石山水之美、工业之美、城市之美。黄石市转型发展、绿色发展、创新发展的新优势，大力度大手笔大气魄发展新产业，让大家深受启发。大家表示，要学习借鉴黄石致力于创新驱动发展、产业转型升级、优化区域布局、全面绿色转型等方面先进经验做法，结合萍乡发展实际，积极谋划推动，打造集“产业升级美、绿色生态美、城乡融合美、百姓生活美、社会风尚美”于一体的“最美转型城市”。', '陈敏指出，黄石转型发展的成功经验为萍乡打造“最美转型城市”提供了很多启示。一是转型升级必须要有新思路。萍乡和黄石都是老工业城市，但黄石在促进传统产业智能化改造的同时，也没有放松对新产业、新业态、新模式的培育，与黄石相比，我市传统产业改造升级的步伐要加快提速，电子信息产业等新兴产业要做大做强。二是城市建设必须要有大手笔。黄石推动市域成为“零煤区”，与黄石相比，我市要加大城乡环境整治力度，加快推动城乡融合发展，让城市“宜居宜业、精致精美”。三是攻坚克难必须要有好作风。黄石市各级领导干部有着敢为人先的创新精神、精益求精的不懈追求和真抓实干的优良作风。当前，萍乡正在奋力推进“五区”建设、打造“最美转型城市”，各级领导干部更要保持闯劲、拼劲、韧劲，更要全身心想事、干事、成事。', '陈敏希望两市在产业发展上有更多合作，进一步加强兴工强市、转型升级等方面的经验交流，深化优势互补，重塑产业发展新格局。在文化交流上有更多合作，携手打造好汉冶萍国际学术会议这一重要平台，进一步加强汉冶萍工业遗产的开发和保护，加大汉冶萍精神文化价值的研究与传承，加快汉冶萍世界工业文化遗产申报，努力使汉冶萍工业文明在新时代焕发新价值。在旅游对接上有更多合作，深化在红色资源挖掘、生态资源开发与保护、品牌推广、互推客源等方面交流合作、互通有无，共同促进两地文化旅游资源开发和发展。', '郄英才表示，萍乡与黄石两地交往合作源远流长，都有着丰富的红色基因和红色传承，都是能源原材料基地，都在积极探索转型发展之路，为萍乡和黄石对接融入长江经济带、长江中游城市群发展，助推中部地区崛起提供了重大机遇。近年来，萍乡在转型升级、高质量发展等方面开展了积极探索，积累了很多成功成熟经验，值得黄石学习借鉴，特别是萍乡奋力推进“五区”建设、打造“最美转型城市”的发展目标和定位，与黄石经济社会发展有很多相似共通之处。期待两市常来常往，进一步深化对接，加强合作，在产业转型升级、全域旅游发展、汉冶萍历史文化传承保护利用等方面加强交流学习，在推动国家产业转型升级示范区建设上探索出更多好经验好做法，更好地推动两市高质量跨越式发展，为推动长江中游城市群、中部地区高质量发展作出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>120</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>区委书记李水清带队赴株洲高新区天元区考察学习</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2021-12-02</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F12%2F2%2Fart_5530_1160106.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%8C%BA%E5%A7%94%E4%B9%A6%E8%AE%B0%E6%9D%8E%E6%B0%B4%E6%B8%85%E5%B8%A6%E9%98%9F%E8%B5%B4%E6%A0%AA%E6%B4%B2%E9%AB%98%E6%96%B0%E5%8C%BA%EF%BC%88%E5%A4%A9%E5%85%83%E5%8C%BA%EF%BC%89%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['带着谋划发展的使命，11月30日，区委书记李水清与萍乡国投集团党委书记、董事长黄剑一同带队赴株洲高新区（天元区）就科创园建设、景区建设以及老城区更新建设等内容进行为期一天的学习考察，学真经、找差距、补短板、求突破。区委常委、组织部部长陈丽，区委常委、统战部部长、丹江街党委书记黄国晖，副区长谢晖、刘宗峰，萍乡国投集团副总经理刘小辉一同参加考察。高新区党工委副书记、天元区委书记、二级巡视员邬凌云，高新区党工委委员、管委会副主任姚永告、王洪宇，高新区党委委员、天元区委常委、统战部部长袁哲明，高新区党工委委员、天元区委常委、副区长许大为，高新区党工委委员、天元区委常委、组织部部长凡金湘，高新区二级巡视员、高科集团有限公司党委书记罗克俭陪同考察。', '在株洲高新区（天元区）动力谷自主创新园中国动力谷展示中心，李水清一行一路走一路看，并认真听取了园区设计规划、运营理念、发展方向、招商进展等方面的情况介绍。园区内入驻的航天航空、动车、汽车制造、新能源等高新技术产业，令人大开眼界，园区以科技促生产，以生产促研究，让科技转化为生产力的运营模式令人赞叹。', '天易科技城是株洲市在河西规划的第四个新城，城乡统筹、产城融合的理念，为拓展城市向南发展空间提供了支撑。作为科技企业孵化器，科技城重点扶持和培育高端装备制造、新材料等全产业链，真正成为科技型企业、创业人员成长发展的摇篮。在科技城招商中心，李水清一行详细了解科技城规划建设以及入驻企业孵化情况。', '在湖南世鑫新材料有限公司、株洲菲斯罗克光电科技股份有限公司、湖南立方新能源科技有限责任公司、株洲齿轮有限责任公司等地，李水清一行进车间、看产品，对株洲高新区（天元区）制造业奠定下的稳步扎实发展的基础连连称赞。', '在随后的座谈会上，高新区党工委副书记、天元区委书记、二级巡视员邬凌云对李水清一行表示热烈欢迎，并就科创园建设、老城区更新建设两个方面做了经验分享。他说，安源是一块红色热土，是株洲的好邻居，且都有着扎实的工业基础，希望双方共同努力推进湘赣边区域合作示范区建设。', '就科创园建设，邬凌云指出，当前，土地、融资政策相对收紧，要以科技创新为指导，用新的理念来建设园区，以高端装备制造、电子信息产业为主导，将科技化、现代化、智能化融为一体。科创园楼房不在于多，而在于精，要高起点规划、高标准建设、高效能管理，建实用性工业厂房。要聚集科研平台人才，组建产业科研联盟，共同探讨项目，拓展空间布局，加强政府与社会资本的合作，打造苗圃、孵化器、加速器的科创园建设模式。要利用好本土工业企业，通过创新方式让本土企业裂变创新成新企业，在新阶段要有新理念走出新路径，促进当地经济结构转型，实现产业蝶变。', '就老城区更新建设，邬凌云强调，老旧小区改造、土地管理、加装电梯、管网建设等工作是系统性的工作，要注重规划，紧抓顶层设计、精心谋划项目、强力推动工作。要用足用活用好上级政策，抢抓不同时期的政策窗口期，研究政策、争取政策，敢想敢干。要坚持以人民为中心的发展思想，积极顺应城市发展趋势，注重环境宜居和历史文脉传承，进一步加快城市更新步伐，努力让人民群众生活更幸福。', '李水清对株洲高新区（天元区）的热情接待表示感谢，并简单介绍了安源的基本情况，他表示，高新区产城一体的科创园建设令人耳目一新，顿感思路开阔。高新区在培育壮大新兴产业、加快科技成果的转化与应用、科技基础设施、应用研究、提升原始创新能力、孵化企业带动就业等方面都值得安源借鉴学习。高新区科创园产城融合等方面的管理举措，为今后安源科创园的产业规划、产业发展等提供了新的工作思路。', '李水清说，安源区将认真学习高新区先进的城市规划建设管理运营理念，城市安全、城市运营、公园城市等方面的好经验、好做法，进一步解放思想、更新观念，以先进理念引领城市更新提质。希望两地进一步加深交流，落实湘赣边区域合作，签署战略性合作协议，加强联系，增进友谊，携手前行。', '黄剑说，此次参观学习，坚定了集团与安源区在经济转型、结构调整等方面的合作信心，为集团进一步盘活国有资产，打造发展新引擎，增强发展新动力，走创新驱动发展之路提供了新思路。下一步，集团将结合与株洲高新区的交流经验，科学谋划丹江产城融合科创园的战略定位、功能设计、区域划分、管理模式、招商政策，高标准、高起点、高质量打造科创园。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>120</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>河南省安阳市海绵城市建设</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2024-05-22</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F5%2F22%2Fart_5533_1339184.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B2%B3%E5%8D%97%E7%9C%81%E5%AE%89%E9%98%B3%E5%B8%82%E6%B5%B7%E7%BB%B5%E5%9F%8E%E5%B8%82%E5%BB%BA%E8%AE%BE%E8%80%83%E5%AF%9F%E7%BB%84%E6%9D%A5%E7%BB%8F%E5%BC%80%E5%8C%BA%E8%B0%83%E7%A0%94</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['5月20日，河南省安阳市人大常委会党组书记、主任徐家平率安阳市海绵城市建设考察组来到萍乡经开区开展调研。市人大常委会副主任姚虎，市住建局局长刘韬、副局长池友良，区领导魏逵参加调研。', '考察组一行来到萍水湖湿地公园，详细了解萍乡市在海绵城市建设中生态修复、项目规划等方面情况，并就两地在城市建设与治理中的相关工作思路、推进措施进行了细致交流。调研中，徐家平高度评价了萍乡市在海绵城市建设工作中的创新性举措，她指出，通过实地调研，学习了萍乡市在海绵城市建设试点示范工作的先进经验和做法，为安阳推进海绵城市建设工作提升拓宽了视野，厘清了思路，提供了有益的借鉴。安阳人大将以此次考察学习为契机，进一步加强与萍乡的交流互动，共学共促，助力推动安阳海绵城市建设，提升城市功能品质、促进城市绿色发展。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>120</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>关于市第十六届人大一次会议第号建议的答复</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2022-02-24</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F2%2F24%2Fart_42_1100341.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%B3%E4%BA%8E%E5%B8%82%E7%AC%AC%E5%8D%81%E5%85%AD%E5%B1%8A%E4%BA%BA%E5%A4%A7%E4%B8%80%E6%AC%A1%E4%BC%9A%E8%AE%AE%E7%AC%AC43%E5%8F%B7%E5%BB%BA%E8%AE%AE%E7%9A%84%E7%AD%94%E5%A4%8D</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['根据江西省人民政府办公厅关于印发江西省生活垃圾分类制度具体方案的通知(赣府厅发[2017]48号)文件精神，我市于2018年开始生活垃圾分类工作，并组织工作人员前往我省列入全国第一批生活垃圾分类46个试点城市南昌、宜春进行学习考察。2019年6月18日正式出台了《萍乡市生活垃圾分类实施方案》（萍府办发[2019]26号），成立了萍乡市生活垃圾分类工作领导小组，领导小组下设办公室在市城管局，负责推进生活垃圾分类工作，负责生活垃圾分类管理的综合协调、检查指导、督促考核，组织制定规划和标准，其他相关职能部门按照职责承担相应的工作任务。我市生活垃圾分类工作自2018年开展以来，采取在中心城区进行生活垃圾分类试点示范小区的方式进行推广。', '为更好的统筹协调推进我市垃圾分类工作，2021年2月3日，时任市政府副市长叶舟就召开垃圾分类现场督导会议，对2021年的垃圾分类确定总基调，明确今年的具体工作任务。5月21日，市垃分办在市城管局召开全市生活垃圾工作部署会议，讨论2021年我市生活垃圾分类工作要点和考核方案，同时各县区就城区垃圾分类作经验交流。12月份，市政府市长刘烁召开了全市垃圾分类工作现场观摩暨推进会。', '我市垃圾分类工作在推进过程中确实存在许多像您在建议中提到的困难和问题，我们将根据您对城市生活垃圾处理的对策建议，进一步加强我市垃圾分类工作，让垃圾分类这件“利国利民、功在千秋”的民生实事不断做实做强，为我市创建更高质量全国文明城市作出新的贡献。', '1.完善细化相关政策法规和标准体系，建立健全垃圾分类“顶层设计”。为进一步规范管理我市垃圾分类工作，确保我市2021年度生活垃圾分类工作的顺利开展，市垃分办先后出台了《萍乡市生活垃圾分类设施设备配置规范（试行）》、《萍乡市2021年生活垃圾分类工作要点及考核方案》等多个配套机制文件。目前正在拟定《萍乡市生活垃圾分类工作任务分工表》、《萍乡市生活垃圾分类工作联席会议制度》、《萍乡市居民生活垃圾分类积分制奖励试行办法》等。', '《江西省生活垃圾管理条例》将于2022年3月1日起正式实施，随后我市将按照有关程序启动萍乡市垃圾分类立法工作。', '2.强化专业知识培训，积极开展正面宣传，提供垃圾分类“源动力”。一是市垃分办参加了住建部“1对1”垃圾分类工作协作交流培训，赴上海进行学习考察，并与协作单位上海市金山区建立网上学习交流平台；二是组织专人外出考察学习，邀请宜春市垃分办甘永红老师授课，强化垃圾分类知识培训，各成员单位组织了20多场垃圾分类知识培训，培训人员2000多人；三是注重加强推动“习惯养成”，不断提高群众垃圾分类意识，充实居民的垃圾分类知识。强化舆论引导能力，增强市民垃圾分类意识，在全社会营造生活垃圾分类的良好氛围。市垃分办牵头制作了垃圾分类宣传资料近万份在全市进行发放，所有公共机构和公共场所都必须张贴垃圾分类宣传海报，市传媒中心利用网络媒体进行垃圾分类知识宣传，市教育局编制印发了幼儿、小学、中学版本的垃圾分类知识读本，开展“环保小卫士”及“小手拉大手”等实践活动1841次，实现垃圾分类教育“进校园”、“进教材”、“进课堂”，全市926所学校开展了垃圾分类教育活动，占比率达95.6%。市总工会、市妇联等制定了垃圾分类志愿者服务工作实施方案。', '3.加快垃圾分类设施设备配套建设，夯实垃圾分类“硬基础”。加快立即分类设施设备配套建设，是开展垃圾分类工作的硬基础。2021年，我市加快了垃圾分类设施设备配套建设，分类设施不断完善。一是生活垃圾焚烧处理率达到100%。我市拥有两套独立运行的垃圾焚烧线，日处理能力1300吨，满足了我市各县区生活垃圾日产日清。二是加快了垃圾分类运输中转站的建设工作。芦溪县、上栗县、莲花县、经开区大型垃圾中转中心已投入使用，投资4500万元的安源区垃圾分拣中心已进入开工阶段，预计2022年6月底可投入使用。三是大力推进了餐厨垃圾处理项目建设。2021年8月，市政府第108次常务会议讨论并通过了萍乡市餐厨垃圾资源化处理项目建设有关事项。11月12日取得市发改委下发的餐厨项目可行性研究报告的批复。12月份市城市管理局已与中节能萍乡环保能源有限公司签订萍乡市餐厨垃圾资源化（收运一体化）项目特许经营补充协议。12月完成了餐厨项目预处理设备基础的土建施工，油脂罐区的设备基础浇筑。已开工建设并达到时序要求，预计2022年6月底可投入使用。', '下一步将进一步加大垃圾分类设施设备的配套建设，要求各县区（管委会）配齐配足垃圾分类运输车辆，完善垃圾中转站、大件垃圾拆解站等设施，特别是在公共机构和小区逐步投放垃圾分类智能机。', '4.建立考核奖惩与激励约束长效机制，提升垃圾分类“软环境”。目前，《萍乡市城市生活垃圾分类2021年工作要点》中具体提出了今年的生活垃圾分类工作考核办法。去年7月，我局组织县区城管局赴浙江金华学习生活垃圾分类工作，通过考察借鉴先进城市的经验，我市将加大垃圾分类执法力度，同时拟起草《萍乡市居民生活垃圾分类积分制奖励试行办法》，通过建立考核奖惩与激励约束长效机制促进我市垃圾分类工作的进一步开展。', '2021年，市垃分办分别对市卫健系统、市教育系统、购物中心、宾馆、武功山管委会、上栗县、芦溪县、莲花县等部门和单位开展了垃圾分类的检查督导工作，对发现的问题下达了督办单，督促责任单位进行整改到位。', '我市垃圾分类考评工作由市生活垃圾分类工作领导小组组织实施，2021年7月2日，市垃分办印发了《萍乡市生活垃圾分类工作2021年度考核方案》，对全市垃圾分类工作领导小组成员单位进行考核。目前已完成了关于萍乡市2021年度第四季度生活垃圾分类工作情况通报（即年度情况通报）。', '5.物业管理助推生活垃圾分类有序推进。萍乡市住建局一是将按照垃圾分类主管部门要求，督促物业服务企业在物业管理过程中落实生活垃圾投放责任和日常管理制度，配合属地政府和主管部门积极开展生活垃圾分类知识宣传，指导、监督单位和个人分类投放生活垃圾；将分类投放的生活垃圾交给符合规定条件的生活垃圾收集、运输单位；对不按照规定分类投放生活垃圾的单位和个人，予以劝导，并督促改正；拒不改正的，及时向属地政府及主管部门报告。二是将按照《萍乡市物业服务企业信用信息管理暂行办法》对物业服务企业年度工作情况进行信用评价，并将积极开展垃圾分类工作列为重要考评内容，为积极推进城市生态文明建设贡献力量。', '1.强化目标导向。 围绕《萍乡市生活垃圾分类2021年工要点》的工作目标，高位推进我市垃圾分类的工作任务，结合各县区的生活垃圾分类工作实施方案，制定具体的时间节点和工作进展表，对不实质性开展垃圾分类工作的单位进行督导。', '2.强化舆论宣传。《江西省垃圾分类管理条例》将于明年3月份正式实施，市垃分办将以《江西省垃圾分类管理条例》的实施为契机，开展声势浩大的垃圾分类宣传贯彻工作。通过条例的学习宣传贯彻，在全市范围内开展强化条例和分类知识学习宣传，积极营造全社会共同参与的浓厚氛围，落实分类投放要求，不断提升分类投放的参与率，不断提升分类投放的准确率。', '3.强化工作考核。加大考核检查力度，将垃圾分类与城乡环境综合整治、美丽乡镇考核考评有机结合起来，提高垃圾分类工作在城乡环境综合整治、美丽乡镇考核分数中的占比，按照城乡环境、美丽乡镇考核评比模式，各县区缴纳考核奖励资金，同时垃圾分类工作排名在全市主流媒体进行通报，以考核倒逼垃圾分类工作实质性开展。', '4.强化工作措施。加快建立垃圾分类回收体系，积极构建“互联网+资源回收”新模式，打通生活垃圾回收网络与再生资源网络通道，实现“两网融合”。探索“撤桶入点、换桶直运、破袋投放”等垃圾分类工作流程，同时，建立“积分兑换”模式，充分调动居民参与垃圾分类的积极性、主动性。积极推行垃圾分类第三方治理模式，引进先进专业机构提升我市垃圾分类服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>120</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>市政府召开第次常务会议</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2019-08-20</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F8%2F20%2Fart_5531_1136917.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E6%94%BF%E5%BA%9C%E5%8F%AC%E5%BC%80%E7%AC%AC60%E6%AC%A1%E5%B8%B8%E5%8A%A1%E4%BC%9A%E8%AE%AE</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['会议学习了习近平总书记在内蒙古考察并指导开展“不忘初心、牢记使命”主题教育时的重要讲话精神。会议要求，全市政府系统要坚持以高站位认识和开展主题教育，把开展主题教育作为大事要事抓紧抓实，将其作为用习近平新时代中国特色社会主义思想武装头脑的“必修课”，作为增强“四个意识”、坚定“四个自信”、坚决做到“两个维护”的“磨刀石”，作为践行以人民为中心发展思想的“试金石”。要坚持把规定动作落实到位、做出实效，按照习近平总书记提出的抓“四个到位”重要要求,在学习教育上久久为功、在检视问题上深挖根源、在整改落实上见行见效、在破解难题上一竿子插到底，务求主题教育高质量、有特色、走前列。要坚持主题教育与改革发展两手抓两促进，把开展主题教育同完成改革发展各项任务结合起来，同做好稳增长、促改革、调结构、惠民生、防风险、保稳定各项工作结合起来，同打赢三大攻坚战、提升城市功能品质、实施乡村振兴战略等当前正在推进的重要部署结合起来，切实将主题教育成效转化为政府系统攻坚克难、干事创业的实际成果。', '会议学习了江西省党政代表团赴福建省学习考察主要精神。会议指出，这是继去年浙江、上海之行后，我省见贤思齐、求新图变的再一次外出取经，也是密切往来、增进了解的又一次开放之行，对于加快推动我省高质量跨越式发展有着积极作用。各级各部门要对标先进、找出差距，认真学习宁德新能源产业融入世界、对接国际的发展思路和眼界，学习福州“一趟不用跑”和“最多跑一趟”的改革魄力和智慧，学习他们雷厉风行推动重大项目快速竣工投产的工作作风和方法，在今后的工作中不断完善发展思路、改进发展举措，推动萍乡更加坚定地迈向“五年新跨越”。', '会议讨论并原则同意了《关于加强乡（镇、街道）应急管理机构建设的意见》。会议要求，各级各有关部门要统筹好机构组建和应急管理日常工作，站在打赢防范化解重大风险攻坚战的高度，深刻认识加强基层应急管理机构建设的重要性，按照“边组建边应急”的要求，聚焦安全生产、防灾减灾救灾等重点任务，做到机构改革和业务工作两手抓两促进，确保思想不乱、工作不断、队伍不散、干劲不减，为做好今后特别是下半年稳定工作提供坚强的机构保障。要加快打造专业化应急管理队伍，按照“建立一流队伍、树一流形象、创一流业绩”的要求，打造“廉洁、严谨、务实、高效”的专业化应急队伍，全面提升执法监管、防范风险和救援处置能力。', '会议讨论并原则同意了《萍乡市城市养犬管理实施意见(试行)》。会议强调，规范市民养犬行为，对于一座城市而言，是提升品质和文明水平的必然趋势，也是改善人居环境的必然要求。各地各有关部门要将规范市民养犬作为加强社会治理、创建文明城市的一项重要工作来抓，落实好属地管理和日常管理责任，进一步明确文明养犬行为规范，明确部门监管职责，坚持政策管理和人性化服务相结合，执法检查与宣传教育相结合，密切配合，齐抓共管，树立文明养犬新风，确保我市文明养犬工作有序推进，真正惠及市民群众。', '会议讨论并原则同意了《萍乡市中心城区15分钟社区生活圈配套设施布局专项规划编制工作方案》。会议指出，在中心城区打造15分钟社区生活圈，是提升城市功能与品质和争创全国文明城市的迫切需要。各级各有关部门要科学完备规划编制，按照精准规划要求，主动参与和配合规划编制工作，确保规划编制按时保质完成；要上下统筹规划实施，按职责分工，指导便民市场、运动场地、文化活动中心、社区服务中心、医疗服务机构等设施建设，确保施工质量，真正把这个基础设施“强弱项补短板”项目建成惠及百姓的民生工程、民心工程。', '会议讨论并原则同意了《关于全面深化新时代教师队伍建设改革的若干措施》。会议强调，各级各有关部门要认清加强教师队伍建设的重要意义，从战略和全局高度，充分认识教师工作的极端重要性，把教师队伍建设作为发展教育事业最基础的工作来抓，把全面加强教师队伍建设作为一项重大政治任务和民生工程来抓，为加快推进教育现代化、办好人民满意教育夯实基础。要抓好教师队伍建设改革重点，统筹推进各项重点改革任务，加强师德师风建设，深化培养培训改革，推动教师管理改革，着力培养高素质教师队伍，形成优秀人才争相从教、教师人人尽展其才、最美教师不断涌现的良好局面。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>120</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>长平乡召开乡党委扩大会议传达</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2023-10-21</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F10%2F21%2Fart_5532_1273532.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E9%95%BF%E5%B9%B3%E4%B9%A1%E5%8F%AC%E5%BC%80%E4%B9%A1%E5%85%9A%E5%A7%94%EF%BC%88%E6%89%A9%E5%A4%A7%EF%BC%89%E4%BC%9A%E8%AE%AE%EF%BC%8C%E4%BC%A0%E8%BE%BE%E5%AD%A6%E4%B9%A0%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E5%9C%A8%E6%B1%9F%E8%A5%BF%E8%80%83%E5%AF%9F%E6%97%B6%E7%9A%84%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E7%B2%BE%E7%A5%9E</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 部门动态 长平乡召开乡党委（扩大）会议，传达学习习近平总书记在江西考察时的重要讲话精神', '10月20日下午，长平乡召开乡党委（扩大）会，传达学习习近平总书记在江西考察时的重要讲话精神和主持召开进一步推动长江经济带高质量发展座谈会上的重要讲话精神、习近平总书记近期重要指示精神以及省、市、县领', '导干部会议精神，研究部署贯彻落实工作。乡党委副书记、政府乡长蔡亮主持会议并讲话。乡全体班子成员，各村党支部书记参加会议。县委宣传部副部长易平到会旁听指导。', '习近平总书记再次亲临江西考察调研，对江西发展提出殷切期望，要进一步把握大局大势、锚定目标任务、强化责任担当，以“走在前、勇争先、善作为”的标准和要求，对照“努力构建现代化产业体系、深化对内对外开放、全面推进乡村振兴、扎实推进共同富裕”四个方面的重要要求，真抓实干、攻坚克难，在推动全', '要深刻领会习近平总书记对江西工作的勉励肯定，保持政治定力、战略定力和发展定力，创造性开展工作，', '新局面。要深刻领会习近平总书记对江西工作的目标定位，努力在“走在前、勇争先、善作为”的新征程中贡献更多', '风采。要深刻领会习近平总书记对江西工作的重要要求，发挥自身优势，埋头苦干实干。要深刻领会习近平总书记对加强党的建设的重要指示，扎实开展主题教育，大力传承红色基因，不断营造风清气正的政治生态。', '农村人居环境。要坚持不懈加强生态文明建设，牢固树立和践行绿水青山就是金山银山的理念，持续深入打好蓝天、碧水、净土提升攻坚战。要坚持不懈改善民生福祉，', '学习宣传贯彻习近平总书记考察江西重要讲话精神，是当前和今后一个时期的首要政治任务和头等大事', '群众喜闻乐见的方式开展宣讲。要切实把学习贯彻习近平总书记考察江西重要讲话精神，与学习贯彻党的十八大以来习近平总书记对江西工作的一系列重要讲话重要指示精神']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>120</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>关于下发萍乡市广播电影电视发展中心惩防体系建设年重点工作项目安排的通知</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2010-04-08</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2010%2F4%2F8%2Fart_48_120164.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%B3%E4%BA%8E%E4%B8%8B%E5%8F%91%E3%80%8A%E8%90%8D%E4%B9%A1%E5%B8%82%E5%B9%BF%E6%92%AD%E7%94%B5%E5%BD%B1%E7%94%B5%E8%A7%86%E5%8F%91%E5%B1%95%E4%B8%AD%E5%BF%83%E6%83%A9%E9%98%B2%E4%BD%93%E7%B3%BB%E5%BB%BA%E8%AE%BE2010%E5%B9%B4%E9%87%8D%E7%82%B9%E5%B7%A5%E4%BD%9C%E9%A1%B9%E7%9B%AE%E5%AE%89%E6%8E%92%E3%80%8B%E7%9A%84%E9%80%9A%E7%9F%A5</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 发展规划 关于下发《萍乡市广播电影电视发展中心惩防体系建设2010年重点工作项目安排》的通知', '关于下发《萍乡市广播电影电视发展中心惩防体系建设2010年重点工作项目安排》的通知', '根据萍办字[2010]39号文件精神，为进一步加快中心惩防体系建设，深入贯彻落实中央《工作规划》、省委《实施办法》和市委《实施细则》，加快构建惩治和预防腐败体系，根据《萍乡市广播电影电视局2008-2012年惩防体系实施细则》部署，现将《萍乡市广播电影电视发展中心惩防体系建设2010年重点工作项目安排》下发你们，请各单位切实按照惩防体系建设的要求，结合实际，认真抓好落实。', '根据《萍乡市广播电影电视局2008-2012年惩防体系实施细则》部署，现将《萍乡市广播电影电视发展中心惩防体系建设2010年重点工作项目安排》如下：', '1、将反腐倡廉的宣传教育纳入党组工作计划，制定出台党风廉政建设和反腐败工作分工方案以及党员干部廉洁从政教育方案。（牵头单位：机关党委）', '、将反腐倡廉的宣传教育纳入党组工作计划，制定出台党风廉政建设和反腐败工作分工方案以及党员干部廉洁从政教育方案。（牵头单位：机关党委）', '2、组织开展《廉政准则》等党纪政纪条规学习教育，举办党风廉政书画展、党风廉政知识讲座、参观廉政教育基地、观看警示教育专题片等活动，进一步提高领导干部廉洁从政意识。（牵头单位：机关党委）', '、组织开展《廉政准则》等党纪政纪条规学习教育，举办党风廉政书画展、党风廉政知识讲座、参观廉政教育基地、观看警示教育专题片等活动，进一步提高领导干部廉洁从政意识。（牵头单位：机关党委）', '党纪政纪条规学习教育，举办党风廉政书画展、党风廉政知识讲座、参观廉政教育基地、观看警示教育专题片等活动，进一步', '3、充分发挥自身优势，积极利用电台、电视台、广电报社、萍乡传媒网等媒体，加强对反腐倡廉的舆论引导。（牵头单位：总编室；协办单位：电台、电视台、广电报社）', '、充分发挥自身优势，积极利用电台、电视台、广电报社、萍乡传媒网等媒体，加强对反腐倡廉的舆论引导。（牵头单位：总编室；协办单位：电台、电视台、广电报社）', '4、继续做好政风行风热线工作，创新直播形式和开办样式，开辟集党风、政风、行风于一体的“三风热线”专题和直播栏目，畅通社情民意反映渠道，倾听群众诉求，切实解决问题，真正服务于群众，接受群众监督。（牵头单位：总编室；协办单位：电台城市之声频率）', '、继续做好政风行风热线工作，创新直播形式和开办样式，开辟集党风、政风、行风于一体的“三风热线”专题和直播栏目，畅通社情民意反映渠道，倾听群众诉求，切实解决问题，真正服务于群众，接受群众监督。（牵头单位：总编室；协办单位：电台城市之声频率）', '1、结合市委、市政府《惩防体系建设2010年重点工作项目安排》，制定出台《萍乡市广播电影电视发展中心惩防体系建设2010年重点工作项目安排》等制度并下发。（牵头单位：机关党委；协办单位：行政办、人事科、总编室）', '、结合市委、市政府《惩防体系建设2010年重点工作项目安排》，制定出台《萍乡市广播电影电视发展中心惩防体系建设2010年重点工作项目安排》等制度并下发。（牵头单位：机关党委；协办单位：行政办、人事科、总编室）', '2、继续坚持各类谈话制度，纪检组负责人围绕加强党风廉政建设、保证廉洁从政等情况，同中心各单位负责人交换意见，研究问题；实行诫勉谈话制度，发现党员干部存在的苗头性问题，早打招呼，及时提醒，严格要求，使他们少犯或不犯错误。（牵头单位：机关党委；协办单位：人事科）', '、继续坚持各类谈话制度，纪检组负责人围绕加强党风廉政建设、保证廉洁从政等情况，同中心各单位负责人交换意见，研究问题；实行诫勉谈话制度，发现党员干部存在的苗头性问题，早打招呼，及时提醒，严格要求，使他们少犯或不犯错误。（牵头单位：机关党委；协办单位：人事科）', '3、积极推行党务公开，认真贯彻落实“三重一大”（重大事项决策、重要干部任免、重要项目安排、大额度资金的使用，必须经集体讨论作出决定）制度，推进领导班子民主集中制建设，促进班子民主、科学和规范决策。（牵头单位：机关党委；协办单位：行政办）', '“三重一大”（重大事项决策、重要干部任免、重要项目安排、大额度资金的使用，必须经集体讨论作出决定）制度，推进领导班子民主集中制建设，促进班子民主、科学和规范决策。（牵头单位：机关党委；协办单位：行政办）', '4、以政务公开为核心，大力推行“阳光工程”，进一步深化行政审批，规范办事公开和财务公开制度，大力加强各项工作规范化、制度化建设。（牵头单位：行政办）', '、以政务公开为核心，大力推行“阳光工程”，进一步深化行政审批，规范办事公开和财务公开制度，大力加强各项工作规范化、制度化建设。（牵头单位：行政办）', '以政务公开为核心，大力推行“阳光工程”，进一步深化行政审批，规范办事公开和财务公开制度，大力加强各项工作规范化、制度化建设。（牵头单位：行政办）', '1、根据中心《领导班子成员廉洁自律规定》《机关工作人员廉洁自律规定》等文件要求，着重抓好工程招投标、设备采购、车辆使用维修、节目采购、广告经营、对外接待用餐以及公务出国、出境学习、考察和公务消费的方面监督管理。（牵头单位：行政办；协办单位：物管办）', '、根据中心《领导班子成员廉洁自律规定》《机关工作人员廉洁自律规定》等文件要求，着重抓好工程招投标、设备采购、车辆使用维修、节目采购、广告经营、对外接待用餐以及公务出国、出境学习、考察和公务消费的方面监督管理。（牵头单位：行政办；协办单位：物管办）', '2、加大行业管理力度，加强对新闻从业人员职业道德的教育，坚决杜绝有偿新闻，进一步加强执法队伍建设，杜绝吃拿卡要等现象的发生，加大对广告经营的监督与管理，坚决抵制违规行为。（牵头单位：总编室；协办单位：社管科、蓝天广告公司）', '、加大行业管理力度，加强对新闻从业人员职业道德的教育，坚决杜绝有偿新闻，进一步加强执法队伍建设，杜绝吃拿卡要等现象的发生，加大对广告经营的监督与管理，坚决抵制违规行为。（牵头单位：总编室；协办单位：社管科、蓝天广告公司）', '3、进一步做好行政管理工作，继续抓好机关效能的各项工作，切实加强机关作风建设，进一步提高创业创新服务能力，认真落实“收支两条线”管理规定，加强会计管理和监督，落实设备设施采购各项制度，提高资金使用效益。（牵头单位：行政办、机关党委）', '、进一步做好行政管理工作，继续抓好机关效能的各项工作，切实加强机关作风建设，进一步提高创业创新服务能力，认真落实“收支两条线”管理规定，加强会计管理和监督，落实设备设施采购各项制度，提高资金使用效益。（牵头单位：行政办、机关党委）']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>120</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>萍乡市审计局年度部门决算</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2016-09-22</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2016%2F9%2F22%2Fart_104_135856.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%AE%A1%E8%AE%A1%E5%B1%802015%E5%B9%B4%E5%BA%A6%E9%83%A8%E9%97%A8%E5%86%B3%E7%AE%97</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['3、向市长提出年度市级预算执行和其他财政收支情况的审计结果报告。受市政府委托向市人大常委会提出市级预算执行和其他财政收支情况的审计工作报告、审计发现问题的纠正和处理结果报告。向市政府报告对其他事项的审计和专项审计调查情况及结果。依法向社会公布审计结果。向市政府有关部门和县（区）人民政府通报审计情况和审计结果。', '4、对直接审计的事项，出具审计报告，在法定职权范围内做出审计决定或向有关主管机关提出处理处罚的建议。', '5、按规定对县处级领导干部及属于市审计局审计监督对象的其他单位主要负责人实施经济责任审计。', '6、组织实施对国家财经法律、法规、规章、政策和宏观调控措施执行情况、财政预算管理或国有资产管理使用等与国家财政收支有关的特定事项进行专项审计调查。', '7、依法检查审计决定执行情况，督促纠正和处理审计发现的问题，依法办理被审计单位对审计决定提请行政复议、行政诉讼或市政府裁决中的有关事项。协助配合有关部门查处相关重大案件。', '8、指导和监督内部审计工作，核查社会审计机构对依法属于审计监督对象的单位出具的相关审计报告。', '9、与县（区）人民政府共同领导县（区）审计机关。依法领导和监督县（区）审计机关的业务，组织县（区）审计机关实施特定项目的专项审计或审计调查，纠正或责成纠正县（区）审计机关违反国家规定做出的审计决定。按照干部管理权限协助管理县（区）审计机关负责人。', '10、组织审计市政府驻外非经营性机构的财务收支，依法通过适当方式组织审计市属国有企业和金融机构的境外资产、负债和损益。', '11、参与审计领域的全国性交流活动，指导和推广信息技术在审计领域的应用，组织建设全市审计信息系统。', '纳入本套部门决算汇编范围的预算单位共2个，包括：萍乡市审计局和下属全额拨款事业单位萍乡市政府投资项目审计中心。萍乡市政府投资项目审计中心无另外的办公场所，其所有收支一并纳入萍乡市审计局统一核算。萍乡市审计局2015年末实有人数62人，其中行政编34人、工勤编4人、退休人员24人。萍乡市政府投资项目审计中心2015年末实有人数3人。', '（一）因公出国（境）支出年初预算数为8万元，决算数为13.58万元，完成预算的169.75%，决算数较上年增长87%。主要原因是：2015年原预算出国人次为一人次，2015年省审计厅先后两次组织审计能手出国学习考察，我局分别派出两人次参与，故因公出国费超出预算。', '（三）公务用车购置及运行维护费支出30.8万元，其中公务用车购置年初预算数为0万元，决算数为0万元；公务用车运行维护费支出年初预算数为34万元，决算数为30.8万元，完成预算的 90.59%，决算数较上年下降8.85%。主要原因是：较上年减少了公务用车次数。', '萍乡市审计局2015年度政府采购支出总额26.46万元，其中：政府采购货物支出26.46万元，为采购审计业务人员用电脑一批。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>120</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>守底线重创新抓落实争一流全力推动萍乡公安治理体系和治理能力新跨越</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2020-04-29</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2020%2F4%2F29%2Fart_3811_736373.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%AE%88%E5%BA%95%E7%BA%BF%20%E9%87%8D%E5%88%9B%E6%96%B0%20%E6%8A%93%E8%90%BD%E5%AE%9E%20%E4%BA%89%E4%B8%80%E6%B5%81%EF%BC%8C%E5%85%A8%E5%8A%9B%E6%8E%A8%E5%8A%A8%E8%90%8D%E4%B9%A1%E5%85%AC%E5%AE%89%E6%B2%BB%E7%90%86%E4%BD%93%E7%B3%BB%E5%92%8C%E6%B2%BB%E7%90%86%E8%83%BD%E5%8A%9B%E6%96%B0%E8%B7%A8%E8%B6%8A</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 政务动态 守底线 重创新 抓落实 争一流，全力推动萍乡公安治理体系和治理能力新跨越', '4月23日，市公安局召开全市公安机关2019年工作总结2020年工作部署暨党风廉政建设工作部署会，副市长、公安局长袁志坚出席会议并讲话，强调要坚持以习近平新时代中国特色社会主义思想为指导，紧扣守底线、重创新、抓落实、争一流的要求，不忘初心、牢记使命，主动担当、开拓进取，确保萍乡公安治理体系和治理能力实现新跨越。', '2019年，全市公安机关坚持以习近平新时代中国特色社会主义思想为指导，在省厅党委和市委市政府的坚强领导下，以做好新中国成立70周年大庆安保维稳工作为主线，团结一致、担当作为，基本实现了年初制定的七大目标，有力维护了政治安全和社会稳定。2020年以来，面对突如其来的新冠肺炎疫情，全市公安机关以最高政治站位、最实精准举措、最强纪律作风，全力打好防控阻击战、发展总体战，实现了高风险人员预警核查“零遗漏”，公安民辅警、公安监管场所人员“零感染”，妨碍医疗秩序案件“零发生”，社会大局持续安全稳定。', '2020年，全市公安机关要准确把握因疫情带来的各种变化，持之以恒做好战疫情、护安全、促发展、防风险、保稳定各项工作，全力推动萍乡公安治理体系和治理能力新跨越。', '一是维护安全稳定。坚决捍卫政治安全，切实维护社会稳定，深化扫黑除恶专项斗争，深化反诈工作，强化社会管控，加强公共安全监管，服务经济社会发展；', '二是提高履职能力。深化信息化警务（勤务）机制改革，加强萍安云建设，完善社会治安防控体系建设，夯实派出所基础工作，推进执法规范化建设，强化公安监管场所安全；', '三是铸造忠诚警魂。加强党的建设，强化党对公安的绝对领导。坚持从严治警，抓实主体责任。加强警风建设，深入组织开展好政法队伍教育整顿活动和全市公安系统“警风”建设年活动；', '四是激发全警活力。推进警本警务，满足民警合理需求，搭建多元价值展示平台，提升民警满意度。推进辅警改革，锻造一支正规化、专业化、职业化的辅警队伍。', '一是解放思想抓落实。开展新一轮思想搅动，打破思想定势。组织到先进地区、顶级企业学习考察，提升思想格局。研究先进工作方法，摒弃思想盲从。发动全警开展讨论活动，增强思想动力；', '二是创新引领抓落实。以评先选优树立创新导向，以有为者有位发挥创新潜能，以人财支持助推创新发展，以知识产权归属保护创新权利；', '三是关键少数抓落实。进行协作度测评，推动工作主动向前一步。健全重大事件现场处置，重要工作项目包干，推动领导身先士卒。完善规章制度，利用信息化固化，低依赖度运行，推动制度管人管事；', '四是作风建设抓落实。坚持要求变标准，理念变流程，重点工作、重点领域运用四性工作法、“三查四必五步”工作法，树立工具意识，推进新理念转化为新工具。', '五是严格奖惩抓落实。建立奖励清单，落实即时表彰奖励，实施负面清单管理，依法严格追责，坚持好干部标准，树立鲜明干部导向。', '市局党委委员、驻局纪检监察组组长漆小望总结部署了党风廉政建设工作，要求要深入学习贯彻党的十九大和十九届二中、三中、四中全会，十九届中纪委四次全会、省纪委十四届五次全会和市纪委十二届五次全会精神，认清形势、认领责任，主动适应从严治党、从严治警的新常态，突出重点、突破难点，全面担当从严治党的新使命，严守纪律、严管队伍，奋力开创从严治警的新局面，进一步推进全面从严治党治警向高质量发展。', '会议由市局党委副书记、常务副局长段太平主持，以视频形式开至基层所队。市局班子成员，分县局局长，市局各警种部门主要负责人，市局机关副科级以上干部和民警代表在市局主会场参会；交警支队、特巡警支队班子成员、副科级以上干部，分县局班子成员、股级以上干部，派出所全体民警在分会场参会。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>120</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>都想回湘东原来是因为她</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2021-10-11</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F10%2F11%2Fart_97_1067481.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E9%83%BD%E6%83%B3%E5%9B%9E%E6%B9%98%E4%B8%9C%EF%BC%9F%E5%8E%9F%E6%9D%A5%E6%98%AF%E5%9B%A0%E4%B8%BA%E2%80%9C%E5%A5%B9%E2%80%9D</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['在赣湘边陲，有一条发源于罗霄山脉北麓江西杨岐山的河流，一路向西，经萍乡和株洲，因最后在株洲醴陵市渌口镇汇入湘江而得名“渌水”，在萍乡段被称为“萍水”。这条河流因同为赣湘两省萍乡和醴陵的母亲河，其位置和意义都显得极为特殊。当地有一首广为流传的民谣：“渌江渌水绿悠悠,三刀石下状元洲。马脑潭前龙显爪，姜湾文笔点春秋。”这是古人眼中的萍水河，生动描述了两岸人民心中对母亲河的悠悠情怀。', '萍乡因煤立市、因钢而兴、因瓷闻名。改革开放后，萍水河两岸工业发展迅速，钢铁厂、纸厂、铝厂、电厂、煤矿、工业陶瓷等企业多分布在下游的湘东区境内。过去几十年间，水环境污染逐步加重，两岸脏乱不堪，水质散发着异味，时常出现V类甚至劣V类……原本碧波荡漾的萍水河失去了本色，“脏乱差”一度成为湘东的代名词，以致“逃离湘东”成为很多人的选择。', '问题在水中，根子在岸上。针对断面水质长期不达标现象，政府开始铁腕治污。2016年以来，累计关停淘汰企业36家，整治提升“低小散”企业22家，先后完成重污染高耗能行业企业整治12家；关停拆除河道两岸500米范围内的生猪养殖场292家，完成非禁养区内的60家规模养殖场整治提升；对城区污水处理厂进行扩建和提标改造，完成老旧污水管网改造515.06公里。', '一批影响水生态环境的顽疾逐步消除。工业园区污水处理厂和管网全面建成；开展农村生活污水综合整治，建设一大批农村生活污水处理设施；严厉打击非法侵占水域岸线行为，河道全面禁止采砂；建成垃圾集中焚烧处理设施，垃圾无害化处理率达到100%，农村生活垃圾处理实行政府购买服务……2020年，全市21个地表水监控断面水质优良率达到100%，萍水河流域11个断面中有5个断面水质达到Ⅱ类。', '2017年，江西省委省政府提出：以流域生态综合治理为抓手，打造“河长制”升级版。萍水河流域生态综合治理这样一个庞大的系统工程，要如何发挥“河长制”的制度优势？在湘东区，当地成立了由区委书记、总河长任总指挥长，各乡镇和部门组成的指挥部，在指挥部的指导下统筹推进项目建设。如乡镇政府负责征地拆迁，水利部门负责河道的整治，文广新旅部门负责文化景观的挖掘整理，农业农村部门负责沿河两岸引导建设农业示范带，生态环境部门负责沿河村庄污水处理设施建设，林业部门负责两岸林地、湿地的保护和修复，既分项建设，又交叉配合，确保全流域综合治理的整体推进。', '进行流域生态综合治理需要大量的资金投入，这样一笔巨额资金财政难以承受，但钱从哪里来？以湘东区为例，当地通过争取各级财政投入、整合各类资金，还引入社会资本，采取PPP模式，用市场机制解决投入不足问题。萍水河流域综合治理以本级财政投入为主，并通过区本级资金撬动，整合各类资金，累计投入42.27亿元。', '为把萍水河流域打造成全省流域生态综合治理的示范工程，当地充分尊重“山水林田湖草”生命共同体的理念，用系统、生态的思维推进流域生态综合治理，做到“三个融合”：将海绵城市建设与流域生态综合治理相融合，将水生态文明城市建设与流域生态综合治理相融合，将乡村振兴发展与流域生态综合治理相融合。打造了“萍水十景”，建成20公里的沿河绿色生态走廊，重现白鹭垂杨、鸟语花香的诗情画意。', '现如今行走在萍水河畔，仿佛走进了生态湿地公园，清凌凌的水、蓝盈盈的天、绿油油的树，时而有白鹭掠过水面，野鸭游弋水中。“萍水十景”串珠成链，成为人们争相前往的“网红打卡地”。', '2019年7月，赣湘两省在萍乡市签订《渌水流域横向生态保护补偿协议》，在渌水流域建立横向生态保护补偿机制，以江西萍乡与湖南株洲交界处的金鱼石断面水质为依据，水质月均值达到或优于Ⅲ类，湖南给江西补偿100万元；水质劣于Ⅲ类，或当月出现因上游原因引发的水质超标污染事件，江西补偿100万元给湖南。这一协议也被外界解读为两省的“对赌”协议。以此为契机，萍乡市迅速印发《萍乡市建立市内流域上下游横向生态保护补偿机制实施方案》，按照“谁受益谁补偿、谁破坏谁恢复、谁污染谁治理”的原则，推动渌水（萍水河）流域内的5个县（区）完成了上下游横向生态保护补偿协议签订工作，形成水环境质量联防共治合力。截至2021年8月，金鱼石断面已连续25个月达到或优于Ⅲ类，获得渌水横向生态保护补偿资金1.38亿元。', '栽好梧桐,引凤来栖。生态环境提升后的沿河两岸，引得零799艺术区、三石竹艺中心、海绵城市植物培育基地、草花基地、大棚种植基地等一批批项目落地。同时，省内外学习考察团纷纷而至，带动乡村旅游、瓜果采摘的游客络绎不绝，麻山幸福村建设成了4A景区。', '萍水河流域生态综合治理换来了水清、岸绿、景美，从日渐萧条到人旺业旺，从“逃离湘东”到“我要回湘东”，真正实现了由“牺牲环境换取增长”向“治理环境优化增长”的转变。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>120</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>湘东区</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2022-01-20</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2022%2F1%2F20%2Fart_5533_1158662.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B9%98%E4%B8%9C%E5%8C%BA%E8%80%83%E5%AF%9F%E5%9B%A2%E6%9D%A5%E5%AE%89%E6%BA%90%E5%8C%BA%E8%80%83%E5%AF%9F%E4%BA%A4%E6%B5%81</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['1月19日，湘东区区委副书记景国成率考察团一行来到安源区，就重点项目建设情况进行观摩考察。区委副书记，安源国家森林公园党组书记、主任刘铸，区委常委、副区长袁子安，副区长刘洁兰，区人大常委会副主任、区委组织部常务副部长袁萍，区政协副主席、区工商联主席贾燕玲陪同考察。', '在金桥焊材有限公司，考察团一行听取了企业负责人关于企业的发展历程、科技投入、生产经营、成果应用等情况的介绍，通过交流探讨、实地考察等方式详细了解了我区在工业发展、企业建设方面的做法和经验。', '考察中，考察团一行一路走，一路看，一路议，对我区工业发展、产业建设等方面的情况给予了高度评价。大家纷纷表示，通过本次考察学习收获良多，进一步了解了安源区工业发展和产业建设的发展情况，切身感受安源区日新月异的发展变化和跨越式高质量发展的强劲脉搏。希望双方进一步加强沟通交流，在今后的工作中互相学习、取长补短，找准合作契合点，推进多领域、深层次务实合作，共同为萍乡“打造最美转型城市”作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>120</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>江西省货物运输车辆超限超载治理办法解读</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2020-12-08</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2020%2F12%2F8%2Fart_5535_1141147.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E3%80%8A%E6%B1%9F%E8%A5%BF%E7%9C%81%E8%B4%A7%E7%89%A9%E8%BF%90%E8%BE%93%E8%BD%A6%E8%BE%86%E8%B6%85%E9%99%90%E8%B6%85%E8%BD%BD%E6%B2%BB%E7%90%86%E5%8A%9E%E6%B3%95%E3%80%8B%E8%A7%A3%E8%AF%BB</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['《江西省货物运输车辆超限超载治理办法》（以下简称《办法》）经省人民政府第93次常务会议审议并通过，自2018年2月1日起正式实施。为便于交通运输主管部门、公路管理机构等有关部门及相关市场主体更好地理解办法的相关内容，切实做好贯彻实施工作，现就《办法》出台的背景及主要内容解读如下：', '近年来，在省委省政府的正确领导下，我厅认真贯彻落实国家五部委和省委省政府治超工作要求，扎实推进货物运输车辆（以下简称货运车辆）超限超载治理工作。2016年2月我省启动新一轮集中治超工作，在省委省政府领导关心、支持下，经过长达1年半的治理，路面通行状况得到明显改善。2017年8月，我厅委托第三方检测调查机构对全省治超站点路段进行了检测，检测结果表明我省治超站点路段超限超载率已从集中治理前的29.7%下降到省政府要求的1%以内。', '但随着治超工作的不断深入，出现了一些新问题，如：受各方利益驱动影响，超限超载现象还没有从根本上得到治理，损毁公路设施现象依然存在；全省各级人民政府履行治超主体责任力度不一；治超工作本身尚存在薄弱环节；治超长效机制还需建立完善等。解决这些问题，需要运用法治思维、法治观念、法治方式，因此制定《江西省货物运输车辆超限超载治理办法》显得尤为迫切。', '为此，在省政府法制办的指导下，我厅于2016年6月启动《办法》起草准备工作，2017年10月形成《办法（草案征求意见稿）》。期间，广泛征求了省直相关部门、各市县人民政府和社会各界意见；先后召开了立法听证会、立法推进会、部门协调会、专家论证会；赴宜春市、高安市、上高县等地进行了省内调研，赴浙江省、甘肃省进行学习考察；经过反复论证研究，修改近三十余稿，形成了《办法（草案）》。经省人民政府第93次常务会议审议，《办法》正式通过。', '《办法》共五章三十六条，主要内容包括总则、源头治理、通行治理、法律责任以及附则。《办法》主要有以下几个特点：', '一是落实了治超的主体责任。明确了县级以上人民政府是本行政区域内货运车辆超限超载治理工作的责任主体，同时建立了治超工作督查、约谈机制，督促地方人民政府依法履职。', '二是加强了源头管控。强化了对车辆源头、货物源头、货运源头、货运经营者以及车辆驾驶人的监督和管控，明确了各自的责任和义务。在车辆源头管控方面，要求有关部门依法查处生产、销售拼装汽车或者擅自改装汽车的行为；要求相关部门在办理车辆检验业务时，对不符合要求的车辆不予注册登记、不发放车辆营运证。在货物源头单位监管方面，要求有关行业主管部门对采砂场、采石场、建筑施工单位等货物源头单位进行严格监管，防止超限超载现象发生。在货运源头单位管控方面，要求道路运输货物集散地以及货运场站等货运源头单位严格遵守有关规定，不得放行不符合装载要求的货运车辆驶出场站。', '三是加强了通行治理。治超执法人员可以采取固定站点检测、流动检测等方式，对货运车辆进行超限超载检查。执法人员应当依托固定超限超载检测站点开展治超工作；对避站绕行、短途驳载的车辆，可以采取流动检测的方式进行检查；在高速公路收费口安装超限超载检测设备，防止超限超载车辆驶入高速公路；明确了超限超载车辆的处理流程，对被查处的超限超载货运车辆，公路管理机构或者公安机关交通管理部门应当责令承运人卸载，消除违法状态。', '四是创新了治超模式。《办法》除对常规通行治理方式进行了明确外，还引入科技治超新模式，将动态检测技术监控设备引入路面治超执法，有效提高了治超工作成效。《办法》规定“对经动态检测技术监控设备检测显示超限超载的货运车辆，货运车辆驾驶人应当根据监控设备检测提示，即时到指定的地点接受处理。未即时接受处理的，公路管理机构应当以书面通知、短信或者电话等方式告知货运车辆所有人，并可以依照《江西省公路条例》第三十六条规定，将有关记录资料移交公安机关交通管理部门依法处理。”', '五是明确了法律责任。明确了违反《办法》规定应承担的法律责任，特别是明确了：依照相关规定，被吊销道路运输经营许可证的道路运输企业，自吊销之日起，两年内不得申请相应范围的道路运输及相关业务经营许可。', '一是加大宣贯力度。全省各级交通运输主管部门、公路管理机构及各有关职能部门要以本次新闻发布会为契机，全面部署开展《办法》的学习宣传活动。通过广播、电视、报纸、互联网等多种媒体，发挥货物源头企业、货运场站、治超站点等行业场所的宣传作用，广泛深入地向社会各界宣传《办法》，确保《办法》落地落实。', '二是健全配套制度。各级交通运输部门和公路管理机构要按照《办法》要求，制定出台配套规范性文件，细化落实《办法》的各项规定和要求，确保《办法》落到实处。同时，组织相关部门对《办法》颁布实施前制定的有关政策文件和制度，要进行一次全面清理，对与《办法》相抵触的，要及时修改完善或提请相关部门进行修改完善。', '三是依法履职尽责。各级交通运输部门和公路管理机构要严格按照“法定职责必须为，法无授权不可为”这一基本原则，依法依规进一步完善治理货运车辆超限超载权力和责任清单，切实照单履职，加强治超行政执法监管，促进路域环境和交通运输秩序不断优化。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>120</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>关于市十五届人大五次会议第号建议的答复</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2020-08-31</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2020%2F8%2F31%2Fart_42_813416.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%B3%E4%BA%8E%E5%B8%82%E5%8D%81%E4%BA%94%E5%B1%8A%E4%BA%BA%E5%A4%A7%E4%BA%94%E6%AC%A1%E4%BC%9A%E8%AE%AE%E7%AC%AC52%E5%8F%B7%E5%BB%BA%E8%AE%AE%E7%9A%84%E7%AD%94%E5%A4%8D</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['根据江西省人民政府办公厅《关于印发江西省生活垃圾分类制度具体方案的通知》(赣府厅发', '号)文件精神，我市于2018年开始生活垃圾分类工作，并组织工作人员前往我省列入全国第一批生活垃圾分类46个试点城市南昌、宜春进行学习考察，2019年6月18日正式出台了《萍乡市生活垃圾分类实施方案》（萍府办发', '号），成立了萍乡市生活垃圾分类工作领导小组，领导小组下设办公室在市城管局，负责推进生活垃圾分类工作，负责生活垃圾分类管理的综合协调、检查指导、督促考核，组织制定规划和标准，其他相关职能部门按照职责承担相应的工作任务。我市生活垃圾分类工作自2018年开展以来，采取在中心城区进行生活垃圾分类试点示范小区的方式进行推广。', '年，我市中心城区设置了5个围合小区作为生活垃圾分类试点示范小区。2020年新增8个共计13个试点小区，其中安源区7个（金典城、雅典花园、市气象局家属区、供电小区、御锦园、梦想天街、锦绣山庄）、经开区4个（四季花城、凤凰山庄、星湖湾、圣淘沙）、湘东区2个（香榭帝景、滨河花园），共计12036户，服务人数37241人。目前，我市13个试点示范小区已建成生活垃圾分类投放点79个，并全部配置四色分类垃圾桶，配置可回收物“智能环保屋”13个。', '年，市本级完成生活垃圾焚烧处理二期建设，启动厨余垃圾处理设施建设；各县区编制完成生活垃圾分类实施方案，并制订垃圾分类设施建设规划及年度计划,', '启动资源化利用的建筑垃圾处理设施和大件垃圾拆解设施建设；各设区市城镇生活垃圾焚烧处理能力占无害化处理总能力的', '以上；各县区中心城区实现公共机构生活垃圾分类全覆盖，安源区至少有一个街道基本建成生活垃圾分类示范片区，生活垃圾回收利用率达到', '我市虽然在垃圾分类工作做了一定的宣传工作，但宣传力度远远不够，群众的知晓率和参与率明显不高，您提出的“加强宣传引导”正是我局今后开展垃圾分类的重点工作。垃圾分类工作是一个全民性的工作，我们将积极引导全社会总动员齐参与，营造全民参与垃圾分类的良好氛围，通过垃圾分类工作不断提高我市创建水平，不断提高我市的环境卫生质量，为干净萍乡、美丽萍乡作出贡献。', '学校、政府部门都属于公共机构，公共机构生活垃圾垃圾强制分类是我市今年的工作目标之一。目前，我市公共机构已开始实施生活垃圾分类工作，但工作力度和实施效果没有达到预期目标，我局将加大公共机构生活垃圾分类工作的检查督导力度，特别是将生活垃圾分类纳入校园教育，是生活垃圾分类工作可持续发展的核心所在。我市生活垃圾分类工作开展以来，市教育局以校园为抓手，推动将生活垃圾分类知识纳入校园课堂教育，开展了“垃圾分类”系列主题宣传教育活动，通过一名学生，带动一个家庭，通过一个学校，带动一片社区，取得了一定的效果。下一步，我市将加大生活垃圾分类知识进学校的活动力度，通过小手拉大手，促进生活垃圾分类工作的开展。', '您提出的分发垃圾分类专用垃圾箱和垃圾袋，是鼓励广大市民积极参与垃圾分类工作的一种便民措施，我们会将此建议转发给生活垃圾分类实施的主管单位（各县区、管委会），请他们根据实际开展情况是否采纳。据我局了解，国内各个地市分发垃圾分类箱（袋）的做法不一，江西宜春采取的是每户每月发放垃圾分类袋94个，2019年政府购置垃圾分类袋的投入就达到了近1500万元，而2019年全国创建文明城市第一名的浙江金华采取的不发放垃圾分类袋，由居民自己购买。', '目前，我市已出台的《萍乡市城市生活垃圾分类2020年工作要点》中具体提出了今年的生活垃圾分类工作考核办法，同时人大生活垃圾分类立法也已列入议题。今年7月，我局组织县区城管局赴浙江金华学习生活垃圾分类工作，通过考察借鉴先进城市的经验，我市将加大垃圾分类执法力度，同时拟起草《萍乡市居民生活垃圾分类积分制奖励试行办法》，通过建立考核奖惩与激励约束长效机制促进我市垃圾分类工作的进一步开展。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>120</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>关于市政协第十三届五次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2020-08-31</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2020%2F8%2F31%2Fart_42_813447.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%B3%E4%BA%8E%E5%B8%82%E6%94%BF%E5%8D%8F%E7%AC%AC%E5%8D%81%E4%B8%89%E5%B1%8A%E4%BA%94%E6%AC%A1%E4%BC%9A%E8%AE%AE%E7%AC%AC57%E5%8F%B7%E6%8F%90%E6%A1%88%E7%9A%84%E7%AD%94%E5%A4%8D</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['号)文件精神，我市于2018年开始生活垃圾分类工作，并组织工作人员前往我省列入全国第一批生活垃圾分类46个试点城市南昌、宜春进行学习考察。2019年6月18日正式出台了《萍乡市生活垃圾分类实施方案》（萍府办发', '号），成立了萍乡市生活垃圾分类工作领导小组，领导小组下设办公室在市城管局，负责推进生活垃圾分类工作，负责生活垃圾分类管理的综合协调、检查指导、督促考核，组织制定规划和标准，其他相关职能部门按照职责承担相应的工作任务。我市生活垃圾分类工作自2018年开展以来，采取在中心城区进行生活垃圾分类试点示范小区的方式进行推广。', '年，我市中心城区设置了5个围合小区作为生活垃圾分类试点示范小区。2020年新增8个共计13个试点小区，其中安源区7个（金典城、雅典花园、市气象局家属区、供电小区、御锦园、梦想天街、锦绣山庄）、经开区4个（四季花城、凤凰山庄、星湖湾、圣淘沙）、湘东区2个（香榭帝景、滨河花园），共计12036户，服务人数37241人。目前，我市13个试点示范小区已建成生活垃圾分类投放点79个，并全部配置四色分类垃圾桶，配置可回收物“智能环保屋”13个。', '年，市本级完成生活垃圾焚烧处理二期建设，启动厨余垃圾处理设施建设；各县区编制完成生活垃圾分类实施方案，并制订垃圾分类设施建设规划及年度计划,', '启动资源化利用的建筑垃圾处理设施和大件垃圾拆解设施建设；各设区市城镇生活垃圾焚烧处理能力占无害化处理总能力的', '以上；各县区中心城区实现公共机构生活垃圾分类全覆盖，安源区至少有一个街道基本建成生活垃圾分类示范片区，生活垃圾回收利用率达到', '市城管局将根据贵单位的建议，进一步加大其他配套的制度性文件编制力度，正在拟定萍乡市生活垃圾分类工作任务分工表》、《萍乡市生活垃圾分类工作联席会议制度》、《萍乡市居民生活垃圾分类积分制奖励试行办法》等。目前，生活垃圾分类立法工作的初步调研已完成，立法工作有序开展。', '您提出的加快立即分类设施设备配套建设，是开展垃圾分类工作的硬基础，我市生活垃圾分类硬件设施方面确实存在短板，近年来不断加大了垃圾分类终端处理设施建设力度。目前，萍乡生活垃圾焚烧二期已投入试运行，一、二期总规模每天处理生活垃圾1300吨，可满足全市所有县、区（管委会）生活垃圾处理，焚烧处理率达到了100%，同时将原有的冷水冲生活垃圾填埋场改建为建筑垃圾处理场，经开区、安源区、芦溪县、上栗县、莲花县都计划配套建设大型生活垃圾中转站和大件垃圾拆解站，2020年底均可建成投产，同时根据《萍乡市城市生活垃圾分类2020年工作要点》文件要求，我市已启动了餐厨垃圾处理项目建设的前期工作，预计2020年11月份可开工建设，明年12月份可投入使用。', '我局将根据贵单位的建议，进一步加大垃圾分类设施设备的配套建设，要求各县区（管委会）配齐配足垃圾分类运输车辆，完善垃圾中转站、大件垃圾拆解站等设施，特别是在公共机构和小区逐步投放垃圾分类智能机。', '目前，我市已出台的《萍乡市城市生活垃圾分类2020年工作要点》中具体提出了今年的生活垃圾分类工作考核办法，同时人大生活垃圾分类立法也已列入议题。今年7月，我局组织县区城管局赴浙江金华学习生活垃圾分类工作，通过考察借鉴先进城市的经验，我市将加大垃圾分类执法力度，同时拟起草《萍乡市居民生活垃圾分类积分制奖励试行办法》，通过建立考核奖惩与激励约束长效机制促进我市垃圾分类工作的进一步开展。', '我市虽然在垃圾分类工作做了一定的宣传工作，但宣传力度远远不够，群众的知晓率和参与率明显不高，贵单位提出的“广泛开展宣传教育引导”正是我局今后开展垃圾分类的重点工作。垃圾分类工作是一个全民性的工作，我们将积极引导全社会总动员齐参与，营造全民参与垃圾分类的良好氛围，通过垃圾分类工作不断提高我市创建水平，不断提高我市的环境卫生质量，为干净萍乡、美丽萍乡作出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>120</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>萍乡武功山风景名胜区党委书记徐建中率队赴云南开展</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F9%2F1%2Fart_20_1257891.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E6%AD%A6%E5%8A%9F%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%90%8D%E8%83%9C%E5%8C%BA%E5%85%9A%E5%A7%94%E4%B9%A6%E8%AE%B0%E5%BE%90%E5%BB%BA%E4%B8%AD%E7%8E%87%E9%98%9F%E8%B5%B4%E4%BA%91%E5%8D%97%E5%BC%80%E5%B1%95%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0%E6%B4%BB%E5%8A%A8</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 县区动态 萍乡武功山风景名胜区党委书记徐建中率队赴云南开展考察学习活动', '8月28日至31日，区党委书记徐建中率队赴云南开展考察学习活动，对接2023首届户外露营度假产品交易博览会相关事宜，学习旅游度假区在管理与运营等方面的先进做法。萍乡武功山旅游集团有限公司董事长易勇平，万龙山乡、区乡村振兴发展有限公司、区招商办等单位负责人陪同考察。', '考察团先后考察了云南云健体育用品有限公司、普洱和益茶叶有限公司和云南景洪市象野房车露营管理有限公司等企业，详细了解公司发展运营、产品研发等情况，与企业负责人就户外业态引进、户外品牌合作、茶旅融合项目、房车营地项目等事宜进行深入交流，并邀请企业前来武功山参加2023首届户外露营度假产品交易博览会。', '此外，考察团还前往考察了玉溪市抚仙湖国家级旅游度假区和普洱茶马古城旅游小镇，学习抚仙湖在建设国家级旅游度假区的经验做法，与茶马古城小镇负责人进行深入交流，就茶旅融合发展等事宜探寻合作意向。', '走访景区负责同志与企业家们纷纷表示，武功山自然资源丰富，区位优越，品牌影响力巨大，下一步将与武功山进一步加强沟通交流，在项目合作上进一步商谈，充分发挥各自资源优势与技术优势，寻找合作机会，实现互利共赢。', '徐建中表示，2023年是全面贯彻落实党的二十大精神的开局之年，是实施“十四五”规划的关键之年，更是萍乡推进文旅兴市的重要之年。武功山资源禀赋得天独厚，产业发展势头强劲，正处于创建国家旅游度假区的发力期，武功山始终秉持在发展中保护，在保护中发展的绿色理念，以“云中草原 户外天堂”为品牌IP，齐心协力推动武功山全域旅游发展特色区建设，走出一条新时代武功山高质量发展之路，希望我们双方以本次考察为契机，继续加强沟通交流，寻找合作发展的机会，结合武功山生态发展资源优势，促成项目合作，武功山也将主动对接，积极协调，以最好的服务、最优质的环境为双方合作提供最佳保障。', '徐建中表示，2023年是全面贯彻落实党的二十大精神的开局之年，是实施“十四五”规划的关键之年，更是萍乡推进文旅兴市的重要之年。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>120</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>我县组织收听收看廉洁萍乡建设暨全市作风建设推进会</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2021-09-13</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F9%2F13%2Fart_5533_1162783.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%88%91%E5%8E%BF%E7%BB%84%E7%BB%87%E6%94%B6%E5%90%AC%E6%94%B6%E7%9C%8B%E5%BB%89%E6%B4%81%E8%90%8D%E4%B9%A1%E5%BB%BA%E8%AE%BE%E6%9A%A8%E5%85%A8%E5%B8%82%E4%BD%9C%E9%A3%8E%E5%BB%BA%E8%AE%BE%E6%8E%A8%E8%BF%9B%E4%BC%9A</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['9月9日，廉洁萍乡建设暨全市作风建设推进会召开。市委书记陈敏出席会议并讲话。他强调，全市各级各部门和广大党员干部要认真学习贯彻习近平总书记关于全面从严治党的重要论述，以党史学习教育为契机，纵深推进廉洁萍乡建设，扬正气、守廉洁、强作风、促发展，持续巩固萍乡风清气正的政治生态，为奋力推进“五区”建设、打造“最美转型城市”提供坚强保障。', '市委副书记、代市长刘烁主持会议。周敏、吴运波、刘建堂、聂晓葵、李明生、欧阳清新、牛子文、黄强、罗璇、杨博、廖鸿等市四套班子领导，市法检“两长”，萍乡学院党委书记、院长，萍乡经开区管委会主任在主会场出席会议。', '陈敏对廉洁萍乡建设和全市作风建设取得的成绩给予肯定，并指出，全面从严治党永远在路上。市委十二届十一次全会提出了奋力推进“五区”建设、打造“最美转型城市”的发展思路，要确保既定的发展思路落地落实、绘就的蓝图逐渐变成现实，就必须要有一大批优质项目作硬支撑，要有良好的政治生态和干部作风作硬保障。', '陈敏围绕扬正气、守廉洁、强作风、促发展，对纵深推进廉洁萍乡建设和全市作风建设提出要求：', '各级领导干部要弘扬优良传统，坚定理想信念，涵养浩然正气。要坚定不移加强政治建设，坚决扛起全面从严治党主体责任，严肃党内政治生活，大力弘扬安源精神，赓续红色基因，筑牢“两个维护”的思想根基。要坚持不懈涵养浩然正气，时时处处规范自己的言行，净化自己的圈子，提升个人修养、品德涵养和知识素养，力戒官僚主义，端正为民服务态度，切实为群众办好事、办实事。要不遗余力建设“五型”政府，着力构建“亲清”政商关系，持续深化“放管服”改革，在为群众和企业服务上用真情、出实招，坚定不移打造“办事不用求人、办事便捷高效、办事暖心爽心”的优良政风，让企业和群众有更多获得感。', '各级各部门要全面落实廉洁萍乡建设2021年重点任务，纵深推进廉洁萍乡建设，推动政治生态持续好转。要严抓他律，坚持无禁区、全覆盖、零容忍，坚持重遏制、强高压、长震慑，聚焦关键人、关键事、关键领域，坚决查处腐败问题，强有力整治党员干部和公职人员违纪违法行为。要严抓自律，坚持警钟长鸣、自警自省，树牢正确的权力观，做到为民用权、秉公用权、依法用权、干净用权，带头严格遵守中央八项规定精神和廉洁自律各项规定，牢记纪律红线不可逾越、法律底线不可触碰，做到敬畏法律、敬畏组织、敬畏人民。要严抓系统监督，坚持用制度管权管人管事，推动人大监督、民主监督、行政监督、司法监督、审计监督、舆论监督形成组合监督，构建全方位全过程全时空的有效监督体系。', '在提振精神状态上下功夫，牢固树立“干多干少不一样，干好干坏更不一样”的鲜明导向，进一步健全干部考核评价机制，真正做到奖勤罚懒，奖优罚劣，不断激发党员干部干事创业的热情，不断增强发展的责任感和使命感。在锤炼担当实干上下功夫，不能贪图安逸，而要勇于面对问题和挑战，抓住主要矛盾和矛盾的主要方面，以上率下、身先士卒，展现领导干部应有的责任和担当。在提高服务效率上下功夫，坚决整治“怕、慢、假、庸、散”作风顽疾，严肃果断整治服务群众中的不作为、慢作为、假作为、乱作为等现象，教育引导党员干部变“避责思维”为“负责思维”。', '各级各部门要通过推动廉洁萍乡建设、改进干部工作作风，把党员干部的内生动力激发出来、活力释放出来。要解放思想释放活力，跳出萍乡看萍乡，采取小分队、调研专班、专题学习考察等方式，走出去，把发达地区的先进经验大胆学过来、用起来。要改革攻坚激发动力，针对各类“不相适应”问题，舍得打破坛坛罐罐，敢于拆除篱笆围栏，为经济社会发展注入强劲动力。要团结奋进凝聚合力，在汇民意、集众智、增共识、聚合力上花心思、下功夫，切实带领班子谋发展、带领群众共创业。', '陈敏要求，各级各部门要正确处理好攻坚战与持久战的关系，既要有打攻坚战的爆发力、冲击力，也要有打持久战的耐力和韧劲。要正确处理好工作与生活的关系，科学安排好工作和生活，注意劳逸结合，在家庭和美、生活幸福中推进各项工作。要正确处理好集体与个人的关系，珍惜一起共事的缘分，多看人长、多想人好，以心交心、以心换心，互助互爱、团结友好，心齐气顺劲足推进各项事业发展。', '刘烁在主持会议时要求，各级各部门要从严从实担当管党治党的政治责任，把廉洁萍乡建设和作风建设作为一项重要政治任务敢抓敢管、善抓善管，从自身做起把担子和责任担起来，坚定不移扬正气、守廉洁、强作风、促发展，做到守土有责、守土尽责，以本地区本行业的风清气正拱卫全市海晏河清；要高质高效打造新时代廉洁萍乡，围绕政治清明、政府清廉、干部清正、社会清朗的“四清”目标，全面深化各领域各环节党的廉政建设，立起铁规，架起高压线，对逾规越纪、踩线过界的人和事，保持零容忍，及时查处问责曝光，一体推进不敢腐、不能腐、不想腐，不断增强拒腐防变的自觉性和坚定性；要抓常抓长干部作风建设，自觉将作风建设作为抓班子、带队伍、促发展、守底线的重要内容，充分调动广大干部的主观能动性，提升班子和队伍的战斗力，推动工作大踏步前进，为打造“最美转型城市”贡献强大力量。', '市委常委、市纪委书记、市监委主任刘建堂对《廉洁萍乡建设2021年工作要点》《萍乡市作风建设若干负面清单》进行了解读。会议以视频会议的形式开到各县区，与会人员观看了警示专题片《廉洁萍乡建设永远在路上》《作风建设永远在路上》。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>120</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>市委常委会扩大会议召开传达</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F10%2F17%2Fart_5531_1268681.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%A7%94%E5%B8%B8%E5%A7%94%E4%BC%9A%EF%BC%88%E6%89%A9%E5%A4%A7%EF%BC%89%E4%BC%9A%E8%AE%AE%E5%8F%AC%E5%BC%80%20%E4%BC%A0%E8%BE%BE%E5%AD%A6%E4%B9%A0%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E5%9C%A8%E6%B1%9F%E8%A5%BF%E8%80%83%E5%AF%9F%E6%97%B6%E7%9A%84%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E7%B2%BE%E7%A5%9E</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡要闻 市委常委会（扩大）会议召开 传达学习习近平总书记在江西考察时的重要讲话精神', '10月16日，市委常委会（扩大）会议召开，传达学习习近平总书记在江西考察和听取省委省政府工作汇报、主持召开进一步推动长江经济带高质量发展座谈会时的重要讲话重要指示精神，以及习近平总书记近期重要讲话、回信、贺信精神，并研究我市贯彻落实意见。市委书记刘烁主持并讲话。他强调，要准确把握和坚决贯彻习近平总书记在江西考察时的重要讲话精神，站在坚定拥护“两个确立”、坚决做到“两个维护”的政治高度，用心用情感悟总书记的关心关怀，准确把握总书记考察江西重要讲话精神中蕴含的深远考量，加快将其转化为推动萍乡高质量发展的生动实践。', '会议指出，在深入贯彻落实党的二十大精神、全面建设社会主义现代化国家的开局之年，在深入开展主题教育的关键时刻，习近平总书记再次亲临江西考察调研，听取省委和省政府工作汇报并发表重要讲话，主持召开进一步推动长江经济带高质量发展座谈会，充分彰显了总书记对江西革命老区的赤子情怀和深情厚爱，彰显了党中央推动革命老区发展，让老区人民共享改革发展成果、过上幸福生活的坚定信心和坚强决心。', '会议指出，习近平总书记在考察期间发表的重要讲话，高屋建瓴、思想深邃，内涵丰富、饱含深情，具有很强的政治性、战略性、针对性和指导性，是习近平新时代中国特色社会主义思想“江西篇”的丰富发展，为我们指明了前进方向、提供了根本遵循。要准确把握总书记对江西工作的勉励肯定，把总书记的勉励肯定转化为牢记嘱托、感恩奋进的强大动力，坚定信心、再接再厉，锚定目标、乘势而上，不断开创各项事业发展新局面。要准确把握总书记对江西发展的殷切期望，切实把思想和行动统一到总书记殷切嘱托上来，聚焦“走在前、勇争先、善作为”的目标，真抓实干、攻坚克难，为推动总书记为江西擘画的宏伟蓝图变为美好现实贡献萍乡力量。要准确把握总书记对江西发展明确的重点任务，认真对照省里学习宣传贯彻的部署安排，结合萍乡实际，一条一条认真梳理、一项一项深入研究，拿出具体细致的“任务书”“施工图”，以钉钉子精神抓好落实、见到实效。在产业发展方面，努力构建体现萍乡特色和优势的现代化产业体系，全力打造产业转型升级标杆城市；在深化开放方面，持续释放全境纳入湘赣边区域合作示范区建设范围的战略红利，着力打造赣西、长株潭城市群叠加链接区和湘赣边区域合作枢纽区；在乡村振兴方面，加快建设宜居宜业和美乡村；在推进共同富裕方面，强化就业优先政策，加强基础性、普惠性、兜底性民生建设，努力在高质量发展中促进全市人民共同富裕。要准确把握总书记对坚持和加强党的全面领导的重要要求，牢记总书记的谆谆教导，坚持以政治建设为统领全面加强党的建设，高质量高标准开展主题教育，大力传承红色基因，切实把党的全面领导落细落实，推动政治生态不断修复净化、向上向好，为奋力谱写中国式现代化萍乡篇章提供坚强保证。', '会议要求，要准确把握和坚决贯彻习近平总书记在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，进一步增强“共抓大保护、不搞大开发”的责任感使命感，坚定不移走好生态优先、绿色发展之路。要抓好生态环境保护修复，切实守护好萍乡的绿水青山；要加快推进绿色低碳转型，着力培育绿色增长新动能；要全面提升开放合作水平，纵深推进赣西、长株潭城市群叠加链接区和湘赣边区域合作枢纽区建设，积极融入国内统一大市场；要切实统筹好发展和安全，以高水平安全护航高质量发展。', '会议强调，学习宣传贯彻习近平总书记考察江西重要讲话精神，是当前和今后一个时期全市上下的首要政治任务和头等大事。各级各部门要切实提高政治站位，准确把握和坚决贯彻省委、市委学习宣传贯彻总书记考察江西重要讲话精神的部署安排，把学习宣传贯彻总书记考察江西重要讲话精神，与学习贯彻党的十八大以来总书记对江西工作的一系列重要讲话重要指示精神结合起来，与贯彻党的二十大精神和党中央决策部署结合起来，与开展主题教育结合起来，在全市迅速掀起学习宣传贯彻的热潮。要认真学习，确保做到学深悟透；要广泛宣传，确保做到深入人心；要抓好贯彻，确保做到落地落实。', '会议要求，全市各级各部门要认真学习贯彻习近平总书记给中国人民公安大学在读英烈子女的重要回信精神，政治上关心、工作上支持、生活上关爱、待遇上保障，全面落实好各项从优待警措施。', '会议要求，全市各级各部门特别是交通部门要认真学习贯彻习近平总书记致全球可持续交通高峰论坛的重要贺信精神，坚持推进交通强市发展战略，加快综合交通运输体系建设，推进交通基础设施现代化，提升运输服务品质，努力建设人民满意的交通。', '会议要求，全市各级各部门特别是各高校要认真学习贯彻习近平总书记给东北大学全体师生的重要回信精神，精心打造核心课程、特色学科，加大高层次人才引进力度，千方百计提高毕业生留萍率。要重点打造产业链科技创新联合体、市域产教联合体，推动高校科研势能更好更快转化为产业发展动能。', '会议要求，全市各级各部门特别是萍乡海关要认真学习贯彻习近平总书记给红其拉甫海关全体关员的重要回信精神，充分发挥海关职能优势，提高监管效能和服务水平；要持续深化关地合作、共促对外开放，切实推动全市开放型经济迈上更高水平。', '会议要求，全市各级各部门要认真学习贯彻习近平总书记致第六届海峡两岸青年发展论坛的重要贺信精神，持续推动萍台青年交流融合，进一步促进萍台经济文化交流合作，引导更多台湾青年来萍交流、学习、创业创造，增进萍台青年感情，助力萍台青年为推动两岸关系和平发展、推进祖国统一大业不断贡献青春力量。', '会议要求，全市各级各部门要认真学习贯彻习近平总书记致中欧班列国际合作论坛的重要贺信精神，着力推进赣西港提能增效，坚持“引进来”“走出去”，充分发挥中欧、中亚等国际班列对经济社会发展的带动作用，争取让更多萍乡本地的进出口货物搭上国际班列。', '会议传达学习了省委常委会（扩大）会议和全省领导干部会议精神，审议通过了《中共萍乡市委学习宣传贯彻习近平总书记考察江西重要讲话精神总体安排》。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>120</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>萍乡市妇联年度决算表</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2018-09-12</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F9%2F12%2Fart_54_116253.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%A6%87%E8%81%942017%E5%B9%B4%E5%BA%A6%E5%86%B3%E7%AE%97%E8%A1%A8</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['2．教育、引导广大妇女，增强自尊、自信、自立、自强的精神，全面提高素质，促进妇女人才成长。', '4．为妇女儿童服务。加强与社会各界的联系，协调和推动社会各界为妇女儿童办实事、办好事。', '年末结转和结余264.77万元，较上年下降51.50%，主要原因是：儿童活动中心修缮经费支出增加、妇女事业发展经费支出增加。', '一般公共服务支出年初预算数为393.27万元，决算数为533.57万元，完成年初预算的135.68%，主要原因是财政调整了市儿童活动中心建设项目预算；社会保障和就业支出年初预算数为29.57万元，决算数为30.93万元，完成年初预算的104.60%；医疗卫生与计划生育支出年初预算数为13.42万元，决算数为13.42万元，完成年初预算的100%;城乡社区支出年初预算数为0万元，决算数为20万元，主要原因是财政增加了创建工作经费预算；住房保障支出年初预算数为16.12万元，决算数为16.12万元，完成年初预算的100%；其他支出年初预算数为0万元，决算数为36.49万元，主要原因是财政增加了市儿童活动中心项目运行经费预算。', '（一）因公出国（境）支出年初预算数为4.67万元，决算数为4.67万元，完成预算的100%，决算数较上年增长。主要原因是：本年按上级要求派员出国学习考察发生出国境费，上年未发生出国境费。', '本部门2017年度政府采购支出总额0万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出0万元。', '（对部门决算中涉及的收入科目、支出功能分类科目（明细到项级），结合部门实际，参照《2017年政府收支分类科目》的规范说明进行解释。）', '（对部门决算中涉及的收入科目、支出功能分类科目（明细到项级），结合部门实际，参照《', '（四）“三公经费”：反映财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过桥过路费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（五）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>120</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>萍乡市国资委年度法治政府建设工作报告</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F2%2F28%2Fart_49_1306882.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%9B%BD%E8%B5%84%E5%A7%942023%E5%B9%B4%E5%BA%A6%E6%B3%95%E6%B2%BB%E6%94%BF%E5%BA%9C%E5%BB%BA%E8%AE%BE%E5%B7%A5%E4%BD%9C%E6%8A%A5%E5%91%8A</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['2023年以来，在市委、市政府的领导下，市国资委坚持以习近平新时代中国特色社会主义思想为指导，以习近平法治思想为遵循，全面贯彻党的二十大精神和习近平总书记江西考察重要讲话精神，提高依法履职、依法监管、依法治企的能力和水平，以法治保障促进国有经济发展。现将法治政府建设情况报告如下：', '2023年委党委中心组集体学法6次，重点围绕习近平法治思想、党的二十大精神、习近平考察江西重要讲话精神开展法治学习，深刻领会习近平法治思想的精神实质和丰富内涵，不断增强抓好法治建设的政治自觉、思想自觉、行动自觉。认真传达学习中央、省、市全面依法治国工作会议、党内法规工作会议精神，结合国资国企工作实际研究贯彻落实措施', '，层层压实工作责任。深入开展法治宣传教育，组织国资系统干部职工收听收看省国资委法治讲堂，重点宣传宪法、民法典、公司法、反垄断法，使尊法学法守法用法在国资国企蔚然成风。', '强化政策制度支持，保障决策程序合法合规，在查漏补缺的基础上，针对投资、财务、产权和人事管理等重点领域关键环节，', '2023年制定出台规范性文件11份，进一步完善具有出资人特色的全链条、全过程、全方位监管体系。', '做好全市其他国有企业债务风险监测，拟定《萍乡市其他国有企业债务风险防控工作方案》《萍乡市市本级其他国有企业债务风险防控方案》，向省报送全市国有企业债务数据', '3期。防范企业经营风险，严格落实《萍乡市国资委出资监管企业融资及借款和担保管理暂行办法》，印发《关于建立市属国有企业债务风险管控情况定期报送制度的通知》，加强企业融资、借款、担保等经营风险防控；制定《关于建立市属国有企业投资项目定期报送制度的通知》《萍乡市国资出资监管企业投资项目后评价管理办法》，规范企业投资事前、事中、事后监管，建立国有企业投资效益评价体系。', '2023年底，市属国企资产总额达1191.74亿元，同比增长24.10%，为我市经济平稳运行和社会和谐稳定提供重要支撑。依法推动国有经济布局优化和结构调整。为系统整合我市文旅、建筑产业国有资本、资产、资源要素，组建萍乡市文化旅游投资发展集团有限公司、萍乡市建设工程集团有限公司，实施方案经专业法律顾问', '市委、市政府审议通过，确保相关工作稳妥有序推进。依法加快市属国企市场化转型，指导推动监管企业对接中国铁建大桥局、江西省地质建设投资集团等央企、省企，借鉴对方先进管理经验和市场化思维，深化在建筑施工、农业产业、矿产开发等领域的合作，通过', '“靠大连强、借船出海”，推动我市国有企业走向全国市场和国际市场。赴象屿集团、高翎资本、中粮基金等头部供应链公司和基金公司学习考察，积极谋划监管企业在数字经济、供应链贸易、产业投资方面的转型发展。', '市国资委紧紧围绕市委市政府提出的依法治企、依法行政的目标任务，以市委依法治市办印发的年度工作要点为抓手，积极推动法治建设。做好', '普法考核验收，按照市普法办要求，认真对照考核细则，细化目标任务，整理形成市国资委普法工作台账，于', '2023年11月底顺利完成实地评估考核。开展规范性文件清理工作，对市国资委近年来印发文件进行全面梳理，废止规范性文件2份，进一步强化市国资委规范化管理水平。建立健全外聘法律顾问制度，与律师事务所合作，外聘法律顾问全程参与委机关规范性文件审查、涉法涉诉及信访事务。对市属国有企业法律顾问队伍建设进行全面摸底调查，要求市属国有企业配备法律顾问，部分有条件的企业应当设置专职法务机构，持续提升法治工作引领支撑能力、风险管控能力、主动维权能力和数字化管理能力，为企业高质量发展筑牢坚实法治基础。', '1.国资系统干部职工法治思维和法治意识需要进一步加强。部分干部对法治工作的认识还不够深入，自觉运用法治思维和法治方式深化改革、推动发展、化解矛盾、依法协调和处理各种问题的意识有待进一步加强。', '2.人才队伍建设仍然存在薄弱环节。在推进法律机构和法务队伍建设的工作中，由于各市属国企资产规模、业务类型不同仍存在个别市属国企法务队伍较为薄弱、企业法治建设工作成效不明显等问题。专业化队伍建制和职能作用有待进一步加强。', '高度重视法治建设，严格执行《党政主要负责人履行推进法治建设第一责任人职责规定》，将法治建设工作纳入全委工作统筹谋划，对法治建设重要工作亲自部署、重大问题亲自过问、重点环节亲自协调、重要任务亲自督办，一级抓一级、逐级抓落实，推动法治建设各项责任落实落地。', '习近平法治思想是开展法治工作的根本遵循和行动指南。全市国资国企将通过集中学习、理论宣讲、学习考试等多种途径，吃透基本精神、把握核心要义、明确工作要求，把法治思维贯穿工作始终，切实增强思想的敏锐性、工作的前瞻性和落实的穿透性，全力以赴防风险、守底线、遏重大、优治理，力争为深化法治萍乡建设作出贡献。', '进一步推动聘用律师履职尽责，更好发挥审核把关、风险处置、合规管理等方面的作用。将依法治企机制向市属企业延伸，继续推进二、三级企业风险防控联动工作体系和人才队伍建设。加强日常经营合规管理，推动法律合规理念深入到各级管理人员的头脑中，使合规管理成为日常管理的常态化行为。', '5次，充分发挥领头示范作用。以“民法典宣传月”“宪法宣传周”等重要时段为契机，组织形式多样的普法宣传活动，引导监管企业利用数字化手段对普法宣传形式重塑，实现对全体员工全方位精准普法。提炼总结共性法律问题，加强各级企业联合普法，实现优质资源联动共享，进一步提升国资国企法治建设实效。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>120</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>中国共产党萍乡市直属机关工作委员会年部门预算</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2019-04-02</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F4%2F2%2Fart_54_1035345.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A%E8%90%8D%E4%B9%A1%E5%B8%82%E7%9B%B4%E5%B1%9E%E6%9C%BA%E5%85%B3%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A2019%E5%B9%B4%E9%83%A8%E9%97%A8%E9%A2%84%E7%AE%97</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 市级部门财政预决算 中国共产党萍乡市直属机关工作委员会2019年部门预算', '2．指导市直机关各级党组织抓好党的思想、组织、作风建设和党员教育管理以及干部的理论培训。', '3．指导市直机关各级党员组织实施对党员特别是党员领导干部的监督，及时向市委反映各部门领导班子和领导干部的情况。', '4．负责综合指导市直机关精神文明建设工作，承担市直机关思想、道德、文化建设工作。指导市直有关部门党组织加强国有企业党建工作。', '7．领导市直各部门机关党的纪律检查工作，审理、批准科级党员干部及党组织违反党纪的处理决定。', '机关运行费指部门的公用经费，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '2019年部门所属各单位政府采购总额0万元，其中：政府采购货物预算0万元、工程预算0万元，政府采购服务预算0万元。', '2019年实行绩效目标管理的项目0个（部门预算中200万元以上的，且进行了绩效评审的项目），涉及资金0万元。', '公务接待费1.8万元，比上年增1.05万元，主要原因是：检查评比、学习考察等活动的增加。', '（三）事业单位经营收入：指事业单位在专业业务活动及辅助活动之外开展非独立核算经营活动取得的收入。', '（四）上年结转和结余：填列2018年全部结转和结余的资金数，包括当年结转结余资金和历年滚存结转结余资金。', '（二）一般行政管理事务：反映行政单位（包括参公单位）未单独设置项级科目的其他项目支出。', '（三）机关服务：反映为行政单位（包括参公单位）提供后勤服务的各类后勤服务中心的支出。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>120</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>萍乡市政协办公室年度部门决算</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2021-05-18</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F5%2F18%2Fart_54_1032671.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E6%94%BF%E5%8D%8F%E5%8A%9E%E5%85%AC%E5%AE%A42018%E5%B9%B4%E5%BA%A6%E9%83%A8%E9%97%A8%E5%86%B3%E7%AE%97</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['萍乡市政协委员会的主要职能是政治协商、民主监督、参政议政。这三项主要职能是各党派团体、各族各界人士在中国政治体制中参与国是、发挥作用的重要内容和基本形式，体现了人民政协的性质和特点，是人民政协区别于其他政治组织的重要标志。', '政治协商 是对国家和地方的大政方针以及政治、经济、文化和社会生活中的重要问题在决策之前进行协商和就决策执行过程中的重要问题进行协商。', '民主监督 是对国家宪法、法律和法规的实施，重大方针政策的贯彻执行、国家机关及其工作人员的工作，通过建议和批评进行监督。', '参政议政 是对政治、经济、文化和社会生活中的重要问题以及人民群众普遍关心的问题，开展调查研究，反映社情民意，进行协商讨论。通过调研报告、提案、建议案或其他形式，向中国共产党和国家机关提出意见和建议。', '（二）文体体育与传媒支出年初预算数为0万元，决算数为150万元，完成年初预算的0%；主要原因是：增加了汉冶萍会议经费。', '（六）其他支出年初预算数为0万元，决算数为20.5万元，主要原因是增加了公办经费。', '人员工资提高使工资、奖金、五险一金等人员经费均相应增加，机关在2018年补交了以前年度的社保及职业年金。', '（一）因公出国（境）支出年初预算数为30万元，决算数为12.95万元，决算数较2017年增加12.95万元。决算数较年初预算数减少的主要原因是：今年安排了人员出国学习考察。', '本部门2018年度政府采购支出总额18.74万元，主要用于更换一体机、复印机、电脑、打印机等办公设备。', '本部门共有车辆3辆，其中，副部（省）级及以上领导用车0辆、主要领导干部用车0辆、机要通信用车3辆、应急保障用车0辆、执法执勤用车0辆、特种专业技术用车0辆、其他用车0辆，单位价值50万元以上通用设备0台（套）；单位价值100万元以上专用设备0台（套）。', '根据预算绩效管理要求，我部门组织对2018年度一般公共预算项目支出全面开展绩效自评，其中，一级项目0个，二级项目0个，共涉及资金0万元，占一般公共预算项目支出总额的0%。组织对2018年度0个政府性基金预算项目支出开展绩效自评，共涉及资金0万元，占政府性基金预算项目支出总额的0%。', '共组织对0个项目进行了重点绩效评价，涉及一般公共预算支出0万元，政府性基金预算支出0万元。', '年度部门支出整体绩效指标基本完成，如部门预算编制，部门预算管理，部门预算执行中的部门预算完成率、公用经费控制率等指标100%达标，部门履职效果优良。', '名词解释应以财务会计制度、政府收支分类科目以及部门预算管理等规定为基本说明，可在此基础上结合部门实际情况适当细化。“三公”经费支出和机关运行经费支出口径必需予以说明。', '（四）“三公经费”：反映财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过桥过路费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（五）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>120</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>萍乡市妇女联合会年部门决算</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2021-05-13</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F5%2F13%2Fart_54_1030726.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%A6%87%E5%A5%B3%E8%81%94%E5%90%88%E4%BC%9A2018%E5%B9%B4%E9%83%A8%E9%97%A8%E5%86%B3%E7%AE%97</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['2．教育、引导广大妇女，增强自尊、自信、自立、自强的精神，全面提高素质，促进妇女人才成长。', '4．为妇女儿童服务。加强与社会各界的联系，协调和推动社会各界为妇女儿童办实事、办好事。', '城乡社区支出年初预算数为0万元，决算数为20万元，主要原因是财政增加了创建工作经费预算；', '其他支出年初预算数为0万元，决算数为34.22万元，主要原因是财政增加了市儿童活动中心项目运行经费预算。', '人员工资提高使工资、奖金、五险一金等人员经费均相应增加，机关及下属单位在2018年补交了以前年度的社保及职业年金。', '（一）因公出国（境）支出年初预算数为5万元，决算数为 0万元，决算数较2017年减少4.67万元。决算数较年初预算数减少的主要原因是：今年没有安排人员出国学习考察。', '本部门2018年度政府采购支出总额0万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出0万元。授予中小企业合同金额0万元，占政府采购支出总额的0%。', '2018年，根据《中共萍乡市委、萍乡市人民政府关于全面实施预算绩效管理的实施意见》（萍发〔2019〕9号）及年度工作安排，我会开展了部门整体支出及妇女儿童事业发展专项2018年度支出绩效自评，对照绩效评价指标及评分标准及本会2018年上述各项指标完成情况,我会2018年部门整体绩效评价为98分；项目绩效评价结果为89分，评价等级为“良”。', '名词解释应以财务会计制度、政府收支分类科目以及部门预算管理等规定为基本说明，可在此基础上结合部门实际情况适当细化。“三公”经费支出和机关运行经费支出口径必需予以说明。', '（四）“三公经费”：反映财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过桥过路费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（五）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>120</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>萍乡市政府办年部门预算</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2019-03-26</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F3%2F26%2Fart_54_116215.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E6%94%BF%E5%BA%9C%E5%8A%9E2019%E5%B9%B4%E9%83%A8%E9%97%A8%E9%A2%84%E7%AE%97</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['．办理党中央、国务院及其各部门、省委、省政府及其各部门和市委公文呈（传）阅，提出贯彻意见，报市政府领导决定。', '．研究市政府各部门、各县（区）政府请示市政府的问题，提出审核意见，报市政府领导决定。', '．根据市政府领导指示，对市政府各部门之间相互协商后仍有争议的问题提出处理意见，报市政府领导决定。', '．督促检查市政府各部门和各县（区）政府对国务院、省政府和市政府公文、会议决定事项以及领导有关指示的执行落实情况并跟踪调研，及时向市政府领导报告。', '．负责与市人大常委会办公室、市政协办公室联系，组织、监督有关部门和单位及时办理全国人大代表、省人大代表、市人大代表建议和全国政协委员、省政协委员、市政协委员提案，协助办理市政府领导交办的有关信访事项。', '．负责市政府值班工作和全市政府系统信息工作，及时向市政府领导报告重要情况，协助处理有关方面向市政府反映的重要问题。', '．负责市政府办公室归口下属单位的管理工作；负责市政府各部门办公室的业务指导；负责市政府办公室系统党的建设、精神文明建设和干部职工思想政治工作。', '个独立核算参照公务员管理事业单位：市政府驻北京联络处、市政府驻上海联络处、市政府驻南昌办事处、市政府驻广州办事处；下属', '机关运行费指部门的公用经费，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '年实行绩效目标管理的项目0个（部门预算中200万元以上的，且进行了绩效评审的项目），涉及资金0万元。', '因公出国（境）费12万元，比上年增加2万元，主要原因是：2019年预计申报出国学习、考察计划，所以列了此预算。', '公务接待费50.95万元，比上年减少9.7万元，主要原因是： 计划进一步减少公务接待，节约经费。', '公务用车购置费及运行费33.19万元，比上年减少17.8万元，主要原因是车改后政府办机关和四个办事处共保留了8辆公务用车，其中：公务用车购置费0万元，比上年增（减）0万元，主要原因是没有购车计划，公务用车运行费33.19万元，比上年减少17.8万元，主要原因是计划进一步节约公务用车开支。', '（三）事业单位经营收入：指事业单位在专业业务活动及辅助活动之外开展非独立核算经营活动取得的收入。', '（四）上年结转和结余：填列2018年全部结转和结余的资金数，包括当年结转结余资金和历年滚存结转结余资金。', '（二）一般行政管理事务：反映行政单位（包括参公单位）未单独设置项级科目的其他项目支出。', '（三）机关服务：反映为行政单位（包括参公单位）提供后勤服务的各类后勤服务中心的支出。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>120</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>萍乡市年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2024-01-30</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2024%2F1%2F30%2Fart_6249_1301570.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%822023%E5%B9%B4%E6%94%BF%E5%BA%9C%E4%BF%A1%E6%81%AF%E5%85%AC%E5%BC%80%E5%B7%A5%E4%BD%9C%E5%B9%B4%E5%BA%A6%E6%8A%A5%E5%91%8A</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['本报告根据《中华人民共和国政府信息公开条例》要求，由萍乡市人民政府办公室结合有关统计数据编制。', '全文包括总体情况、主动公开政府信息情况、收到和处理政府信息公开申请情况、政府信息公开工作被申请行政复议和提起行政诉讼情况、存在的主要问题及改进情况、其他需要报告的事项，所列数据统计期限从2023年1月1日到12月31日止。', '2023年，萍乡市坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的二十大精神，深入贯彻落实习近平总书记考察江西重要讲话精神，围绕年度重点工作，优化便民利民服务，加快平台载体建设，持续拓展公开领域，不断创新政务公开方式、深化政务公开内涵、提升政务公开水平。', '79件，已全部按照要求移送市档案馆。二是丰富政策解读形式。围绕政策要点和公众关注热点提供实质性解读，力求内容准确透彻，方便公众理解。针对企业群众关心关注的政策进行视频解读，', '4条，举办新闻发布会55场，举办在线访谈3次。三是提升政民互动实效。邀请市民代表参加市政府全体会议，零距离参与政府决策。开展“政府开放日”活动，结合市级部门工作实际，通过共进机关大院、赴现场调研、举办见面会等形式，倾听民声，汇聚民智，取得较好互动效果。', '持续加强政府信息公开申请答复的规范性、标准化建设，依法依规办理各类政府信息公开申请，', '35个市直部门、6个县区（包括开发区）级政府网站及全市政务新媒体提供统一平台支撑，累计汇聚了6万多条政务公开数据。', '将政务公开工作纳入综合考核体系，加强评优评先工作力度，定期对工作业绩突出、创新举措务实的先进单位和个人予以通报表扬，充分', '政策文件出台的背景依据、目的意义、主要内容、落实措施、注意事项、关键词诠释、新旧政策差异等', '通过邀请专家授课、组织学习考察以及培训等方式，着力提升全市政务公开工作队伍的业务水平和专业素质。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>120</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>市审计局召开党组扩大会议传达</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F10%2F20%2Fart_19_1269665.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E5%AE%A1%E8%AE%A1%E5%B1%80%E5%8F%AC%E5%BC%80%E5%85%9A%E7%BB%84%EF%BC%88%E6%89%A9%E5%A4%A7%EF%BC%89%E4%BC%9A%E8%AE%AE%E4%BC%A0%E8%BE%BE%E5%AD%A6%E4%B9%A0%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E8%80%83%E5%AF%9F%E6%B1%9F%E8%A5%BF%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E7%B2%BE%E7%A5%9E</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 部门动态 市审计局召开党组（扩大）会议传达学习习近平总书记考察江西重要讲话精神', '10月19日，市审计局召开局党组（扩大）会，传达学习习近平总书记在江西考察和听取省委省政府工作汇报、主持召开进一步推动长江经济带高质量发展座谈会时的重要讲话精神，全省领导干部会议精神、全市领导干部会议精神，以及省审计厅关于学习贯彻习近平总书记在江西考察时的重要讲话精神有关要求。局党组成员、副局长陈博韬主持会议并讲话。', '会议指出,习近平总书记时隔四年再次考察江西，充分体现了习近平总书记对革命老区的关心厚爱，对长江经济带高质量发展的高度重视。习近平总书记的重要讲话高屋建瓴、思想深邃、鼓舞人心、催人奋进，具有很强的政治性、指导性和方向性，是江西实现中国式现代化建设新篇章的科学指引和行动指南。', '会议强调,要结合当前正在开展的主题教育，把学习好、宣传好、贯彻好习近平总书记考察江西的重要讲话精神，作为当前和今后一个时期的首要政治任务。要通过集中研讨、专题学习、“三会一课”、个人自学等形式，原原本本学、原汁原味学，深刻领会其蕴含的重大政治意义、理论意义和实践意义，做到将习近平总书记考察江西重要讲话精神内化于心，外化于行，以实际行动拥护“两个确立”、做到“两个维护”。', '会议要求,要增强实干定力，立足审计实际，把实的要求贯穿到学习贯彻习近平总书记考察江西重要讲话精神和主题教育全过程。要围绕绿色低碳发展，聚焦资源和生态环境保护强化审计监督；围绕打造产业转型升级标杆城市，聚焦重大政策措施落实落地强化审计监督；围绕财政收支真实合法效益性，聚焦财政资金提质增效强化审计监督；围绕统筹发展与安全，聚焦防范化解重大风险强化审计监督；围绕推进共同富裕，聚焦增进民生福祉强化审计监督；围绕政治生态修复净化，聚焦权力规范运行强化审计监督。大力弘扬井冈山精神、苏区精神、长征精神，传承红色审计基因，以走在前列、勇于争先、善于作为的奋斗姿态扎实推进审计各项工作，为推动萍乡打造产业转型升级标杆城市，奋力谱写中国式现代化萍乡篇章提供坚强审计保障。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>120</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>民盟萍乡市委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2019-09-24</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F9%2F24%2Fart_54_1034855.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B0%91%E7%9B%9F%E8%90%8D%E4%B9%A1%E5%B8%82%E5%A7%94%E5%91%98%E4%BC%9A2018%E5%B9%B4%E5%BA%A6%E9%83%A8%E9%97%A8%E5%86%B3%E7%AE%97</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['民盟萍乡市委员会确立了参政党的性质、地位、作用，实现了工作重点转移，积极履行参政党职能，巩固和发展新时期的爱国统一战线，为推进中国特色社会主义经济建设、政治建设、文化建设、社会建设和生态文明建设服务，为维护安定团结的政治局面服务，为实现祖国统一服务，为维护世界和平和促进共同发展服务。', '（一）因公出国（境）支出年初预算数为0万元，决算数为0万元，决算数较2017年减少0万元。决算数较年初预算数减少的主要原因是：今年没有安排人员出国学习考察。', '本部门2018年度政府采购支出总额0万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出0万元。授予中小企业合同金额0万元，占政府采购支出总额的0%。', '（4）各项收入和支出纳入预算统一管理，统筹安排使用。单位编制的支出预算，优先保证本部门履行基本职能所需要的人员经费和公用经费，对其他弹性支出严格控制。', '（5）建立、健全各项支出的管理制度。各项支出要按照批准的预算和规定的开支范围、标准执行。', '（8）使用财政性资金，采购政府集中采购目录以内的或者采购限额标准以上的货物及服务，实行政府采购;采购政府集中采购目录以内并达到公开招标限额标准的货物、工程或者服务，采取公开招标方式进行采购。', '2018年度部门支出整体绩效指标基本完成，如部门预算编制，部门预算管理，部门预算执行中的部门预算完成率、公用经费控制率等指标100%达标，部门履职效果优良。', '名词解释应以财务会计制度、政府收支分类科目以及部门预算管理等规定为基本说明，可在此基础上结合部门实际情况适当细化。“三公”经费支出和机关运行经费支出口径必需予以说明。', '名词解释应以财务会计制度、政府收支分类科目以及部门预算管理等规定为基本说明，可在此基础上结合部门实际情况适当细化。', '（四）“三公经费”：反映财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过桥过路费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（五）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>120</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>萍乡市委党校本级部门年部门决算</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2020-09-23</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2020%2F9%2F23%2Fart_54_1048112.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%A7%94%E5%85%9A%E6%A0%A1%28%E6%9C%AC%E7%BA%A7%EF%BC%89%E9%83%A8%E9%97%A82019%E5%B9%B4%E9%83%A8%E9%97%A8%E5%86%B3%E7%AE%97</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['．围绕国际国内出现的新情况新问题开展科学研究，承担党委和政府下达的调研任务，推进理论创新；', '．针对改革开放和社会主义现代化进程中的重大理论和现实问题，开展马克思主义中国化最新成果的理论宣传，开展党的路线、方针、政策的宣传；', '．按照国家有关法律法规和政策规定，开展学位研究生以及其他形式的干部继续教育和培训；', '市委党校属参公单位，定编42人，财政负担在职编内人员39人，离休人员1人，退休人员29人；下属1个全额拨款事业单位行政学院，定编10人，财政负担编内在职人员7人,退休人员1人。', '（一）因公出国（境）支出年初预算数为0万元，决算数为0万元，完成预算的0%，决算数较上年减少0%。主要原因是：2018年没有安排人员出国学习考察。', '（三）公务用车购置及运行维护费支出0万元，其中公务用车运行维护费支出年初预算数为0万元，决算数为0万元，完成预算的0%，决算数较上年下降0%。主要原因是：', '年实行绩效目标管理的项目0个（部门预算中200万元以上的，且进行了绩效评审的项目），涉及资金0万元。', '名词解释应以财务会计制度,政府收支分类科目名词解释应以财务会计制以及部门预算管理等规定为基本说明，可在此基础上结合部门实际情况适当细化。“三公”经费支出和机关运行经费支出口径必需予以说明。', '（四）一般行政管理事务：反映行政单位（包括参公单位）未单独设置项级科目的其他项目支出。', '（五）机关服务：反映为行政单位（包括参公单位）提供后勤服务的各类后勤服务中心的支出。', '（九）上年结转和结余：填列2016年全部结转和结余的资金数，包括当年结转结余资金和历年滚存结转结余资金。', '（十）“三公经费”：反映财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过桥过路费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十一）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>120</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>萍乡市妇联年度部门决算</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2019-09-23</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2019%2F9%2F23%2Fart_54_116106.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%A6%87%E8%81%942018%E5%B9%B4%E5%BA%A6%E9%83%A8%E9%97%A8%E5%86%B3%E7%AE%97</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['．教育、引导广大妇女，增强自尊、自信、自立、自强的精神，全面提高素质，促进妇女人才成长。', '．为妇女儿童服务。加强与社会各界的联系，协调和推动社会各界为妇女儿童办实事、办好事。', '（四）城乡社区支出年初预算数为0万元，决算数为20万元，主要原因是财政增加了创建工作经费预算；', '城乡社区支出年初预算数为0万元，决算数为20万元，主要原因是财政增加了创建工作经费预算；', '（六）其他支出年初预算数为0万元，决算数为34.22万元，主要原因是财政增加了市儿童活动中心项目运行经费预算。', '其他支出年初预算数为0万元，决算数为34.22万元，主要原因是财政增加了市儿童活动中心项目运行经费预算。', '人员工资提高使工资、奖金、五险一金等人员经费均相应增加，机关及下属单位在2018年补交了以前年度的社保及职业年金。', '（一）因公出国（境）支出年初预算数为5万元，决算数为 0万元，决算数较2017年减少4.67万元。决算数较年初预算数减少的主要原因是：今年没有安排人员出国学习考察。', '本部门2018年度政府采购支出总额0万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出0万元。授予中小企业合同金额0万元，占政府采购支出总额的0%。', '年，根据《中共萍乡市委、萍乡市人民政府关于全面实施预算绩效管理的实施意见》（萍发〔2019〕9号）及年度工作安排，我会开展了部门整体支出及妇女儿童事业发展专项2018年度支出绩效自评，对照绩效评价指标及评分标准及本会2018年上述各项指标完成情况,我会2018年部门整体绩效评价为98分；项目绩效评价结果为89分，评价等级为“良”。', '名词解释应以财务会计制度、政府收支分类科目以及部门预算管理等规定为基本说明，可在此基础上结合部门实际情况适当细化。“三公”经费支出和机关运行经费支出口径必需予以说明。', '（四）“三公经费”：反映财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过桥过路费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（五）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>120</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>民革萍乡市委会年度部门决算公开</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2021-07-28</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F7%2F28%2Fart_54_1048248.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B0%91%E9%9D%A9%E8%90%8D%E4%B9%A1%E5%B8%82%E5%A7%94%E4%BC%9A2019%E5%B9%B4%E5%BA%A6%E9%83%A8%E9%97%A8%E5%86%B3%E7%AE%97%E5%85%AC%E5%BC%80</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['本部门2019年年末实有人数6人，其中在职人员6人，离休人员0人，退休人员3人；年末其他人员0人；年末实有人数 9人。', '（一）因公出国（境）支出年初预算数为0万元，决算数为 0万元，完成年初预算的0 %，决算数较2018年增加0万元，增长0%。决算数较年初预算数持平的主要原因是：今年没有安排人员出国学习考察。', '（三）公务用车购置及运行维护费支出0万元，其中公务用车购置年初预算数为0万元，决算数为0万元，完成年初预算的 %，决算数较2018年增加0万元，增长0%。决算数较年初预算数持平的主要原因是：没有购置公务用车；公务用车运行维护费支出年初预算数为0万元，决算数为0万元，完成年初预算的0 %，决算数较2018年增加0万元，增长0%。决算数较年初预算数持平的主要原因是：已取消公务用车。', '本部门2019年度机关运行经费支出20.72万元（与部门决算中行政单位和参照公务员法管理事业单位一般公共预算财政拨款基本支出中公用经费之和保持一致），较年初预算数减少8.94万元，降低30.14%，主要原因是：公用经费支出减少。', '本部门2019年度政府采购支出总额0万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出0万元。授予中小企业合同金额0万元，占政府采购支出总额的0%，其中：授予小微企业合同金额0万元，占政府采购支出总额的0%。（省级部门公开的政府采购金额的计算口径为：本部门纳入2019年部门预算范围的各项政府采购支出金额之和，不包括涉密采购项目的支出金额。）', '截止2019年12月31日，本部门共有车辆0辆，其中，副部（省）级及以上领导用车0辆、主要领导干部用车0辆、机要通信用车0辆、应急保障用车0辆、执法执勤用车0辆、特种专业技术用车0辆、其他用车0辆；单位价值50万元以上通用设备0台（套）；单位价值100万元以上专用设备0台（套）。', '（四）“三公经费”：反映财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过桥过路费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（五）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>120</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>张天清率</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2017-03-08</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2017%2F3%2F8%2Fart_5531_1137578.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%BC%A0%E5%A4%A9%E6%B8%85%E7%8E%87%E8%80%83%E5%AF%9F%E7%BB%84%E8%80%83%E5%AF%9F%E6%A0%AA%E6%B4%B2%E6%96%87%E6%98%8E%E5%88%9B%E5%BB%BA%E5%B7%A5%E4%BD%9C</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡要闻 张天清率考察组考察株洲文明创建工作', '3月7日上午，省文明办主任张天清率江西省考察组赴株洲市考察文明创建工作，我市组团参加。市委常委、宣传部长聂晓葵以及赣州市人大常委会副主任欧阳世麟、吉安市政府副市长徐开萍、新余市政府副市长陈文华一同前往考察。株洲市委常委、宣传部长聂方红陪同。', '近年来，株洲市委、市政府在成功创建全国文明城市后，把建设更高水平文明城市作为转型升级的新引擎，坚持在文明城市建设中抓发展、促改革、惠民生，不断巩固文明城市创建成果。张天清一行先后考察了株洲市规划展览馆、天元区湘银社区、神农城、株洲湘江风光带，并与株洲市相关领导就文明创建工作进行了学习交流。', '我市一行对株洲市以注重为民惠民为根本，筑牢文明之基；以加强城市管理为抓手，提升宜居质量；以提高市民素质为支撑，树立文明风尚；以构建长效机制为保障，汇聚强大合力等先进做法予以高度赞同，认为株洲市在文明创建过程当中的先进经验、创新理念、有力机制，值得认真学习借鉴，并表示要以这次学习考察为契机，明确目标，努力完善机制，狠抓落实，大力推进我市文明创建工作。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>120</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>萍乡市委政策研究室年度决算公开</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2018-09-18</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F9%2F18%2Fart_28_1033093.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%A7%94%E6%94%BF%E7%AD%96%E7%A0%94%E7%A9%B6%E5%AE%A42018%E5%B9%B4%E5%BA%A6%E5%86%B3%E7%AE%97%E5%85%AC%E5%BC%80</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['1．根据市委指示，起草或组织力量共同起草、修改市委有关重要文件、文稿和领导讲话稿。', '2．根据党的路线、方针、政策，围绕市委的部署和意图，组织对有关经济、政治、文化和党建等方面的调查研究，提出意见和建议，供市委决策参考。', '3.围绕党的中心工作，调查研究带方向性、综合性、全局性的改革、开放、发展与稳定的战略和政策问题，为市委提供决策依据。', '6.承办市委机关刊物《工作与研究》的编辑、出版和发行，承接萍乡市与中国城市研究会、全国中等城市发展研究会的联系、联络工作。', '7.围绕市委的重大决策和重要工作部署，负责收集、整理国内外重要信息，供市委决策参考。', '0万元，决算数为0万元，决算数较2017年减少0万元。决算数较年初预算数减少的主要原因是：今年没有安排人员出国学习考察。', '2018年度政府采购支出总额0万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出0万元。授予中小企业合同金额0万元，占政府采购支出总额的0%。', '4）各项收入和支出纳入预算统一管理，统筹安排使用。单位编制的支出预算，优先保证本部门履行基本职能所需要的人员经费和公用经费，对其他弹性支出严格控制。', '5）建立、健全各项支出的管理制度。各项支出要按照批准的预算和规定的开支范围、标准执行。', '8）使用财政性资金，采购政府集中采购目录以内的或者采购限额标准以上的货物及服务，实行政府采购;采购政府集中采购目录以内并达到公开招标限额标准的货物、工程或者服务，采取公开招标方式进行采购。', '2018年度部门支出整体绩效指标基本完成，如部门预算编制，部门预算管理，部门预算执行中的部门预算完成率、公用经费控制率等指标100%达标，部门履职效果优良。', '名词解释应以财务会计制度、政府收支分类科目以及部门预算管理等规定为基本说明，可在此基础上结合部门实际情况适当细化。', '“三公经费”：反映财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过桥过路费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（五）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>120</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>民建萍乡市委会年度部门决算</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2021-05-17</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F5%2F17%2Fart_54_1031885.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B0%91%E5%BB%BA%E8%90%8D%E4%B9%A1%E5%B8%82%E5%A7%94%E4%BC%9A2018%E5%B9%B4%E5%BA%A6%E9%83%A8%E9%97%A8%E5%86%B3%E7%AE%97</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['1．参政议政：参与地方重大问题、重大决策的协商讨论；联系广大会员和经济界人士，深入实际，调查研究，反映社情民意，向中共党委和政府提出调查报告、提案、意见和建议。', '2．民主监督：参与民主法制建设，就国家宪法和法律法规的实施情况；中国共产党和政府重要方针政策的制定和贯彻执行情况；党委依法执政及党员领导干部履行职责、为政清廉等方面的情况；发展多党合作等重大问题，开展调查研究，提出意见和建议。', '3．社会服务：主要是立足本职，以做好岗位工作的实绩和从智力上服务于两个文明建设，扶助会员企业健康发展、诚信经营，协助政府搞好再就业和咨询培训工作；积极倡导会员开展各项扶贫济困、捐资助学等社会服活动，树立民建良好形象。', '4．维护社会和谐稳定：接受会员来信来访，为会员做好合法利益表达，积极配合政府做好综治、信访和计划生育工作的宣传教育等。', '5．自身建设：加强会员思想教育，发扬民建优良传统，坚定接受中国共产党领导的政治信念；做好组织建设，夯实会的基础，为实现会的建党目标提供保证；推进制度建设，完善工作机制，推动会的自身建设不断向前发展', '本部门2018年年末编制人数5人，其中行政编制4人，年末实有人数 5人，其中在职人员5人，退休人员2人。', '（一）因公出国（境）支出年初预算数为0万元，决算数为0万元，决算数较2017年减少0万元，主要原因是：今年没有安排人员出国学习考察。', '本部门2018年度政府采购支出总额0万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出0万元。授予中小企业合同金额0万元，占政府采购支出总额的0%。', '（4）各项收入和支出纳入预算统一管理，统筹安排使用。单位编制的支出预算，优先保证本部门履行基本职能所需要的人员经费和公用经费，对其他弹性支出严格控制。', '（5）建立、健全各项支出的管理制度。各项支出要按照批准的预算和规定的开支范围、标准执行。', '（8）使用财政性资金，采购政府集中采购目录以内的或者采购限额标准以上的货物及服务，实行政府采购;采购政府集中采购目录以内并达到公开招标限额标准的货物、工程或者服务，采取公开招标方式进行采购。', '2018年度部门支出整体绩效指标基本完成，如部门预算编制，部门预算管理，部门预算执行中的部门预算完成率、公用经费控制率等指标100%达标，部门履职效果优良。', '名词解释应以财务会计制度、政府收支分类科目以及部门预算管理等规定为基本说明，可在此基础上结合部门实际情况适当细化。“三公”经费支出和机关运行经费支出口径必需予以说明。', '（四）“三公经费”：反映财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过桥过路费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（五）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>120</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>关于市政协第十四届三次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F9%2F14%2Fart_42_1260698.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%B3%E4%BA%8E%E5%B8%82%E6%94%BF%E5%8D%8F%E7%AC%AC%E5%8D%81%E5%9B%9B%E5%B1%8A%E4%B8%89%E6%AC%A1%E4%BC%9A%E8%AE%AE%E7%AC%AC87%E5%8F%B7%E6%8F%90%E6%A1%88%E7%9A%84%E7%AD%94%E5%A4%8D</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['您提出的关于“加快红色文化创新区建设 助推湘赣边区域合作的提案”已收悉，现答复如下：', '萍乡是中国工人运动的摇篮、秋收起义策源地和主要爆发地，波澜壮阔的革命活动，为我市留下了丰富的革命遗存。您的提案中分析了我市红色文化传承的发展基础和存在的问题，并提出了宝贵的建议，这对我们下一步做好利用红色资源，传承红色文化，推进湘赣边区域合作工作有很大的启发和帮助。近年来，为做好红色基因传承，推进湘赣边旅游合作，我局做了大量的工作。', '一是积极实施革命文物保护利用工程。三年来，争取上级资金2049.33万元用于革命文物保护修缮工作。可移动革命文物方面，革命馆安源路矿工人运动纪念馆和莲花一枝枪纪念馆可移动文物预防性保护工程顺利完工并通过验收。不可移动革命文物方面，安源路矿工人俱乐部旧址讲演厅、安源路矿工人俱乐部旧址本体修缮等13个项目顺利完工；省保湖塘红五军临时医院旧址本体修缮等11个革命文物保护项目正在实施。二是认真做好革命文物资源调查工作。摸清家底，完成了红色标语调查和革命文物普查工作。全市现有革命纪念馆2家，分别是安源路矿工人运动纪念馆和莲花一枝枪纪念馆，两馆均获评“全国爱国主义教育基地”。建立了全市革命文物数据库，完善了不可移动革命文物“四有”工作，全市列入江西省革命文物的不可移动文物共计84处、可移动文物406件/套，涵盖了近代现代以及与四史有关重要史迹、实物、代表性建筑和反映革命历史和革命文化具有代表性的红色标语等。安源区被列为江西省第一批革命文物保护利用示范区创建单位。各县区分别列入湘赣革命文物保护利用片区和湘鄂赣革命文物保护利用片区，是全省为数不多的全部县区均列入的地市。三是做好红色文化保护利用工作。一方面，安源精神已经写入《江西省革命文物保护条例》，召开了“纪念安源路矿工人运动100周年学术研讨会”，策划了一批主题突出、导向鲜明、内涵丰富的革命文物陈列展览精品。安源路矿工人运动纪念馆争取国家专项资金1000万元对基本陈列进行提升，该陈列荣获了“全省博物馆（2020年度）陈列展览精品奖”“中宣部 国家文物局联合推介庆祝中国共产党成立100周年精品展览”“2021年第三季度全国热搜革命类博物馆50强”。完成了《刘少奇在安源》《唤起工农千百万——毛泽东和安源》等3个原创展览，引进《中共第一所党校》《中国劳动组合书记部》等10个临时展览，部分展览以巡回展览的形式在全市各社区街道、大中院校、企事业单位进行展览，取得较好的反响。 另一方面，加大与周边省市革命纪念馆交流与合作。2022年，我市和长沙、株洲、岳阳、彬州、九江、宜春、吉安、赣州等九地市签订了《湘赣九市文化旅游协同发展合作框架协议》，建立了湘赣边革命历史纪念馆场馆交流和合作机制。安源路矿工人运动纪念馆以“秋收起义”为主题，积极联系秋收起义铜鼓纪念馆、浏阳文家市秋收起义等革命场馆，推进革命文物资源信息开放共享。芦溪县博物馆借出革命文物3件，参加在浏阳市博物馆举办的《人间正道—湘赣边区红色文物联展》。四是积极发挥革命场馆教育引导职能。研学方面，安源路矿工人运动纪念馆、莲花一枝枪纪念馆和甘祖昌将军故居、卢德铭烈士陵园等众多革命文物博物馆单位被授予“萍乡市中小学研学旅行实践教育基地”称号。安源路矿工人运动纪念馆获评国家一级博物馆、全省博物馆融合发展示范单位，莲花一枝枪纪念馆获评国家三级馆。安源路矿工人运动纪念馆和萍乡博物馆积极开展“小小讲解员”“历史小课堂”等宣教活动，广泛开展学雷锋志愿服务，加强红色文化教育，助力青少年成长成才。馆校共建方面，安源纪念馆与新余学院、甘祖昌干部学院、沈阳化工大学、华东交大电气学院等学校签定共建协议；莲花一枝枪纪念馆和甘祖昌干部学院、刘仁堪小学等学校签订共建协议；甘祖昌故居、卢德铭烈士墓等革命旧址旧居成为地方党校的教学点。定期开展红色展览走进学校、社区、乡村、军区、企业的活动，为纪念毛泽东开创安源革命运动100周年，安源纪念馆筹办了“唤起工农千百万——毛泽东和安源展览”，以巡回展的方式走进萍乡萍钢安源钢铁有限公司、安源学校、安源煤矿、萍乡市工业学校，弘扬伟大的“安源精神”在中国共产党精神谱系中的影响力。', '一是积极组织参加中国红色旅游博览会。近年来，我局按照省文化和旅游厅工作要求，积极组织县区、文旅企业参加中国红色旅游博览会，以图片、视频、旅游商品展示等形式全方位展示萍乡红色文化旅游特色，吸引众多嘉宾、市民前来参观咨询、购买和网红来直播打卡，有效提升了我市红色旅游文化知名度。市文广新旅局接下来将进一步探索萍乡红色旅游特色，鼓励各县区开发更多具有本土特色的红色旅游商品，积极组织好每一届中国红色旅游博览会的参展工作，擦亮萍乡红色旅游品牌。二是打造经典红色旅游线路，串联发展红色旅游。目前根据萍乡市重点红色旅游景区分布及景区红色文化特色，我局串联打造了“萍乡市秋收起义红绿辉映精品线路”、“追寻‘青年毛泽东初心践行之路’（江西萍乡段）”等精品红色旅游路线，带领游客深度体验萍乡红色文化旅游，加深了众多游客对萍乡红色旅游的印象，市文广新旅局接下来也将积极指导各红色景区做好品质提升工作，完善景区交通、导览系统等基础设施建设，继续打磨红色旅游精品路线，积极指导景区配合开展好研学旅游工作。三是多方位加大宣传力度，融合发展红色旅游。积极推动安源旅游景区创建国家5A景区，开发一系列红色主题旅游商品，在2022中国红色旅游博览会、2023首届手礼展示周等大型活动上均获得一致好评，并以线上线下强强联合的方式，打造全媒体宣传矩阵，充分利用抖音、小红书、微博、B站等平台的强势流量，加强对萍乡红色旅游宣传推广力度，大大提高其曝光量，吸引更多游客前来打卡体验，形成良好的宣传推广循环，激发更大的产业活力。', '深入贯彻落实湘赣边区域合作示范区建设推进大会精神，实施“引客入萍”工程。一是2022年7月，萍乡党政代表团赴湖南学习考察，对接长株潭都市圈，深化赣湘旅游等合作交流，我市提出的旅游交流合作意见获得湖南方面积极响应。二是抢抓大中专院校毕业季、暑期黄金期，组织全市重点景区进入长沙高校、商圈、街区举行“萍湘一家亲”2022长沙文旅推介路演活动，吸引长沙游客来萍旅游达10万人次。三是发出湘赣边首届旅游形象大使招募令，邀请24个湘赣边县（市、区）文旅主管部门相关负责人出席活动，搭建湘赣边合作互动交流平台。四是在长沙举行的江西省“红土情˙嘉游赣”旅游推介活动中，我市在主会场和分会场分别作了专题推介，进行了旅游商品宣传营销展示。与长沙、株洲、湘潭签署了“美景互推、客源互送、干部互培、文旅互融”等为内容的四方合作框架协议，打通了长株潭萍文旅融合新通道。五是建立了江西湖南两省25家国家5A级旅游景区宣传推广联盟，江西秘书处设在萍乡武功山景区，牵头开展重点景区宣传推广工作。六是今年我市与长沙、株洲、湘潭、娄底、吉安、赣州、宜春、新余、九江、抚州等湘赣边十市文旅部门签订了《湘赣边十一市文化旅游区域合作框架协议》，持续推进湘赣边文旅合作。萍乡已然成为我省深化赣湘边文旅融合的“桥头堡”。', '下阶段，我局将认真履行职责，积极作为，继承和发扬安源精神，不断完善红色文化基础工作，推进红色文化旅游相融合，全力深化赣湘边文旅合作，把我市红色资源利用好，把红色传统发扬好，把红色文化传承好。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>120</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>萍乡市国土系统年部门预算公开</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2018-09-12</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2018%2F9%2F12%2Fart_104_135707.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E8%90%8D%E4%B9%A1%E5%B8%82%E5%9B%BD%E5%9C%9F%E7%B3%BB%E7%BB%9F2017%E5%B9%B4%E9%83%A8%E9%97%A8%E9%A2%84%E7%AE%97%E5%85%AC%E5%BC%80</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['四、《财政拨款收支总表》 五、《一般公共预算支出表》 六、《一般公共预算基本支出表》 七、《一般公共预算“三公”经费支出表》 八、《政府性基金预算支出表》 第四部分 名词解释 第一部分 萍乡市国土系统概况 一、部门主要职责 1．贯彻执行国家、省、市有关国土资源管理的法律、法规和政策，拟定全市有关土地资源、矿产资源管理规范性文件并组织实施；研究拟定全市管理、保护和合理利用土地、矿产等自然资源政策。 2．组织编制和实施全市国土规划、土地利用总体规划和其他专项规划；指导、审核县（区）、乡（镇）土地利用总体规划；参与报市以上人民政府审批的城市总体规划的审核；实施报省审批建设项目用地预审；组织矿产资源的调查评价，编制全市矿产资源总体规划、矿产资源保护和合理利用规划、地质环境和地质遗迹保护规划、地质勘查规划、地质灾害防治规划；组织编制和实施测绘事业发展规划和基础测绘计划。 3．监督检查全市各级国土资源主管部门行政执法和土地资源、矿产资源规划执行情况；组织实施国土资源执法监察，依法保护土地资源、矿产资源所有者和使用者的合法权益，承办并组织调处权属纠纷，依法查处违法案件。 4．拟定实施耕地保护和鼓励耕地开发、复垦政策；实施农用地用途管制，组织基本农田保护；指导未利用土地开发、土地整理、土地复垦；对耕地开发进行监督，实现耕地占补平衡，确保全市耕地面积总量不减少。 5．依法实施地籍、地政管理办法；组织土地资源调查、地籍调查、土地统计和动态监测；指导全市土地确权、城乡地籍、土地定级和登记发证等工作；指导全市基准地价调整修订工作，负责市城区基准地价调整修订和标定地价评测；审核评估机构从事土地评估的资格。 6．拟定并按规定组织实施国有土地使用权出让、租赁、转让、交易、作价出资和政府收购管理办法，统一管理国土资源资产和监督国土资源市场；组织实施国土资源资产的清查、核定和处置工作；制定乡（镇）、村用地管理实施办法，指导农村集体非农土地使用权的流转管理。 7．依法管理矿产资源探矿权、采矿权的审批、登记发证和转让审批登记，规范矿业权市场；协助管理地勘成果、矿产资源储量和地质资料汇编；实施地质矿产勘查行业管理，对地质勘查单位的资格进行初步审核；组织开展矿业秩序的整顿与维护；依法对从事探矿权、采矿权的评估机构资格实行监督管理，协助审核探矿权、采矿权评估结果；依法进行矿产资源保护与合理开发利用的监督管理；依法审批开办矿山企业矿产资源开发利用方案。 8．组织监测、防治地质灾害和保护地质遗迹；依法管理水文地质、工程地质、环境地质勘查和评价工作；监测、监督防止地下水过量开采与污染，保护地质环境；参与认定具有重要价值的古生物化石产地、标准地质剖面等地质遗迹保护区，并对地质遗迹的管理实施监督。 9．组织开展土地资源、矿产资源的对外合作交流和科技工作；组织实施国家、省、市国土资源法律、法规和政策的宣传；组织、指导全市国土资源系统干部业务培训。 10．负责全市的测绘行业管理，组织并管理基础测绘、行政区域界线测绘、地籍测绘和其他全市性或重大测绘项目，重大测绘科技项目，管理市本级土地利用基础地理信息数据，组织指导基础地理信息社会化服务；管理全市的国家测绘基准和测量控制系统，指导监督各类测绘成果的管理和测量标志的保护；依法初审测绘单位的等级资格，管理测绘任务登记；依法审查对外提供测绘成果和市外组织、个人来萍测绘的事项；依法管理本市地图编制工作。 11．承办市政府交办的其他事项。 二、部门基本情况 市国土系统共有预算单位14个，包括局机关和13个所属二级预算单位，定编257人；财政负担在职编内人员209人。下属5个独立核算行政单位：安源土局管理分局、湘东土局管理分局、安源地矿分局、湘东地矿分局、国土监察支队；下属7个独立核算全额事业单位：武功山土地管理分局、开发土地管理分局、土地开发整理中心、不动产登记中心、不动产权籍档案馆、土地收购储备中心、国土信息档案室；下属1个独立核算自收自支事业单位：国土资源市场管理所。 第二部分 萍乡市国土系统2017年部门预算情况说明一、2017年部门预算收支情况说明 （一）收入预算情况 2017年市国土资源系统收入预算总额为 5503.91 万元，较上年预算安排减少93.10万元，其中：财政拨款收入 2496.90万元，其他收入 1654.63万元，上年结转1185.03 万元，用事业基金弥补收支差额167.35万元。 （二）支出预算情况 2017年市国土系统支出预算总额为5503.91 万元，较上年预算安排减少93.10 万元。其中： 按支出项目类别划分：部门总支出5503.91万元，其中基本支出 5463.11万元，项目支出40.80万元，基本支出分为：一般公共服务支出24.02万元，社会保障和就业支出428.55万元，医疗卫生与计划生育支出204.21万元，城乡社区支出391.30万元，国土海洋气象等支出4152.16万元，住房保障支出262.87万元。 按支出功能科目划分：一般公共服务支出24.02 万元，社会保障与就业支出297.05 万元，医疗卫生与计划生育支出174.21 万元，国土海洋气象等支出1835.75万元，住房保障支出165.87 万元。 按支出经济分类划分：工资福利支出1951.93 万元，商品和服务支出377.69 万元，对个人和家庭补助支出167.28 万元。 （三）财政拨款支出情况 2017年市国土系统财政拨款支出预算2496.90 万元，较上年预算安排减少120.24 万元，具体支出情况是：一般公共服务支出24.02 万元，社会保障与就业支出297.05 万元，医疗卫生与计划生育支出174.21 万元，国土海洋气象等支出1835.75万元，住房保障支出165.87 万元。 政府性基金情况 2017年市国土系统没有使用政府性基金预算拨款安排的支出。 （四）机关运行经费等重要事项的说明 2017年部门机关运行费预算1313.58万元，比2016年预算减少236.29 万元，下降16 %，主要原因是公用经费减少。 （五）政府采购情况 2017年部门所属各单位政府采购总额 1056.34 万元，其中：政府采购货物预算484.20 万元、工程预算 132.00 万元，政府采购服务预算 440.14 万元。 （六）国有资产占有使用情况 截至2017年 2月28 日，部门共有车辆16辆，全部为一般公务用车。 2017年部门预算没有安排购置车辆，没有安排购置单位价值200万元以上大型设备。 （七）绩效目标设置情况 2017年实行绩效目标管理的项目 0 个（部门预算中200万元以上的，且进行了绩效评审的项目），涉及资金 0 万元。 二、2017年“三公”经费预算情况说明 2017年国土系统三公经费年初预算数411.20万元。其中： 因公出国（境）费年初预算10万元，比上年增加10万元，主要原因是上级临时安排单位职工出国出境学习考察。 公务接待费年初预算数191.70万元，比上年减少46.10万元，主要原因是公务接待减少。 公务用车运行维护费年预算数209.50万元，比上年减少80.20万元，主要原因是公车改革。 第三部分 萍乡市国土资源局2017年部门预算表 八张表（详见附表） 第四部分 名词解释 一、收入科目 （一）财政拨款：指市级财政当年拨付的资金。 （二）事业收入：指事业单位开展专业业务活动及辅助活动取得的收入。 （三）事业单位经营收入：指事业单位在专业业务活动及辅助活动之外开展非独立核算经营活动取得的收入。 （四）上年结转和结余：填列2016年全部结转和结余的资金数，包括当年结转结余资金和历年滚存结转结余资金。 二、支出科目 （一）行政运行：反映行政单位（包括参公单位）的基本支出。 （二）一般行政管理事务：反映行政单位（包括参公单位）未单独设置项级科目的其他项目支出。 （三）机关服务：反映为行政单位（包括参公单位）提供后勤服务的各类后勤服务中心的支出。 （四）事业运行：反映事业单位的基本支出。 （五）行政单位医疗：反映行政事业单位基本医疗保险缴费经费。 （六）事业单位医疗：反映财政部门集中安排的事业单位基本医疗保险缴费经费。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>120</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>武功山风景名胜区</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2021-09-18</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F9%2F18%2Fart_5530_1162568.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%AD%A6%E5%8A%9F%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%90%8D%E8%83%9C%E5%8C%BA%E8%80%83%E5%AF%9F%E5%9B%A2%E6%9D%A5%E6%88%91%E5%8C%BA%E8%80%83%E5%AF%9F%E4%BA%A4%E6%B5%81</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡市长者专区 武功山风景名胜区考察团来我区考察交流', '9月17日，武功山风景名胜区党委书记徐建中率考察团来我区考察交流，双方就打造全域旅游高地、红色基因传承、城乡融合发展等工作深入交流学习。区委书记李水清，区委常委、宣传部部长邬思海，区人大常委会党组成员、副主任提名人选袁萍，副区长提名人选刘洁兰、刘松陪同考察。', '在凯光新天地生态旅游区，向日葵等各种花卉遍布整个园区，凯凯光光之家、小火车、旋转木马等多项游乐设施，体验感强，惊险刺激。考察团认真聆听景区运营情况介绍，对安源区打造以凯光新天地旅游度假区为龙头的体验游表示高度赞赏，深切感受了以“精品景区+精致城区+精美郊区”联动发展的方式全力振兴景区的全域旅游新格局。', '在“把一切献给党”党性教育基地、总平巷、谈判大楼、安源纪念馆等地，考察团成员驻足在一幅幅珍贵的历史照片前瞻仰，在一尊尊栩栩如生的人物雕塑前凝视。对安源区在红色文化传承和保护、文旅产业融合发展等方面取得的成绩给予了高度评价。', '来到十里花溪，考察团一行边走边看，碧水蓝天、青山为伴，一幅优美的烟雨江南画卷扑入眼帘。考察团对安源区通过实施美丽乡村建设行动、抓好农村集体经营性建设用地入市、打造省级田园综合体等措施，促进城乡基础设施融合、产业融合，助推城乡融合的做法连连点赞。', '考察过程中，安源深厚的历史文化底蕴和近年来文化旅游产业的蓬勃发展给考察团留下了深刻的印象。考察团表示，安源区立足资源优势，大力发展全域旅游，创新举措加快推进全域旅游高质量发展，特别是在抓旅游项目上定位精准，设计科学，实现了文旅产业的可持续、高质量发展。', '李水清代表区委、区政府对武功山风景名胜区考察团前来安源考察表示欢迎，他说，此次交流学习，是两地友谊的升华，希望双方进一步建立紧密联系，加强各领域交流合作，在景区打造、红色基因传承、城乡融合发展等方面加强沟通、深化优势互补，促进两地共同繁荣发展。', '徐建中表示，此次到安源区考察交流，深受触动，所到之处让人印象深刻，希望以此次考察为契机，进一步增进两地学习交流，互通有无，携手并进。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>120</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>关于市人大第十五届五次会议第号建议的答复</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2020-09-01</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2020%2F9%2F1%2Fart_42_849661.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%85%B3%E4%BA%8E%E5%B8%82%E4%BA%BA%E5%A4%A7%E7%AC%AC%E5%8D%81%E4%BA%94%E5%B1%8A%E4%BA%94%E6%AC%A1%E4%BC%9A%E8%AE%AE%E7%AC%AC74%E5%8F%B7%E5%BB%BA%E8%AE%AE%E7%9A%84%E7%AD%94%E5%A4%8D</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['您提出《关于进一步发展壮大村级集体经济的建议》收悉，感谢您对我市发展壮大村级集体经济工作的关心，我局对您的建议很重视，会同市委组织部认真调查研究。现将我局提案办理情况答复如下：', '农村集体产权制度改革工作，是发展壮大村级集体经济的基础，明晰产权归属，建立健全农村集体经济组织，是有力推进村级经济发展的保障。目前我市农村集体产权制度改革工作正在有序的推进，已全面完成了清产核资工作，通过清查，全市农村集体资产基本情况：资产总额核实数为53.19亿元，经营性资产存量益核实数为10.21亿元。成员身份确认已全面完成，全市农村集体产权制度改革成员身份确认工作已全部完成，共计确认成员身份149.77万人，其中：安源区11.8018人，湘东区36.03万人，芦溪县24.78万人，上栗县46.93万人，莲花县23.57万人，开发区4.35万人，武功山2.3万人。折股量化工作也已完成，全市截止到7月底，652个集体经济组织已全部完成了折股量化工作，共计量化资产17.24亿元，成立了股东大会、董事会、监事会，并制定组织章程，有173个村级集体经济组织完成了赋码登记。全市农村集体产权制度改革工作将在10月底前全面完成。', '一是选优配强带头人。注重从致富能人中培养、选配村党组织书记，严格落实村党组织书记县级党委组织部门备案管理制度，建立“一人一档”，将工作重心由备案转向日常管理。加大教育培训力度，全力推进村党组织书记、村民委员会主任“一肩挑”和村“两委”成员“交叉任职”。对“无人可选、有人难选”问题突出的村，从县乡机关事业单位选派干部到村担任书记（主任）。截至目前，全市641个村均按照至少储备2名村级后备力量、有村党组织书记后备人选的要求，配备村级后备力量2894人，其中村党组织书记后备人选676人，村党组织书记兼任村民委员会主任“一肩挑”420人，占比65.52%，村“两委”成员交叉任职村数比例达到100%。全市选派县乡机关事业干部到村（社区）担任村（社区）党组织书记共74人，其中21人为村（社区)党组织书记、村(居）委会主任“一肩挑”。从村党组织书记队伍中选配致富能人223人，选派驻村第一书记635人。', '二是常态化软弱涣散基层党组织整顿工作。持续加大软弱涣散基层党组织排查整顿力度，抓实抓牢抓细排查整顿工作。截至目前，通过集中排查整顿软弱涣散村、社区党组织工作，全市7个县区共排查出软弱涣散村党组织41个，并按照“一村一策”的要求制定整顿方案。', '三是从严把好村“两委”干部资格条件审查关。全面落实村党组织书记县级党委组织部门备案管理制度、村“两委”成员县级联审常态化工作机制，坚决将受过刑事处罚、存在“村霸”和涉黑涉恶问题的村“两委”成员清理出去，严把村“两委”干部队伍入口关，扎实开展不符合条件村“两委”成员清理补齐工作。截至目前，全市共排查清理不符合条件的村“两委”成员59人，补齐配强59人，牢固树立了农村基层政权风清气正选人用人导向。', '根据区位特点、资源条件、经济基础等实际情况，将641个行政村划分为城市郊区村、园区周边村、特色农业村、偏远山区村、红色名村等类型，并根据不同类型行政村，按照“可用财力留成、盘活资产分利、资源开发增收、特色产业带动、旅游开发获益、异地置业兜底”6条发展路径，探索符合本地实际、定位比较准确的发展壮大村级集体经济新路子。在特色产业带动方面，坚持市县乡村“四级联动”，打破地域限制，采取镇村联合、村村联合、村企联合等方式抱团发展，大力发展农业产业、光伏发电等经济实体和合作社，将“山、林、水、湖、田”等资源打包入股企业获取分红。在异地置业兜底方面，对“靠山没山、靠水没水”的偏远村、经济薄弱村，重点采取异地置业发展物业经济，改变以往各村集体“单打独斗”的局面，将各部门分散的资金整合起来，实现经济效益最大化。在盘活资产分利方面，对村集体所属资产资源进行全面清查，摸清总量，明晰产权，分类盘活经营，引导村集体对闲置、低效使用的土地及物业资产进行“腾笼换鸟”，采取资产发包、租赁经营、折资入股或自主开发等方式盘活。全市共有305个村通过清查盘活闲置资产，累计村级集体经济收入达4704.08万元。', '将“三化”建设作为今年基层党建“一号工程”来抓，制定印发《关于进一步推进全市基层党建“三化”建设的实施方案》（萍办字〔2020〕10号），全面启动全市各领域“三化”建设。组织各县区委组织部和市直相关单位人员赴赣州市、抚州市学习考察基层党建“三化”建设经验做法。在湘东区召开全市基层党建“三化”建设现场推进会，进一步明确目标，强化举措，全面推进全市各领域“三化”建设。组建全市基层党建“三化”建设工作专班，建立定期调度和实地督查、通报工作机制，今年7月份以来，先后8次到27个村、社区进行实地督查，推进“三化”建设工作进度。在全市选取38个“红色名村”作为基层党建“三化”建设示范点进行重点打造，以点带面，让基层学有榜样、干有目标，着力解决场所“闲、散、乱、脏”，基层组织“不按规定办事、服务群众不到位”等问题。印发《萍乡市村（社区）基层党建“三化”建设操作手册》，细化农村、社区基层党建工作目标、任务和要求。同时在全市打造98个农村基层党建“三化”建设示范点，让基层学有榜样、干有目标，着力解决基层组织服务群众能力不强、不规范、不到位等问题。', '一是组织召开推进会。拟于8月下旬组织召开全市推动发展壮大村级集体经济现场会，摸清全市村级集体经济发展家底，总结推广先进经验，研究部署工作任务，创新探索新的发展模式和机制，建立风险防范体系。确保全市641个行政村经营性收入今年年底全部达到5万元以上，2021年争取达到10万元以上。', '二是健全工作机制。在市实施乡村振兴工作领导小组加挂市发展壮大村级集体经济工作领导小组。明确由市委组织部牵头，组建工作专班，建立定期联席会议制度，统筹协调推进发展壮大村级集体经济工作。市农业农村局、市民政局、市财政局等部门各负其责，抓好业务工作。', '三是建立村干部绩酬奖励制度。指导各县区建立健全村级集体经济发展成效与村干部报酬挂钩制度，将一定比例的经营性收入增量部分作为村干部的奖励资金，激发村干部发展村级集体经济的积极性。', '四是优化提升村党组织书记队伍。加大人才培养力度，注重从外出务工经商人员、本乡本土走出去的高校毕业生中引，从大学生村官、复员退伍军人、村医村教中选，不拘一格地把政治可靠、懂经营、善管理的高素质能人选出来、用起来。年底前全面实现村党组织书记、村委会主任“一肩挑”。', '五是压紧压实工作责任。把发展壮大村级集体经济工作，纳入县区党委政府主要负责人和领导班子综合考核评价的重要内容，纳入党委（党组）书记抓基层党建述职评议考核的重要内容。加强对各县区发展壮大村级集体经济工作的调度和指导督促，对未完成村级集体经济发展年度目标任务的县区、乡镇，取消党委书记党建工作评优资格。未完成村级集体经济年度任务的村党组织书记和村委会主任，不推荐参加“三方面”人员考试；驻村第一书记和工作队员年度考核不予评优。', '最后，再次感谢您对我发展壮大村级集体经济提出的宝贵意见，希望在今后工作中能继续得到您更多的宝贵意见和建议。真诚欢迎您来我局督促检查工作!']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>120</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>民革萍乡市委会年部门决算公开</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2021-07-29</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2021%2F7%2F29%2Fart_54_1048524.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E6%B0%91%E9%9D%A9%E8%90%8D%E4%B9%A1%E5%B8%82%E5%A7%94%E4%BC%9A2018%E5%B9%B4%E9%83%A8%E9%97%A8%E5%86%B3%E7%AE%97%E5%85%AC%E5%BC%80</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['其他文化体育与传媒支出年初预算数为0万元，决算数为10万元(市财政拨付京剧票友赴北京演出费用)；', '（一）因公出国（境）支出年初预算数为0万元，决算数为0万元，决算数较2017年减少0万元。决算数较年初预算数减少的主要原因是：今年没有安排人员出国学习考察。', '本部门2018年度政府采购支出总额0万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出0万元。授予中小企业合同金额0万元，占政府采购支出总额的0%。', '截止2018年12月31日，本部门共有车辆0辆，其中，副部（省）级及以上领导用车0辆、主要领导干部用车0辆、机要通信用车0辆、应急保障用车0辆、执法执勤用车0辆、特种专业技术用车0辆、其他用车0辆；单位价值50万元以上通用设备0台（套）；单位价值100万元以上专用设备0台（套）。', '（4）各项收入和支出纳入预算统一管理，统筹安排使用。单位编制的支出预算，优先保证本部门履行基本职能所需要的人员经费和公用经费，对其他弹性支出严格控制。', '（5）建立、健全各项支出的管理制度。各项支出要按照批准的预算和规定的开支范围、标准执行。', '（8）使用财政性资金，采购政府集中采购目录以内的或者采购限额标准以上的货物及服务，实行政府采购;采购政府集中采购目录以内并达到公开招标限额标准的货物、工程或者服务，采取公开招标方式进行采购。', '2018年度部门支出整体绩效指标基本完成，如部门预算编制，部门预算管理，部门预算执行中的部门预算完成率、公用经费控制率等指标100%达标，部门履职效果优良。', '名词解释应以财务会计制度、政府收支分类科目以及部门预算管理等规定为基本说明，可在此基础上结合部门实际情况适当细化。“三公”经费支出和机关运行经费支出口径必需予以说明。', '（四）“三公经费”：反映财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过桥过路费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（五）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>120</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>市人大常委会党组扩大会议召开传达</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2023-10-21</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>https://www.pingxiang.gov.cn/jsearchfront/visit/link.do?url=http%3A%2F%2Fwww.pingxiang.gov.cn%2Fart%2F2023%2F10%2F21%2Fart_16_1270113.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;websiteid=360300000000000&amp;title=%E5%B8%82%E4%BA%BA%E5%A4%A7%E5%B8%B8%E5%A7%94%E4%BC%9A%E5%85%9A%E7%BB%84%EF%BC%88%E6%89%A9%E5%A4%A7%EF%BC%89%E4%BC%9A%E8%AE%AE%E5%8F%AC%E5%BC%80%20%E4%BC%A0%E8%BE%BE%E5%AD%A6%E4%B9%A0%E4%B9%A0%E8%BF%91%E5%B9%B3%E6%80%BB%E4%B9%A6%E8%AE%B0%E8%80%83%E5%AF%9F%E6%B1%9F%E8%A5%BF%E9%87%8D%E8%A6%81%E8%AE%B2%E8%AF%9D%E7%B2%BE%E7%A5%9E</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['萍乡市人民政府 萍乡要闻 市人大常委会党组（扩大）会议召开 传达学习习近平总书记考察江西重要讲话精神', '10月20日，市人大常委会党组召开扩大会议，传达学习习近平总书记在江西考察和听取省委省政府工作汇报、主持召开进一步推动长江经济带高质量发展座谈会时的重要讲话重要指示精神，以及全省、全市领导干部会议精神，研究贯彻落实意见。市人大常委会党组书记、主任吴运波主持会议并讲话。市人大常委会党组成员、副主任王仁华、黎春源、刘占纯、康峰、林祖华，党组成员、秘书长文卫萍出席会议。', '会议指出，在深入贯彻落实党的二十大精神、全面建设社会主义现代化国家的开局之年，在深入开展主题教育的关键时刻，习近平总书记再次亲临江西考察调研，既充分肯定了江西各项工作取得的成绩，又从努力构建现代化产业体系等方面提出了“走在前、勇争先、善作为”的目标要求，与总书记之前对江西工作提出的重要要求一脉相承、一以贯之，又前后贯通、与时俱进，是习近平新时代中国特色社会主义思想“江西篇”的丰富发展，是我们做好一切工作必须长期坚持的根本遵循和行动指南。', '会议强调，全市人大系统要把学习宣传贯彻习近平总书记考察江西重要讲话精神，作为当前和今后一个时期的首要政治任务和头等大事，迅速兴起学习宣传贯彻热潮。要高站位领悟重大意义，从坚定拥护“两个确立”、坚决做到“两个维护”的政治高度，深刻体会总书记的关怀之切、谋虑之远、期望之重，准确把握习近平总书记考察江西重要讲话精神的丰富内涵、核心要义和实践要求，坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂。要高质量完成年度任务，统筹好主题教育各项安排、完成好年度工作计划、落实好市委交办的各项任务，确保习近平总书记重要讲话精神在萍乡人大落地生根、见行见效。要高标准谋划明年工作，坚持与党委一个调、与大局一盘棋、与人民一条心，紧紧围绕市委十三届五次全会提出的强化“六个聚力”、八项重点工作，安排部署新一年立法、监督、代表等工作，以良法保善治，以监督助发展，以代表聚合力，履职尽责、真抓实干，以新时代人大“第一等工作”，助力谱写中国式现代化萍乡篇章。']</t>
         </is>
